--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H48" sqref="H2:H48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -407,7 +407,7 @@
         <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",D2,")",G2,"),")</f>
+        <f t="shared" ref="H2:H48" si="1">CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",D2,")",G2,"),")</f>
         <v>(ID:=1,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
       </c>
     </row>
@@ -419,11 +419,11 @@
         <v>302</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C48" si="1">CONCATENATE("HMI1.Flow_",B3)</f>
+        <f t="shared" ref="C3:C48" si="2">CONCATENATE("HMI1.Flow_",B3)</f>
         <v>HMI1.Flow_302</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D48" si="2">CONCATENATE("HMI1.CB",B3,"_Closed")</f>
+        <f t="shared" ref="D3:D48" si="3">CONCATENATE("HMI1.CB",B3,"_Closed")</f>
         <v>HMI1.CB302_Closed</v>
       </c>
       <c r="E3" t="str">
@@ -431,15 +431,15 @@
         <v>HMI1.CB302_Cmd</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F48" si="3">CONCATENATE("CB", B3, "_MODBUS")</f>
+        <f t="shared" ref="F3:F48" si="4">CONCATENATE("CB", B3, "_MODBUS")</f>
         <v>CB302_MODBUS</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G48" si="4">IF(E3="","",CONCATENATE(",IOCCmd:=ADR(",E3,"),MBCmd:=ADR(",F3,".CMD),MBRst:=ADR(",F3,".RST)"))</f>
+        <f t="shared" ref="G3:G48" si="5">IF(E3="","",CONCATENATE(",IOCCmd:=ADR(",E3,"),MBCmd:=ADR(",F3,".CMD),MBRst:=ADR(",F3,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE("(ID:=",A3,",CBID:=",B3,",Flow:=ADR(HMI1.Flow_",B3,"),Status:=ADR(",D3,")",G3,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=2,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
       </c>
     </row>
@@ -451,11 +451,11 @@
         <v>303</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_303</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB303_Closed</v>
       </c>
       <c r="E4" t="str">
@@ -463,15 +463,15 @@
         <v>HMI1.CB303_Cmd</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB303_MODBUS</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("(ID:=",A4,",CBID:=",B4,",Flow:=ADR(HMI1.Flow_",B4,"),Status:=ADR(",D4,")",G4,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=3,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
       </c>
     </row>
@@ -483,11 +483,11 @@
         <v>304</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_304</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB304_Closed</v>
       </c>
       <c r="E5" t="str">
@@ -495,15 +495,15 @@
         <v>HMI1.CB304_Cmd</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB304_MODBUS</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("(ID:=",A5,",CBID:=",B5,",Flow:=ADR(HMI1.Flow_",B5,"),Status:=ADR(",D5,")",G5,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=4,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
       </c>
     </row>
@@ -515,11 +515,11 @@
         <v>305</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_305</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB305_Closed</v>
       </c>
       <c r="E6" t="str">
@@ -527,15 +527,15 @@
         <v>HMI1.CB305_Cmd</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB305_MODBUS</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE("(ID:=",A6,",CBID:=",B6,",Flow:=ADR(HMI1.Flow_",B6,"),Status:=ADR(",D6,")",G6,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=5,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
       </c>
     </row>
@@ -547,23 +547,23 @@
         <v>306</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_306</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB306_Closed</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB306_MODBUS</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE("(ID:=",A7,",CBID:=",B7,",Flow:=ADR(HMI1.Flow_",B7,"),Status:=ADR(",D7,")",G7,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=6,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed)),</v>
       </c>
     </row>
@@ -575,23 +575,23 @@
         <v>307</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_307</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB307_Closed</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB307_MODBUS</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE("(ID:=",A8,",CBID:=",B8,",Flow:=ADR(HMI1.Flow_",B8,"),Status:=ADR(",D8,")",G8,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=7,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed)),</v>
       </c>
     </row>
@@ -603,23 +603,23 @@
         <v>308</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_308</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB308_Closed</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB308_MODBUS</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE("(ID:=",A9,",CBID:=",B9,",Flow:=ADR(HMI1.Flow_",B9,"),Status:=ADR(",D9,")",G9,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=8,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed)),</v>
       </c>
     </row>
@@ -631,23 +631,23 @@
         <v>309</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_309</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB309_Closed</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB309_MODBUS</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE("(ID:=",A10,",CBID:=",B10,",Flow:=ADR(HMI1.Flow_",B10,"),Status:=ADR(",D10,")",G10,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=9,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed)),</v>
       </c>
     </row>
@@ -659,11 +659,11 @@
         <v>201</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_201</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB201_Closed</v>
       </c>
       <c r="E11" t="str">
@@ -671,15 +671,15 @@
         <v>HMI1.CB201_Cmd</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB201_MODBUS</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("(ID:=",A11,",CBID:=",B11,",Flow:=ADR(HMI1.Flow_",B11,"),Status:=ADR(",D11,")",G11,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=10,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
       </c>
     </row>
@@ -691,11 +691,11 @@
         <v>202</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_202</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB202_Closed</v>
       </c>
       <c r="E12" t="str">
@@ -703,15 +703,15 @@
         <v>HMI1.CB202_Cmd</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB202_MODBUS</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE("(ID:=",A12,",CBID:=",B12,",Flow:=ADR(HMI1.Flow_",B12,"),Status:=ADR(",D12,")",G12,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=11,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
       </c>
     </row>
@@ -723,11 +723,11 @@
         <v>203</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_203</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB203_Closed</v>
       </c>
       <c r="E13" t="str">
@@ -735,15 +735,15 @@
         <v>HMI1.CB203_Cmd</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB203_MODBUS</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE("(ID:=",A13,",CBID:=",B13,",Flow:=ADR(HMI1.Flow_",B13,"),Status:=ADR(",D13,")",G13,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=12,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
       </c>
     </row>
@@ -755,23 +755,23 @@
         <v>204</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_204</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB204_Closed</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB204_MODBUS</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE("(ID:=",A14,",CBID:=",B14,",Flow:=ADR(HMI1.Flow_",B14,"),Status:=ADR(",D14,")",G14,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=13,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed)),</v>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>205</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_205</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB205_Closed</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB205_MODBUS</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE("(ID:=",A15,",CBID:=",B15,",Flow:=ADR(HMI1.Flow_",B15,"),Status:=ADR(",D15,")",G15,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=14,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed)),</v>
       </c>
     </row>
@@ -811,23 +811,23 @@
         <v>206</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_206</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB206_Closed</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB206_MODBUS</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE("(ID:=",A16,",CBID:=",B16,",Flow:=ADR(HMI1.Flow_",B16,"),Status:=ADR(",D16,")",G16,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=15,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed)),</v>
       </c>
     </row>
@@ -839,23 +839,23 @@
         <v>207</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_207</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB207_Closed</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB207_MODBUS</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE("(ID:=",A17,",CBID:=",B17,",Flow:=ADR(HMI1.Flow_",B17,"),Status:=ADR(",D17,")",G17,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=16,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed)),</v>
       </c>
     </row>
@@ -867,23 +867,23 @@
         <v>208</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_208</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB208_Closed</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB208_MODBUS</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE("(ID:=",A18,",CBID:=",B18,",Flow:=ADR(HMI1.Flow_",B18,"),Status:=ADR(",D18,")",G18,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=17,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed)),</v>
       </c>
     </row>
@@ -895,23 +895,23 @@
         <v>209</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_209</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB209_Closed</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB209_MODBUS</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE("(ID:=",A19,",CBID:=",B19,",Flow:=ADR(HMI1.Flow_",B19,"),Status:=ADR(",D19,")",G19,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=18,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed)),</v>
       </c>
     </row>
@@ -923,23 +923,23 @@
         <v>210</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_210</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB210_Closed</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB210_MODBUS</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE("(ID:=",A20,",CBID:=",B20,",Flow:=ADR(HMI1.Flow_",B20,"),Status:=ADR(",D20,")",G20,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=19,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed)),</v>
       </c>
     </row>
@@ -951,23 +951,23 @@
         <v>211</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_211</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB211_Closed</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB211_MODBUS</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE("(ID:=",A21,",CBID:=",B21,",Flow:=ADR(HMI1.Flow_",B21,"),Status:=ADR(",D21,")",G21,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=20,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed)),</v>
       </c>
     </row>
@@ -979,23 +979,23 @@
         <v>212</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_212</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB212_Closed</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB212_MODBUS</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE("(ID:=",A22,",CBID:=",B22,",Flow:=ADR(HMI1.Flow_",B22,"),Status:=ADR(",D22,")",G22,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=21,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed)),</v>
       </c>
     </row>
@@ -1007,11 +1007,11 @@
         <v>213</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_213</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB213_Closed</v>
       </c>
       <c r="E23" t="str">
@@ -1019,15 +1019,15 @@
         <v>HMI1.CB213_Cmd</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB213_MODBUS</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE("(ID:=",A23,",CBID:=",B23,",Flow:=ADR(HMI1.Flow_",B23,"),Status:=ADR(",D23,")",G23,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=22,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1039,23 +1039,23 @@
         <v>214</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_214</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB214_Closed</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB214_MODBUS</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("(ID:=",A24,",CBID:=",B24,",Flow:=ADR(HMI1.Flow_",B24,"),Status:=ADR(",D24,")",G24,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=23,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed)),</v>
       </c>
     </row>
@@ -1067,23 +1067,23 @@
         <v>215</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_215</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB215_Closed</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB215_MODBUS</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE("(ID:=",A25,",CBID:=",B25,",Flow:=ADR(HMI1.Flow_",B25,"),Status:=ADR(",D25,")",G25,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=24,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed)),</v>
       </c>
     </row>
@@ -1095,11 +1095,11 @@
         <v>216</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_216</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB216_Closed</v>
       </c>
       <c r="E26" t="str">
@@ -1107,15 +1107,15 @@
         <v>HMI1.CB216_Cmd</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB216_MODBUS</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE("(ID:=",A26,",CBID:=",B26,",Flow:=ADR(HMI1.Flow_",B26,"),Status:=ADR(",D26,")",G26,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=25,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1127,11 +1127,11 @@
         <v>217</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_217</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB217_Closed</v>
       </c>
       <c r="E27" t="str">
@@ -1139,15 +1139,15 @@
         <v>HMI1.CB217_Cmd</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB217_MODBUS</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE("(ID:=",A27,",CBID:=",B27,",Flow:=ADR(HMI1.Flow_",B27,"),Status:=ADR(",D27,")",G27,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=26,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1159,23 +1159,23 @@
         <v>218</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_218</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB218_Closed</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB218_MODBUS</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE("(ID:=",A28,",CBID:=",B28,",Flow:=ADR(HMI1.Flow_",B28,"),Status:=ADR(",D28,")",G28,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=27,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed)),</v>
       </c>
     </row>
@@ -1187,23 +1187,23 @@
         <v>219</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_219</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB219_Closed</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB219_MODBUS</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE("(ID:=",A29,",CBID:=",B29,",Flow:=ADR(HMI1.Flow_",B29,"),Status:=ADR(",D29,")",G29,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=28,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed)),</v>
       </c>
     </row>
@@ -1215,11 +1215,11 @@
         <v>101</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_101</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB101_Closed</v>
       </c>
       <c r="E30" t="str">
@@ -1227,15 +1227,15 @@
         <v>HMI1.CB101_Cmd</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB101_MODBUS</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE("(ID:=",A30,",CBID:=",B30,",Flow:=ADR(HMI1.Flow_",B30,"),Status:=ADR(",D30,")",G30,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=29,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1247,11 +1247,11 @@
         <v>102</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_102</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB102_Closed</v>
       </c>
       <c r="E31" t="str">
@@ -1259,15 +1259,15 @@
         <v>HMI1.CB102_Cmd</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB102_MODBUS</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE("(ID:=",A31,",CBID:=",B31,",Flow:=ADR(HMI1.Flow_",B31,"),Status:=ADR(",D31,")",G31,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=30,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1279,11 +1279,11 @@
         <v>103</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_103</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB103_Closed</v>
       </c>
       <c r="E32" t="str">
@@ -1291,15 +1291,15 @@
         <v>HMI1.CB103_Cmd</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB103_MODBUS</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE("(ID:=",A32,",CBID:=",B32,",Flow:=ADR(HMI1.Flow_",B32,"),Status:=ADR(",D32,")",G32,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=31,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1311,23 +1311,23 @@
         <v>104</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_104</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB104_Closed</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB104_MODBUS</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE("(ID:=",A33,",CBID:=",B33,",Flow:=ADR(HMI1.Flow_",B33,"),Status:=ADR(",D33,")",G33,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=32,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed)),</v>
       </c>
     </row>
@@ -1339,23 +1339,23 @@
         <v>105</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_105</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB105_Closed</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB105_MODBUS</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE("(ID:=",A34,",CBID:=",B34,",Flow:=ADR(HMI1.Flow_",B34,"),Status:=ADR(",D34,")",G34,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=33,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed)),</v>
       </c>
     </row>
@@ -1367,23 +1367,23 @@
         <v>106</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_106</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB106_Closed</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB106_MODBUS</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE("(ID:=",A35,",CBID:=",B35,",Flow:=ADR(HMI1.Flow_",B35,"),Status:=ADR(",D35,")",G35,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=34,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed)),</v>
       </c>
     </row>
@@ -1395,23 +1395,23 @@
         <v>107</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_107</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB107_Closed</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB107_MODBUS</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE("(ID:=",A36,",CBID:=",B36,",Flow:=ADR(HMI1.Flow_",B36,"),Status:=ADR(",D36,")",G36,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=35,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed)),</v>
       </c>
     </row>
@@ -1423,11 +1423,11 @@
         <v>108</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_108</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB108_Closed</v>
       </c>
       <c r="E37" t="str">
@@ -1435,15 +1435,15 @@
         <v>HMI1.CB108_Cmd</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB108_MODBUS</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE("(ID:=",A37,",CBID:=",B37,",Flow:=ADR(HMI1.Flow_",B37,"),Status:=ADR(",D37,")",G37,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=36,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1455,11 +1455,11 @@
         <v>109</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_109</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB109_Closed</v>
       </c>
       <c r="E38" t="str">
@@ -1467,15 +1467,15 @@
         <v>HMI1.CB109_Cmd</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB109_MODBUS</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE("(ID:=",A38,",CBID:=",B38,",Flow:=ADR(HMI1.Flow_",B38,"),Status:=ADR(",D38,")",G38,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=37,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1487,23 +1487,23 @@
         <v>110</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_110</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB110_Closed</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB110_MODBUS</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE("(ID:=",A39,",CBID:=",B39,",Flow:=ADR(HMI1.Flow_",B39,"),Status:=ADR(",D39,")",G39,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=38,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed)),</v>
       </c>
     </row>
@@ -1515,11 +1515,11 @@
         <v>111</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_111</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB111_Closed</v>
       </c>
       <c r="E40" t="str">
@@ -1527,15 +1527,15 @@
         <v>HMI1.CB111_Cmd</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB111_MODBUS</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE("(ID:=",A40,",CBID:=",B40,",Flow:=ADR(HMI1.Flow_",B40,"),Status:=ADR(",D40,")",G40,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=39,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1547,23 +1547,23 @@
         <v>112</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_112</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB112_Closed</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB112_MODBUS</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE("(ID:=",A41,",CBID:=",B41,",Flow:=ADR(HMI1.Flow_",B41,"),Status:=ADR(",D41,")",G41,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=40,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed)),</v>
       </c>
     </row>
@@ -1575,11 +1575,11 @@
         <v>113</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_113</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB113_Closed</v>
       </c>
       <c r="E42" t="str">
@@ -1587,15 +1587,15 @@
         <v>HMI1.CB113_Cmd</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB113_MODBUS</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE("(ID:=",A42,",CBID:=",B42,",Flow:=ADR(HMI1.Flow_",B42,"),Status:=ADR(",D42,")",G42,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=41,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1607,23 +1607,23 @@
         <v>114</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_114</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB114_Closed</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB114_MODBUS</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE("(ID:=",A43,",CBID:=",B43,",Flow:=ADR(HMI1.Flow_",B43,"),Status:=ADR(",D43,")",G43,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=42,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed)),</v>
       </c>
     </row>
@@ -1635,23 +1635,23 @@
         <v>300</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_300</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB300_Closed</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB300_MODBUS</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE("(ID:=",A44,",CBID:=",B44,",Flow:=ADR(HMI1.Flow_",B44,"),Status:=ADR(",D44,")",G44,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=43,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed)),</v>
       </c>
     </row>
@@ -1663,23 +1663,23 @@
         <v>200</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_200</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB200_Closed</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB200_MODBUS</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE("(ID:=",A45,",CBID:=",B45,",Flow:=ADR(HMI1.Flow_",B45,"),Status:=ADR(",D45,")",G45,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=44,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed)),</v>
       </c>
     </row>
@@ -1691,23 +1691,23 @@
         <v>100</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_100</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB100_Closed</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB100_MODBUS</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE("(ID:=",A46,",CBID:=",B46,",Flow:=ADR(HMI1.Flow_",B46,"),Status:=ADR(",D46,")",G46,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=45,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed)),</v>
       </c>
     </row>
@@ -1719,23 +1719,23 @@
         <v>351</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_351</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB351_Closed</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB351_MODBUS</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE("(ID:=",A47,",CBID:=",B47,",Flow:=ADR(HMI1.Flow_",B47,"),Status:=ADR(",D47,")",G47,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=46,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed)),</v>
       </c>
     </row>
@@ -1747,24 +1747,388 @@
         <v>151</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>HMI1.Flow_151</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HMI1.CB151_Closed</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CB151_MODBUS</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE("(ID:=",A48,",CBID:=",B48,",Flow:=ADR(HMI1.Flow_",B48,"),Status:=ADR(",D48,")",G48,"),")</f>
+        <f t="shared" si="1"/>
         <v>(ID:=47,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed)),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>401</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" ref="C49:C55" si="6">CONCATENATE("HMI1.Flow_",B49)</f>
+        <v>HMI1.Flow_401</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:D55" si="7">CONCATENATE("HMI1.CB",B49,"_Closed")</f>
+        <v>HMI1.CB401_Closed</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ref="F49:F55" si="8">CONCATENATE("CB", B49, "_MODBUS")</f>
+        <v>CB401_MODBUS</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ref="G49:G55" si="9">IF(E49="","",CONCATENATE(",IOCCmd:=ADR(",E49,"),MBCmd:=ADR(",F49,".CMD),MBRst:=ADR(",F49,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" ref="H49:H55" si="10">CONCATENATE("(ID:=",A49,",CBID:=",B49,",Flow:=ADR(HMI1.Flow_",B49,"),Status:=ADR(",D49,")",G49,"),")</f>
+        <v>(ID:=48,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed)),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>402</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.Flow_402</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="7"/>
+        <v>HMI1.CB402_Closed</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="8"/>
+        <v>CB402_MODBUS</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="10"/>
+        <v>(ID:=49,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed)),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>403</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.Flow_403</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="7"/>
+        <v>HMI1.CB403_Closed</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="8"/>
+        <v>CB403_MODBUS</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="10"/>
+        <v>(ID:=50,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed)),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>404</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.Flow_404</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="7"/>
+        <v>HMI1.CB404_Closed</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="8"/>
+        <v>CB404_MODBUS</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="10"/>
+        <v>(ID:=51,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed)),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>405</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.Flow_405</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="7"/>
+        <v>HMI1.CB405_Closed</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="8"/>
+        <v>CB405_MODBUS</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="10"/>
+        <v>(ID:=52,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed)),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>406</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.Flow_406</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="7"/>
+        <v>HMI1.CB406_Closed</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="8"/>
+        <v>CB406_MODBUS</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="10"/>
+        <v>(ID:=53,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed)),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>407</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.Flow_407</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="7"/>
+        <v>HMI1.CB407_Closed</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="8"/>
+        <v>CB407_MODBUS</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="10"/>
+        <v>(ID:=54,CBID:=407,Flow:=ADR(HMI1.Flow_407),Status:=ADR(HMI1.CB407_Closed)),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>408</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" ref="C56:C61" si="11">CONCATENATE("HMI1.Flow_",B56)</f>
+        <v>HMI1.Flow_408</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" ref="D56:D61" si="12">CONCATENATE("HMI1.CB",B56,"_Closed")</f>
+        <v>HMI1.CB408_Closed</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" ref="F56:F61" si="13">CONCATENATE("CB", B56, "_MODBUS")</f>
+        <v>CB408_MODBUS</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" ref="G56:G61" si="14">IF(E56="","",CONCATENATE(",IOCCmd:=ADR(",E56,"),MBCmd:=ADR(",F56,".CMD),MBRst:=ADR(",F56,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" ref="H56:H61" si="15">CONCATENATE("(ID:=",A56,",CBID:=",B56,",Flow:=ADR(HMI1.Flow_",B56,"),Status:=ADR(",D56,")",G56,"),")</f>
+        <v>(ID:=55,CBID:=408,Flow:=ADR(HMI1.Flow_408),Status:=ADR(HMI1.CB408_Closed)),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>409</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.Flow_409</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="12"/>
+        <v>HMI1.CB409_Closed</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="13"/>
+        <v>CB409_MODBUS</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="15"/>
+        <v>(ID:=56,CBID:=409,Flow:=ADR(HMI1.Flow_409),Status:=ADR(HMI1.CB409_Closed)),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>410</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.Flow_410</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="12"/>
+        <v>HMI1.CB410_Closed</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="13"/>
+        <v>CB410_MODBUS</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="15"/>
+        <v>(ID:=57,CBID:=410,Flow:=ADR(HMI1.Flow_410),Status:=ADR(HMI1.CB410_Closed)),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>411</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.Flow_411</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="12"/>
+        <v>HMI1.CB411_Closed</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="13"/>
+        <v>CB411_MODBUS</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="15"/>
+        <v>(ID:=58,CBID:=411,Flow:=ADR(HMI1.Flow_411),Status:=ADR(HMI1.CB411_Closed)),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>412</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.Flow_412</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="12"/>
+        <v>HMI1.CB412_Closed</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="13"/>
+        <v>CB412_MODBUS</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="15"/>
+        <v>(ID:=59,CBID:=412,Flow:=ADR(HMI1.Flow_412),Status:=ADR(HMI1.CB412_Closed)),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>413</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.Flow_413</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="12"/>
+        <v>HMI1.CB413_Closed</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="13"/>
+        <v>CB413_MODBUS</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="15"/>
+        <v>(ID:=60,CBID:=413,Flow:=ADR(HMI1.Flow_413),Status:=ADR(HMI1.CB413_Closed)),</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -16,12 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Structure initialisation string</t>
   </si>
   <si>
     <t>IO input</t>
+  </si>
+  <si>
+    <t>CB number</t>
+  </si>
+  <si>
+    <t>Bus no 
+(line side)</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -57,8 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,1779 +373,2511 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L61" sqref="L2:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="98.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="98.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>301</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <f>CONCATENATE("HMI1.Flow_",B2)</f>
         <v>HMI1.Flow_301</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <f>CONCATENATE("HMI1.CB",B2,"_Closed")</f>
         <v>HMI1.CB301_Closed</v>
       </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E42" si="0">CONCATENATE("HMI1.CB",B2,"_Cmd")</f>
+      <c r="F2" t="str">
+        <f>CONCATENATE("HMI1.CB",B2,"_Vpu")</f>
+        <v>HMI1.CB301_Vpu</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("HMI1.CB",B2,"_VLgood")</f>
+        <v>HMI1.CB301_VLgood</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("HMI1.CB",B2,"_Cmd")</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
-      <c r="F2" t="str">
+      <c r="I2" t="str">
         <f>CONCATENATE("CB", B2, "_MODBUS")</f>
         <v>CB301_MODBUS</v>
       </c>
-      <c r="G2" t="str">
-        <f>IF(E2="","",CONCATENATE(",IOCCmd:=ADR(",E2,"),MBCmd:=ADR(",F2,".CMD),MBRst:=ADR(",F2,".RST)"))</f>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J48" si="0">IF(C2="","",CONCATENATE("HMI1.BUS",C2,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(H2="","",CONCATENATE(",IOCCmd:=ADR(",H2,"),MBCmd:=ADR(",I2,".CMD),MBRst:=ADR(",I2,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H48" si="1">CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",D2,")",G2,"),")</f>
-        <v>(ID:=1,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L60" si="1">CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",E2,"),Vpu:=ADR(",F2,"),VLgood:=ADR(",G2,")",K2,"),")</f>
+        <v>(ID:=1,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>302</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C48" si="2">CONCATENATE("HMI1.Flow_",B3)</f>
+      <c r="D3" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B3)</f>
         <v>HMI1.Flow_302</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D48" si="3">CONCATENATE("HMI1.CB",B3,"_Closed")</f>
+      <c r="E3" t="str">
+        <f>CONCATENATE("HMI1.CB",B3,"_Closed")</f>
         <v>HMI1.CB302_Closed</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" si="0"/>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F61" si="2">CONCATENATE("HMI1.CB",B3,"_Vpu")</f>
+        <v>HMI1.CB302_Vpu</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G61" si="3">CONCATENATE("HMI1.CB",B3,"_VLgood")</f>
+        <v>HMI1.CB302_VLgood</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE("HMI1.CB",B3,"_Cmd")</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F48" si="4">CONCATENATE("CB", B3, "_MODBUS")</f>
+      <c r="I3" t="str">
+        <f>CONCATENATE("CB", B3, "_MODBUS")</f>
         <v>CB302_MODBUS</v>
       </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G48" si="5">IF(E3="","",CONCATENATE(",IOCCmd:=ADR(",E3,"),MBCmd:=ADR(",F3,".CMD),MBRst:=ADR(",F3,".RST)"))</f>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K48" si="4">IF(H3="","",CONCATENATE(",IOCCmd:=ADR(",H3,"),MBCmd:=ADR(",I3,".CMD),MBRst:=ADR(",I3,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=2,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=2,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>303</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="2"/>
+      <c r="D4" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B4)</f>
         <v>HMI1.Flow_303</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="3"/>
+      <c r="E4" t="str">
+        <f>CONCATENATE("HMI1.CB",B4,"_Closed")</f>
         <v>HMI1.CB303_Closed</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB303_Vpu</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB303_VLgood</v>
+      </c>
+      <c r="H4" t="str">
+        <f>CONCATENATE("HMI1.CB",B4,"_Cmd")</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="4"/>
+      <c r="I4" t="str">
+        <f>CONCATENATE("CB", B4, "_MODBUS")</f>
         <v>CB303_MODBUS</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" si="5"/>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=3,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=3,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>304</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="2"/>
+      <c r="D5" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B5)</f>
         <v>HMI1.Flow_304</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="3"/>
+      <c r="E5" t="str">
+        <f>CONCATENATE("HMI1.CB",B5,"_Closed")</f>
         <v>HMI1.CB304_Closed</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB304_Vpu</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB304_VLgood</v>
+      </c>
+      <c r="H5" t="str">
+        <f>CONCATENATE("HMI1.CB",B5,"_Cmd")</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
-      <c r="F5" t="str">
-        <f t="shared" si="4"/>
+      <c r="I5" t="str">
+        <f>CONCATENATE("CB", B5, "_MODBUS")</f>
         <v>CB304_MODBUS</v>
       </c>
-      <c r="G5" t="str">
-        <f t="shared" si="5"/>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=4,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=4,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>305</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="2"/>
+      <c r="D6" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B6)</f>
         <v>HMI1.Flow_305</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="3"/>
+      <c r="E6" t="str">
+        <f>CONCATENATE("HMI1.CB",B6,"_Closed")</f>
         <v>HMI1.CB305_Closed</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB305_Vpu</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB305_VLgood</v>
+      </c>
+      <c r="H6" t="str">
+        <f>CONCATENATE("HMI1.CB",B6,"_Cmd")</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
-      <c r="F6" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" t="str">
+        <f>CONCATENATE("CB", B6, "_MODBUS")</f>
         <v>CB305_MODBUS</v>
       </c>
-      <c r="G6" t="str">
-        <f t="shared" si="5"/>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=5,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=5,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>306</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="2"/>
+      <c r="D7" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B7)</f>
         <v>HMI1.Flow_306</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="3"/>
+      <c r="E7" t="str">
+        <f>CONCATENATE("HMI1.CB",B7,"_Closed")</f>
         <v>HMI1.CB306_Closed</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB306_Vpu</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB306_VLgood</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE("CB", B7, "_MODBUS")</f>
         <v>CB306_MODBUS</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=6,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed)),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=6,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>307</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="2"/>
+      <c r="D8" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B8)</f>
         <v>HMI1.Flow_307</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="3"/>
+      <c r="E8" t="str">
+        <f>CONCATENATE("HMI1.CB",B8,"_Closed")</f>
         <v>HMI1.CB307_Closed</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB307_Vpu</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB307_VLgood</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE("CB", B8, "_MODBUS")</f>
         <v>CB307_MODBUS</v>
       </c>
-      <c r="G8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=7,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed)),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=7,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>308</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="2"/>
+      <c r="D9" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B9)</f>
         <v>HMI1.Flow_308</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="3"/>
+      <c r="E9" t="str">
+        <f>CONCATENATE("HMI1.CB",B9,"_Closed")</f>
         <v>HMI1.CB308_Closed</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB308_Vpu</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB308_VLgood</v>
+      </c>
+      <c r="I9" t="str">
+        <f>CONCATENATE("CB", B9, "_MODBUS")</f>
         <v>CB308_MODBUS</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=8,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed)),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=8,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>309</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="2"/>
+      <c r="D10" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B10)</f>
         <v>HMI1.Flow_309</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="3"/>
+      <c r="E10" t="str">
+        <f>CONCATENATE("HMI1.CB",B10,"_Closed")</f>
         <v>HMI1.CB309_Closed</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB309_Vpu</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB309_VLgood</v>
+      </c>
+      <c r="I10" t="str">
+        <f>CONCATENATE("CB", B10, "_MODBUS")</f>
         <v>CB309_MODBUS</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=9,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed)),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=9,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>201</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="2"/>
+      <c r="D11" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B11)</f>
         <v>HMI1.Flow_201</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="3"/>
+      <c r="E11" t="str">
+        <f>CONCATENATE("HMI1.CB",B11,"_Closed")</f>
         <v>HMI1.CB201_Closed</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB201_Vpu</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB201_VLgood</v>
+      </c>
+      <c r="H11" t="str">
+        <f>CONCATENATE("HMI1.CB",B11,"_Cmd")</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
-      <c r="F11" t="str">
-        <f t="shared" si="4"/>
+      <c r="I11" t="str">
+        <f>CONCATENATE("CB", B11, "_MODBUS")</f>
         <v>CB201_MODBUS</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="5"/>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=10,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=10,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>202</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="2"/>
+      <c r="D12" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B12)</f>
         <v>HMI1.Flow_202</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="3"/>
+      <c r="E12" t="str">
+        <f>CONCATENATE("HMI1.CB",B12,"_Closed")</f>
         <v>HMI1.CB202_Closed</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB202_Vpu</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB202_VLgood</v>
+      </c>
+      <c r="H12" t="str">
+        <f>CONCATENATE("HMI1.CB",B12,"_Cmd")</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
-      <c r="F12" t="str">
-        <f t="shared" si="4"/>
+      <c r="I12" t="str">
+        <f>CONCATENATE("CB", B12, "_MODBUS")</f>
         <v>CB202_MODBUS</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="5"/>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=11,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=11,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>203</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="2"/>
+      <c r="D13" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B13)</f>
         <v>HMI1.Flow_203</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="3"/>
+      <c r="E13" t="str">
+        <f>CONCATENATE("HMI1.CB",B13,"_Closed")</f>
         <v>HMI1.CB203_Closed</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB203_Vpu</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB203_VLgood</v>
+      </c>
+      <c r="H13" t="str">
+        <f>CONCATENATE("HMI1.CB",B13,"_Cmd")</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="4"/>
+      <c r="I13" t="str">
+        <f>CONCATENATE("CB", B13, "_MODBUS")</f>
         <v>CB203_MODBUS</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="5"/>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=12,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=12,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>204</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="2"/>
+      <c r="D14" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B14)</f>
         <v>HMI1.Flow_204</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="3"/>
+      <c r="E14" t="str">
+        <f>CONCATENATE("HMI1.CB",B14,"_Closed")</f>
         <v>HMI1.CB204_Closed</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB204_Vpu</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB204_VLgood</v>
+      </c>
+      <c r="I14" t="str">
+        <f>CONCATENATE("CB", B14, "_MODBUS")</f>
         <v>CB204_MODBUS</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=13,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed)),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=13,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>205</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="2"/>
+      <c r="D15" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B15)</f>
         <v>HMI1.Flow_205</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="3"/>
+      <c r="E15" t="str">
+        <f>CONCATENATE("HMI1.CB",B15,"_Closed")</f>
         <v>HMI1.CB205_Closed</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB205_Vpu</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB205_VLgood</v>
+      </c>
+      <c r="I15" t="str">
+        <f>CONCATENATE("CB", B15, "_MODBUS")</f>
         <v>CB205_MODBUS</v>
       </c>
-      <c r="G15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=14,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed)),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=14,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>206</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="2"/>
+      <c r="D16" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B16)</f>
         <v>HMI1.Flow_206</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="3"/>
+      <c r="E16" t="str">
+        <f>CONCATENATE("HMI1.CB",B16,"_Closed")</f>
         <v>HMI1.CB206_Closed</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB206_Vpu</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB206_VLgood</v>
+      </c>
+      <c r="I16" t="str">
+        <f>CONCATENATE("CB", B16, "_MODBUS")</f>
         <v>CB206_MODBUS</v>
       </c>
-      <c r="G16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=15,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed)),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=15,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>207</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="2"/>
+      <c r="D17" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B17)</f>
         <v>HMI1.Flow_207</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="3"/>
+      <c r="E17" t="str">
+        <f>CONCATENATE("HMI1.CB",B17,"_Closed")</f>
         <v>HMI1.CB207_Closed</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB207_Vpu</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB207_VLgood</v>
+      </c>
+      <c r="I17" t="str">
+        <f>CONCATENATE("CB", B17, "_MODBUS")</f>
         <v>CB207_MODBUS</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=16,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed)),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=16,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>208</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="2"/>
+      <c r="D18" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B18)</f>
         <v>HMI1.Flow_208</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="3"/>
+      <c r="E18" t="str">
+        <f>CONCATENATE("HMI1.CB",B18,"_Closed")</f>
         <v>HMI1.CB208_Closed</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB208_Vpu</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB208_VLgood</v>
+      </c>
+      <c r="I18" t="str">
+        <f>CONCATENATE("CB", B18, "_MODBUS")</f>
         <v>CB208_MODBUS</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=17,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed)),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=17,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>209</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="2"/>
+      <c r="D19" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B19)</f>
         <v>HMI1.Flow_209</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="3"/>
+      <c r="E19" t="str">
+        <f>CONCATENATE("HMI1.CB",B19,"_Closed")</f>
         <v>HMI1.CB209_Closed</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB209_Vpu</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB209_VLgood</v>
+      </c>
+      <c r="I19" t="str">
+        <f>CONCATENATE("CB", B19, "_MODBUS")</f>
         <v>CB209_MODBUS</v>
       </c>
-      <c r="G19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=18,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed)),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=18,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>210</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="2"/>
+      <c r="D20" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B20)</f>
         <v>HMI1.Flow_210</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="3"/>
+      <c r="E20" t="str">
+        <f>CONCATENATE("HMI1.CB",B20,"_Closed")</f>
         <v>HMI1.CB210_Closed</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB210_Vpu</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB210_VLgood</v>
+      </c>
+      <c r="I20" t="str">
+        <f>CONCATENATE("CB", B20, "_MODBUS")</f>
         <v>CB210_MODBUS</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=19,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed)),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=19,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>211</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="2"/>
+      <c r="D21" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B21)</f>
         <v>HMI1.Flow_211</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="3"/>
+      <c r="E21" t="str">
+        <f>CONCATENATE("HMI1.CB",B21,"_Closed")</f>
         <v>HMI1.CB211_Closed</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB211_Vpu</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB211_VLgood</v>
+      </c>
+      <c r="I21" t="str">
+        <f>CONCATENATE("CB", B21, "_MODBUS")</f>
         <v>CB211_MODBUS</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=20,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed)),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=20,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>212</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="2"/>
+      <c r="D22" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B22)</f>
         <v>HMI1.Flow_212</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="3"/>
+      <c r="E22" t="str">
+        <f>CONCATENATE("HMI1.CB",B22,"_Closed")</f>
         <v>HMI1.CB212_Closed</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB212_Vpu</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB212_VLgood</v>
+      </c>
+      <c r="I22" t="str">
+        <f>CONCATENATE("CB", B22, "_MODBUS")</f>
         <v>CB212_MODBUS</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=21,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed)),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=21,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>213</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="2"/>
+      <c r="D23" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B23)</f>
         <v>HMI1.Flow_213</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="3"/>
+      <c r="E23" t="str">
+        <f>CONCATENATE("HMI1.CB",B23,"_Closed")</f>
         <v>HMI1.CB213_Closed</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB213_Vpu</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB213_VLgood</v>
+      </c>
+      <c r="H23" t="str">
+        <f>CONCATENATE("HMI1.CB",B23,"_Cmd")</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
-      <c r="F23" t="str">
-        <f t="shared" si="4"/>
+      <c r="I23" t="str">
+        <f>CONCATENATE("CB", B23, "_MODBUS")</f>
         <v>CB213_MODBUS</v>
       </c>
-      <c r="G23" t="str">
-        <f t="shared" si="5"/>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=22,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=22,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>214</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="2"/>
+      <c r="D24" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B24)</f>
         <v>HMI1.Flow_214</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
+      <c r="E24" t="str">
+        <f>CONCATENATE("HMI1.CB",B24,"_Closed")</f>
         <v>HMI1.CB214_Closed</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB214_Vpu</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB214_VLgood</v>
+      </c>
+      <c r="I24" t="str">
+        <f>CONCATENATE("CB", B24, "_MODBUS")</f>
         <v>CB214_MODBUS</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=23,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed)),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=23,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>215</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="2"/>
+      <c r="D25" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B25)</f>
         <v>HMI1.Flow_215</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="3"/>
+      <c r="E25" t="str">
+        <f>CONCATENATE("HMI1.CB",B25,"_Closed")</f>
         <v>HMI1.CB215_Closed</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB215_Vpu</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB215_VLgood</v>
+      </c>
+      <c r="I25" t="str">
+        <f>CONCATENATE("CB", B25, "_MODBUS")</f>
         <v>CB215_MODBUS</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=24,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed)),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=24,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>216</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="2"/>
+      <c r="D26" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B26)</f>
         <v>HMI1.Flow_216</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="3"/>
+      <c r="E26" t="str">
+        <f>CONCATENATE("HMI1.CB",B26,"_Closed")</f>
         <v>HMI1.CB216_Closed</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB216_Vpu</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB216_VLgood</v>
+      </c>
+      <c r="H26" t="str">
+        <f>CONCATENATE("HMI1.CB",B26,"_Cmd")</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
-      <c r="F26" t="str">
-        <f t="shared" si="4"/>
+      <c r="I26" t="str">
+        <f>CONCATENATE("CB", B26, "_MODBUS")</f>
         <v>CB216_MODBUS</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="5"/>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=25,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=25,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>217</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="2"/>
+      <c r="D27" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B27)</f>
         <v>HMI1.Flow_217</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="3"/>
+      <c r="E27" t="str">
+        <f>CONCATENATE("HMI1.CB",B27,"_Closed")</f>
         <v>HMI1.CB217_Closed</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB217_Vpu</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB217_VLgood</v>
+      </c>
+      <c r="H27" t="str">
+        <f>CONCATENATE("HMI1.CB",B27,"_Cmd")</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
-      <c r="F27" t="str">
-        <f t="shared" si="4"/>
+      <c r="I27" t="str">
+        <f>CONCATENATE("CB", B27, "_MODBUS")</f>
         <v>CB217_MODBUS</v>
       </c>
-      <c r="G27" t="str">
-        <f t="shared" si="5"/>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=26,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=26,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>218</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="2"/>
+      <c r="D28" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B28)</f>
         <v>HMI1.Flow_218</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="3"/>
+      <c r="E28" t="str">
+        <f>CONCATENATE("HMI1.CB",B28,"_Closed")</f>
         <v>HMI1.CB218_Closed</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB218_Vpu</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB218_VLgood</v>
+      </c>
+      <c r="I28" t="str">
+        <f>CONCATENATE("CB", B28, "_MODBUS")</f>
         <v>CB218_MODBUS</v>
       </c>
-      <c r="G28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=27,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed)),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=27,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>219</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="2"/>
+      <c r="D29" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B29)</f>
         <v>HMI1.Flow_219</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="3"/>
+      <c r="E29" t="str">
+        <f>CONCATENATE("HMI1.CB",B29,"_Closed")</f>
         <v>HMI1.CB219_Closed</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB219_Vpu</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB219_VLgood</v>
+      </c>
+      <c r="I29" t="str">
+        <f>CONCATENATE("CB", B29, "_MODBUS")</f>
         <v>CB219_MODBUS</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=28,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed)),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=28,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>101</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="2"/>
+      <c r="D30" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B30)</f>
         <v>HMI1.Flow_101</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="3"/>
+      <c r="E30" t="str">
+        <f>CONCATENATE("HMI1.CB",B30,"_Closed")</f>
         <v>HMI1.CB101_Closed</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB101_Vpu</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB101_VLgood</v>
+      </c>
+      <c r="H30" t="str">
+        <f>CONCATENATE("HMI1.CB",B30,"_Cmd")</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
-      <c r="F30" t="str">
-        <f t="shared" si="4"/>
+      <c r="I30" t="str">
+        <f>CONCATENATE("CB", B30, "_MODBUS")</f>
         <v>CB101_MODBUS</v>
       </c>
-      <c r="G30" t="str">
-        <f t="shared" si="5"/>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=29,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=29,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>102</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="2"/>
+      <c r="D31" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B31)</f>
         <v>HMI1.Flow_102</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="3"/>
+      <c r="E31" t="str">
+        <f>CONCATENATE("HMI1.CB",B31,"_Closed")</f>
         <v>HMI1.CB102_Closed</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB102_Vpu</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB102_VLgood</v>
+      </c>
+      <c r="H31" t="str">
+        <f>CONCATENATE("HMI1.CB",B31,"_Cmd")</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
-      <c r="F31" t="str">
-        <f t="shared" si="4"/>
+      <c r="I31" t="str">
+        <f>CONCATENATE("CB", B31, "_MODBUS")</f>
         <v>CB102_MODBUS</v>
       </c>
-      <c r="G31" t="str">
-        <f t="shared" si="5"/>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=30,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=30,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>103</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="2"/>
+      <c r="D32" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B32)</f>
         <v>HMI1.Flow_103</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="3"/>
+      <c r="E32" t="str">
+        <f>CONCATENATE("HMI1.CB",B32,"_Closed")</f>
         <v>HMI1.CB103_Closed</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB103_Vpu</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB103_VLgood</v>
+      </c>
+      <c r="H32" t="str">
+        <f>CONCATENATE("HMI1.CB",B32,"_Cmd")</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
-      <c r="F32" t="str">
-        <f t="shared" si="4"/>
+      <c r="I32" t="str">
+        <f>CONCATENATE("CB", B32, "_MODBUS")</f>
         <v>CB103_MODBUS</v>
       </c>
-      <c r="G32" t="str">
-        <f t="shared" si="5"/>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=31,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=31,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>104</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="2"/>
+      <c r="D33" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B33)</f>
         <v>HMI1.Flow_104</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="3"/>
+      <c r="E33" t="str">
+        <f>CONCATENATE("HMI1.CB",B33,"_Closed")</f>
         <v>HMI1.CB104_Closed</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB104_Vpu</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB104_VLgood</v>
+      </c>
+      <c r="I33" t="str">
+        <f>CONCATENATE("CB", B33, "_MODBUS")</f>
         <v>CB104_MODBUS</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=32,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed)),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=32,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>105</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="2"/>
+      <c r="D34" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B34)</f>
         <v>HMI1.Flow_105</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="3"/>
+      <c r="E34" t="str">
+        <f>CONCATENATE("HMI1.CB",B34,"_Closed")</f>
         <v>HMI1.CB105_Closed</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB105_Vpu</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB105_VLgood</v>
+      </c>
+      <c r="I34" t="str">
+        <f>CONCATENATE("CB", B34, "_MODBUS")</f>
         <v>CB105_MODBUS</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=33,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed)),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=33,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>106</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="2"/>
+      <c r="D35" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B35)</f>
         <v>HMI1.Flow_106</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="3"/>
+      <c r="E35" t="str">
+        <f>CONCATENATE("HMI1.CB",B35,"_Closed")</f>
         <v>HMI1.CB106_Closed</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB106_Vpu</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB106_VLgood</v>
+      </c>
+      <c r="I35" t="str">
+        <f>CONCATENATE("CB", B35, "_MODBUS")</f>
         <v>CB106_MODBUS</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=34,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed)),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=34,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>107</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="2"/>
+      <c r="D36" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B36)</f>
         <v>HMI1.Flow_107</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="3"/>
+      <c r="E36" t="str">
+        <f>CONCATENATE("HMI1.CB",B36,"_Closed")</f>
         <v>HMI1.CB107_Closed</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB107_Vpu</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB107_VLgood</v>
+      </c>
+      <c r="I36" t="str">
+        <f>CONCATENATE("CB", B36, "_MODBUS")</f>
         <v>CB107_MODBUS</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=35,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed)),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=35,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>108</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="2"/>
+      <c r="D37" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B37)</f>
         <v>HMI1.Flow_108</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="3"/>
+      <c r="E37" t="str">
+        <f>CONCATENATE("HMI1.CB",B37,"_Closed")</f>
         <v>HMI1.CB108_Closed</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB108_Vpu</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB108_VLgood</v>
+      </c>
+      <c r="H37" t="str">
+        <f>CONCATENATE("HMI1.CB",B37,"_Cmd")</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
-      <c r="F37" t="str">
-        <f t="shared" si="4"/>
+      <c r="I37" t="str">
+        <f>CONCATENATE("CB", B37, "_MODBUS")</f>
         <v>CB108_MODBUS</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="5"/>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=36,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=36,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>109</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="2"/>
+      <c r="D38" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B38)</f>
         <v>HMI1.Flow_109</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="3"/>
+      <c r="E38" t="str">
+        <f>CONCATENATE("HMI1.CB",B38,"_Closed")</f>
         <v>HMI1.CB109_Closed</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB109_Vpu</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB109_VLgood</v>
+      </c>
+      <c r="H38" t="str">
+        <f>CONCATENATE("HMI1.CB",B38,"_Cmd")</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="4"/>
+      <c r="I38" t="str">
+        <f>CONCATENATE("CB", B38, "_MODBUS")</f>
         <v>CB109_MODBUS</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="5"/>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=37,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=37,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>110</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="2"/>
+      <c r="D39" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B39)</f>
         <v>HMI1.Flow_110</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="3"/>
+      <c r="E39" t="str">
+        <f>CONCATENATE("HMI1.CB",B39,"_Closed")</f>
         <v>HMI1.CB110_Closed</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB110_Vpu</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB110_VLgood</v>
+      </c>
+      <c r="I39" t="str">
+        <f>CONCATENATE("CB", B39, "_MODBUS")</f>
         <v>CB110_MODBUS</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=38,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed)),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=38,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>111</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="2"/>
+      <c r="D40" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B40)</f>
         <v>HMI1.Flow_111</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="3"/>
+      <c r="E40" t="str">
+        <f>CONCATENATE("HMI1.CB",B40,"_Closed")</f>
         <v>HMI1.CB111_Closed</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB111_Vpu</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB111_VLgood</v>
+      </c>
+      <c r="H40" t="str">
+        <f>CONCATENATE("HMI1.CB",B40,"_Cmd")</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
-      <c r="F40" t="str">
-        <f t="shared" si="4"/>
+      <c r="I40" t="str">
+        <f>CONCATENATE("CB", B40, "_MODBUS")</f>
         <v>CB111_MODBUS</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="5"/>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=39,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=39,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>112</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="2"/>
+      <c r="D41" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B41)</f>
         <v>HMI1.Flow_112</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="3"/>
+      <c r="E41" t="str">
+        <f>CONCATENATE("HMI1.CB",B41,"_Closed")</f>
         <v>HMI1.CB112_Closed</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB112_Vpu</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB112_VLgood</v>
+      </c>
+      <c r="I41" t="str">
+        <f>CONCATENATE("CB", B41, "_MODBUS")</f>
         <v>CB112_MODBUS</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=40,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed)),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=40,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>113</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="2"/>
+      <c r="D42" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B42)</f>
         <v>HMI1.Flow_113</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="3"/>
+      <c r="E42" t="str">
+        <f>CONCATENATE("HMI1.CB",B42,"_Closed")</f>
         <v>HMI1.CB113_Closed</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB113_Vpu</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB113_VLgood</v>
+      </c>
+      <c r="H42" t="str">
+        <f>CONCATENATE("HMI1.CB",B42,"_Cmd")</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
-      <c r="F42" t="str">
-        <f t="shared" si="4"/>
+      <c r="I42" t="str">
+        <f>CONCATENATE("CB", B42, "_MODBUS")</f>
         <v>CB113_MODBUS</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="5"/>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="4"/>
         <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=41,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=41,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>114</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="2"/>
+      <c r="D43" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B43)</f>
         <v>HMI1.Flow_114</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="3"/>
+      <c r="E43" t="str">
+        <f>CONCATENATE("HMI1.CB",B43,"_Closed")</f>
         <v>HMI1.CB114_Closed</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB114_Vpu</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB114_VLgood</v>
+      </c>
+      <c r="I43" t="str">
+        <f>CONCATENATE("CB", B43, "_MODBUS")</f>
         <v>CB114_MODBUS</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=42,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed)),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=42,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>300</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="2"/>
+      <c r="D44" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B44)</f>
         <v>HMI1.Flow_300</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="3"/>
+      <c r="E44" t="str">
+        <f>CONCATENATE("HMI1.CB",B44,"_Closed")</f>
         <v>HMI1.CB300_Closed</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB300_Vpu</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB300_VLgood</v>
+      </c>
+      <c r="I44" t="str">
+        <f>CONCATENATE("CB", B44, "_MODBUS")</f>
         <v>CB300_MODBUS</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=43,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed)),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=43,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>200</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="2"/>
+      <c r="D45" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B45)</f>
         <v>HMI1.Flow_200</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="3"/>
+      <c r="E45" t="str">
+        <f>CONCATENATE("HMI1.CB",B45,"_Closed")</f>
         <v>HMI1.CB200_Closed</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB200_Vpu</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB200_VLgood</v>
+      </c>
+      <c r="I45" t="str">
+        <f>CONCATENATE("CB", B45, "_MODBUS")</f>
         <v>CB200_MODBUS</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=44,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed)),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=44,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>100</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="2"/>
+      <c r="D46" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B46)</f>
         <v>HMI1.Flow_100</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="3"/>
+      <c r="E46" t="str">
+        <f>CONCATENATE("HMI1.CB",B46,"_Closed")</f>
         <v>HMI1.CB100_Closed</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB100_Vpu</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB100_VLgood</v>
+      </c>
+      <c r="I46" t="str">
+        <f>CONCATENATE("CB", B46, "_MODBUS")</f>
         <v>CB100_MODBUS</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=45,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed)),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=45,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>351</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="2"/>
+      <c r="D47" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B47)</f>
         <v>HMI1.Flow_351</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="3"/>
+      <c r="E47" t="str">
+        <f>CONCATENATE("HMI1.CB",B47,"_Closed")</f>
         <v>HMI1.CB351_Closed</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB351_Vpu</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB351_VLgood</v>
+      </c>
+      <c r="I47" t="str">
+        <f>CONCATENATE("CB", B47, "_MODBUS")</f>
         <v>CB351_MODBUS</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=46,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed)),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=46,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>151</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="2"/>
+      <c r="D48" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B48)</f>
         <v>HMI1.Flow_151</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="3"/>
+      <c r="E48" t="str">
+        <f>CONCATENATE("HMI1.CB",B48,"_Closed")</f>
         <v>HMI1.CB151_Closed</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB151_Vpu</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB151_VLgood</v>
+      </c>
+      <c r="I48" t="str">
+        <f>CONCATENATE("CB", B48, "_MODBUS")</f>
         <v>CB151_MODBUS</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=47,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed)),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=47,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>401</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" ref="C49:C55" si="6">CONCATENATE("HMI1.Flow_",B49)</f>
+      <c r="D49" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B49)</f>
         <v>HMI1.Flow_401</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" ref="D49:D55" si="7">CONCATENATE("HMI1.CB",B49,"_Closed")</f>
+      <c r="E49" t="str">
+        <f>CONCATENATE("HMI1.CB",B49,"_Closed")</f>
         <v>HMI1.CB401_Closed</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" ref="F49:F55" si="8">CONCATENATE("CB", B49, "_MODBUS")</f>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB401_Vpu</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB401_VLgood</v>
+      </c>
+      <c r="I49" t="str">
+        <f>CONCATENATE("CB", B49, "_MODBUS")</f>
         <v>CB401_MODBUS</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" ref="G49:G55" si="9">IF(E49="","",CONCATENATE(",IOCCmd:=ADR(",E49,"),MBCmd:=ADR(",F49,".CMD),MBRst:=ADR(",F49,".RST)"))</f>
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" ref="H49:H55" si="10">CONCATENATE("(ID:=",A49,",CBID:=",B49,",Flow:=ADR(HMI1.Flow_",B49,"),Status:=ADR(",D49,")",G49,"),")</f>
-        <v>(ID:=48,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed)),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J49" t="str">
+        <f>IF(C49="","",CONCATENATE("HMI1.BUS",C49,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" ref="K49:K55" si="5">IF(H49="","",CONCATENATE(",IOCCmd:=ADR(",H49,"),MBCmd:=ADR(",I49,".CMD),MBRst:=ADR(",I49,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=48,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>402</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="6"/>
+      <c r="D50" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B50)</f>
         <v>HMI1.Flow_402</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="7"/>
+      <c r="E50" t="str">
+        <f>CONCATENATE("HMI1.CB",B50,"_Closed")</f>
         <v>HMI1.CB402_Closed</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB402_Vpu</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB402_VLgood</v>
+      </c>
+      <c r="I50" t="str">
+        <f>CONCATENATE("CB", B50, "_MODBUS")</f>
         <v>CB402_MODBUS</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="10"/>
-        <v>(ID:=49,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed)),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J50" t="str">
+        <f t="shared" ref="J50:J61" si="6">IF(C50="","",CONCATENATE("HMI1.BUS",C50,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=49,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>403</v>
       </c>
-      <c r="C51" t="str">
+      <c r="D51" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B51)</f>
+        <v>HMI1.Flow_403</v>
+      </c>
+      <c r="E51" t="str">
+        <f>CONCATENATE("HMI1.CB",B51,"_Closed")</f>
+        <v>HMI1.CB403_Closed</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB403_Vpu</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB403_VLgood</v>
+      </c>
+      <c r="I51" t="str">
+        <f>CONCATENATE("CB", B51, "_MODBUS")</f>
+        <v>CB403_MODBUS</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.Flow_403</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="7"/>
-        <v>HMI1.CB403_Closed</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="8"/>
-        <v>CB403_MODBUS</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="10"/>
-        <v>(ID:=50,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed)),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=50,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>404</v>
       </c>
-      <c r="C52" t="str">
+      <c r="D52" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B52)</f>
+        <v>HMI1.Flow_404</v>
+      </c>
+      <c r="E52" t="str">
+        <f>CONCATENATE("HMI1.CB",B52,"_Closed")</f>
+        <v>HMI1.CB404_Closed</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB404_Vpu</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB404_VLgood</v>
+      </c>
+      <c r="I52" t="str">
+        <f>CONCATENATE("CB", B52, "_MODBUS")</f>
+        <v>CB404_MODBUS</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.Flow_404</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="7"/>
-        <v>HMI1.CB404_Closed</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="8"/>
-        <v>CB404_MODBUS</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="10"/>
-        <v>(ID:=51,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed)),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=51,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>405</v>
       </c>
-      <c r="C53" t="str">
+      <c r="D53" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B53)</f>
+        <v>HMI1.Flow_405</v>
+      </c>
+      <c r="E53" t="str">
+        <f>CONCATENATE("HMI1.CB",B53,"_Closed")</f>
+        <v>HMI1.CB405_Closed</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB405_Vpu</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB405_VLgood</v>
+      </c>
+      <c r="I53" t="str">
+        <f>CONCATENATE("CB", B53, "_MODBUS")</f>
+        <v>CB405_MODBUS</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.Flow_405</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="7"/>
-        <v>HMI1.CB405_Closed</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="8"/>
-        <v>CB405_MODBUS</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="10"/>
-        <v>(ID:=52,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed)),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=52,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>406</v>
       </c>
-      <c r="C54" t="str">
+      <c r="D54" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B54)</f>
+        <v>HMI1.Flow_406</v>
+      </c>
+      <c r="E54" t="str">
+        <f>CONCATENATE("HMI1.CB",B54,"_Closed")</f>
+        <v>HMI1.CB406_Closed</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB406_Vpu</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB406_VLgood</v>
+      </c>
+      <c r="I54" t="str">
+        <f>CONCATENATE("CB", B54, "_MODBUS")</f>
+        <v>CB406_MODBUS</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.Flow_406</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="7"/>
-        <v>HMI1.CB406_Closed</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="8"/>
-        <v>CB406_MODBUS</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="10"/>
-        <v>(ID:=53,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed)),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=53,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>407</v>
       </c>
-      <c r="C55" t="str">
+      <c r="D55" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B55)</f>
+        <v>HMI1.Flow_407</v>
+      </c>
+      <c r="E55" t="str">
+        <f>CONCATENATE("HMI1.CB",B55,"_Closed")</f>
+        <v>HMI1.CB407_Closed</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="2"/>
+        <v>HMI1.CB407_Vpu</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB407_VLgood</v>
+      </c>
+      <c r="I55" t="str">
+        <f>CONCATENATE("CB", B55, "_MODBUS")</f>
+        <v>CB407_MODBUS</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.Flow_407</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="7"/>
-        <v>HMI1.CB407_Closed</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="8"/>
-        <v>CB407_MODBUS</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="10"/>
-        <v>(ID:=54,CBID:=407,Flow:=ADR(HMI1.Flow_407),Status:=ADR(HMI1.CB407_Closed)),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=54,CBID:=407,Flow:=ADR(HMI1.Flow_407),Status:=ADR(HMI1.CB407_Closed),Vpu:=ADR(HMI1.CB407_Vpu),VLgood:=ADR(HMI1.CB407_VLgood)),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>408</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" ref="C56:C61" si="11">CONCATENATE("HMI1.Flow_",B56)</f>
+      <c r="D56" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B56)</f>
         <v>HMI1.Flow_408</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" ref="D56:D61" si="12">CONCATENATE("HMI1.CB",B56,"_Closed")</f>
+      <c r="E56" t="str">
+        <f>CONCATENATE("HMI1.CB",B56,"_Closed")</f>
         <v>HMI1.CB408_Closed</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" ref="F56:F61" si="13">CONCATENATE("CB", B56, "_MODBUS")</f>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB408_Vpu</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB408_VLgood</v>
+      </c>
+      <c r="I56" t="str">
+        <f>CONCATENATE("CB", B56, "_MODBUS")</f>
         <v>CB408_MODBUS</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" ref="G56:G61" si="14">IF(E56="","",CONCATENATE(",IOCCmd:=ADR(",E56,"),MBCmd:=ADR(",F56,".CMD),MBRst:=ADR(",F56,".RST)"))</f>
-        <v/>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" ref="H56:H61" si="15">CONCATENATE("(ID:=",A56,",CBID:=",B56,",Flow:=ADR(HMI1.Flow_",B56,"),Status:=ADR(",D56,")",G56,"),")</f>
-        <v>(ID:=55,CBID:=408,Flow:=ADR(HMI1.Flow_408),Status:=ADR(HMI1.CB408_Closed)),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J56" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" ref="K56:K61" si="7">IF(H56="","",CONCATENATE(",IOCCmd:=ADR(",H56,"),MBCmd:=ADR(",I56,".CMD),MBRst:=ADR(",I56,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=55,CBID:=408,Flow:=ADR(HMI1.Flow_408),Status:=ADR(HMI1.CB408_Closed),Vpu:=ADR(HMI1.CB408_Vpu),VLgood:=ADR(HMI1.CB408_VLgood)),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>409</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="11"/>
+      <c r="D57" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B57)</f>
         <v>HMI1.Flow_409</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="12"/>
+      <c r="E57" t="str">
+        <f>CONCATENATE("HMI1.CB",B57,"_Closed")</f>
         <v>HMI1.CB409_Closed</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB409_Vpu</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB409_VLgood</v>
+      </c>
+      <c r="I57" t="str">
+        <f>CONCATENATE("CB", B57, "_MODBUS")</f>
         <v>CB409_MODBUS</v>
       </c>
-      <c r="G57" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="15"/>
-        <v>(ID:=56,CBID:=409,Flow:=ADR(HMI1.Flow_409),Status:=ADR(HMI1.CB409_Closed)),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J57" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=56,CBID:=409,Flow:=ADR(HMI1.Flow_409),Status:=ADR(HMI1.CB409_Closed),Vpu:=ADR(HMI1.CB409_Vpu),VLgood:=ADR(HMI1.CB409_VLgood)),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>410</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="11"/>
+      <c r="D58" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B58)</f>
         <v>HMI1.Flow_410</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="12"/>
+      <c r="E58" t="str">
+        <f>CONCATENATE("HMI1.CB",B58,"_Closed")</f>
         <v>HMI1.CB410_Closed</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB410_Vpu</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB410_VLgood</v>
+      </c>
+      <c r="I58" t="str">
+        <f>CONCATENATE("CB", B58, "_MODBUS")</f>
         <v>CB410_MODBUS</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="15"/>
-        <v>(ID:=57,CBID:=410,Flow:=ADR(HMI1.Flow_410),Status:=ADR(HMI1.CB410_Closed)),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J58" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=57,CBID:=410,Flow:=ADR(HMI1.Flow_410),Status:=ADR(HMI1.CB410_Closed),Vpu:=ADR(HMI1.CB410_Vpu),VLgood:=ADR(HMI1.CB410_VLgood)),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>411</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="11"/>
+      <c r="D59" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B59)</f>
         <v>HMI1.Flow_411</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="12"/>
+      <c r="E59" t="str">
+        <f>CONCATENATE("HMI1.CB",B59,"_Closed")</f>
         <v>HMI1.CB411_Closed</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB411_Vpu</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB411_VLgood</v>
+      </c>
+      <c r="I59" t="str">
+        <f>CONCATENATE("CB", B59, "_MODBUS")</f>
         <v>CB411_MODBUS</v>
       </c>
-      <c r="G59" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="15"/>
-        <v>(ID:=58,CBID:=411,Flow:=ADR(HMI1.Flow_411),Status:=ADR(HMI1.CB411_Closed)),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J59" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=58,CBID:=411,Flow:=ADR(HMI1.Flow_411),Status:=ADR(HMI1.CB411_Closed),Vpu:=ADR(HMI1.CB411_Vpu),VLgood:=ADR(HMI1.CB411_VLgood)),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>412</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="11"/>
+      <c r="D60" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B60)</f>
         <v>HMI1.Flow_412</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="12"/>
+      <c r="E60" t="str">
+        <f>CONCATENATE("HMI1.CB",B60,"_Closed")</f>
         <v>HMI1.CB412_Closed</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB412_Vpu</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB412_VLgood</v>
+      </c>
+      <c r="I60" t="str">
+        <f>CONCATENATE("CB", B60, "_MODBUS")</f>
         <v>CB412_MODBUS</v>
       </c>
-      <c r="G60" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="15"/>
-        <v>(ID:=59,CBID:=412,Flow:=ADR(HMI1.Flow_412),Status:=ADR(HMI1.CB412_Closed)),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J60" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>(ID:=59,CBID:=412,Flow:=ADR(HMI1.Flow_412),Status:=ADR(HMI1.CB412_Closed),Vpu:=ADR(HMI1.CB412_Vpu),VLgood:=ADR(HMI1.CB412_VLgood)),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>413</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="11"/>
+      <c r="D61" t="str">
+        <f>CONCATENATE("HMI1.Flow_",B61)</f>
         <v>HMI1.Flow_413</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="12"/>
+      <c r="E61" t="str">
+        <f>CONCATENATE("HMI1.CB",B61,"_Closed")</f>
         <v>HMI1.CB413_Closed</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
+        <v>HMI1.CB413_Vpu</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="3"/>
+        <v>HMI1.CB413_VLgood</v>
+      </c>
+      <c r="I61" t="str">
+        <f>CONCATENATE("CB", B61, "_MODBUS")</f>
         <v>CB413_MODBUS</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="15"/>
-        <v>(ID:=60,CBID:=413,Flow:=ADR(HMI1.Flow_413),Status:=ADR(HMI1.CB413_Closed)),</v>
+      <c r="J61" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <f>CONCATENATE("(ID:=",A61,",CBID:=",B61,",Flow:=ADR(HMI1.Flow_",B61,"),Status:=ADR(",E61,"),Vpu:=ADR(",F61,"),VLgood:=ADR(",G61,")",K61,"),")</f>
+        <v>(ID:=60,CBID:=413,Flow:=ADR(HMI1.Flow_413),Status:=ADR(HMI1.CB413_Closed),Vpu:=ADR(HMI1.CB413_Vpu),VLgood:=ADR(HMI1.CB413_VLgood)),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2160,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f>INDEX(HMI_signals!E:E,B2+1)</f>
+        <f>INDEX(HMI_signals!H:H,B2+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -2173,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f>INDEX(HMI_signals!E:E,B3+1)</f>
+        <f>INDEX(HMI_signals!H:H,B3+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -2186,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="str">
-        <f>INDEX(HMI_signals!E:E,B4+1)</f>
+        <f>INDEX(HMI_signals!H:H,B4+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -2199,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="str">
-        <f>INDEX(HMI_signals!E:E,B5+1)</f>
+        <f>INDEX(HMI_signals!H:H,B5+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -2212,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="str">
-        <f>INDEX(HMI_signals!E:E,B6+1)</f>
+        <f>INDEX(HMI_signals!H:H,B6+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -2225,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>INDEX(HMI_signals!E:E,B7+1)</f>
+        <f>INDEX(HMI_signals!H:H,B7+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -2238,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="str">
-        <f>INDEX(HMI_signals!E:E,B8+1)</f>
+        <f>INDEX(HMI_signals!H:H,B8+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -2251,7 +2996,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="str">
-        <f>INDEX(HMI_signals!E:E,B9+1)</f>
+        <f>INDEX(HMI_signals!H:H,B9+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -2264,7 +3009,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="str">
-        <f>INDEX(HMI_signals!E:E,B10+1)</f>
+        <f>INDEX(HMI_signals!H:H,B10+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -2277,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="str">
-        <f>INDEX(HMI_signals!E:E,B11+1)</f>
+        <f>INDEX(HMI_signals!H:H,B11+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -2290,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="str">
-        <f>INDEX(HMI_signals!E:E,B12+1)</f>
+        <f>INDEX(HMI_signals!H:H,B12+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -2303,7 +3048,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="str">
-        <f>INDEX(HMI_signals!E:E,B13+1)</f>
+        <f>INDEX(HMI_signals!H:H,B13+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -2316,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="str">
-        <f>INDEX(HMI_signals!E:E,B14+1)</f>
+        <f>INDEX(HMI_signals!H:H,B14+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -2329,7 +3074,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="str">
-        <f>INDEX(HMI_signals!E:E,B15+1)</f>
+        <f>INDEX(HMI_signals!H:H,B15+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -2342,7 +3087,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="str">
-        <f>INDEX(HMI_signals!E:E,B16+1)</f>
+        <f>INDEX(HMI_signals!H:H,B16+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -2355,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="str">
-        <f>INDEX(HMI_signals!E:E,B17+1)</f>
+        <f>INDEX(HMI_signals!H:H,B17+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -2368,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="str">
-        <f>INDEX(HMI_signals!E:E,B18+1)</f>
+        <f>INDEX(HMI_signals!H:H,B18+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -2381,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="str">
-        <f>INDEX(HMI_signals!E:E,B19+1)</f>
+        <f>INDEX(HMI_signals!H:H,B19+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -2394,7 +3139,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="str">
-        <f>INDEX(HMI_signals!E:E,B20+1)</f>
+        <f>INDEX(HMI_signals!H:H,B20+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -2407,7 +3152,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="str">
-        <f>INDEX(HMI_signals!E:E,B21+1)</f>
+        <f>INDEX(HMI_signals!H:H,B21+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -2420,7 +3165,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f>INDEX(HMI_signals!E:E,B22+1)</f>
+        <f>INDEX(HMI_signals!H:H,B22+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2433,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <f>INDEX(HMI_signals!E:E,B23+1)</f>
+        <f>INDEX(HMI_signals!H:H,B23+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2446,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <f>INDEX(HMI_signals!E:E,B24+1)</f>
+        <f>INDEX(HMI_signals!H:H,B24+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2459,7 +3204,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <f>INDEX(HMI_signals!E:E,B25+1)</f>
+        <f>INDEX(HMI_signals!H:H,B25+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2472,7 +3217,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <f>INDEX(HMI_signals!E:E,B26+1)</f>
+        <f>INDEX(HMI_signals!H:H,B26+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2485,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <f>INDEX(HMI_signals!E:E,B27+1)</f>
+        <f>INDEX(HMI_signals!H:H,B27+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <f>INDEX(HMI_signals!E:E,B28+1)</f>
+        <f>INDEX(HMI_signals!H:H,B28+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2511,7 +3256,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <f>INDEX(HMI_signals!E:E,B29+1)</f>
+        <f>INDEX(HMI_signals!H:H,B29+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2524,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <f>INDEX(HMI_signals!E:E,B30+1)</f>
+        <f>INDEX(HMI_signals!H:H,B30+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2537,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <f>INDEX(HMI_signals!E:E,B31+1)</f>
+        <f>INDEX(HMI_signals!H:H,B31+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2550,7 +3295,7 @@
         <v>8</v>
       </c>
       <c r="C32">
-        <f>INDEX(HMI_signals!E:E,B32+1)</f>
+        <f>INDEX(HMI_signals!H:H,B32+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2563,7 +3308,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <f>INDEX(HMI_signals!E:E,B33+1)</f>
+        <f>INDEX(HMI_signals!H:H,B33+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2576,7 +3321,7 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <f>INDEX(HMI_signals!E:E,B34+1)</f>
+        <f>INDEX(HMI_signals!H:H,B34+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2589,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <f>INDEX(HMI_signals!E:E,B35+1)</f>
+        <f>INDEX(HMI_signals!H:H,B35+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2602,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <f>INDEX(HMI_signals!E:E,B36+1)</f>
+        <f>INDEX(HMI_signals!H:H,B36+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2615,7 +3360,7 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <f>INDEX(HMI_signals!E:E,B37+1)</f>
+        <f>INDEX(HMI_signals!H:H,B37+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2628,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="str">
-        <f>INDEX(HMI_signals!E:E,B38+1)</f>
+        <f>INDEX(HMI_signals!H:H,B38+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -2641,7 +3386,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="str">
-        <f>INDEX(HMI_signals!E:E,B39+1)</f>
+        <f>INDEX(HMI_signals!H:H,B39+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -2654,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="C40" t="str">
-        <f>INDEX(HMI_signals!E:E,B40+1)</f>
+        <f>INDEX(HMI_signals!H:H,B40+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -2667,7 +3412,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="str">
-        <f>INDEX(HMI_signals!E:E,B41+1)</f>
+        <f>INDEX(HMI_signals!H:H,B41+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -2680,7 +3425,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="str">
-        <f>INDEX(HMI_signals!E:E,B42+1)</f>
+        <f>INDEX(HMI_signals!H:H,B42+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -2693,7 +3438,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="str">
-        <f>INDEX(HMI_signals!E:E,B43+1)</f>
+        <f>INDEX(HMI_signals!H:H,B43+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -2706,7 +3451,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="str">
-        <f>INDEX(HMI_signals!E:E,B44+1)</f>
+        <f>INDEX(HMI_signals!H:H,B44+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -2719,7 +3464,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="str">
-        <f>INDEX(HMI_signals!E:E,B45+1)</f>
+        <f>INDEX(HMI_signals!H:H,B45+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -2732,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="C46" t="str">
-        <f>INDEX(HMI_signals!E:E,B46+1)</f>
+        <f>INDEX(HMI_signals!H:H,B46+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -2745,7 +3490,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="str">
-        <f>INDEX(HMI_signals!E:E,B47+1)</f>
+        <f>INDEX(HMI_signals!H:H,B47+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -2758,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="C48" t="str">
-        <f>INDEX(HMI_signals!E:E,B48+1)</f>
+        <f>INDEX(HMI_signals!H:H,B48+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -2771,7 +3516,7 @@
         <v>12</v>
       </c>
       <c r="C49" t="str">
-        <f>INDEX(HMI_signals!E:E,B49+1)</f>
+        <f>INDEX(HMI_signals!H:H,B49+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -2784,7 +3529,7 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <f>INDEX(HMI_signals!E:E,B50+1)</f>
+        <f>INDEX(HMI_signals!H:H,B50+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <f>INDEX(HMI_signals!E:E,B51+1)</f>
+        <f>INDEX(HMI_signals!H:H,B51+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2810,7 +3555,7 @@
         <v>13</v>
       </c>
       <c r="C52">
-        <f>INDEX(HMI_signals!E:E,B52+1)</f>
+        <f>INDEX(HMI_signals!H:H,B52+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2823,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <f>INDEX(HMI_signals!E:E,B53+1)</f>
+        <f>INDEX(HMI_signals!H:H,B53+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2836,7 +3581,7 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <f>INDEX(HMI_signals!E:E,B54+1)</f>
+        <f>INDEX(HMI_signals!H:H,B54+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2849,7 +3594,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <f>INDEX(HMI_signals!E:E,B55+1)</f>
+        <f>INDEX(HMI_signals!H:H,B55+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2862,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <f>INDEX(HMI_signals!E:E,B56+1)</f>
+        <f>INDEX(HMI_signals!H:H,B56+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2875,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <f>INDEX(HMI_signals!E:E,B57+1)</f>
+        <f>INDEX(HMI_signals!H:H,B57+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2888,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="C58">
-        <f>INDEX(HMI_signals!E:E,B58+1)</f>
+        <f>INDEX(HMI_signals!H:H,B58+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2901,7 +3646,7 @@
         <v>15</v>
       </c>
       <c r="C59">
-        <f>INDEX(HMI_signals!E:E,B59+1)</f>
+        <f>INDEX(HMI_signals!H:H,B59+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2914,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <f>INDEX(HMI_signals!E:E,B60+1)</f>
+        <f>INDEX(HMI_signals!H:H,B60+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +3672,7 @@
         <v>15</v>
       </c>
       <c r="C61">
-        <f>INDEX(HMI_signals!E:E,B61+1)</f>
+        <f>INDEX(HMI_signals!H:H,B61+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2940,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="C62">
-        <f>INDEX(HMI_signals!E:E,B62+1)</f>
+        <f>INDEX(HMI_signals!H:H,B62+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2953,7 +3698,7 @@
         <v>16</v>
       </c>
       <c r="C63">
-        <f>INDEX(HMI_signals!E:E,B63+1)</f>
+        <f>INDEX(HMI_signals!H:H,B63+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2966,7 +3711,7 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <f>INDEX(HMI_signals!E:E,B64+1)</f>
+        <f>INDEX(HMI_signals!H:H,B64+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2979,7 +3724,7 @@
         <v>16</v>
       </c>
       <c r="C65">
-        <f>INDEX(HMI_signals!E:E,B65+1)</f>
+        <f>INDEX(HMI_signals!H:H,B65+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -2992,7 +3737,7 @@
         <v>17</v>
       </c>
       <c r="C66">
-        <f>INDEX(HMI_signals!E:E,B66+1)</f>
+        <f>INDEX(HMI_signals!H:H,B66+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3005,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="C67">
-        <f>INDEX(HMI_signals!E:E,B67+1)</f>
+        <f>INDEX(HMI_signals!H:H,B67+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3018,7 +3763,7 @@
         <v>17</v>
       </c>
       <c r="C68">
-        <f>INDEX(HMI_signals!E:E,B68+1)</f>
+        <f>INDEX(HMI_signals!H:H,B68+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3776,7 @@
         <v>17</v>
       </c>
       <c r="C69">
-        <f>INDEX(HMI_signals!E:E,B69+1)</f>
+        <f>INDEX(HMI_signals!H:H,B69+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +3789,7 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <f>INDEX(HMI_signals!E:E,B70+1)</f>
+        <f>INDEX(HMI_signals!H:H,B70+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3057,7 +3802,7 @@
         <v>18</v>
       </c>
       <c r="C71">
-        <f>INDEX(HMI_signals!E:E,B71+1)</f>
+        <f>INDEX(HMI_signals!H:H,B71+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3070,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <f>INDEX(HMI_signals!E:E,B72+1)</f>
+        <f>INDEX(HMI_signals!H:H,B72+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3083,7 +3828,7 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <f>INDEX(HMI_signals!E:E,B73+1)</f>
+        <f>INDEX(HMI_signals!H:H,B73+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3096,7 +3841,7 @@
         <v>19</v>
       </c>
       <c r="C74">
-        <f>INDEX(HMI_signals!E:E,B74+1)</f>
+        <f>INDEX(HMI_signals!H:H,B74+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3109,7 +3854,7 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <f>INDEX(HMI_signals!E:E,B75+1)</f>
+        <f>INDEX(HMI_signals!H:H,B75+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3122,7 +3867,7 @@
         <v>19</v>
       </c>
       <c r="C76">
-        <f>INDEX(HMI_signals!E:E,B76+1)</f>
+        <f>INDEX(HMI_signals!H:H,B76+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3135,7 +3880,7 @@
         <v>19</v>
       </c>
       <c r="C77">
-        <f>INDEX(HMI_signals!E:E,B77+1)</f>
+        <f>INDEX(HMI_signals!H:H,B77+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3148,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="C78">
-        <f>INDEX(HMI_signals!E:E,B78+1)</f>
+        <f>INDEX(HMI_signals!H:H,B78+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3161,7 +3906,7 @@
         <v>20</v>
       </c>
       <c r="C79">
-        <f>INDEX(HMI_signals!E:E,B79+1)</f>
+        <f>INDEX(HMI_signals!H:H,B79+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3174,7 +3919,7 @@
         <v>20</v>
       </c>
       <c r="C80">
-        <f>INDEX(HMI_signals!E:E,B80+1)</f>
+        <f>INDEX(HMI_signals!H:H,B80+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3187,7 +3932,7 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <f>INDEX(HMI_signals!E:E,B81+1)</f>
+        <f>INDEX(HMI_signals!H:H,B81+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3200,7 +3945,7 @@
         <v>21</v>
       </c>
       <c r="C82">
-        <f>INDEX(HMI_signals!E:E,B82+1)</f>
+        <f>INDEX(HMI_signals!H:H,B82+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3213,7 +3958,7 @@
         <v>21</v>
       </c>
       <c r="C83">
-        <f>INDEX(HMI_signals!E:E,B83+1)</f>
+        <f>INDEX(HMI_signals!H:H,B83+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3226,7 +3971,7 @@
         <v>21</v>
       </c>
       <c r="C84">
-        <f>INDEX(HMI_signals!E:E,B84+1)</f>
+        <f>INDEX(HMI_signals!H:H,B84+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3239,7 +3984,7 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <f>INDEX(HMI_signals!E:E,B85+1)</f>
+        <f>INDEX(HMI_signals!H:H,B85+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3252,7 +3997,7 @@
         <v>22</v>
       </c>
       <c r="C86" t="str">
-        <f>INDEX(HMI_signals!E:E,B86+1)</f>
+        <f>INDEX(HMI_signals!H:H,B86+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -3265,7 +4010,7 @@
         <v>22</v>
       </c>
       <c r="C87" t="str">
-        <f>INDEX(HMI_signals!E:E,B87+1)</f>
+        <f>INDEX(HMI_signals!H:H,B87+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -3278,7 +4023,7 @@
         <v>22</v>
       </c>
       <c r="C88" t="str">
-        <f>INDEX(HMI_signals!E:E,B88+1)</f>
+        <f>INDEX(HMI_signals!H:H,B88+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -3291,7 +4036,7 @@
         <v>22</v>
       </c>
       <c r="C89" t="str">
-        <f>INDEX(HMI_signals!E:E,B89+1)</f>
+        <f>INDEX(HMI_signals!H:H,B89+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -3304,7 +4049,7 @@
         <v>23</v>
       </c>
       <c r="C90">
-        <f>INDEX(HMI_signals!E:E,B90+1)</f>
+        <f>INDEX(HMI_signals!H:H,B90+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +4062,7 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <f>INDEX(HMI_signals!E:E,B91+1)</f>
+        <f>INDEX(HMI_signals!H:H,B91+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3330,7 +4075,7 @@
         <v>23</v>
       </c>
       <c r="C92">
-        <f>INDEX(HMI_signals!E:E,B92+1)</f>
+        <f>INDEX(HMI_signals!H:H,B92+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3343,7 +4088,7 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <f>INDEX(HMI_signals!E:E,B93+1)</f>
+        <f>INDEX(HMI_signals!H:H,B93+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3356,7 +4101,7 @@
         <v>24</v>
       </c>
       <c r="C94">
-        <f>INDEX(HMI_signals!E:E,B94+1)</f>
+        <f>INDEX(HMI_signals!H:H,B94+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3369,7 +4114,7 @@
         <v>24</v>
       </c>
       <c r="C95">
-        <f>INDEX(HMI_signals!E:E,B95+1)</f>
+        <f>INDEX(HMI_signals!H:H,B95+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3382,7 +4127,7 @@
         <v>24</v>
       </c>
       <c r="C96">
-        <f>INDEX(HMI_signals!E:E,B96+1)</f>
+        <f>INDEX(HMI_signals!H:H,B96+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3395,7 +4140,7 @@
         <v>24</v>
       </c>
       <c r="C97">
-        <f>INDEX(HMI_signals!E:E,B97+1)</f>
+        <f>INDEX(HMI_signals!H:H,B97+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3408,7 +4153,7 @@
         <v>25</v>
       </c>
       <c r="C98" t="str">
-        <f>INDEX(HMI_signals!E:E,B98+1)</f>
+        <f>INDEX(HMI_signals!H:H,B98+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -3421,7 +4166,7 @@
         <v>25</v>
       </c>
       <c r="C99" t="str">
-        <f>INDEX(HMI_signals!E:E,B99+1)</f>
+        <f>INDEX(HMI_signals!H:H,B99+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -3434,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="C100" t="str">
-        <f>INDEX(HMI_signals!E:E,B100+1)</f>
+        <f>INDEX(HMI_signals!H:H,B100+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -3447,7 +4192,7 @@
         <v>25</v>
       </c>
       <c r="C101" t="str">
-        <f>INDEX(HMI_signals!E:E,B101+1)</f>
+        <f>INDEX(HMI_signals!H:H,B101+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -3460,7 +4205,7 @@
         <v>26</v>
       </c>
       <c r="C102" t="str">
-        <f>INDEX(HMI_signals!E:E,B102+1)</f>
+        <f>INDEX(HMI_signals!H:H,B102+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -3473,7 +4218,7 @@
         <v>26</v>
       </c>
       <c r="C103" t="str">
-        <f>INDEX(HMI_signals!E:E,B103+1)</f>
+        <f>INDEX(HMI_signals!H:H,B103+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -3486,7 +4231,7 @@
         <v>26</v>
       </c>
       <c r="C104" t="str">
-        <f>INDEX(HMI_signals!E:E,B104+1)</f>
+        <f>INDEX(HMI_signals!H:H,B104+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -3499,7 +4244,7 @@
         <v>26</v>
       </c>
       <c r="C105" t="str">
-        <f>INDEX(HMI_signals!E:E,B105+1)</f>
+        <f>INDEX(HMI_signals!H:H,B105+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -3512,7 +4257,7 @@
         <v>27</v>
       </c>
       <c r="C106">
-        <f>INDEX(HMI_signals!E:E,B106+1)</f>
+        <f>INDEX(HMI_signals!H:H,B106+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +4270,7 @@
         <v>27</v>
       </c>
       <c r="C107">
-        <f>INDEX(HMI_signals!E:E,B107+1)</f>
+        <f>INDEX(HMI_signals!H:H,B107+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +4283,7 @@
         <v>27</v>
       </c>
       <c r="C108">
-        <f>INDEX(HMI_signals!E:E,B108+1)</f>
+        <f>INDEX(HMI_signals!H:H,B108+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3551,7 +4296,7 @@
         <v>27</v>
       </c>
       <c r="C109">
-        <f>INDEX(HMI_signals!E:E,B109+1)</f>
+        <f>INDEX(HMI_signals!H:H,B109+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3564,7 +4309,7 @@
         <v>28</v>
       </c>
       <c r="C110">
-        <f>INDEX(HMI_signals!E:E,B110+1)</f>
+        <f>INDEX(HMI_signals!H:H,B110+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +4322,7 @@
         <v>28</v>
       </c>
       <c r="C111">
-        <f>INDEX(HMI_signals!E:E,B111+1)</f>
+        <f>INDEX(HMI_signals!H:H,B111+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +4335,7 @@
         <v>28</v>
       </c>
       <c r="C112">
-        <f>INDEX(HMI_signals!E:E,B112+1)</f>
+        <f>INDEX(HMI_signals!H:H,B112+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3603,7 +4348,7 @@
         <v>28</v>
       </c>
       <c r="C113">
-        <f>INDEX(HMI_signals!E:E,B113+1)</f>
+        <f>INDEX(HMI_signals!H:H,B113+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3616,7 +4361,7 @@
         <v>29</v>
       </c>
       <c r="C114" t="str">
-        <f>INDEX(HMI_signals!E:E,B114+1)</f>
+        <f>INDEX(HMI_signals!H:H,B114+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -3629,7 +4374,7 @@
         <v>29</v>
       </c>
       <c r="C115" t="str">
-        <f>INDEX(HMI_signals!E:E,B115+1)</f>
+        <f>INDEX(HMI_signals!H:H,B115+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -3642,7 +4387,7 @@
         <v>29</v>
       </c>
       <c r="C116" t="str">
-        <f>INDEX(HMI_signals!E:E,B116+1)</f>
+        <f>INDEX(HMI_signals!H:H,B116+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -3655,7 +4400,7 @@
         <v>29</v>
       </c>
       <c r="C117" t="str">
-        <f>INDEX(HMI_signals!E:E,B117+1)</f>
+        <f>INDEX(HMI_signals!H:H,B117+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -3668,7 +4413,7 @@
         <v>30</v>
       </c>
       <c r="C118" t="str">
-        <f>INDEX(HMI_signals!E:E,B118+1)</f>
+        <f>INDEX(HMI_signals!H:H,B118+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -3681,7 +4426,7 @@
         <v>30</v>
       </c>
       <c r="C119" t="str">
-        <f>INDEX(HMI_signals!E:E,B119+1)</f>
+        <f>INDEX(HMI_signals!H:H,B119+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -3694,7 +4439,7 @@
         <v>30</v>
       </c>
       <c r="C120" t="str">
-        <f>INDEX(HMI_signals!E:E,B120+1)</f>
+        <f>INDEX(HMI_signals!H:H,B120+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -3707,7 +4452,7 @@
         <v>30</v>
       </c>
       <c r="C121" t="str">
-        <f>INDEX(HMI_signals!E:E,B121+1)</f>
+        <f>INDEX(HMI_signals!H:H,B121+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -3720,7 +4465,7 @@
         <v>31</v>
       </c>
       <c r="C122" t="str">
-        <f>INDEX(HMI_signals!E:E,B122+1)</f>
+        <f>INDEX(HMI_signals!H:H,B122+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -3733,7 +4478,7 @@
         <v>31</v>
       </c>
       <c r="C123" t="str">
-        <f>INDEX(HMI_signals!E:E,B123+1)</f>
+        <f>INDEX(HMI_signals!H:H,B123+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -3746,7 +4491,7 @@
         <v>31</v>
       </c>
       <c r="C124" t="str">
-        <f>INDEX(HMI_signals!E:E,B124+1)</f>
+        <f>INDEX(HMI_signals!H:H,B124+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -3759,7 +4504,7 @@
         <v>31</v>
       </c>
       <c r="C125" t="str">
-        <f>INDEX(HMI_signals!E:E,B125+1)</f>
+        <f>INDEX(HMI_signals!H:H,B125+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -3772,7 +4517,7 @@
         <v>32</v>
       </c>
       <c r="C126">
-        <f>INDEX(HMI_signals!E:E,B126+1)</f>
+        <f>INDEX(HMI_signals!H:H,B126+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3785,7 +4530,7 @@
         <v>32</v>
       </c>
       <c r="C127">
-        <f>INDEX(HMI_signals!E:E,B127+1)</f>
+        <f>INDEX(HMI_signals!H:H,B127+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3798,7 +4543,7 @@
         <v>32</v>
       </c>
       <c r="C128">
-        <f>INDEX(HMI_signals!E:E,B128+1)</f>
+        <f>INDEX(HMI_signals!H:H,B128+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3811,7 +4556,7 @@
         <v>32</v>
       </c>
       <c r="C129">
-        <f>INDEX(HMI_signals!E:E,B129+1)</f>
+        <f>INDEX(HMI_signals!H:H,B129+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +4569,7 @@
         <v>33</v>
       </c>
       <c r="C130">
-        <f>INDEX(HMI_signals!E:E,B130+1)</f>
+        <f>INDEX(HMI_signals!H:H,B130+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3837,7 +4582,7 @@
         <v>33</v>
       </c>
       <c r="C131">
-        <f>INDEX(HMI_signals!E:E,B131+1)</f>
+        <f>INDEX(HMI_signals!H:H,B131+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3850,7 +4595,7 @@
         <v>33</v>
       </c>
       <c r="C132">
-        <f>INDEX(HMI_signals!E:E,B132+1)</f>
+        <f>INDEX(HMI_signals!H:H,B132+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3863,7 +4608,7 @@
         <v>33</v>
       </c>
       <c r="C133">
-        <f>INDEX(HMI_signals!E:E,B133+1)</f>
+        <f>INDEX(HMI_signals!H:H,B133+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3876,7 +4621,7 @@
         <v>34</v>
       </c>
       <c r="C134">
-        <f>INDEX(HMI_signals!E:E,B134+1)</f>
+        <f>INDEX(HMI_signals!H:H,B134+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3889,7 +4634,7 @@
         <v>34</v>
       </c>
       <c r="C135">
-        <f>INDEX(HMI_signals!E:E,B135+1)</f>
+        <f>INDEX(HMI_signals!H:H,B135+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3902,7 +4647,7 @@
         <v>34</v>
       </c>
       <c r="C136">
-        <f>INDEX(HMI_signals!E:E,B136+1)</f>
+        <f>INDEX(HMI_signals!H:H,B136+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3915,7 +4660,7 @@
         <v>34</v>
       </c>
       <c r="C137">
-        <f>INDEX(HMI_signals!E:E,B137+1)</f>
+        <f>INDEX(HMI_signals!H:H,B137+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3928,7 +4673,7 @@
         <v>35</v>
       </c>
       <c r="C138">
-        <f>INDEX(HMI_signals!E:E,B138+1)</f>
+        <f>INDEX(HMI_signals!H:H,B138+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3941,7 +4686,7 @@
         <v>35</v>
       </c>
       <c r="C139">
-        <f>INDEX(HMI_signals!E:E,B139+1)</f>
+        <f>INDEX(HMI_signals!H:H,B139+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3954,7 +4699,7 @@
         <v>35</v>
       </c>
       <c r="C140">
-        <f>INDEX(HMI_signals!E:E,B140+1)</f>
+        <f>INDEX(HMI_signals!H:H,B140+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3967,7 +4712,7 @@
         <v>35</v>
       </c>
       <c r="C141">
-        <f>INDEX(HMI_signals!E:E,B141+1)</f>
+        <f>INDEX(HMI_signals!H:H,B141+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3980,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="C142" t="str">
-        <f>INDEX(HMI_signals!E:E,B142+1)</f>
+        <f>INDEX(HMI_signals!H:H,B142+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -3993,7 +4738,7 @@
         <v>36</v>
       </c>
       <c r="C143" t="str">
-        <f>INDEX(HMI_signals!E:E,B143+1)</f>
+        <f>INDEX(HMI_signals!H:H,B143+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -4006,7 +4751,7 @@
         <v>36</v>
       </c>
       <c r="C144" t="str">
-        <f>INDEX(HMI_signals!E:E,B144+1)</f>
+        <f>INDEX(HMI_signals!H:H,B144+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -4019,7 +4764,7 @@
         <v>36</v>
       </c>
       <c r="C145" t="str">
-        <f>INDEX(HMI_signals!E:E,B145+1)</f>
+        <f>INDEX(HMI_signals!H:H,B145+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -4032,7 +4777,7 @@
         <v>37</v>
       </c>
       <c r="C146" t="str">
-        <f>INDEX(HMI_signals!E:E,B146+1)</f>
+        <f>INDEX(HMI_signals!H:H,B146+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -4045,7 +4790,7 @@
         <v>37</v>
       </c>
       <c r="C147" t="str">
-        <f>INDEX(HMI_signals!E:E,B147+1)</f>
+        <f>INDEX(HMI_signals!H:H,B147+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -4058,7 +4803,7 @@
         <v>37</v>
       </c>
       <c r="C148" t="str">
-        <f>INDEX(HMI_signals!E:E,B148+1)</f>
+        <f>INDEX(HMI_signals!H:H,B148+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -4071,7 +4816,7 @@
         <v>37</v>
       </c>
       <c r="C149" t="str">
-        <f>INDEX(HMI_signals!E:E,B149+1)</f>
+        <f>INDEX(HMI_signals!H:H,B149+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -4084,7 +4829,7 @@
         <v>38</v>
       </c>
       <c r="C150">
-        <f>INDEX(HMI_signals!E:E,B150+1)</f>
+        <f>INDEX(HMI_signals!H:H,B150+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4097,7 +4842,7 @@
         <v>38</v>
       </c>
       <c r="C151">
-        <f>INDEX(HMI_signals!E:E,B151+1)</f>
+        <f>INDEX(HMI_signals!H:H,B151+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4110,7 +4855,7 @@
         <v>38</v>
       </c>
       <c r="C152">
-        <f>INDEX(HMI_signals!E:E,B152+1)</f>
+        <f>INDEX(HMI_signals!H:H,B152+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4123,7 +4868,7 @@
         <v>38</v>
       </c>
       <c r="C153">
-        <f>INDEX(HMI_signals!E:E,B153+1)</f>
+        <f>INDEX(HMI_signals!H:H,B153+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4136,7 +4881,7 @@
         <v>39</v>
       </c>
       <c r="C154" t="str">
-        <f>INDEX(HMI_signals!E:E,B154+1)</f>
+        <f>INDEX(HMI_signals!H:H,B154+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -4149,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="C155" t="str">
-        <f>INDEX(HMI_signals!E:E,B155+1)</f>
+        <f>INDEX(HMI_signals!H:H,B155+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -4162,7 +4907,7 @@
         <v>39</v>
       </c>
       <c r="C156" t="str">
-        <f>INDEX(HMI_signals!E:E,B156+1)</f>
+        <f>INDEX(HMI_signals!H:H,B156+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -4175,7 +4920,7 @@
         <v>39</v>
       </c>
       <c r="C157" t="str">
-        <f>INDEX(HMI_signals!E:E,B157+1)</f>
+        <f>INDEX(HMI_signals!H:H,B157+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -4188,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="C158">
-        <f>INDEX(HMI_signals!E:E,B158+1)</f>
+        <f>INDEX(HMI_signals!H:H,B158+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4201,7 +4946,7 @@
         <v>40</v>
       </c>
       <c r="C159">
-        <f>INDEX(HMI_signals!E:E,B159+1)</f>
+        <f>INDEX(HMI_signals!H:H,B159+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4214,7 +4959,7 @@
         <v>40</v>
       </c>
       <c r="C160">
-        <f>INDEX(HMI_signals!E:E,B160+1)</f>
+        <f>INDEX(HMI_signals!H:H,B160+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +4972,7 @@
         <v>40</v>
       </c>
       <c r="C161">
-        <f>INDEX(HMI_signals!E:E,B161+1)</f>
+        <f>INDEX(HMI_signals!H:H,B161+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4240,7 +4985,7 @@
         <v>41</v>
       </c>
       <c r="C162" t="str">
-        <f>INDEX(HMI_signals!E:E,B162+1)</f>
+        <f>INDEX(HMI_signals!H:H,B162+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -4253,7 +4998,7 @@
         <v>41</v>
       </c>
       <c r="C163" t="str">
-        <f>INDEX(HMI_signals!E:E,B163+1)</f>
+        <f>INDEX(HMI_signals!H:H,B163+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -4266,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="C164" t="str">
-        <f>INDEX(HMI_signals!E:E,B164+1)</f>
+        <f>INDEX(HMI_signals!H:H,B164+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -4279,7 +5024,7 @@
         <v>41</v>
       </c>
       <c r="C165" t="str">
-        <f>INDEX(HMI_signals!E:E,B165+1)</f>
+        <f>INDEX(HMI_signals!H:H,B165+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -4292,7 +5037,7 @@
         <v>42</v>
       </c>
       <c r="C166">
-        <f>INDEX(HMI_signals!E:E,B166+1)</f>
+        <f>INDEX(HMI_signals!H:H,B166+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4305,7 +5050,7 @@
         <v>42</v>
       </c>
       <c r="C167">
-        <f>INDEX(HMI_signals!E:E,B167+1)</f>
+        <f>INDEX(HMI_signals!H:H,B167+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4318,7 +5063,7 @@
         <v>42</v>
       </c>
       <c r="C168">
-        <f>INDEX(HMI_signals!E:E,B168+1)</f>
+        <f>INDEX(HMI_signals!H:H,B168+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4331,7 +5076,7 @@
         <v>42</v>
       </c>
       <c r="C169">
-        <f>INDEX(HMI_signals!E:E,B169+1)</f>
+        <f>INDEX(HMI_signals!H:H,B169+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4344,7 +5089,7 @@
         <v>43</v>
       </c>
       <c r="C170">
-        <f>INDEX(HMI_signals!E:E,B170+1)</f>
+        <f>INDEX(HMI_signals!H:H,B170+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4357,7 +5102,7 @@
         <v>43</v>
       </c>
       <c r="C171">
-        <f>INDEX(HMI_signals!E:E,B171+1)</f>
+        <f>INDEX(HMI_signals!H:H,B171+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4370,7 +5115,7 @@
         <v>43</v>
       </c>
       <c r="C172">
-        <f>INDEX(HMI_signals!E:E,B172+1)</f>
+        <f>INDEX(HMI_signals!H:H,B172+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4383,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="C173">
-        <f>INDEX(HMI_signals!E:E,B173+1)</f>
+        <f>INDEX(HMI_signals!H:H,B173+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4396,7 +5141,7 @@
         <v>44</v>
       </c>
       <c r="C174">
-        <f>INDEX(HMI_signals!E:E,B174+1)</f>
+        <f>INDEX(HMI_signals!H:H,B174+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4409,7 +5154,7 @@
         <v>44</v>
       </c>
       <c r="C175">
-        <f>INDEX(HMI_signals!E:E,B175+1)</f>
+        <f>INDEX(HMI_signals!H:H,B175+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4422,7 +5167,7 @@
         <v>44</v>
       </c>
       <c r="C176">
-        <f>INDEX(HMI_signals!E:E,B176+1)</f>
+        <f>INDEX(HMI_signals!H:H,B176+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4435,7 +5180,7 @@
         <v>44</v>
       </c>
       <c r="C177">
-        <f>INDEX(HMI_signals!E:E,B177+1)</f>
+        <f>INDEX(HMI_signals!H:H,B177+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4448,7 +5193,7 @@
         <v>45</v>
       </c>
       <c r="C178">
-        <f>INDEX(HMI_signals!E:E,B178+1)</f>
+        <f>INDEX(HMI_signals!H:H,B178+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4461,7 +5206,7 @@
         <v>45</v>
       </c>
       <c r="C179">
-        <f>INDEX(HMI_signals!E:E,B179+1)</f>
+        <f>INDEX(HMI_signals!H:H,B179+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4474,7 +5219,7 @@
         <v>45</v>
       </c>
       <c r="C180">
-        <f>INDEX(HMI_signals!E:E,B180+1)</f>
+        <f>INDEX(HMI_signals!H:H,B180+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4487,7 +5232,7 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <f>INDEX(HMI_signals!E:E,B181+1)</f>
+        <f>INDEX(HMI_signals!H:H,B181+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4500,7 +5245,7 @@
         <v>46</v>
       </c>
       <c r="C182">
-        <f>INDEX(HMI_signals!E:E,B182+1)</f>
+        <f>INDEX(HMI_signals!H:H,B182+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4513,7 +5258,7 @@
         <v>46</v>
       </c>
       <c r="C183">
-        <f>INDEX(HMI_signals!E:E,B183+1)</f>
+        <f>INDEX(HMI_signals!H:H,B183+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4526,7 +5271,7 @@
         <v>46</v>
       </c>
       <c r="C184">
-        <f>INDEX(HMI_signals!E:E,B184+1)</f>
+        <f>INDEX(HMI_signals!H:H,B184+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +5284,7 @@
         <v>46</v>
       </c>
       <c r="C185">
-        <f>INDEX(HMI_signals!E:E,B185+1)</f>
+        <f>INDEX(HMI_signals!H:H,B185+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4552,7 +5297,7 @@
         <v>47</v>
       </c>
       <c r="C186">
-        <f>INDEX(HMI_signals!E:E,B186+1)</f>
+        <f>INDEX(HMI_signals!H:H,B186+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4565,7 +5310,7 @@
         <v>47</v>
       </c>
       <c r="C187">
-        <f>INDEX(HMI_signals!E:E,B187+1)</f>
+        <f>INDEX(HMI_signals!H:H,B187+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4578,7 +5323,7 @@
         <v>47</v>
       </c>
       <c r="C188">
-        <f>INDEX(HMI_signals!E:E,B188+1)</f>
+        <f>INDEX(HMI_signals!H:H,B188+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4591,7 +5336,7 @@
         <v>47</v>
       </c>
       <c r="C189">
-        <f>INDEX(HMI_signals!E:E,B189+1)</f>
+        <f>INDEX(HMI_signals!H:H,B189+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4604,7 +5349,7 @@
         <v>48</v>
       </c>
       <c r="C190">
-        <f>INDEX(HMI_signals!E:E,B190+1)</f>
+        <f>INDEX(HMI_signals!H:H,B190+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4617,7 +5362,7 @@
         <v>48</v>
       </c>
       <c r="C191">
-        <f>INDEX(HMI_signals!E:E,B191+1)</f>
+        <f>INDEX(HMI_signals!H:H,B191+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4630,7 +5375,7 @@
         <v>48</v>
       </c>
       <c r="C192">
-        <f>INDEX(HMI_signals!E:E,B192+1)</f>
+        <f>INDEX(HMI_signals!H:H,B192+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4643,7 +5388,7 @@
         <v>48</v>
       </c>
       <c r="C193">
-        <f>INDEX(HMI_signals!E:E,B193+1)</f>
+        <f>INDEX(HMI_signals!H:H,B193+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4656,7 +5401,7 @@
         <v>49</v>
       </c>
       <c r="C194">
-        <f>INDEX(HMI_signals!E:E,B194+1)</f>
+        <f>INDEX(HMI_signals!H:H,B194+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4669,7 +5414,7 @@
         <v>49</v>
       </c>
       <c r="C195">
-        <f>INDEX(HMI_signals!E:E,B195+1)</f>
+        <f>INDEX(HMI_signals!H:H,B195+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4682,7 +5427,7 @@
         <v>49</v>
       </c>
       <c r="C196">
-        <f>INDEX(HMI_signals!E:E,B196+1)</f>
+        <f>INDEX(HMI_signals!H:H,B196+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4695,7 +5440,7 @@
         <v>49</v>
       </c>
       <c r="C197">
-        <f>INDEX(HMI_signals!E:E,B197+1)</f>
+        <f>INDEX(HMI_signals!H:H,B197+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4708,7 +5453,7 @@
         <v>50</v>
       </c>
       <c r="C198">
-        <f>INDEX(HMI_signals!E:E,B198+1)</f>
+        <f>INDEX(HMI_signals!H:H,B198+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4721,7 +5466,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <f>INDEX(HMI_signals!E:E,B199+1)</f>
+        <f>INDEX(HMI_signals!H:H,B199+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4734,7 +5479,7 @@
         <v>50</v>
       </c>
       <c r="C200">
-        <f>INDEX(HMI_signals!E:E,B200+1)</f>
+        <f>INDEX(HMI_signals!H:H,B200+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4747,7 +5492,7 @@
         <v>50</v>
       </c>
       <c r="C201">
-        <f>INDEX(HMI_signals!E:E,B201+1)</f>
+        <f>INDEX(HMI_signals!H:H,B201+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4760,7 +5505,7 @@
         <v>51</v>
       </c>
       <c r="C202">
-        <f>INDEX(HMI_signals!E:E,B202+1)</f>
+        <f>INDEX(HMI_signals!H:H,B202+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4773,7 +5518,7 @@
         <v>51</v>
       </c>
       <c r="C203">
-        <f>INDEX(HMI_signals!E:E,B203+1)</f>
+        <f>INDEX(HMI_signals!H:H,B203+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4786,7 +5531,7 @@
         <v>51</v>
       </c>
       <c r="C204">
-        <f>INDEX(HMI_signals!E:E,B204+1)</f>
+        <f>INDEX(HMI_signals!H:H,B204+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4799,7 +5544,7 @@
         <v>51</v>
       </c>
       <c r="C205">
-        <f>INDEX(HMI_signals!E:E,B205+1)</f>
+        <f>INDEX(HMI_signals!H:H,B205+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4812,7 +5557,7 @@
         <v>52</v>
       </c>
       <c r="C206">
-        <f>INDEX(HMI_signals!E:E,B206+1)</f>
+        <f>INDEX(HMI_signals!H:H,B206+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4825,7 +5570,7 @@
         <v>52</v>
       </c>
       <c r="C207">
-        <f>INDEX(HMI_signals!E:E,B207+1)</f>
+        <f>INDEX(HMI_signals!H:H,B207+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +5583,7 @@
         <v>52</v>
       </c>
       <c r="C208">
-        <f>INDEX(HMI_signals!E:E,B208+1)</f>
+        <f>INDEX(HMI_signals!H:H,B208+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4851,7 +5596,7 @@
         <v>52</v>
       </c>
       <c r="C209">
-        <f>INDEX(HMI_signals!E:E,B209+1)</f>
+        <f>INDEX(HMI_signals!H:H,B209+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4864,7 +5609,7 @@
         <v>53</v>
       </c>
       <c r="C210">
-        <f>INDEX(HMI_signals!E:E,B210+1)</f>
+        <f>INDEX(HMI_signals!H:H,B210+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4877,7 +5622,7 @@
         <v>53</v>
       </c>
       <c r="C211">
-        <f>INDEX(HMI_signals!E:E,B211+1)</f>
+        <f>INDEX(HMI_signals!H:H,B211+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4890,7 +5635,7 @@
         <v>53</v>
       </c>
       <c r="C212">
-        <f>INDEX(HMI_signals!E:E,B212+1)</f>
+        <f>INDEX(HMI_signals!H:H,B212+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4903,7 +5648,7 @@
         <v>53</v>
       </c>
       <c r="C213">
-        <f>INDEX(HMI_signals!E:E,B213+1)</f>
+        <f>INDEX(HMI_signals!H:H,B213+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4916,7 +5661,7 @@
         <v>54</v>
       </c>
       <c r="C214">
-        <f>INDEX(HMI_signals!E:E,B214+1)</f>
+        <f>INDEX(HMI_signals!H:H,B214+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4929,7 +5674,7 @@
         <v>54</v>
       </c>
       <c r="C215">
-        <f>INDEX(HMI_signals!E:E,B215+1)</f>
+        <f>INDEX(HMI_signals!H:H,B215+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4942,7 +5687,7 @@
         <v>54</v>
       </c>
       <c r="C216">
-        <f>INDEX(HMI_signals!E:E,B216+1)</f>
+        <f>INDEX(HMI_signals!H:H,B216+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4955,7 +5700,7 @@
         <v>54</v>
       </c>
       <c r="C217">
-        <f>INDEX(HMI_signals!E:E,B217+1)</f>
+        <f>INDEX(HMI_signals!H:H,B217+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4968,7 +5713,7 @@
         <v>55</v>
       </c>
       <c r="C218">
-        <f>INDEX(HMI_signals!E:E,B218+1)</f>
+        <f>INDEX(HMI_signals!H:H,B218+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4981,7 +5726,7 @@
         <v>55</v>
       </c>
       <c r="C219">
-        <f>INDEX(HMI_signals!E:E,B219+1)</f>
+        <f>INDEX(HMI_signals!H:H,B219+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4994,7 +5739,7 @@
         <v>55</v>
       </c>
       <c r="C220">
-        <f>INDEX(HMI_signals!E:E,B220+1)</f>
+        <f>INDEX(HMI_signals!H:H,B220+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5007,7 +5752,7 @@
         <v>55</v>
       </c>
       <c r="C221">
-        <f>INDEX(HMI_signals!E:E,B221+1)</f>
+        <f>INDEX(HMI_signals!H:H,B221+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5020,7 +5765,7 @@
         <v>56</v>
       </c>
       <c r="C222">
-        <f>INDEX(HMI_signals!E:E,B222+1)</f>
+        <f>INDEX(HMI_signals!H:H,B222+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5033,7 +5778,7 @@
         <v>56</v>
       </c>
       <c r="C223">
-        <f>INDEX(HMI_signals!E:E,B223+1)</f>
+        <f>INDEX(HMI_signals!H:H,B223+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5046,7 +5791,7 @@
         <v>56</v>
       </c>
       <c r="C224">
-        <f>INDEX(HMI_signals!E:E,B224+1)</f>
+        <f>INDEX(HMI_signals!H:H,B224+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5059,7 +5804,7 @@
         <v>56</v>
       </c>
       <c r="C225">
-        <f>INDEX(HMI_signals!E:E,B225+1)</f>
+        <f>INDEX(HMI_signals!H:H,B225+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5072,7 +5817,7 @@
         <v>57</v>
       </c>
       <c r="C226">
-        <f>INDEX(HMI_signals!E:E,B226+1)</f>
+        <f>INDEX(HMI_signals!H:H,B226+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5085,7 +5830,7 @@
         <v>57</v>
       </c>
       <c r="C227">
-        <f>INDEX(HMI_signals!E:E,B227+1)</f>
+        <f>INDEX(HMI_signals!H:H,B227+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5098,7 +5843,7 @@
         <v>57</v>
       </c>
       <c r="C228">
-        <f>INDEX(HMI_signals!E:E,B228+1)</f>
+        <f>INDEX(HMI_signals!H:H,B228+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5856,7 @@
         <v>57</v>
       </c>
       <c r="C229">
-        <f>INDEX(HMI_signals!E:E,B229+1)</f>
+        <f>INDEX(HMI_signals!H:H,B229+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5124,7 +5869,7 @@
         <v>58</v>
       </c>
       <c r="C230">
-        <f>INDEX(HMI_signals!E:E,B230+1)</f>
+        <f>INDEX(HMI_signals!H:H,B230+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5137,7 +5882,7 @@
         <v>58</v>
       </c>
       <c r="C231">
-        <f>INDEX(HMI_signals!E:E,B231+1)</f>
+        <f>INDEX(HMI_signals!H:H,B231+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5150,7 +5895,7 @@
         <v>58</v>
       </c>
       <c r="C232">
-        <f>INDEX(HMI_signals!E:E,B232+1)</f>
+        <f>INDEX(HMI_signals!H:H,B232+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5163,7 +5908,7 @@
         <v>58</v>
       </c>
       <c r="C233">
-        <f>INDEX(HMI_signals!E:E,B233+1)</f>
+        <f>INDEX(HMI_signals!H:H,B233+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5176,7 +5921,7 @@
         <v>59</v>
       </c>
       <c r="C234">
-        <f>INDEX(HMI_signals!E:E,B234+1)</f>
+        <f>INDEX(HMI_signals!H:H,B234+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5189,7 +5934,7 @@
         <v>59</v>
       </c>
       <c r="C235">
-        <f>INDEX(HMI_signals!E:E,B235+1)</f>
+        <f>INDEX(HMI_signals!H:H,B235+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5202,7 +5947,7 @@
         <v>59</v>
       </c>
       <c r="C236">
-        <f>INDEX(HMI_signals!E:E,B236+1)</f>
+        <f>INDEX(HMI_signals!H:H,B236+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5215,7 +5960,7 @@
         <v>59</v>
       </c>
       <c r="C237">
-        <f>INDEX(HMI_signals!E:E,B237+1)</f>
+        <f>INDEX(HMI_signals!H:H,B237+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5228,7 +5973,7 @@
         <v>60</v>
       </c>
       <c r="C238">
-        <f>INDEX(HMI_signals!E:E,B238+1)</f>
+        <f>INDEX(HMI_signals!H:H,B238+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5241,7 +5986,7 @@
         <v>60</v>
       </c>
       <c r="C239">
-        <f>INDEX(HMI_signals!E:E,B239+1)</f>
+        <f>INDEX(HMI_signals!H:H,B239+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5254,7 +5999,7 @@
         <v>60</v>
       </c>
       <c r="C240">
-        <f>INDEX(HMI_signals!E:E,B240+1)</f>
+        <f>INDEX(HMI_signals!H:H,B240+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5267,7 +6012,7 @@
         <v>60</v>
       </c>
       <c r="C241">
-        <f>INDEX(HMI_signals!E:E,B241+1)</f>
+        <f>INDEX(HMI_signals!H:H,B241+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5280,7 +6025,7 @@
         <v>61</v>
       </c>
       <c r="C242">
-        <f>INDEX(HMI_signals!E:E,B242+1)</f>
+        <f>INDEX(HMI_signals!H:H,B242+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5293,7 +6038,7 @@
         <v>61</v>
       </c>
       <c r="C243">
-        <f>INDEX(HMI_signals!E:E,B243+1)</f>
+        <f>INDEX(HMI_signals!H:H,B243+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5306,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="C244">
-        <f>INDEX(HMI_signals!E:E,B244+1)</f>
+        <f>INDEX(HMI_signals!H:H,B244+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5319,7 +6064,7 @@
         <v>61</v>
       </c>
       <c r="C245">
-        <f>INDEX(HMI_signals!E:E,B245+1)</f>
+        <f>INDEX(HMI_signals!H:H,B245+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5332,7 +6077,7 @@
         <v>62</v>
       </c>
       <c r="C246">
-        <f>INDEX(HMI_signals!E:E,B246+1)</f>
+        <f>INDEX(HMI_signals!H:H,B246+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5345,7 +6090,7 @@
         <v>62</v>
       </c>
       <c r="C247">
-        <f>INDEX(HMI_signals!E:E,B247+1)</f>
+        <f>INDEX(HMI_signals!H:H,B247+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5358,7 +6103,7 @@
         <v>62</v>
       </c>
       <c r="C248">
-        <f>INDEX(HMI_signals!E:E,B248+1)</f>
+        <f>INDEX(HMI_signals!H:H,B248+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5371,7 +6116,7 @@
         <v>62</v>
       </c>
       <c r="C249">
-        <f>INDEX(HMI_signals!E:E,B249+1)</f>
+        <f>INDEX(HMI_signals!H:H,B249+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5384,7 +6129,7 @@
         <v>63</v>
       </c>
       <c r="C250">
-        <f>INDEX(HMI_signals!E:E,B250+1)</f>
+        <f>INDEX(HMI_signals!H:H,B250+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5397,7 +6142,7 @@
         <v>63</v>
       </c>
       <c r="C251">
-        <f>INDEX(HMI_signals!E:E,B251+1)</f>
+        <f>INDEX(HMI_signals!H:H,B251+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5410,7 +6155,7 @@
         <v>63</v>
       </c>
       <c r="C252">
-        <f>INDEX(HMI_signals!E:E,B252+1)</f>
+        <f>INDEX(HMI_signals!H:H,B252+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5423,7 +6168,7 @@
         <v>63</v>
       </c>
       <c r="C253">
-        <f>INDEX(HMI_signals!E:E,B253+1)</f>
+        <f>INDEX(HMI_signals!H:H,B253+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5436,7 +6181,7 @@
         <v>64</v>
       </c>
       <c r="C254">
-        <f>INDEX(HMI_signals!E:E,B254+1)</f>
+        <f>INDEX(HMI_signals!H:H,B254+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5449,7 +6194,7 @@
         <v>64</v>
       </c>
       <c r="C255">
-        <f>INDEX(HMI_signals!E:E,B255+1)</f>
+        <f>INDEX(HMI_signals!H:H,B255+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5462,7 +6207,7 @@
         <v>64</v>
       </c>
       <c r="C256">
-        <f>INDEX(HMI_signals!E:E,B256+1)</f>
+        <f>INDEX(HMI_signals!H:H,B256+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5475,7 +6220,7 @@
         <v>64</v>
       </c>
       <c r="C257">
-        <f>INDEX(HMI_signals!E:E,B257+1)</f>
+        <f>INDEX(HMI_signals!H:H,B257+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5488,7 +6233,7 @@
         <v>65</v>
       </c>
       <c r="C258">
-        <f>INDEX(HMI_signals!E:E,B258+1)</f>
+        <f>INDEX(HMI_signals!H:H,B258+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5501,7 +6246,7 @@
         <v>65</v>
       </c>
       <c r="C259">
-        <f>INDEX(HMI_signals!E:E,B259+1)</f>
+        <f>INDEX(HMI_signals!H:H,B259+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5514,7 +6259,7 @@
         <v>65</v>
       </c>
       <c r="C260">
-        <f>INDEX(HMI_signals!E:E,B260+1)</f>
+        <f>INDEX(HMI_signals!H:H,B260+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5527,7 +6272,7 @@
         <v>65</v>
       </c>
       <c r="C261">
-        <f>INDEX(HMI_signals!E:E,B261+1)</f>
+        <f>INDEX(HMI_signals!H:H,B261+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5540,7 +6285,7 @@
         <v>66</v>
       </c>
       <c r="C262">
-        <f>INDEX(HMI_signals!E:E,B262+1)</f>
+        <f>INDEX(HMI_signals!H:H,B262+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5553,7 +6298,7 @@
         <v>66</v>
       </c>
       <c r="C263">
-        <f>INDEX(HMI_signals!E:E,B263+1)</f>
+        <f>INDEX(HMI_signals!H:H,B263+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5566,7 +6311,7 @@
         <v>66</v>
       </c>
       <c r="C264">
-        <f>INDEX(HMI_signals!E:E,B264+1)</f>
+        <f>INDEX(HMI_signals!H:H,B264+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5579,7 +6324,7 @@
         <v>66</v>
       </c>
       <c r="C265">
-        <f>INDEX(HMI_signals!E:E,B265+1)</f>
+        <f>INDEX(HMI_signals!H:H,B265+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5592,7 +6337,7 @@
         <v>67</v>
       </c>
       <c r="C266">
-        <f>INDEX(HMI_signals!E:E,B266+1)</f>
+        <f>INDEX(HMI_signals!H:H,B266+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5605,7 +6350,7 @@
         <v>67</v>
       </c>
       <c r="C267">
-        <f>INDEX(HMI_signals!E:E,B267+1)</f>
+        <f>INDEX(HMI_signals!H:H,B267+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5618,7 +6363,7 @@
         <v>67</v>
       </c>
       <c r="C268">
-        <f>INDEX(HMI_signals!E:E,B268+1)</f>
+        <f>INDEX(HMI_signals!H:H,B268+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5631,7 +6376,7 @@
         <v>67</v>
       </c>
       <c r="C269">
-        <f>INDEX(HMI_signals!E:E,B269+1)</f>
+        <f>INDEX(HMI_signals!H:H,B269+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5644,7 +6389,7 @@
         <v>68</v>
       </c>
       <c r="C270">
-        <f>INDEX(HMI_signals!E:E,B270+1)</f>
+        <f>INDEX(HMI_signals!H:H,B270+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5657,7 +6402,7 @@
         <v>68</v>
       </c>
       <c r="C271">
-        <f>INDEX(HMI_signals!E:E,B271+1)</f>
+        <f>INDEX(HMI_signals!H:H,B271+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5670,7 +6415,7 @@
         <v>68</v>
       </c>
       <c r="C272">
-        <f>INDEX(HMI_signals!E:E,B272+1)</f>
+        <f>INDEX(HMI_signals!H:H,B272+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5683,7 +6428,7 @@
         <v>68</v>
       </c>
       <c r="C273">
-        <f>INDEX(HMI_signals!E:E,B273+1)</f>
+        <f>INDEX(HMI_signals!H:H,B273+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5696,7 +6441,7 @@
         <v>69</v>
       </c>
       <c r="C274">
-        <f>INDEX(HMI_signals!E:E,B274+1)</f>
+        <f>INDEX(HMI_signals!H:H,B274+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5709,7 +6454,7 @@
         <v>69</v>
       </c>
       <c r="C275">
-        <f>INDEX(HMI_signals!E:E,B275+1)</f>
+        <f>INDEX(HMI_signals!H:H,B275+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5722,7 +6467,7 @@
         <v>69</v>
       </c>
       <c r="C276">
-        <f>INDEX(HMI_signals!E:E,B276+1)</f>
+        <f>INDEX(HMI_signals!H:H,B276+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5735,7 +6480,7 @@
         <v>69</v>
       </c>
       <c r="C277">
-        <f>INDEX(HMI_signals!E:E,B277+1)</f>
+        <f>INDEX(HMI_signals!H:H,B277+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5748,7 +6493,7 @@
         <v>70</v>
       </c>
       <c r="C278">
-        <f>INDEX(HMI_signals!E:E,B278+1)</f>
+        <f>INDEX(HMI_signals!H:H,B278+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5761,7 +6506,7 @@
         <v>70</v>
       </c>
       <c r="C279">
-        <f>INDEX(HMI_signals!E:E,B279+1)</f>
+        <f>INDEX(HMI_signals!H:H,B279+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5774,7 +6519,7 @@
         <v>70</v>
       </c>
       <c r="C280">
-        <f>INDEX(HMI_signals!E:E,B280+1)</f>
+        <f>INDEX(HMI_signals!H:H,B280+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5787,7 +6532,7 @@
         <v>70</v>
       </c>
       <c r="C281">
-        <f>INDEX(HMI_signals!E:E,B281+1)</f>
+        <f>INDEX(HMI_signals!H:H,B281+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5800,7 +6545,7 @@
         <v>71</v>
       </c>
       <c r="C282">
-        <f>INDEX(HMI_signals!E:E,B282+1)</f>
+        <f>INDEX(HMI_signals!H:H,B282+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5813,7 +6558,7 @@
         <v>71</v>
       </c>
       <c r="C283">
-        <f>INDEX(HMI_signals!E:E,B283+1)</f>
+        <f>INDEX(HMI_signals!H:H,B283+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5826,7 +6571,7 @@
         <v>71</v>
       </c>
       <c r="C284">
-        <f>INDEX(HMI_signals!E:E,B284+1)</f>
+        <f>INDEX(HMI_signals!H:H,B284+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5839,7 +6584,7 @@
         <v>71</v>
       </c>
       <c r="C285">
-        <f>INDEX(HMI_signals!E:E,B285+1)</f>
+        <f>INDEX(HMI_signals!H:H,B285+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5852,7 +6597,7 @@
         <v>72</v>
       </c>
       <c r="C286">
-        <f>INDEX(HMI_signals!E:E,B286+1)</f>
+        <f>INDEX(HMI_signals!H:H,B286+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5865,7 +6610,7 @@
         <v>72</v>
       </c>
       <c r="C287">
-        <f>INDEX(HMI_signals!E:E,B287+1)</f>
+        <f>INDEX(HMI_signals!H:H,B287+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5878,7 +6623,7 @@
         <v>72</v>
       </c>
       <c r="C288">
-        <f>INDEX(HMI_signals!E:E,B288+1)</f>
+        <f>INDEX(HMI_signals!H:H,B288+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5891,7 +6636,7 @@
         <v>72</v>
       </c>
       <c r="C289">
-        <f>INDEX(HMI_signals!E:E,B289+1)</f>
+        <f>INDEX(HMI_signals!H:H,B289+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5904,7 +6649,7 @@
         <v>73</v>
       </c>
       <c r="C290">
-        <f>INDEX(HMI_signals!E:E,B290+1)</f>
+        <f>INDEX(HMI_signals!H:H,B290+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5917,7 +6662,7 @@
         <v>73</v>
       </c>
       <c r="C291">
-        <f>INDEX(HMI_signals!E:E,B291+1)</f>
+        <f>INDEX(HMI_signals!H:H,B291+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5930,7 +6675,7 @@
         <v>73</v>
       </c>
       <c r="C292">
-        <f>INDEX(HMI_signals!E:E,B292+1)</f>
+        <f>INDEX(HMI_signals!H:H,B292+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5943,7 +6688,7 @@
         <v>73</v>
       </c>
       <c r="C293">
-        <f>INDEX(HMI_signals!E:E,B293+1)</f>
+        <f>INDEX(HMI_signals!H:H,B293+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5956,7 +6701,7 @@
         <v>74</v>
       </c>
       <c r="C294">
-        <f>INDEX(HMI_signals!E:E,B294+1)</f>
+        <f>INDEX(HMI_signals!H:H,B294+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5969,7 +6714,7 @@
         <v>74</v>
       </c>
       <c r="C295">
-        <f>INDEX(HMI_signals!E:E,B295+1)</f>
+        <f>INDEX(HMI_signals!H:H,B295+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5982,7 +6727,7 @@
         <v>74</v>
       </c>
       <c r="C296">
-        <f>INDEX(HMI_signals!E:E,B296+1)</f>
+        <f>INDEX(HMI_signals!H:H,B296+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5995,7 +6740,7 @@
         <v>74</v>
       </c>
       <c r="C297">
-        <f>INDEX(HMI_signals!E:E,B297+1)</f>
+        <f>INDEX(HMI_signals!H:H,B297+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6008,7 +6753,7 @@
         <v>75</v>
       </c>
       <c r="C298">
-        <f>INDEX(HMI_signals!E:E,B298+1)</f>
+        <f>INDEX(HMI_signals!H:H,B298+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6021,7 +6766,7 @@
         <v>75</v>
       </c>
       <c r="C299">
-        <f>INDEX(HMI_signals!E:E,B299+1)</f>
+        <f>INDEX(HMI_signals!H:H,B299+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6034,7 +6779,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <f>INDEX(HMI_signals!E:E,B300+1)</f>
+        <f>INDEX(HMI_signals!H:H,B300+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6047,7 +6792,7 @@
         <v>75</v>
       </c>
       <c r="C301">
-        <f>INDEX(HMI_signals!E:E,B301+1)</f>
+        <f>INDEX(HMI_signals!H:H,B301+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6060,7 +6805,7 @@
         <v>76</v>
       </c>
       <c r="C302">
-        <f>INDEX(HMI_signals!E:E,B302+1)</f>
+        <f>INDEX(HMI_signals!H:H,B302+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6073,7 +6818,7 @@
         <v>76</v>
       </c>
       <c r="C303">
-        <f>INDEX(HMI_signals!E:E,B303+1)</f>
+        <f>INDEX(HMI_signals!H:H,B303+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6086,7 +6831,7 @@
         <v>76</v>
       </c>
       <c r="C304">
-        <f>INDEX(HMI_signals!E:E,B304+1)</f>
+        <f>INDEX(HMI_signals!H:H,B304+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6099,7 +6844,7 @@
         <v>76</v>
       </c>
       <c r="C305">
-        <f>INDEX(HMI_signals!E:E,B305+1)</f>
+        <f>INDEX(HMI_signals!H:H,B305+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6112,7 +6857,7 @@
         <v>77</v>
       </c>
       <c r="C306">
-        <f>INDEX(HMI_signals!E:E,B306+1)</f>
+        <f>INDEX(HMI_signals!H:H,B306+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6125,7 +6870,7 @@
         <v>77</v>
       </c>
       <c r="C307">
-        <f>INDEX(HMI_signals!E:E,B307+1)</f>
+        <f>INDEX(HMI_signals!H:H,B307+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6138,7 +6883,7 @@
         <v>77</v>
       </c>
       <c r="C308">
-        <f>INDEX(HMI_signals!E:E,B308+1)</f>
+        <f>INDEX(HMI_signals!H:H,B308+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6151,7 +6896,7 @@
         <v>77</v>
       </c>
       <c r="C309">
-        <f>INDEX(HMI_signals!E:E,B309+1)</f>
+        <f>INDEX(HMI_signals!H:H,B309+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6164,7 +6909,7 @@
         <v>78</v>
       </c>
       <c r="C310">
-        <f>INDEX(HMI_signals!E:E,B310+1)</f>
+        <f>INDEX(HMI_signals!H:H,B310+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6177,7 +6922,7 @@
         <v>78</v>
       </c>
       <c r="C311">
-        <f>INDEX(HMI_signals!E:E,B311+1)</f>
+        <f>INDEX(HMI_signals!H:H,B311+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6190,7 +6935,7 @@
         <v>78</v>
       </c>
       <c r="C312">
-        <f>INDEX(HMI_signals!E:E,B312+1)</f>
+        <f>INDEX(HMI_signals!H:H,B312+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6203,7 +6948,7 @@
         <v>78</v>
       </c>
       <c r="C313">
-        <f>INDEX(HMI_signals!E:E,B313+1)</f>
+        <f>INDEX(HMI_signals!H:H,B313+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6216,7 +6961,7 @@
         <v>79</v>
       </c>
       <c r="C314">
-        <f>INDEX(HMI_signals!E:E,B314+1)</f>
+        <f>INDEX(HMI_signals!H:H,B314+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6229,7 +6974,7 @@
         <v>79</v>
       </c>
       <c r="C315">
-        <f>INDEX(HMI_signals!E:E,B315+1)</f>
+        <f>INDEX(HMI_signals!H:H,B315+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6242,7 +6987,7 @@
         <v>79</v>
       </c>
       <c r="C316">
-        <f>INDEX(HMI_signals!E:E,B316+1)</f>
+        <f>INDEX(HMI_signals!H:H,B316+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6255,7 +7000,7 @@
         <v>79</v>
       </c>
       <c r="C317">
-        <f>INDEX(HMI_signals!E:E,B317+1)</f>
+        <f>INDEX(HMI_signals!H:H,B317+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6268,7 +7013,7 @@
         <v>80</v>
       </c>
       <c r="C318">
-        <f>INDEX(HMI_signals!E:E,B318+1)</f>
+        <f>INDEX(HMI_signals!H:H,B318+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6281,7 +7026,7 @@
         <v>80</v>
       </c>
       <c r="C319">
-        <f>INDEX(HMI_signals!E:E,B319+1)</f>
+        <f>INDEX(HMI_signals!H:H,B319+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6294,7 +7039,7 @@
         <v>80</v>
       </c>
       <c r="C320">
-        <f>INDEX(HMI_signals!E:E,B320+1)</f>
+        <f>INDEX(HMI_signals!H:H,B320+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6307,7 +7052,7 @@
         <v>80</v>
       </c>
       <c r="C321">
-        <f>INDEX(HMI_signals!E:E,B321+1)</f>
+        <f>INDEX(HMI_signals!H:H,B321+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6320,7 +7065,7 @@
         <v>81</v>
       </c>
       <c r="C322">
-        <f>INDEX(HMI_signals!E:E,B322+1)</f>
+        <f>INDEX(HMI_signals!H:H,B322+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6333,7 +7078,7 @@
         <v>81</v>
       </c>
       <c r="C323">
-        <f>INDEX(HMI_signals!E:E,B323+1)</f>
+        <f>INDEX(HMI_signals!H:H,B323+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6346,7 +7091,7 @@
         <v>81</v>
       </c>
       <c r="C324">
-        <f>INDEX(HMI_signals!E:E,B324+1)</f>
+        <f>INDEX(HMI_signals!H:H,B324+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6359,7 +7104,7 @@
         <v>81</v>
       </c>
       <c r="C325">
-        <f>INDEX(HMI_signals!E:E,B325+1)</f>
+        <f>INDEX(HMI_signals!H:H,B325+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6372,7 +7117,7 @@
         <v>82</v>
       </c>
       <c r="C326">
-        <f>INDEX(HMI_signals!E:E,B326+1)</f>
+        <f>INDEX(HMI_signals!H:H,B326+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6385,7 +7130,7 @@
         <v>82</v>
       </c>
       <c r="C327">
-        <f>INDEX(HMI_signals!E:E,B327+1)</f>
+        <f>INDEX(HMI_signals!H:H,B327+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6398,7 +7143,7 @@
         <v>82</v>
       </c>
       <c r="C328">
-        <f>INDEX(HMI_signals!E:E,B328+1)</f>
+        <f>INDEX(HMI_signals!H:H,B328+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6411,7 +7156,7 @@
         <v>82</v>
       </c>
       <c r="C329">
-        <f>INDEX(HMI_signals!E:E,B329+1)</f>
+        <f>INDEX(HMI_signals!H:H,B329+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6424,7 +7169,7 @@
         <v>83</v>
       </c>
       <c r="C330">
-        <f>INDEX(HMI_signals!E:E,B330+1)</f>
+        <f>INDEX(HMI_signals!H:H,B330+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6437,7 +7182,7 @@
         <v>83</v>
       </c>
       <c r="C331">
-        <f>INDEX(HMI_signals!E:E,B331+1)</f>
+        <f>INDEX(HMI_signals!H:H,B331+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6450,7 +7195,7 @@
         <v>83</v>
       </c>
       <c r="C332">
-        <f>INDEX(HMI_signals!E:E,B332+1)</f>
+        <f>INDEX(HMI_signals!H:H,B332+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6463,7 +7208,7 @@
         <v>83</v>
       </c>
       <c r="C333">
-        <f>INDEX(HMI_signals!E:E,B333+1)</f>
+        <f>INDEX(HMI_signals!H:H,B333+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6476,7 +7221,7 @@
         <v>84</v>
       </c>
       <c r="C334">
-        <f>INDEX(HMI_signals!E:E,B334+1)</f>
+        <f>INDEX(HMI_signals!H:H,B334+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6489,7 +7234,7 @@
         <v>84</v>
       </c>
       <c r="C335">
-        <f>INDEX(HMI_signals!E:E,B335+1)</f>
+        <f>INDEX(HMI_signals!H:H,B335+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6502,7 +7247,7 @@
         <v>84</v>
       </c>
       <c r="C336">
-        <f>INDEX(HMI_signals!E:E,B336+1)</f>
+        <f>INDEX(HMI_signals!H:H,B336+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6515,7 +7260,7 @@
         <v>84</v>
       </c>
       <c r="C337">
-        <f>INDEX(HMI_signals!E:E,B337+1)</f>
+        <f>INDEX(HMI_signals!H:H,B337+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6528,7 +7273,7 @@
         <v>85</v>
       </c>
       <c r="C338">
-        <f>INDEX(HMI_signals!E:E,B338+1)</f>
+        <f>INDEX(HMI_signals!H:H,B338+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6541,7 +7286,7 @@
         <v>85</v>
       </c>
       <c r="C339">
-        <f>INDEX(HMI_signals!E:E,B339+1)</f>
+        <f>INDEX(HMI_signals!H:H,B339+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6554,7 +7299,7 @@
         <v>85</v>
       </c>
       <c r="C340">
-        <f>INDEX(HMI_signals!E:E,B340+1)</f>
+        <f>INDEX(HMI_signals!H:H,B340+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6567,7 +7312,7 @@
         <v>85</v>
       </c>
       <c r="C341">
-        <f>INDEX(HMI_signals!E:E,B341+1)</f>
+        <f>INDEX(HMI_signals!H:H,B341+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6580,7 +7325,7 @@
         <v>86</v>
       </c>
       <c r="C342">
-        <f>INDEX(HMI_signals!E:E,B342+1)</f>
+        <f>INDEX(HMI_signals!H:H,B342+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6593,7 +7338,7 @@
         <v>86</v>
       </c>
       <c r="C343">
-        <f>INDEX(HMI_signals!E:E,B343+1)</f>
+        <f>INDEX(HMI_signals!H:H,B343+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6606,7 +7351,7 @@
         <v>86</v>
       </c>
       <c r="C344">
-        <f>INDEX(HMI_signals!E:E,B344+1)</f>
+        <f>INDEX(HMI_signals!H:H,B344+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6619,7 +7364,7 @@
         <v>86</v>
       </c>
       <c r="C345">
-        <f>INDEX(HMI_signals!E:E,B345+1)</f>
+        <f>INDEX(HMI_signals!H:H,B345+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6632,7 +7377,7 @@
         <v>87</v>
       </c>
       <c r="C346">
-        <f>INDEX(HMI_signals!E:E,B346+1)</f>
+        <f>INDEX(HMI_signals!H:H,B346+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6645,7 +7390,7 @@
         <v>87</v>
       </c>
       <c r="C347">
-        <f>INDEX(HMI_signals!E:E,B347+1)</f>
+        <f>INDEX(HMI_signals!H:H,B347+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6658,7 +7403,7 @@
         <v>87</v>
       </c>
       <c r="C348">
-        <f>INDEX(HMI_signals!E:E,B348+1)</f>
+        <f>INDEX(HMI_signals!H:H,B348+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6671,7 +7416,7 @@
         <v>87</v>
       </c>
       <c r="C349">
-        <f>INDEX(HMI_signals!E:E,B349+1)</f>
+        <f>INDEX(HMI_signals!H:H,B349+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6684,7 +7429,7 @@
         <v>88</v>
       </c>
       <c r="C350">
-        <f>INDEX(HMI_signals!E:E,B350+1)</f>
+        <f>INDEX(HMI_signals!H:H,B350+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6697,7 +7442,7 @@
         <v>88</v>
       </c>
       <c r="C351">
-        <f>INDEX(HMI_signals!E:E,B351+1)</f>
+        <f>INDEX(HMI_signals!H:H,B351+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6710,7 +7455,7 @@
         <v>88</v>
       </c>
       <c r="C352">
-        <f>INDEX(HMI_signals!E:E,B352+1)</f>
+        <f>INDEX(HMI_signals!H:H,B352+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6723,7 +7468,7 @@
         <v>88</v>
       </c>
       <c r="C353">
-        <f>INDEX(HMI_signals!E:E,B353+1)</f>
+        <f>INDEX(HMI_signals!H:H,B353+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6736,7 +7481,7 @@
         <v>89</v>
       </c>
       <c r="C354">
-        <f>INDEX(HMI_signals!E:E,B354+1)</f>
+        <f>INDEX(HMI_signals!H:H,B354+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6749,7 +7494,7 @@
         <v>89</v>
       </c>
       <c r="C355">
-        <f>INDEX(HMI_signals!E:E,B355+1)</f>
+        <f>INDEX(HMI_signals!H:H,B355+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6762,7 +7507,7 @@
         <v>89</v>
       </c>
       <c r="C356">
-        <f>INDEX(HMI_signals!E:E,B356+1)</f>
+        <f>INDEX(HMI_signals!H:H,B356+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6775,7 +7520,7 @@
         <v>89</v>
       </c>
       <c r="C357">
-        <f>INDEX(HMI_signals!E:E,B357+1)</f>
+        <f>INDEX(HMI_signals!H:H,B357+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6788,7 +7533,7 @@
         <v>90</v>
       </c>
       <c r="C358">
-        <f>INDEX(HMI_signals!E:E,B358+1)</f>
+        <f>INDEX(HMI_signals!H:H,B358+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6801,7 +7546,7 @@
         <v>90</v>
       </c>
       <c r="C359">
-        <f>INDEX(HMI_signals!E:E,B359+1)</f>
+        <f>INDEX(HMI_signals!H:H,B359+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6814,7 +7559,7 @@
         <v>90</v>
       </c>
       <c r="C360">
-        <f>INDEX(HMI_signals!E:E,B360+1)</f>
+        <f>INDEX(HMI_signals!H:H,B360+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6827,7 +7572,7 @@
         <v>90</v>
       </c>
       <c r="C361">
-        <f>INDEX(HMI_signals!E:E,B361+1)</f>
+        <f>INDEX(HMI_signals!H:H,B361+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6840,7 +7585,7 @@
         <v>91</v>
       </c>
       <c r="C362">
-        <f>INDEX(HMI_signals!E:E,B362+1)</f>
+        <f>INDEX(HMI_signals!H:H,B362+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6853,7 +7598,7 @@
         <v>91</v>
       </c>
       <c r="C363">
-        <f>INDEX(HMI_signals!E:E,B363+1)</f>
+        <f>INDEX(HMI_signals!H:H,B363+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6866,7 +7611,7 @@
         <v>91</v>
       </c>
       <c r="C364">
-        <f>INDEX(HMI_signals!E:E,B364+1)</f>
+        <f>INDEX(HMI_signals!H:H,B364+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6879,7 +7624,7 @@
         <v>91</v>
       </c>
       <c r="C365">
-        <f>INDEX(HMI_signals!E:E,B365+1)</f>
+        <f>INDEX(HMI_signals!H:H,B365+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6892,7 +7637,7 @@
         <v>92</v>
       </c>
       <c r="C366">
-        <f>INDEX(HMI_signals!E:E,B366+1)</f>
+        <f>INDEX(HMI_signals!H:H,B366+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6905,7 +7650,7 @@
         <v>92</v>
       </c>
       <c r="C367">
-        <f>INDEX(HMI_signals!E:E,B367+1)</f>
+        <f>INDEX(HMI_signals!H:H,B367+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6918,7 +7663,7 @@
         <v>92</v>
       </c>
       <c r="C368">
-        <f>INDEX(HMI_signals!E:E,B368+1)</f>
+        <f>INDEX(HMI_signals!H:H,B368+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6931,7 +7676,7 @@
         <v>92</v>
       </c>
       <c r="C369">
-        <f>INDEX(HMI_signals!E:E,B369+1)</f>
+        <f>INDEX(HMI_signals!H:H,B369+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6944,7 +7689,7 @@
         <v>93</v>
       </c>
       <c r="C370">
-        <f>INDEX(HMI_signals!E:E,B370+1)</f>
+        <f>INDEX(HMI_signals!H:H,B370+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6957,7 +7702,7 @@
         <v>93</v>
       </c>
       <c r="C371">
-        <f>INDEX(HMI_signals!E:E,B371+1)</f>
+        <f>INDEX(HMI_signals!H:H,B371+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6970,7 +7715,7 @@
         <v>93</v>
       </c>
       <c r="C372">
-        <f>INDEX(HMI_signals!E:E,B372+1)</f>
+        <f>INDEX(HMI_signals!H:H,B372+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6983,7 +7728,7 @@
         <v>93</v>
       </c>
       <c r="C373">
-        <f>INDEX(HMI_signals!E:E,B373+1)</f>
+        <f>INDEX(HMI_signals!H:H,B373+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6996,7 +7741,7 @@
         <v>94</v>
       </c>
       <c r="C374">
-        <f>INDEX(HMI_signals!E:E,B374+1)</f>
+        <f>INDEX(HMI_signals!H:H,B374+1)</f>
         <v>0</v>
       </c>
     </row>

--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI61"/>
+  <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L61" sqref="L2:L61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,11 +408,11 @@
         <v>301</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B2)</f>
+        <f t="shared" ref="D2:D33" si="0">CONCATENATE("HMI1.Flow_",B2)</f>
         <v>HMI1.Flow_301</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE("HMI1.CB",B2,"_Closed")</f>
+        <f t="shared" ref="E2:E33" si="1">CONCATENATE("HMI1.CB",B2,"_Closed")</f>
         <v>HMI1.CB301_Closed</v>
       </c>
       <c r="F2" t="str">
@@ -428,11 +428,11 @@
         <v>HMI1.CB301_Cmd</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE("CB", B2, "_MODBUS")</f>
+        <f t="shared" ref="I2:I33" si="2">CONCATENATE("CB", B2, "_MODBUS")</f>
         <v>CB301_MODBUS</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J48" si="0">IF(C2="","",CONCATENATE("HMI1.BUS",C2,"_Stat"))</f>
+        <f t="shared" ref="J2:J48" si="3">IF(C2="","",CONCATENATE("HMI1.BUS",C2,"_Stat"))</f>
         <v/>
       </c>
       <c r="K2" t="str">
@@ -440,7 +440,7 @@
         <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L60" si="1">CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",E2,"),Vpu:=ADR(",F2,"),VLgood:=ADR(",G2,")",K2,"),")</f>
+        <f t="shared" ref="L2:L62" si="4">CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",E2,"),Vpu:=ADR(",F2,"),VLgood:=ADR(",G2,")",K2,"),")</f>
         <v>(ID:=1,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
       </c>
       <c r="AI2" t="s">
@@ -455,19 +455,19 @@
         <v>302</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B3)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_302</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE("HMI1.CB",B3,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB302_Closed</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F61" si="2">CONCATENATE("HMI1.CB",B3,"_Vpu")</f>
+        <f t="shared" ref="F3:F63" si="5">CONCATENATE("HMI1.CB",B3,"_Vpu")</f>
         <v>HMI1.CB302_Vpu</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G61" si="3">CONCATENATE("HMI1.CB",B3,"_VLgood")</f>
+        <f t="shared" ref="G3:G63" si="6">CONCATENATE("HMI1.CB",B3,"_VLgood")</f>
         <v>HMI1.CB302_VLgood</v>
       </c>
       <c r="H3" t="str">
@@ -475,19 +475,19 @@
         <v>HMI1.CB302_Cmd</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE("CB", B3, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB302_MODBUS</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K48" si="4">IF(H3="","",CONCATENATE(",IOCCmd:=ADR(",H3,"),MBCmd:=ADR(",I3,".CMD),MBRst:=ADR(",I3,".RST)"))</f>
+        <f t="shared" ref="K3:K50" si="7">IF(H3="","",CONCATENATE(",IOCCmd:=ADR(",H3,"),MBCmd:=ADR(",I3,".CMD),MBRst:=ADR(",I3,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=2,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
       </c>
     </row>
@@ -499,19 +499,19 @@
         <v>303</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B4)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_303</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE("HMI1.CB",B4,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB303_Closed</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB303_Vpu</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB303_VLgood</v>
       </c>
       <c r="H4" t="str">
@@ -519,19 +519,19 @@
         <v>HMI1.CB303_Cmd</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE("CB", B4, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB303_MODBUS</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=3,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
       </c>
     </row>
@@ -543,19 +543,19 @@
         <v>304</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B5)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_304</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE("HMI1.CB",B5,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB304_Closed</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB304_Vpu</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB304_VLgood</v>
       </c>
       <c r="H5" t="str">
@@ -563,19 +563,19 @@
         <v>HMI1.CB304_Cmd</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE("CB", B5, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB304_MODBUS</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=4,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
       </c>
     </row>
@@ -587,19 +587,19 @@
         <v>305</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B6)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_305</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE("HMI1.CB",B6,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB305_Closed</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB305_Vpu</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB305_VLgood</v>
       </c>
       <c r="H6" t="str">
@@ -607,19 +607,19 @@
         <v>HMI1.CB305_Cmd</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE("CB", B6, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB305_MODBUS</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=5,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
       </c>
     </row>
@@ -631,35 +631,35 @@
         <v>306</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B7)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_306</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE("HMI1.CB",B7,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB306_Closed</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB306_Vpu</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB306_VLgood</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE("CB", B7, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB306_MODBUS</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=6,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
       </c>
     </row>
@@ -671,35 +671,35 @@
         <v>307</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B8)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_307</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE("HMI1.CB",B8,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB307_Closed</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB307_Vpu</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB307_VLgood</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE("CB", B8, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB307_MODBUS</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=7,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
       </c>
     </row>
@@ -711,35 +711,35 @@
         <v>308</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B9)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_308</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE("HMI1.CB",B9,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB308_Closed</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB308_Vpu</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB308_VLgood</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE("CB", B9, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB308_MODBUS</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=8,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
       </c>
     </row>
@@ -751,35 +751,35 @@
         <v>309</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B10)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_309</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE("HMI1.CB",B10,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB309_Closed</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB309_Vpu</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB309_VLgood</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE("CB", B10, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB309_MODBUS</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=9,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
       </c>
     </row>
@@ -791,19 +791,19 @@
         <v>201</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B11)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_201</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("HMI1.CB",B11,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB201_Closed</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB201_Vpu</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB201_VLgood</v>
       </c>
       <c r="H11" t="str">
@@ -811,19 +811,19 @@
         <v>HMI1.CB201_Cmd</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE("CB", B11, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB201_MODBUS</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=10,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
       </c>
     </row>
@@ -835,19 +835,19 @@
         <v>202</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B12)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_202</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE("HMI1.CB",B12,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB202_Closed</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB202_Vpu</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB202_VLgood</v>
       </c>
       <c r="H12" t="str">
@@ -855,19 +855,19 @@
         <v>HMI1.CB202_Cmd</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE("CB", B12, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB202_MODBUS</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=11,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
       </c>
     </row>
@@ -879,19 +879,19 @@
         <v>203</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B13)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_203</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE("HMI1.CB",B13,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB203_Closed</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB203_Vpu</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB203_VLgood</v>
       </c>
       <c r="H13" t="str">
@@ -899,19 +899,19 @@
         <v>HMI1.CB203_Cmd</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE("CB", B13, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB203_MODBUS</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=12,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
       </c>
     </row>
@@ -923,35 +923,35 @@
         <v>204</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B14)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_204</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE("HMI1.CB",B14,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB204_Closed</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB204_Vpu</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB204_VLgood</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE("CB", B14, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB204_MODBUS</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=13,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
       </c>
     </row>
@@ -963,35 +963,35 @@
         <v>205</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B15)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_205</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE("HMI1.CB",B15,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB205_Closed</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB205_Vpu</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB205_VLgood</v>
       </c>
       <c r="I15" t="str">
-        <f>CONCATENATE("CB", B15, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB205_MODBUS</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=14,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
       </c>
     </row>
@@ -1003,35 +1003,35 @@
         <v>206</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B16)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_206</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE("HMI1.CB",B16,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB206_Closed</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB206_Vpu</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB206_VLgood</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE("CB", B16, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB206_MODBUS</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=15,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
       </c>
     </row>
@@ -1043,35 +1043,35 @@
         <v>207</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B17)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_207</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE("HMI1.CB",B17,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB207_Closed</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB207_Vpu</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB207_VLgood</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE("CB", B17, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB207_MODBUS</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=16,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
       </c>
     </row>
@@ -1083,35 +1083,35 @@
         <v>208</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B18)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_208</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE("HMI1.CB",B18,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB208_Closed</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB208_Vpu</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB208_VLgood</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE("CB", B18, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB208_MODBUS</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=17,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
       </c>
     </row>
@@ -1123,35 +1123,35 @@
         <v>209</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B19)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_209</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE("HMI1.CB",B19,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB209_Closed</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB209_Vpu</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB209_VLgood</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE("CB", B19, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB209_MODBUS</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=18,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
       </c>
     </row>
@@ -1163,35 +1163,35 @@
         <v>210</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B20)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_210</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE("HMI1.CB",B20,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB210_Closed</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB210_Vpu</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB210_VLgood</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE("CB", B20, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB210_MODBUS</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=19,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
       </c>
     </row>
@@ -1203,35 +1203,35 @@
         <v>211</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B21)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_211</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE("HMI1.CB",B21,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB211_Closed</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB211_Vpu</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB211_VLgood</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE("CB", B21, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB211_MODBUS</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=20,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
       </c>
     </row>
@@ -1243,35 +1243,35 @@
         <v>212</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B22)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_212</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE("HMI1.CB",B22,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB212_Closed</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB212_Vpu</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB212_VLgood</v>
       </c>
       <c r="I22" t="str">
-        <f>CONCATENATE("CB", B22, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB212_MODBUS</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=21,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
       </c>
     </row>
@@ -1283,19 +1283,19 @@
         <v>213</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B23)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_213</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE("HMI1.CB",B23,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB213_Closed</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB213_Vpu</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB213_VLgood</v>
       </c>
       <c r="H23" t="str">
@@ -1303,19 +1303,19 @@
         <v>HMI1.CB213_Cmd</v>
       </c>
       <c r="I23" t="str">
-        <f>CONCATENATE("CB", B23, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB213_MODBUS</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=22,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1327,35 +1327,35 @@
         <v>214</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B24)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_214</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("HMI1.CB",B24,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB214_Closed</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB214_Vpu</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB214_VLgood</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE("CB", B24, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB214_MODBUS</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=23,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
       </c>
     </row>
@@ -1367,35 +1367,35 @@
         <v>215</v>
       </c>
       <c r="D25" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B25)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_215</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE("HMI1.CB",B25,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB215_Closed</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB215_Vpu</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB215_VLgood</v>
       </c>
       <c r="I25" t="str">
-        <f>CONCATENATE("CB", B25, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB215_MODBUS</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=24,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
       </c>
     </row>
@@ -1407,19 +1407,19 @@
         <v>216</v>
       </c>
       <c r="D26" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B26)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_216</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE("HMI1.CB",B26,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB216_Closed</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB216_Vpu</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB216_VLgood</v>
       </c>
       <c r="H26" t="str">
@@ -1427,19 +1427,19 @@
         <v>HMI1.CB216_Cmd</v>
       </c>
       <c r="I26" t="str">
-        <f>CONCATENATE("CB", B26, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB216_MODBUS</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=25,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1451,19 +1451,19 @@
         <v>217</v>
       </c>
       <c r="D27" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B27)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_217</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE("HMI1.CB",B27,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB217_Closed</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB217_Vpu</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB217_VLgood</v>
       </c>
       <c r="H27" t="str">
@@ -1471,19 +1471,19 @@
         <v>HMI1.CB217_Cmd</v>
       </c>
       <c r="I27" t="str">
-        <f>CONCATENATE("CB", B27, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB217_MODBUS</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=26,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1495,35 +1495,35 @@
         <v>218</v>
       </c>
       <c r="D28" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B28)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_218</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE("HMI1.CB",B28,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB218_Closed</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB218_Vpu</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB218_VLgood</v>
       </c>
       <c r="I28" t="str">
-        <f>CONCATENATE("CB", B28, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB218_MODBUS</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=27,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
       </c>
     </row>
@@ -1535,35 +1535,35 @@
         <v>219</v>
       </c>
       <c r="D29" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B29)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_219</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE("HMI1.CB",B29,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB219_Closed</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB219_Vpu</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB219_VLgood</v>
       </c>
       <c r="I29" t="str">
-        <f>CONCATENATE("CB", B29, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB219_MODBUS</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=28,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
       </c>
     </row>
@@ -1575,19 +1575,19 @@
         <v>101</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B30)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_101</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE("HMI1.CB",B30,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB101_Closed</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB101_Vpu</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB101_VLgood</v>
       </c>
       <c r="H30" t="str">
@@ -1595,19 +1595,19 @@
         <v>HMI1.CB101_Cmd</v>
       </c>
       <c r="I30" t="str">
-        <f>CONCATENATE("CB", B30, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB101_MODBUS</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=29,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1619,19 +1619,19 @@
         <v>102</v>
       </c>
       <c r="D31" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B31)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_102</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE("HMI1.CB",B31,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB102_Closed</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB102_Vpu</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB102_VLgood</v>
       </c>
       <c r="H31" t="str">
@@ -1639,19 +1639,19 @@
         <v>HMI1.CB102_Cmd</v>
       </c>
       <c r="I31" t="str">
-        <f>CONCATENATE("CB", B31, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB102_MODBUS</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=30,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1663,19 +1663,19 @@
         <v>103</v>
       </c>
       <c r="D32" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B32)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_103</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE("HMI1.CB",B32,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB103_Closed</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB103_Vpu</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB103_VLgood</v>
       </c>
       <c r="H32" t="str">
@@ -1683,19 +1683,19 @@
         <v>HMI1.CB103_Cmd</v>
       </c>
       <c r="I32" t="str">
-        <f>CONCATENATE("CB", B32, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB103_MODBUS</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=31,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1707,35 +1707,35 @@
         <v>104</v>
       </c>
       <c r="D33" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B33)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_104</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE("HMI1.CB",B33,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB104_Closed</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB104_Vpu</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB104_VLgood</v>
       </c>
       <c r="I33" t="str">
-        <f>CONCATENATE("CB", B33, "_MODBUS")</f>
+        <f t="shared" si="2"/>
         <v>CB104_MODBUS</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=32,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
       </c>
     </row>
@@ -1747,35 +1747,35 @@
         <v>105</v>
       </c>
       <c r="D34" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B34)</f>
+        <f t="shared" ref="D34:D63" si="8">CONCATENATE("HMI1.Flow_",B34)</f>
         <v>HMI1.Flow_105</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE("HMI1.CB",B34,"_Closed")</f>
+        <f t="shared" ref="E34:E63" si="9">CONCATENATE("HMI1.CB",B34,"_Closed")</f>
         <v>HMI1.CB105_Closed</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB105_Vpu</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB105_VLgood</v>
       </c>
       <c r="I34" t="str">
-        <f>CONCATENATE("CB", B34, "_MODBUS")</f>
+        <f t="shared" ref="I34:I63" si="10">CONCATENATE("CB", B34, "_MODBUS")</f>
         <v>CB105_MODBUS</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=33,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
       </c>
     </row>
@@ -1787,35 +1787,35 @@
         <v>106</v>
       </c>
       <c r="D35" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B35)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_106</v>
       </c>
       <c r="E35" t="str">
-        <f>CONCATENATE("HMI1.CB",B35,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB106_Closed</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB106_Vpu</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB106_VLgood</v>
       </c>
       <c r="I35" t="str">
-        <f>CONCATENATE("CB", B35, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB106_MODBUS</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=34,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
       </c>
     </row>
@@ -1827,35 +1827,35 @@
         <v>107</v>
       </c>
       <c r="D36" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B36)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_107</v>
       </c>
       <c r="E36" t="str">
-        <f>CONCATENATE("HMI1.CB",B36,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB107_Closed</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB107_Vpu</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB107_VLgood</v>
       </c>
       <c r="I36" t="str">
-        <f>CONCATENATE("CB", B36, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB107_MODBUS</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=35,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
       </c>
     </row>
@@ -1867,19 +1867,19 @@
         <v>108</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B37)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_108</v>
       </c>
       <c r="E37" t="str">
-        <f>CONCATENATE("HMI1.CB",B37,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB108_Closed</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB108_Vpu</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB108_VLgood</v>
       </c>
       <c r="H37" t="str">
@@ -1887,19 +1887,19 @@
         <v>HMI1.CB108_Cmd</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE("CB", B37, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB108_MODBUS</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=36,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1911,19 +1911,19 @@
         <v>109</v>
       </c>
       <c r="D38" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B38)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_109</v>
       </c>
       <c r="E38" t="str">
-        <f>CONCATENATE("HMI1.CB",B38,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB109_Closed</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB109_Vpu</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB109_VLgood</v>
       </c>
       <c r="H38" t="str">
@@ -1931,19 +1931,19 @@
         <v>HMI1.CB109_Cmd</v>
       </c>
       <c r="I38" t="str">
-        <f>CONCATENATE("CB", B38, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB109_MODBUS</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=37,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
       </c>
     </row>
@@ -1955,35 +1955,35 @@
         <v>110</v>
       </c>
       <c r="D39" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B39)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_110</v>
       </c>
       <c r="E39" t="str">
-        <f>CONCATENATE("HMI1.CB",B39,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB110_Closed</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB110_Vpu</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB110_VLgood</v>
       </c>
       <c r="I39" t="str">
-        <f>CONCATENATE("CB", B39, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB110_MODBUS</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=38,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
       </c>
     </row>
@@ -1995,19 +1995,19 @@
         <v>111</v>
       </c>
       <c r="D40" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B40)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_111</v>
       </c>
       <c r="E40" t="str">
-        <f>CONCATENATE("HMI1.CB",B40,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB111_Closed</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB111_Vpu</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB111_VLgood</v>
       </c>
       <c r="H40" t="str">
@@ -2015,19 +2015,19 @@
         <v>HMI1.CB111_Cmd</v>
       </c>
       <c r="I40" t="str">
-        <f>CONCATENATE("CB", B40, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB111_MODBUS</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=39,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
       </c>
     </row>
@@ -2039,35 +2039,35 @@
         <v>112</v>
       </c>
       <c r="D41" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B41)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_112</v>
       </c>
       <c r="E41" t="str">
-        <f>CONCATENATE("HMI1.CB",B41,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB112_Closed</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB112_Vpu</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB112_VLgood</v>
       </c>
       <c r="I41" t="str">
-        <f>CONCATENATE("CB", B41, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB112_MODBUS</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=40,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
       </c>
     </row>
@@ -2079,19 +2079,19 @@
         <v>113</v>
       </c>
       <c r="D42" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B42)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_113</v>
       </c>
       <c r="E42" t="str">
-        <f>CONCATENATE("HMI1.CB",B42,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB113_Closed</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB113_Vpu</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB113_VLgood</v>
       </c>
       <c r="H42" t="str">
@@ -2099,19 +2099,19 @@
         <v>HMI1.CB113_Cmd</v>
       </c>
       <c r="I42" t="str">
-        <f>CONCATENATE("CB", B42, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB113_MODBUS</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=41,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
       </c>
     </row>
@@ -2123,35 +2123,35 @@
         <v>114</v>
       </c>
       <c r="D43" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B43)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_114</v>
       </c>
       <c r="E43" t="str">
-        <f>CONCATENATE("HMI1.CB",B43,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB114_Closed</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB114_Vpu</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB114_VLgood</v>
       </c>
       <c r="I43" t="str">
-        <f>CONCATENATE("CB", B43, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB114_MODBUS</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=42,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
       </c>
     </row>
@@ -2163,35 +2163,35 @@
         <v>300</v>
       </c>
       <c r="D44" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B44)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_300</v>
       </c>
       <c r="E44" t="str">
-        <f>CONCATENATE("HMI1.CB",B44,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB300_Closed</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB300_Vpu</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB300_VLgood</v>
       </c>
       <c r="I44" t="str">
-        <f>CONCATENATE("CB", B44, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB300_MODBUS</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=43,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
       </c>
     </row>
@@ -2203,35 +2203,35 @@
         <v>200</v>
       </c>
       <c r="D45" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B45)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_200</v>
       </c>
       <c r="E45" t="str">
-        <f>CONCATENATE("HMI1.CB",B45,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB200_Closed</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB200_Vpu</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB200_VLgood</v>
       </c>
       <c r="I45" t="str">
-        <f>CONCATENATE("CB", B45, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB200_MODBUS</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=44,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
       </c>
     </row>
@@ -2243,35 +2243,35 @@
         <v>100</v>
       </c>
       <c r="D46" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B46)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_100</v>
       </c>
       <c r="E46" t="str">
-        <f>CONCATENATE("HMI1.CB",B46,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB100_Closed</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB100_Vpu</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB100_VLgood</v>
       </c>
       <c r="I46" t="str">
-        <f>CONCATENATE("CB", B46, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB100_MODBUS</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=45,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
       </c>
     </row>
@@ -2283,35 +2283,35 @@
         <v>351</v>
       </c>
       <c r="D47" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B47)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_351</v>
       </c>
       <c r="E47" t="str">
-        <f>CONCATENATE("HMI1.CB",B47,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB351_Closed</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB351_Vpu</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB351_VLgood</v>
       </c>
       <c r="I47" t="str">
-        <f>CONCATENATE("CB", B47, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB351_MODBUS</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=46,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
       </c>
     </row>
@@ -2323,35 +2323,35 @@
         <v>151</v>
       </c>
       <c r="D48" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B48)</f>
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_151</v>
       </c>
       <c r="E48" t="str">
-        <f>CONCATENATE("HMI1.CB",B48,"_Closed")</f>
+        <f t="shared" si="9"/>
         <v>HMI1.CB151_Closed</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>HMI1.CB151_Vpu</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>HMI1.CB151_VLgood</v>
       </c>
       <c r="I48" t="str">
-        <f>CONCATENATE("CB", B48, "_MODBUS")</f>
+        <f t="shared" si="10"/>
         <v>CB151_MODBUS</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>(ID:=47,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
       </c>
     </row>
@@ -2360,39 +2360,35 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>401</v>
+        <v>261</v>
       </c>
       <c r="D49" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B49)</f>
-        <v>HMI1.Flow_401</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_261</v>
       </c>
       <c r="E49" t="str">
-        <f>CONCATENATE("HMI1.CB",B49,"_Closed")</f>
-        <v>HMI1.CB401_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB261_Closed</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB401_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB261_Vpu</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB401_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB261_VLgood</v>
       </c>
       <c r="I49" t="str">
-        <f>CONCATENATE("CB", B49, "_MODBUS")</f>
-        <v>CB401_MODBUS</v>
-      </c>
-      <c r="J49" t="str">
-        <f>IF(C49="","",CONCATENATE("HMI1.BUS",C49,"_Stat"))</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>CB261_MODBUS</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" ref="K49:K55" si="5">IF(H49="","",CONCATENATE(",IOCCmd:=ADR(",H49,"),MBCmd:=ADR(",I49,".CMD),MBRst:=ADR(",I49,".RST)"))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=48,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=48,CBID:=261,Flow:=ADR(HMI1.Flow_261),Status:=ADR(HMI1.CB261_Closed),Vpu:=ADR(HMI1.CB261_Vpu),VLgood:=ADR(HMI1.CB261_VLgood)),</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2400,39 +2396,35 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B50)</f>
-        <v>HMI1.Flow_402</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_271</v>
       </c>
       <c r="E50" t="str">
-        <f>CONCATENATE("HMI1.CB",B50,"_Closed")</f>
-        <v>HMI1.CB402_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB271_Closed</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB402_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB271_Vpu</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB402_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB271_VLgood</v>
       </c>
       <c r="I50" t="str">
-        <f>CONCATENATE("CB", B50, "_MODBUS")</f>
-        <v>CB402_MODBUS</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" ref="J50:J61" si="6">IF(C50="","",CONCATENATE("HMI1.BUS",C50,"_Stat"))</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>CB271_MODBUS</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=49,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=49,CBID:=271,Flow:=ADR(HMI1.Flow_271),Status:=ADR(HMI1.CB271_Closed),Vpu:=ADR(HMI1.CB271_Vpu),VLgood:=ADR(HMI1.CB271_VLgood)),</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2440,39 +2432,39 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D51" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B51)</f>
-        <v>HMI1.Flow_403</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_401</v>
       </c>
       <c r="E51" t="str">
-        <f>CONCATENATE("HMI1.CB",B51,"_Closed")</f>
-        <v>HMI1.CB403_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB401_Closed</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB403_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB401_Vpu</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB403_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB401_VLgood</v>
       </c>
       <c r="I51" t="str">
-        <f>CONCATENATE("CB", B51, "_MODBUS")</f>
-        <v>CB403_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB401_MODBUS</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(C51="","",CONCATENATE("HMI1.BUS",C51,"_Stat"))</f>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K51:K57" si="11">IF(H51="","",CONCATENATE(",IOCCmd:=ADR(",H51,"),MBCmd:=ADR(",I51,".CMD),MBRst:=ADR(",I51,".RST)"))</f>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=50,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=50,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2480,39 +2472,39 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D52" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B52)</f>
-        <v>HMI1.Flow_404</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_402</v>
       </c>
       <c r="E52" t="str">
-        <f>CONCATENATE("HMI1.CB",B52,"_Closed")</f>
-        <v>HMI1.CB404_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB402_Closed</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB404_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB402_Vpu</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB404_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB402_VLgood</v>
       </c>
       <c r="I52" t="str">
-        <f>CONCATENATE("CB", B52, "_MODBUS")</f>
-        <v>CB404_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB402_MODBUS</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J52:J63" si="12">IF(C52="","",CONCATENATE("HMI1.BUS",C52,"_Stat"))</f>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=51,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=51,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2520,39 +2512,39 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D53" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B53)</f>
-        <v>HMI1.Flow_405</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_403</v>
       </c>
       <c r="E53" t="str">
-        <f>CONCATENATE("HMI1.CB",B53,"_Closed")</f>
-        <v>HMI1.CB405_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB403_Closed</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB405_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB403_Vpu</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB405_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB403_VLgood</v>
       </c>
       <c r="I53" t="str">
-        <f>CONCATENATE("CB", B53, "_MODBUS")</f>
-        <v>CB405_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB403_MODBUS</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=52,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=52,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2560,39 +2552,39 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D54" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B54)</f>
-        <v>HMI1.Flow_406</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_404</v>
       </c>
       <c r="E54" t="str">
-        <f>CONCATENATE("HMI1.CB",B54,"_Closed")</f>
-        <v>HMI1.CB406_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB404_Closed</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB406_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB404_Vpu</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB406_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB404_VLgood</v>
       </c>
       <c r="I54" t="str">
-        <f>CONCATENATE("CB", B54, "_MODBUS")</f>
-        <v>CB406_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB404_MODBUS</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=53,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=53,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2600,39 +2592,39 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D55" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B55)</f>
-        <v>HMI1.Flow_407</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_405</v>
       </c>
       <c r="E55" t="str">
-        <f>CONCATENATE("HMI1.CB",B55,"_Closed")</f>
-        <v>HMI1.CB407_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB405_Closed</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB407_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB405_Vpu</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB407_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB405_VLgood</v>
       </c>
       <c r="I55" t="str">
-        <f>CONCATENATE("CB", B55, "_MODBUS")</f>
-        <v>CB407_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB405_MODBUS</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=54,CBID:=407,Flow:=ADR(HMI1.Flow_407),Status:=ADR(HMI1.CB407_Closed),Vpu:=ADR(HMI1.CB407_Vpu),VLgood:=ADR(HMI1.CB407_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=54,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2640,39 +2632,39 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D56" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B56)</f>
-        <v>HMI1.Flow_408</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_406</v>
       </c>
       <c r="E56" t="str">
-        <f>CONCATENATE("HMI1.CB",B56,"_Closed")</f>
-        <v>HMI1.CB408_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB406_Closed</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB408_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB406_Vpu</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB408_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB406_VLgood</v>
       </c>
       <c r="I56" t="str">
-        <f>CONCATENATE("CB", B56, "_MODBUS")</f>
-        <v>CB408_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB406_MODBUS</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f t="shared" ref="K56:K61" si="7">IF(H56="","",CONCATENATE(",IOCCmd:=ADR(",H56,"),MBCmd:=ADR(",I56,".CMD),MBRst:=ADR(",I56,".RST)"))</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=55,CBID:=408,Flow:=ADR(HMI1.Flow_408),Status:=ADR(HMI1.CB408_Closed),Vpu:=ADR(HMI1.CB408_Vpu),VLgood:=ADR(HMI1.CB408_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=55,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2680,39 +2672,39 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D57" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B57)</f>
-        <v>HMI1.Flow_409</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_407</v>
       </c>
       <c r="E57" t="str">
-        <f>CONCATENATE("HMI1.CB",B57,"_Closed")</f>
-        <v>HMI1.CB409_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB407_Closed</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB409_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB407_Vpu</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB409_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB407_VLgood</v>
       </c>
       <c r="I57" t="str">
-        <f>CONCATENATE("CB", B57, "_MODBUS")</f>
-        <v>CB409_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB407_MODBUS</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=56,CBID:=409,Flow:=ADR(HMI1.Flow_409),Status:=ADR(HMI1.CB409_Closed),Vpu:=ADR(HMI1.CB409_Vpu),VLgood:=ADR(HMI1.CB409_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=56,CBID:=407,Flow:=ADR(HMI1.Flow_407),Status:=ADR(HMI1.CB407_Closed),Vpu:=ADR(HMI1.CB407_Vpu),VLgood:=ADR(HMI1.CB407_VLgood)),</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2720,39 +2712,39 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D58" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B58)</f>
-        <v>HMI1.Flow_410</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_408</v>
       </c>
       <c r="E58" t="str">
-        <f>CONCATENATE("HMI1.CB",B58,"_Closed")</f>
-        <v>HMI1.CB410_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB408_Closed</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB410_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB408_Vpu</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB410_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB408_VLgood</v>
       </c>
       <c r="I58" t="str">
-        <f>CONCATENATE("CB", B58, "_MODBUS")</f>
-        <v>CB410_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB408_MODBUS</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K58:K63" si="13">IF(H58="","",CONCATENATE(",IOCCmd:=ADR(",H58,"),MBCmd:=ADR(",I58,".CMD),MBRst:=ADR(",I58,".RST)"))</f>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=57,CBID:=410,Flow:=ADR(HMI1.Flow_410),Status:=ADR(HMI1.CB410_Closed),Vpu:=ADR(HMI1.CB410_Vpu),VLgood:=ADR(HMI1.CB410_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=57,CBID:=408,Flow:=ADR(HMI1.Flow_408),Status:=ADR(HMI1.CB408_Closed),Vpu:=ADR(HMI1.CB408_Vpu),VLgood:=ADR(HMI1.CB408_VLgood)),</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2760,39 +2752,39 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D59" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B59)</f>
-        <v>HMI1.Flow_411</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_409</v>
       </c>
       <c r="E59" t="str">
-        <f>CONCATENATE("HMI1.CB",B59,"_Closed")</f>
-        <v>HMI1.CB411_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB409_Closed</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB411_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB409_Vpu</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB411_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB409_VLgood</v>
       </c>
       <c r="I59" t="str">
-        <f>CONCATENATE("CB", B59, "_MODBUS")</f>
-        <v>CB411_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB409_MODBUS</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=58,CBID:=411,Flow:=ADR(HMI1.Flow_411),Status:=ADR(HMI1.CB411_Closed),Vpu:=ADR(HMI1.CB411_Vpu),VLgood:=ADR(HMI1.CB411_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=58,CBID:=409,Flow:=ADR(HMI1.Flow_409),Status:=ADR(HMI1.CB409_Closed),Vpu:=ADR(HMI1.CB409_Vpu),VLgood:=ADR(HMI1.CB409_VLgood)),</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2800,39 +2792,39 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D60" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B60)</f>
-        <v>HMI1.Flow_412</v>
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_410</v>
       </c>
       <c r="E60" t="str">
-        <f>CONCATENATE("HMI1.CB",B60,"_Closed")</f>
-        <v>HMI1.CB412_Closed</v>
+        <f t="shared" si="9"/>
+        <v>HMI1.CB410_Closed</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
-        <v>HMI1.CB412_Vpu</v>
+        <f t="shared" si="5"/>
+        <v>HMI1.CB410_Vpu</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="3"/>
-        <v>HMI1.CB412_VLgood</v>
+        <f t="shared" si="6"/>
+        <v>HMI1.CB410_VLgood</v>
       </c>
       <c r="I60" t="str">
-        <f>CONCATENATE("CB", B60, "_MODBUS")</f>
-        <v>CB412_MODBUS</v>
+        <f t="shared" si="10"/>
+        <v>CB410_MODBUS</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="1"/>
-        <v>(ID:=59,CBID:=412,Flow:=ADR(HMI1.Flow_412),Status:=ADR(HMI1.CB412_Closed),Vpu:=ADR(HMI1.CB412_Vpu),VLgood:=ADR(HMI1.CB412_VLgood)),</v>
+        <f t="shared" si="4"/>
+        <v>(ID:=59,CBID:=410,Flow:=ADR(HMI1.Flow_410),Status:=ADR(HMI1.CB410_Closed),Vpu:=ADR(HMI1.CB410_Vpu),VLgood:=ADR(HMI1.CB410_VLgood)),</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2840,39 +2832,119 @@
         <v>60</v>
       </c>
       <c r="B61">
+        <v>411</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_411</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="9"/>
+        <v>HMI1.CB411_Closed</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="5"/>
+        <v>HMI1.CB411_Vpu</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.CB411_VLgood</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="10"/>
+        <v>CB411_MODBUS</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="4"/>
+        <v>(ID:=60,CBID:=411,Flow:=ADR(HMI1.Flow_411),Status:=ADR(HMI1.CB411_Closed),Vpu:=ADR(HMI1.CB411_Vpu),VLgood:=ADR(HMI1.CB411_VLgood)),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>412</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="8"/>
+        <v>HMI1.Flow_412</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="9"/>
+        <v>HMI1.CB412_Closed</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="5"/>
+        <v>HMI1.CB412_Vpu</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="6"/>
+        <v>HMI1.CB412_VLgood</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="10"/>
+        <v>CB412_MODBUS</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="4"/>
+        <v>(ID:=61,CBID:=412,Flow:=ADR(HMI1.Flow_412),Status:=ADR(HMI1.CB412_Closed),Vpu:=ADR(HMI1.CB412_Vpu),VLgood:=ADR(HMI1.CB412_VLgood)),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
         <v>413</v>
       </c>
-      <c r="D61" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B61)</f>
+      <c r="D63" t="str">
+        <f t="shared" si="8"/>
         <v>HMI1.Flow_413</v>
       </c>
-      <c r="E61" t="str">
-        <f>CONCATENATE("HMI1.CB",B61,"_Closed")</f>
+      <c r="E63" t="str">
+        <f t="shared" si="9"/>
         <v>HMI1.CB413_Closed</v>
       </c>
-      <c r="F61" t="str">
-        <f t="shared" si="2"/>
+      <c r="F63" t="str">
+        <f t="shared" si="5"/>
         <v>HMI1.CB413_Vpu</v>
       </c>
-      <c r="G61" t="str">
-        <f t="shared" si="3"/>
+      <c r="G63" t="str">
+        <f t="shared" si="6"/>
         <v>HMI1.CB413_VLgood</v>
       </c>
-      <c r="I61" t="str">
-        <f>CONCATENATE("CB", B61, "_MODBUS")</f>
+      <c r="I63" t="str">
+        <f t="shared" si="10"/>
         <v>CB413_MODBUS</v>
       </c>
-      <c r="J61" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L61" t="str">
-        <f>CONCATENATE("(ID:=",A61,",CBID:=",B61,",Flow:=ADR(HMI1.Flow_",B61,"),Status:=ADR(",E61,"),Vpu:=ADR(",F61,"),VLgood:=ADR(",G61,")",K61,"),")</f>
-        <v>(ID:=60,CBID:=413,Flow:=ADR(HMI1.Flow_413),Status:=ADR(HMI1.CB413_Closed),Vpu:=ADR(HMI1.CB413_Vpu),VLgood:=ADR(HMI1.CB413_VLgood)),</v>
+      <c r="J63" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <f>CONCATENATE("(ID:=",A63,",CBID:=",B63,",Flow:=ADR(HMI1.Flow_",B63,"),Status:=ADR(",E63,"),Vpu:=ADR(",F63,"),VLgood:=ADR(",G63,")",K63,"),")</f>
+        <v>(ID:=62,CBID:=413,Flow:=ADR(HMI1.Flow_413),Status:=ADR(HMI1.CB413_Closed),Vpu:=ADR(HMI1.CB413_Vpu),VLgood:=ADR(HMI1.CB413_VLgood)),</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -375,8 +375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Structure initialisation string</t>
   </si>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI63"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,7 +389,7 @@
     <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -400,639 +400,636 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D33" si="0">CONCATENATE("HMI1.Flow_",B2)</f>
-        <v>HMI1.Flow_301</v>
+        <f>CONCATENATE("HMI1.Flow_",B2)</f>
+        <v>HMI1.Flow_101</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E33" si="1">CONCATENATE("HMI1.CB",B2,"_Closed")</f>
-        <v>HMI1.CB301_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B2,"_Closed")</f>
+        <v>HMI1.CB101_Closed</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE("HMI1.CB",B2,"_Vpu")</f>
-        <v>HMI1.CB301_Vpu</v>
+        <v>HMI1.CB101_Vpu</v>
       </c>
       <c r="G2" t="str">
         <f>CONCATENATE("HMI1.CB",B2,"_VLgood")</f>
-        <v>HMI1.CB301_VLgood</v>
+        <v>HMI1.CB101_VLgood</v>
       </c>
       <c r="H2" t="str">
         <f>CONCATENATE("HMI1.CB",B2,"_Cmd")</f>
-        <v>HMI1.CB301_Cmd</v>
+        <v>HMI1.CB101_Cmd</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I33" si="2">CONCATENATE("CB", B2, "_MODBUS")</f>
-        <v>CB301_MODBUS</v>
+        <f>CONCATENATE("CB", B2, "_MODBUS")</f>
+        <v>CB101_MODBUS</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J48" si="3">IF(C2="","",CONCATENATE("HMI1.BUS",C2,"_Stat"))</f>
+        <f>IF(C2="","",CONCATENATE("HMI1.BUS",C2,"_Stat"))</f>
         <v/>
       </c>
       <c r="K2" t="str">
         <f>IF(H2="","",CONCATENATE(",IOCCmd:=ADR(",H2,"),MBCmd:=ADR(",I2,".CMD),MBRst:=ADR(",I2,".RST)"))</f>
-        <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
+        <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L62" si="4">CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",E2,"),Vpu:=ADR(",F2,"),VLgood:=ADR(",G2,")",K2,"),")</f>
-        <v>(ID:=1,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",E2,"),Vpu:=ADR(",F2,"),VLgood:=ADR(",G2,")",K2,"),")</f>
+        <v>(ID:=1,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_302</v>
+        <f>CONCATENATE("HMI1.Flow_",B3)</f>
+        <v>HMI1.Flow_102</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB302_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B3,"_Closed")</f>
+        <v>HMI1.CB102_Closed</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F63" si="5">CONCATENATE("HMI1.CB",B3,"_Vpu")</f>
-        <v>HMI1.CB302_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B3,"_Vpu")</f>
+        <v>HMI1.CB102_Vpu</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G63" si="6">CONCATENATE("HMI1.CB",B3,"_VLgood")</f>
-        <v>HMI1.CB302_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B3,"_VLgood")</f>
+        <v>HMI1.CB102_VLgood</v>
       </c>
       <c r="H3" t="str">
         <f>CONCATENATE("HMI1.CB",B3,"_Cmd")</f>
-        <v>HMI1.CB302_Cmd</v>
+        <v>HMI1.CB102_Cmd</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="2"/>
-        <v>CB302_MODBUS</v>
+        <f>CONCATENATE("CB", B3, "_MODBUS")</f>
+        <v>CB102_MODBUS</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C3="","",CONCATENATE("HMI1.BUS",C3,"_Stat"))</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K50" si="7">IF(H3="","",CONCATENATE(",IOCCmd:=ADR(",H3,"),MBCmd:=ADR(",I3,".CMD),MBRst:=ADR(",I3,".RST)"))</f>
-        <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
+        <f>IF(H3="","",CONCATENATE(",IOCCmd:=ADR(",H3,"),MBCmd:=ADR(",I3,".CMD),MBRst:=ADR(",I3,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=2,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A3,",CBID:=",B3,",Flow:=ADR(HMI1.Flow_",B3,"),Status:=ADR(",E3,"),Vpu:=ADR(",F3,"),VLgood:=ADR(",G3,")",K3,"),")</f>
+        <v>(ID:=2,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_303</v>
+        <f>CONCATENATE("HMI1.Flow_",B4)</f>
+        <v>HMI1.Flow_103</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB303_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B4,"_Closed")</f>
+        <v>HMI1.CB103_Closed</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB303_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B4,"_Vpu")</f>
+        <v>HMI1.CB103_Vpu</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB303_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B4,"_VLgood")</f>
+        <v>HMI1.CB103_VLgood</v>
       </c>
       <c r="H4" t="str">
         <f>CONCATENATE("HMI1.CB",B4,"_Cmd")</f>
-        <v>HMI1.CB303_Cmd</v>
+        <v>HMI1.CB103_Cmd</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
-        <v>CB303_MODBUS</v>
+        <f>CONCATENATE("CB", B4, "_MODBUS")</f>
+        <v>CB103_MODBUS</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C4="","",CONCATENATE("HMI1.BUS",C4,"_Stat"))</f>
         <v/>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
+        <f>IF(H4="","",CONCATENATE(",IOCCmd:=ADR(",H4,"),MBCmd:=ADR(",I4,".CMD),MBRst:=ADR(",I4,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=3,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A4,",CBID:=",B4,",Flow:=ADR(HMI1.Flow_",B4,"),Status:=ADR(",E4,"),Vpu:=ADR(",F4,"),VLgood:=ADR(",G4,")",K4,"),")</f>
+        <v>(ID:=3,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_304</v>
+        <f>CONCATENATE("HMI1.Flow_",B5)</f>
+        <v>HMI1.Flow_104</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB304_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B5,"_Closed")</f>
+        <v>HMI1.CB104_Closed</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB304_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B5,"_Vpu")</f>
+        <v>HMI1.CB104_Vpu</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB304_VLgood</v>
-      </c>
-      <c r="H5" t="str">
-        <f>CONCATENATE("HMI1.CB",B5,"_Cmd")</f>
-        <v>HMI1.CB304_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B5,"_VLgood")</f>
+        <v>HMI1.CB104_VLgood</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
-        <v>CB304_MODBUS</v>
+        <f>CONCATENATE("CB", B5, "_MODBUS")</f>
+        <v>CB104_MODBUS</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C5="","",CONCATENATE("HMI1.BUS",C5,"_Stat"))</f>
         <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
+        <f>IF(H5="","",CONCATENATE(",IOCCmd:=ADR(",H5,"),MBCmd:=ADR(",I5,".CMD),MBRst:=ADR(",I5,".RST)"))</f>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=4,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A5,",CBID:=",B5,",Flow:=ADR(HMI1.Flow_",B5,"),Status:=ADR(",E5,"),Vpu:=ADR(",F5,"),VLgood:=ADR(",G5,")",K5,"),")</f>
+        <v>(ID:=4,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_305</v>
+        <f>CONCATENATE("HMI1.Flow_",B6)</f>
+        <v>HMI1.Flow_105</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB305_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B6,"_Closed")</f>
+        <v>HMI1.CB105_Closed</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB305_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B6,"_Vpu")</f>
+        <v>HMI1.CB105_Vpu</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB305_VLgood</v>
-      </c>
-      <c r="H6" t="str">
-        <f>CONCATENATE("HMI1.CB",B6,"_Cmd")</f>
-        <v>HMI1.CB305_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B6,"_VLgood")</f>
+        <v>HMI1.CB105_VLgood</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v>CB305_MODBUS</v>
+        <f>CONCATENATE("CB", B6, "_MODBUS")</f>
+        <v>CB105_MODBUS</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C6="","",CONCATENATE("HMI1.BUS",C6,"_Stat"))</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
+        <f>IF(H6="","",CONCATENATE(",IOCCmd:=ADR(",H6,"),MBCmd:=ADR(",I6,".CMD),MBRst:=ADR(",I6,".RST)"))</f>
+        <v/>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=5,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A6,",CBID:=",B6,",Flow:=ADR(HMI1.Flow_",B6,"),Status:=ADR(",E6,"),Vpu:=ADR(",F6,"),VLgood:=ADR(",G6,")",K6,"),")</f>
+        <v>(ID:=5,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>306</v>
+        <v>106</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_306</v>
+        <f>CONCATENATE("HMI1.Flow_",B7)</f>
+        <v>HMI1.Flow_106</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB306_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B7,"_Closed")</f>
+        <v>HMI1.CB106_Closed</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB306_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B7,"_Vpu")</f>
+        <v>HMI1.CB106_Vpu</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB306_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B7,"_VLgood")</f>
+        <v>HMI1.CB106_VLgood</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v>CB306_MODBUS</v>
+        <f>CONCATENATE("CB", B7, "_MODBUS")</f>
+        <v>CB106_MODBUS</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C7="","",CONCATENATE("HMI1.BUS",C7,"_Stat"))</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H7="","",CONCATENATE(",IOCCmd:=ADR(",H7,"),MBCmd:=ADR(",I7,".CMD),MBRst:=ADR(",I7,".RST)"))</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=6,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A7,",CBID:=",B7,",Flow:=ADR(HMI1.Flow_",B7,"),Status:=ADR(",E7,"),Vpu:=ADR(",F7,"),VLgood:=ADR(",G7,")",K7,"),")</f>
+        <v>(ID:=6,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>307</v>
+        <v>107</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_307</v>
+        <f>CONCATENATE("HMI1.Flow_",B8)</f>
+        <v>HMI1.Flow_107</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB307_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B8,"_Closed")</f>
+        <v>HMI1.CB107_Closed</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB307_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B8,"_Vpu")</f>
+        <v>HMI1.CB107_Vpu</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB307_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B8,"_VLgood")</f>
+        <v>HMI1.CB107_VLgood</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
-        <v>CB307_MODBUS</v>
+        <f>CONCATENATE("CB", B8, "_MODBUS")</f>
+        <v>CB107_MODBUS</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C8="","",CONCATENATE("HMI1.BUS",C8,"_Stat"))</f>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H8="","",CONCATENATE(",IOCCmd:=ADR(",H8,"),MBCmd:=ADR(",I8,".CMD),MBRst:=ADR(",I8,".RST)"))</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=7,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A8,",CBID:=",B8,",Flow:=ADR(HMI1.Flow_",B8,"),Status:=ADR(",E8,"),Vpu:=ADR(",F8,"),VLgood:=ADR(",G8,")",K8,"),")</f>
+        <v>(ID:=7,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_308</v>
+        <f>CONCATENATE("HMI1.Flow_",B9)</f>
+        <v>HMI1.Flow_108</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB308_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B9,"_Closed")</f>
+        <v>HMI1.CB108_Closed</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB308_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B9,"_Vpu")</f>
+        <v>HMI1.CB108_Vpu</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB308_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B9,"_VLgood")</f>
+        <v>HMI1.CB108_VLgood</v>
+      </c>
+      <c r="H9" t="str">
+        <f>CONCATENATE("HMI1.CB",B9,"_Cmd")</f>
+        <v>HMI1.CB108_Cmd</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
-        <v>CB308_MODBUS</v>
+        <f>CONCATENATE("CB", B9, "_MODBUS")</f>
+        <v>CB108_MODBUS</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C9="","",CONCATENATE("HMI1.BUS",C9,"_Stat"))</f>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H9="","",CONCATENATE(",IOCCmd:=ADR(",H9,"),MBCmd:=ADR(",I9,".CMD),MBRst:=ADR(",I9,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=8,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A9,",CBID:=",B9,",Flow:=ADR(HMI1.Flow_",B9,"),Status:=ADR(",E9,"),Vpu:=ADR(",F9,"),VLgood:=ADR(",G9,")",K9,"),")</f>
+        <v>(ID:=8,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>309</v>
+        <v>109</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_309</v>
+        <f>CONCATENATE("HMI1.Flow_",B10)</f>
+        <v>HMI1.Flow_109</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB309_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B10,"_Closed")</f>
+        <v>HMI1.CB109_Closed</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB309_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B10,"_Vpu")</f>
+        <v>HMI1.CB109_Vpu</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB309_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B10,"_VLgood")</f>
+        <v>HMI1.CB109_VLgood</v>
+      </c>
+      <c r="H10" t="str">
+        <f>CONCATENATE("HMI1.CB",B10,"_Cmd")</f>
+        <v>HMI1.CB109_Cmd</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
-        <v>CB309_MODBUS</v>
+        <f>CONCATENATE("CB", B10, "_MODBUS")</f>
+        <v>CB109_MODBUS</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C10="","",CONCATENATE("HMI1.BUS",C10,"_Stat"))</f>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H10="","",CONCATENATE(",IOCCmd:=ADR(",H10,"),MBCmd:=ADR(",I10,".CMD),MBRst:=ADR(",I10,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=9,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A10,",CBID:=",B10,",Flow:=ADR(HMI1.Flow_",B10,"),Status:=ADR(",E10,"),Vpu:=ADR(",F10,"),VLgood:=ADR(",G10,")",K10,"),")</f>
+        <v>(ID:=9,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_201</v>
+        <f>CONCATENATE("HMI1.Flow_",B11)</f>
+        <v>HMI1.Flow_110</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB201_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B11,"_Closed")</f>
+        <v>HMI1.CB110_Closed</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB201_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B11,"_Vpu")</f>
+        <v>HMI1.CB110_Vpu</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB201_VLgood</v>
-      </c>
-      <c r="H11" t="str">
-        <f>CONCATENATE("HMI1.CB",B11,"_Cmd")</f>
-        <v>HMI1.CB201_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B11,"_VLgood")</f>
+        <v>HMI1.CB110_VLgood</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
-        <v>CB201_MODBUS</v>
+        <f>CONCATENATE("CB", B11, "_MODBUS")</f>
+        <v>CB110_MODBUS</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C11="","",CONCATENATE("HMI1.BUS",C11,"_Stat"))</f>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
+        <f>IF(H11="","",CONCATENATE(",IOCCmd:=ADR(",H11,"),MBCmd:=ADR(",I11,".CMD),MBRst:=ADR(",I11,".RST)"))</f>
+        <v/>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=10,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A11,",CBID:=",B11,",Flow:=ADR(HMI1.Flow_",B11,"),Status:=ADR(",E11,"),Vpu:=ADR(",F11,"),VLgood:=ADR(",G11,")",K11,"),")</f>
+        <v>(ID:=10,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_202</v>
+        <f>CONCATENATE("HMI1.Flow_",B12)</f>
+        <v>HMI1.Flow_111</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB202_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B12,"_Closed")</f>
+        <v>HMI1.CB111_Closed</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB202_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B12,"_Vpu")</f>
+        <v>HMI1.CB111_Vpu</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB202_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B12,"_VLgood")</f>
+        <v>HMI1.CB111_VLgood</v>
       </c>
       <c r="H12" t="str">
         <f>CONCATENATE("HMI1.CB",B12,"_Cmd")</f>
-        <v>HMI1.CB202_Cmd</v>
+        <v>HMI1.CB111_Cmd</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
-        <v>CB202_MODBUS</v>
+        <f>CONCATENATE("CB", B12, "_MODBUS")</f>
+        <v>CB111_MODBUS</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C12="","",CONCATENATE("HMI1.BUS",C12,"_Stat"))</f>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
+        <f>IF(H12="","",CONCATENATE(",IOCCmd:=ADR(",H12,"),MBCmd:=ADR(",I12,".CMD),MBRst:=ADR(",I12,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=11,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A12,",CBID:=",B12,",Flow:=ADR(HMI1.Flow_",B12,"),Status:=ADR(",E12,"),Vpu:=ADR(",F12,"),VLgood:=ADR(",G12,")",K12,"),")</f>
+        <v>(ID:=11,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_203</v>
+        <f>CONCATENATE("HMI1.Flow_",B13)</f>
+        <v>HMI1.Flow_112</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB203_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B13,"_Closed")</f>
+        <v>HMI1.CB112_Closed</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB203_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B13,"_Vpu")</f>
+        <v>HMI1.CB112_Vpu</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB203_VLgood</v>
-      </c>
-      <c r="H13" t="str">
-        <f>CONCATENATE("HMI1.CB",B13,"_Cmd")</f>
-        <v>HMI1.CB203_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B13,"_VLgood")</f>
+        <v>HMI1.CB112_VLgood</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>CB203_MODBUS</v>
+        <f>CONCATENATE("CB", B13, "_MODBUS")</f>
+        <v>CB112_MODBUS</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C13="","",CONCATENATE("HMI1.BUS",C13,"_Stat"))</f>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
+        <f>IF(H13="","",CONCATENATE(",IOCCmd:=ADR(",H13,"),MBCmd:=ADR(",I13,".CMD),MBRst:=ADR(",I13,".RST)"))</f>
+        <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=12,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A13,",CBID:=",B13,",Flow:=ADR(HMI1.Flow_",B13,"),Status:=ADR(",E13,"),Vpu:=ADR(",F13,"),VLgood:=ADR(",G13,")",K13,"),")</f>
+        <v>(ID:=12,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_204</v>
+        <f>CONCATENATE("HMI1.Flow_",B14)</f>
+        <v>HMI1.Flow_113</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB204_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B14,"_Closed")</f>
+        <v>HMI1.CB113_Closed</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB204_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B14,"_Vpu")</f>
+        <v>HMI1.CB113_Vpu</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB204_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B14,"_VLgood")</f>
+        <v>HMI1.CB113_VLgood</v>
+      </c>
+      <c r="H14" t="str">
+        <f>CONCATENATE("HMI1.CB",B14,"_Cmd")</f>
+        <v>HMI1.CB113_Cmd</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>CB204_MODBUS</v>
+        <f>CONCATENATE("CB", B14, "_MODBUS")</f>
+        <v>CB113_MODBUS</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C14="","",CONCATENATE("HMI1.BUS",C14,"_Stat"))</f>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H14="","",CONCATENATE(",IOCCmd:=ADR(",H14,"),MBCmd:=ADR(",I14,".CMD),MBRst:=ADR(",I14,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=13,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A14,",CBID:=",B14,",Flow:=ADR(HMI1.Flow_",B14,"),Status:=ADR(",E14,"),Vpu:=ADR(",F14,"),VLgood:=ADR(",G14,")",K14,"),")</f>
+        <v>(ID:=13,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_205</v>
+        <f>CONCATENATE("HMI1.Flow_",B15)</f>
+        <v>HMI1.Flow_114</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB205_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B15,"_Closed")</f>
+        <v>HMI1.CB114_Closed</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB205_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B15,"_Vpu")</f>
+        <v>HMI1.CB114_Vpu</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB205_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B15,"_VLgood")</f>
+        <v>HMI1.CB114_VLgood</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
-        <v>CB205_MODBUS</v>
+        <f>CONCATENATE("CB", B15, "_MODBUS")</f>
+        <v>CB114_MODBUS</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C15="","",CONCATENATE("HMI1.BUS",C15,"_Stat"))</f>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H15="","",CONCATENATE(",IOCCmd:=ADR(",H15,"),MBCmd:=ADR(",I15,".CMD),MBRst:=ADR(",I15,".RST)"))</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=14,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A15,",CBID:=",B15,",Flow:=ADR(HMI1.Flow_",B15,"),Status:=ADR(",E15,"),Vpu:=ADR(",F15,"),VLgood:=ADR(",G15,")",K15,"),")</f>
+        <v>(ID:=14,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_206</v>
+        <f>CONCATENATE("HMI1.Flow_",B16)</f>
+        <v>HMI1.Flow_201</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB206_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B16,"_Closed")</f>
+        <v>HMI1.CB201_Closed</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB206_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B16,"_Vpu")</f>
+        <v>HMI1.CB201_Vpu</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB206_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B16,"_VLgood")</f>
+        <v>HMI1.CB201_VLgood</v>
+      </c>
+      <c r="H16" t="str">
+        <f>CONCATENATE("HMI1.CB",B16,"_Cmd")</f>
+        <v>HMI1.CB201_Cmd</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
-        <v>CB206_MODBUS</v>
+        <f>CONCATENATE("CB", B16, "_MODBUS")</f>
+        <v>CB201_MODBUS</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C16="","",CONCATENATE("HMI1.BUS",C16,"_Stat"))</f>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H16="","",CONCATENATE(",IOCCmd:=ADR(",H16,"),MBCmd:=ADR(",I16,".CMD),MBRst:=ADR(",I16,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=15,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A16,",CBID:=",B16,",Flow:=ADR(HMI1.Flow_",B16,"),Status:=ADR(",E16,"),Vpu:=ADR(",F16,"),VLgood:=ADR(",G16,")",K16,"),")</f>
+        <v>(ID:=15,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1040,39 +1037,43 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_207</v>
+        <f>CONCATENATE("HMI1.Flow_",B17)</f>
+        <v>HMI1.Flow_202</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB207_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B17,"_Closed")</f>
+        <v>HMI1.CB202_Closed</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB207_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B17,"_Vpu")</f>
+        <v>HMI1.CB202_Vpu</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB207_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B17,"_VLgood")</f>
+        <v>HMI1.CB202_VLgood</v>
+      </c>
+      <c r="H17" t="str">
+        <f>CONCATENATE("HMI1.CB",B17,"_Cmd")</f>
+        <v>HMI1.CB202_Cmd</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
-        <v>CB207_MODBUS</v>
+        <f>CONCATENATE("CB", B17, "_MODBUS")</f>
+        <v>CB202_MODBUS</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C17="","",CONCATENATE("HMI1.BUS",C17,"_Stat"))</f>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H17="","",CONCATENATE(",IOCCmd:=ADR(",H17,"),MBCmd:=ADR(",I17,".CMD),MBRst:=ADR(",I17,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=16,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A17,",CBID:=",B17,",Flow:=ADR(HMI1.Flow_",B17,"),Status:=ADR(",E17,"),Vpu:=ADR(",F17,"),VLgood:=ADR(",G17,")",K17,"),")</f>
+        <v>(ID:=16,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1080,39 +1081,43 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_208</v>
+        <f>CONCATENATE("HMI1.Flow_",B18)</f>
+        <v>HMI1.Flow_203</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB208_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B18,"_Closed")</f>
+        <v>HMI1.CB203_Closed</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB208_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B18,"_Vpu")</f>
+        <v>HMI1.CB203_Vpu</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB208_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B18,"_VLgood")</f>
+        <v>HMI1.CB203_VLgood</v>
+      </c>
+      <c r="H18" t="str">
+        <f>CONCATENATE("HMI1.CB",B18,"_Cmd")</f>
+        <v>HMI1.CB203_Cmd</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
-        <v>CB208_MODBUS</v>
+        <f>CONCATENATE("CB", B18, "_MODBUS")</f>
+        <v>CB203_MODBUS</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C18="","",CONCATENATE("HMI1.BUS",C18,"_Stat"))</f>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H18="","",CONCATENATE(",IOCCmd:=ADR(",H18,"),MBCmd:=ADR(",I18,".CMD),MBRst:=ADR(",I18,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=17,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A18,",CBID:=",B18,",Flow:=ADR(HMI1.Flow_",B18,"),Status:=ADR(",E18,"),Vpu:=ADR(",F18,"),VLgood:=ADR(",G18,")",K18,"),")</f>
+        <v>(ID:=17,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1120,39 +1125,39 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_209</v>
+        <f>CONCATENATE("HMI1.Flow_",B19)</f>
+        <v>HMI1.Flow_204</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB209_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B19,"_Closed")</f>
+        <v>HMI1.CB204_Closed</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB209_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B19,"_Vpu")</f>
+        <v>HMI1.CB204_Vpu</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB209_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B19,"_VLgood")</f>
+        <v>HMI1.CB204_VLgood</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>CB209_MODBUS</v>
+        <f>CONCATENATE("CB", B19, "_MODBUS")</f>
+        <v>CB204_MODBUS</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C19="","",CONCATENATE("HMI1.BUS",C19,"_Stat"))</f>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H19="","",CONCATENATE(",IOCCmd:=ADR(",H19,"),MBCmd:=ADR(",I19,".CMD),MBRst:=ADR(",I19,".RST)"))</f>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=18,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A19,",CBID:=",B19,",Flow:=ADR(HMI1.Flow_",B19,"),Status:=ADR(",E19,"),Vpu:=ADR(",F19,"),VLgood:=ADR(",G19,")",K19,"),")</f>
+        <v>(ID:=18,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1160,39 +1165,39 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_210</v>
+        <f>CONCATENATE("HMI1.Flow_",B20)</f>
+        <v>HMI1.Flow_205</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB210_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B20,"_Closed")</f>
+        <v>HMI1.CB205_Closed</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB210_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B20,"_Vpu")</f>
+        <v>HMI1.CB205_Vpu</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB210_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B20,"_VLgood")</f>
+        <v>HMI1.CB205_VLgood</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>CB210_MODBUS</v>
+        <f>CONCATENATE("CB", B20, "_MODBUS")</f>
+        <v>CB205_MODBUS</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C20="","",CONCATENATE("HMI1.BUS",C20,"_Stat"))</f>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H20="","",CONCATENATE(",IOCCmd:=ADR(",H20,"),MBCmd:=ADR(",I20,".CMD),MBRst:=ADR(",I20,".RST)"))</f>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=19,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A20,",CBID:=",B20,",Flow:=ADR(HMI1.Flow_",B20,"),Status:=ADR(",E20,"),Vpu:=ADR(",F20,"),VLgood:=ADR(",G20,")",K20,"),")</f>
+        <v>(ID:=19,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1200,39 +1205,39 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_211</v>
+        <f>CONCATENATE("HMI1.Flow_",B21)</f>
+        <v>HMI1.Flow_206</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB211_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B21,"_Closed")</f>
+        <v>HMI1.CB206_Closed</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB211_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B21,"_Vpu")</f>
+        <v>HMI1.CB206_Vpu</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB211_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B21,"_VLgood")</f>
+        <v>HMI1.CB206_VLgood</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v>CB211_MODBUS</v>
+        <f>CONCATENATE("CB", B21, "_MODBUS")</f>
+        <v>CB206_MODBUS</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C21="","",CONCATENATE("HMI1.BUS",C21,"_Stat"))</f>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H21="","",CONCATENATE(",IOCCmd:=ADR(",H21,"),MBCmd:=ADR(",I21,".CMD),MBRst:=ADR(",I21,".RST)"))</f>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=20,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A21,",CBID:=",B21,",Flow:=ADR(HMI1.Flow_",B21,"),Status:=ADR(",E21,"),Vpu:=ADR(",F21,"),VLgood:=ADR(",G21,")",K21,"),")</f>
+        <v>(ID:=20,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1240,39 +1245,39 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_212</v>
+        <f>CONCATENATE("HMI1.Flow_",B22)</f>
+        <v>HMI1.Flow_207</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB212_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B22,"_Closed")</f>
+        <v>HMI1.CB207_Closed</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB212_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B22,"_Vpu")</f>
+        <v>HMI1.CB207_Vpu</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB212_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B22,"_VLgood")</f>
+        <v>HMI1.CB207_VLgood</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>CB212_MODBUS</v>
+        <f>CONCATENATE("CB", B22, "_MODBUS")</f>
+        <v>CB207_MODBUS</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C22="","",CONCATENATE("HMI1.BUS",C22,"_Stat"))</f>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H22="","",CONCATENATE(",IOCCmd:=ADR(",H22,"),MBCmd:=ADR(",I22,".CMD),MBRst:=ADR(",I22,".RST)"))</f>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=21,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A22,",CBID:=",B22,",Flow:=ADR(HMI1.Flow_",B22,"),Status:=ADR(",E22,"),Vpu:=ADR(",F22,"),VLgood:=ADR(",G22,")",K22,"),")</f>
+        <v>(ID:=21,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1280,43 +1285,39 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_213</v>
+        <f>CONCATENATE("HMI1.Flow_",B23)</f>
+        <v>HMI1.Flow_208</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB213_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B23,"_Closed")</f>
+        <v>HMI1.CB208_Closed</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB213_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B23,"_Vpu")</f>
+        <v>HMI1.CB208_Vpu</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB213_VLgood</v>
-      </c>
-      <c r="H23" t="str">
-        <f>CONCATENATE("HMI1.CB",B23,"_Cmd")</f>
-        <v>HMI1.CB213_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B23,"_VLgood")</f>
+        <v>HMI1.CB208_VLgood</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>CB213_MODBUS</v>
+        <f>CONCATENATE("CB", B23, "_MODBUS")</f>
+        <v>CB208_MODBUS</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C23="","",CONCATENATE("HMI1.BUS",C23,"_Stat"))</f>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
+        <f>IF(H23="","",CONCATENATE(",IOCCmd:=ADR(",H23,"),MBCmd:=ADR(",I23,".CMD),MBRst:=ADR(",I23,".RST)"))</f>
+        <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=22,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
+        <f>CONCATENATE("(ID:=",A23,",CBID:=",B23,",Flow:=ADR(HMI1.Flow_",B23,"),Status:=ADR(",E23,"),Vpu:=ADR(",F23,"),VLgood:=ADR(",G23,")",K23,"),")</f>
+        <v>(ID:=22,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1324,39 +1325,39 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_214</v>
+        <f>CONCATENATE("HMI1.Flow_",B24)</f>
+        <v>HMI1.Flow_209</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB214_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B24,"_Closed")</f>
+        <v>HMI1.CB209_Closed</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB214_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B24,"_Vpu")</f>
+        <v>HMI1.CB209_Vpu</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB214_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B24,"_VLgood")</f>
+        <v>HMI1.CB209_VLgood</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>CB214_MODBUS</v>
+        <f>CONCATENATE("CB", B24, "_MODBUS")</f>
+        <v>CB209_MODBUS</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C24="","",CONCATENATE("HMI1.BUS",C24,"_Stat"))</f>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H24="","",CONCATENATE(",IOCCmd:=ADR(",H24,"),MBCmd:=ADR(",I24,".CMD),MBRst:=ADR(",I24,".RST)"))</f>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=23,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A24,",CBID:=",B24,",Flow:=ADR(HMI1.Flow_",B24,"),Status:=ADR(",E24,"),Vpu:=ADR(",F24,"),VLgood:=ADR(",G24,")",K24,"),")</f>
+        <v>(ID:=23,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1364,39 +1365,39 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_215</v>
+        <f>CONCATENATE("HMI1.Flow_",B25)</f>
+        <v>HMI1.Flow_210</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB215_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B25,"_Closed")</f>
+        <v>HMI1.CB210_Closed</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB215_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B25,"_Vpu")</f>
+        <v>HMI1.CB210_Vpu</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB215_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B25,"_VLgood")</f>
+        <v>HMI1.CB210_VLgood</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>CB215_MODBUS</v>
+        <f>CONCATENATE("CB", B25, "_MODBUS")</f>
+        <v>CB210_MODBUS</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C25="","",CONCATENATE("HMI1.BUS",C25,"_Stat"))</f>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H25="","",CONCATENATE(",IOCCmd:=ADR(",H25,"),MBCmd:=ADR(",I25,".CMD),MBRst:=ADR(",I25,".RST)"))</f>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=24,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A25,",CBID:=",B25,",Flow:=ADR(HMI1.Flow_",B25,"),Status:=ADR(",E25,"),Vpu:=ADR(",F25,"),VLgood:=ADR(",G25,")",K25,"),")</f>
+        <v>(ID:=24,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1404,43 +1405,39 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_216</v>
+        <f>CONCATENATE("HMI1.Flow_",B26)</f>
+        <v>HMI1.Flow_211</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB216_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B26,"_Closed")</f>
+        <v>HMI1.CB211_Closed</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB216_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B26,"_Vpu")</f>
+        <v>HMI1.CB211_Vpu</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB216_VLgood</v>
-      </c>
-      <c r="H26" t="str">
-        <f>CONCATENATE("HMI1.CB",B26,"_Cmd")</f>
-        <v>HMI1.CB216_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B26,"_VLgood")</f>
+        <v>HMI1.CB211_VLgood</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>CB216_MODBUS</v>
+        <f>CONCATENATE("CB", B26, "_MODBUS")</f>
+        <v>CB211_MODBUS</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C26="","",CONCATENATE("HMI1.BUS",C26,"_Stat"))</f>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
+        <f>IF(H26="","",CONCATENATE(",IOCCmd:=ADR(",H26,"),MBCmd:=ADR(",I26,".CMD),MBRst:=ADR(",I26,".RST)"))</f>
+        <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=25,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
+        <f>CONCATENATE("(ID:=",A26,",CBID:=",B26,",Flow:=ADR(HMI1.Flow_",B26,"),Status:=ADR(",E26,"),Vpu:=ADR(",F26,"),VLgood:=ADR(",G26,")",K26,"),")</f>
+        <v>(ID:=25,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1448,43 +1445,39 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_217</v>
+        <f>CONCATENATE("HMI1.Flow_",B27)</f>
+        <v>HMI1.Flow_212</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB217_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B27,"_Closed")</f>
+        <v>HMI1.CB212_Closed</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB217_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B27,"_Vpu")</f>
+        <v>HMI1.CB212_Vpu</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB217_VLgood</v>
-      </c>
-      <c r="H27" t="str">
-        <f>CONCATENATE("HMI1.CB",B27,"_Cmd")</f>
-        <v>HMI1.CB217_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B27,"_VLgood")</f>
+        <v>HMI1.CB212_VLgood</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>CB217_MODBUS</v>
+        <f>CONCATENATE("CB", B27, "_MODBUS")</f>
+        <v>CB212_MODBUS</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C27="","",CONCATENATE("HMI1.BUS",C27,"_Stat"))</f>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
+        <f>IF(H27="","",CONCATENATE(",IOCCmd:=ADR(",H27,"),MBCmd:=ADR(",I27,".CMD),MBRst:=ADR(",I27,".RST)"))</f>
+        <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=26,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
+        <f>CONCATENATE("(ID:=",A27,",CBID:=",B27,",Flow:=ADR(HMI1.Flow_",B27,"),Status:=ADR(",E27,"),Vpu:=ADR(",F27,"),VLgood:=ADR(",G27,")",K27,"),")</f>
+        <v>(ID:=26,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1492,39 +1485,43 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_218</v>
+        <f>CONCATENATE("HMI1.Flow_",B28)</f>
+        <v>HMI1.Flow_213</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB218_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B28,"_Closed")</f>
+        <v>HMI1.CB213_Closed</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB218_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B28,"_Vpu")</f>
+        <v>HMI1.CB213_Vpu</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB218_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B28,"_VLgood")</f>
+        <v>HMI1.CB213_VLgood</v>
+      </c>
+      <c r="H28" t="str">
+        <f>CONCATENATE("HMI1.CB",B28,"_Cmd")</f>
+        <v>HMI1.CB213_Cmd</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>CB218_MODBUS</v>
+        <f>CONCATENATE("CB", B28, "_MODBUS")</f>
+        <v>CB213_MODBUS</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C28="","",CONCATENATE("HMI1.BUS",C28,"_Stat"))</f>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H28="","",CONCATENATE(",IOCCmd:=ADR(",H28,"),MBCmd:=ADR(",I28,".CMD),MBRst:=ADR(",I28,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=27,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A28,",CBID:=",B28,",Flow:=ADR(HMI1.Flow_",B28,"),Status:=ADR(",E28,"),Vpu:=ADR(",F28,"),VLgood:=ADR(",G28,")",K28,"),")</f>
+        <v>(ID:=27,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1532,39 +1529,39 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_219</v>
+        <f>CONCATENATE("HMI1.Flow_",B29)</f>
+        <v>HMI1.Flow_214</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB219_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B29,"_Closed")</f>
+        <v>HMI1.CB214_Closed</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB219_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B29,"_Vpu")</f>
+        <v>HMI1.CB214_Vpu</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB219_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B29,"_VLgood")</f>
+        <v>HMI1.CB214_VLgood</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>CB219_MODBUS</v>
+        <f>CONCATENATE("CB", B29, "_MODBUS")</f>
+        <v>CB214_MODBUS</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C29="","",CONCATENATE("HMI1.BUS",C29,"_Stat"))</f>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H29="","",CONCATENATE(",IOCCmd:=ADR(",H29,"),MBCmd:=ADR(",I29,".CMD),MBRst:=ADR(",I29,".RST)"))</f>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=28,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
+        <f>CONCATENATE("(ID:=",A29,",CBID:=",B29,",Flow:=ADR(HMI1.Flow_",B29,"),Status:=ADR(",E29,"),Vpu:=ADR(",F29,"),VLgood:=ADR(",G29,")",K29,"),")</f>
+        <v>(ID:=28,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1572,43 +1569,39 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_101</v>
+        <f>CONCATENATE("HMI1.Flow_",B30)</f>
+        <v>HMI1.Flow_215</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB101_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B30,"_Closed")</f>
+        <v>HMI1.CB215_Closed</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB101_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B30,"_Vpu")</f>
+        <v>HMI1.CB215_Vpu</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB101_VLgood</v>
-      </c>
-      <c r="H30" t="str">
-        <f>CONCATENATE("HMI1.CB",B30,"_Cmd")</f>
-        <v>HMI1.CB101_Cmd</v>
+        <f>CONCATENATE("HMI1.CB",B30,"_VLgood")</f>
+        <v>HMI1.CB215_VLgood</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>CB101_MODBUS</v>
+        <f>CONCATENATE("CB", B30, "_MODBUS")</f>
+        <v>CB215_MODBUS</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C30="","",CONCATENATE("HMI1.BUS",C30,"_Stat"))</f>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
+        <f>IF(H30="","",CONCATENATE(",IOCCmd:=ADR(",H30,"),MBCmd:=ADR(",I30,".CMD),MBRst:=ADR(",I30,".RST)"))</f>
+        <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=29,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
+        <f>CONCATENATE("(ID:=",A30,",CBID:=",B30,",Flow:=ADR(HMI1.Flow_",B30,"),Status:=ADR(",E30,"),Vpu:=ADR(",F30,"),VLgood:=ADR(",G30,")",K30,"),")</f>
+        <v>(ID:=29,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1616,43 +1609,43 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_102</v>
+        <f>CONCATENATE("HMI1.Flow_",B31)</f>
+        <v>HMI1.Flow_216</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB102_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B31,"_Closed")</f>
+        <v>HMI1.CB216_Closed</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB102_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B31,"_Vpu")</f>
+        <v>HMI1.CB216_Vpu</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB102_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B31,"_VLgood")</f>
+        <v>HMI1.CB216_VLgood</v>
       </c>
       <c r="H31" t="str">
         <f>CONCATENATE("HMI1.CB",B31,"_Cmd")</f>
-        <v>HMI1.CB102_Cmd</v>
+        <v>HMI1.CB216_Cmd</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>CB102_MODBUS</v>
+        <f>CONCATENATE("CB", B31, "_MODBUS")</f>
+        <v>CB216_MODBUS</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C31="","",CONCATENATE("HMI1.BUS",C31,"_Stat"))</f>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
+        <f>IF(H31="","",CONCATENATE(",IOCCmd:=ADR(",H31,"),MBCmd:=ADR(",I31,".CMD),MBRst:=ADR(",I31,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=30,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
+        <f>CONCATENATE("(ID:=",A31,",CBID:=",B31,",Flow:=ADR(HMI1.Flow_",B31,"),Status:=ADR(",E31,"),Vpu:=ADR(",F31,"),VLgood:=ADR(",G31,")",K31,"),")</f>
+        <v>(ID:=30,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1660,235 +1653,246 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_103</v>
+        <f>CONCATENATE("HMI1.Flow_",B32)</f>
+        <v>HMI1.Flow_217</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB103_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B32,"_Closed")</f>
+        <v>HMI1.CB217_Closed</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB103_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B32,"_Vpu")</f>
+        <v>HMI1.CB217_Vpu</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB103_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B32,"_VLgood")</f>
+        <v>HMI1.CB217_VLgood</v>
       </c>
       <c r="H32" t="str">
         <f>CONCATENATE("HMI1.CB",B32,"_Cmd")</f>
-        <v>HMI1.CB103_Cmd</v>
+        <v>HMI1.CB217_Cmd</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>CB103_MODBUS</v>
+        <f>CONCATENATE("CB", B32, "_MODBUS")</f>
+        <v>CB217_MODBUS</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C32="","",CONCATENATE("HMI1.BUS",C32,"_Stat"))</f>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
+        <f>IF(H32="","",CONCATENATE(",IOCCmd:=ADR(",H32,"),MBCmd:=ADR(",I32,".CMD),MBRst:=ADR(",I32,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=31,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A32,",CBID:=",B32,",Flow:=ADR(HMI1.Flow_",B32,"),Status:=ADR(",E32,"),Vpu:=ADR(",F32,"),VLgood:=ADR(",G32,")",K32,"),")</f>
+        <v>(ID:=31,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>HMI1.Flow_104</v>
+        <f>CONCATENATE("HMI1.Flow_",B33)</f>
+        <v>HMI1.Flow_218</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>HMI1.CB104_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B33,"_Closed")</f>
+        <v>HMI1.CB218_Closed</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB104_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B33,"_Vpu")</f>
+        <v>HMI1.CB218_Vpu</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB104_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B33,"_VLgood")</f>
+        <v>HMI1.CB218_VLgood</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>CB104_MODBUS</v>
+        <f>CONCATENATE("CB", B33, "_MODBUS")</f>
+        <v>CB218_MODBUS</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C33="","",CONCATENATE("HMI1.BUS",C33,"_Stat"))</f>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H33="","",CONCATENATE(",IOCCmd:=ADR(",H33,"),MBCmd:=ADR(",I33,".CMD),MBRst:=ADR(",I33,".RST)"))</f>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=32,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A33,",CBID:=",B33,",Flow:=ADR(HMI1.Flow_",B33,"),Status:=ADR(",E33,"),Vpu:=ADR(",F33,"),VLgood:=ADR(",G33,")",K33,"),")</f>
+        <v>(ID:=32,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34:D63" si="8">CONCATENATE("HMI1.Flow_",B34)</f>
-        <v>HMI1.Flow_105</v>
+        <f>CONCATENATE("HMI1.Flow_",B34)</f>
+        <v>HMI1.Flow_219</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E63" si="9">CONCATENATE("HMI1.CB",B34,"_Closed")</f>
-        <v>HMI1.CB105_Closed</v>
+        <f>CONCATENATE("HMI1.CB",B34,"_Closed")</f>
+        <v>HMI1.CB219_Closed</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB105_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B34,"_Vpu")</f>
+        <v>HMI1.CB219_Vpu</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB105_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B34,"_VLgood")</f>
+        <v>HMI1.CB219_VLgood</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ref="I34:I63" si="10">CONCATENATE("CB", B34, "_MODBUS")</f>
-        <v>CB105_MODBUS</v>
+        <f>CONCATENATE("CB", B34, "_MODBUS")</f>
+        <v>CB219_MODBUS</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C34="","",CONCATENATE("HMI1.BUS",C34,"_Stat"))</f>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H34="","",CONCATENATE(",IOCCmd:=ADR(",H34,"),MBCmd:=ADR(",I34,".CMD),MBRst:=ADR(",I34,".RST)"))</f>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=33,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <f>CONCATENATE("(ID:=",A34,",CBID:=",B34,",Flow:=ADR(HMI1.Flow_",B34,"),Status:=ADR(",E34,"),Vpu:=ADR(",F34,"),VLgood:=ADR(",G34,")",K34,"),")</f>
+        <v>(ID:=33,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>106</v>
+        <v>301</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_106</v>
+        <f t="shared" ref="D35:D44" si="0">CONCATENATE("HMI1.Flow_",B35)</f>
+        <v>HMI1.Flow_301</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB106_Closed</v>
+        <f t="shared" ref="E35:E44" si="1">CONCATENATE("HMI1.CB",B35,"_Closed")</f>
+        <v>HMI1.CB301_Closed</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB106_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B35,"_Vpu")</f>
+        <v>HMI1.CB301_Vpu</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB106_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B35,"_VLgood")</f>
+        <v>HMI1.CB301_VLgood</v>
+      </c>
+      <c r="H35" t="str">
+        <f>CONCATENATE("HMI1.CB",B35,"_Cmd")</f>
+        <v>HMI1.CB301_Cmd</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="10"/>
-        <v>CB106_MODBUS</v>
+        <f t="shared" ref="I35:I44" si="2">CONCATENATE("CB", B35, "_MODBUS")</f>
+        <v>CB301_MODBUS</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J35:J55" si="3">IF(C35="","",CONCATENATE("HMI1.BUS",C35,"_Stat"))</f>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>IF(H35="","",CONCATENATE(",IOCCmd:=ADR(",H35,"),MBCmd:=ADR(",I35,".CMD),MBRst:=ADR(",I35,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=34,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L35:L60" si="4">CONCATENATE("(ID:=",A35,",CBID:=",B35,",Flow:=ADR(HMI1.Flow_",B35,"),Status:=ADR(",E35,"),Vpu:=ADR(",F35,"),VLgood:=ADR(",G35,")",K35,"),")</f>
+        <v>(ID:=34,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_107</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_302</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB107_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB302_Closed</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB107_Vpu</v>
+        <f t="shared" ref="F36:F60" si="5">CONCATENATE("HMI1.CB",B36,"_Vpu")</f>
+        <v>HMI1.CB302_Vpu</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB107_VLgood</v>
+        <f t="shared" ref="G36:G60" si="6">CONCATENATE("HMI1.CB",B36,"_VLgood")</f>
+        <v>HMI1.CB302_VLgood</v>
+      </c>
+      <c r="H36" t="str">
+        <f>CONCATENATE("HMI1.CB",B36,"_Cmd")</f>
+        <v>HMI1.CB302_Cmd</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="10"/>
-        <v>CB107_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB302_MODBUS</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" ref="K36:K60" si="7">IF(H36="","",CONCATENATE(",IOCCmd:=ADR(",H36,"),MBCmd:=ADR(",I36,".CMD),MBRst:=ADR(",I36,".RST)"))</f>
+        <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=35,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=35,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>303</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_108</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_303</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB108_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB303_Closed</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB108_Vpu</v>
+        <v>HMI1.CB303_Vpu</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB108_VLgood</v>
+        <v>HMI1.CB303_VLgood</v>
       </c>
       <c r="H37" t="str">
         <f>CONCATENATE("HMI1.CB",B37,"_Cmd")</f>
-        <v>HMI1.CB108_Cmd</v>
+        <v>HMI1.CB303_Cmd</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="10"/>
-        <v>CB108_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB303_MODBUS</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="3"/>
@@ -1896,43 +1900,43 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
+        <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=36,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=36,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_109</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_304</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB109_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB304_Closed</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB109_Vpu</v>
+        <v>HMI1.CB304_Vpu</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB109_VLgood</v>
+        <v>HMI1.CB304_VLgood</v>
       </c>
       <c r="H38" t="str">
         <f>CONCATENATE("HMI1.CB",B38,"_Cmd")</f>
-        <v>HMI1.CB109_Cmd</v>
+        <v>HMI1.CB304_Cmd</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="10"/>
-        <v>CB109_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB304_MODBUS</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="3"/>
@@ -1940,39 +1944,43 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
+        <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=37,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=37,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_110</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_305</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB110_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB305_Closed</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB110_Vpu</v>
+        <v>HMI1.CB305_Vpu</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB110_VLgood</v>
+        <v>HMI1.CB305_VLgood</v>
+      </c>
+      <c r="H39" t="str">
+        <f>CONCATENATE("HMI1.CB",B39,"_Cmd")</f>
+        <v>HMI1.CB305_Cmd</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="10"/>
-        <v>CB110_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB305_MODBUS</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="3"/>
@@ -1980,43 +1988,39 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=38,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=38,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>306</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_111</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_306</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB111_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB306_Closed</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB111_Vpu</v>
+        <v>HMI1.CB306_Vpu</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB111_VLgood</v>
-      </c>
-      <c r="H40" t="str">
-        <f>CONCATENATE("HMI1.CB",B40,"_Cmd")</f>
-        <v>HMI1.CB111_Cmd</v>
+        <v>HMI1.CB306_VLgood</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="10"/>
-        <v>CB111_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB306_MODBUS</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="3"/>
@@ -2024,39 +2028,39 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
+        <v/>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=39,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=39,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_112</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_307</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB112_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB307_Closed</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB112_Vpu</v>
+        <v>HMI1.CB307_Vpu</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB112_VLgood</v>
+        <v>HMI1.CB307_VLgood</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="10"/>
-        <v>CB112_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB307_MODBUS</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="3"/>
@@ -2068,39 +2072,35 @@
       </c>
       <c r="L41" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=40,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=40,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>113</v>
+        <v>308</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_113</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_308</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB113_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB308_Closed</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB113_Vpu</v>
+        <v>HMI1.CB308_Vpu</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB113_VLgood</v>
-      </c>
-      <c r="H42" t="str">
-        <f>CONCATENATE("HMI1.CB",B42,"_Cmd")</f>
-        <v>HMI1.CB113_Cmd</v>
+        <v>HMI1.CB308_VLgood</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="10"/>
-        <v>CB113_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB308_MODBUS</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="3"/>
@@ -2108,39 +2108,39 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" si="7"/>
-        <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
+        <v/>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=41,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=41,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>114</v>
+        <v>309</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_114</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_309</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB114_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB309_Closed</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB114_Vpu</v>
+        <v>HMI1.CB309_Vpu</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB114_VLgood</v>
+        <v>HMI1.CB309_VLgood</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="10"/>
-        <v>CB114_MODBUS</v>
+        <f t="shared" si="2"/>
+        <v>CB309_MODBUS</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="3"/>
@@ -2152,39 +2152,35 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=42,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=42,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_300</v>
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_310</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB300_Closed</v>
+        <f t="shared" si="1"/>
+        <v>HMI1.CB310_Closed</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB300_Vpu</v>
+        <v>HMI1.CB310_Vpu</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB300_VLgood</v>
+        <v>HMI1.CB310_VLgood</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="10"/>
-        <v>CB300_MODBUS</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>CB310_MODBUS</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="7"/>
@@ -2192,167 +2188,170 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=43,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>(ID:=43,CBID:=310,Flow:=ADR(HMI1.Flow_310),Status:=ADR(HMI1.CB310_Closed),Vpu:=ADR(HMI1.CB310_Vpu),VLgood:=ADR(HMI1.CB310_VLgood)),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_200</v>
+        <f t="shared" ref="D45:D50" si="8">CONCATENATE("HMI1.Flow_",B45)</f>
+        <v>HMI1.Flow_401</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB200_Closed</v>
+        <f t="shared" ref="E45:E50" si="9">CONCATENATE("HMI1.CB",B45,"_Closed")</f>
+        <v>HMI1.CB401_Closed</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB200_Vpu</v>
+        <f>CONCATENATE("HMI1.CB",B45,"_Vpu")</f>
+        <v>HMI1.CB401_Vpu</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB200_VLgood</v>
+        <f>CONCATENATE("HMI1.CB",B45,"_VLgood")</f>
+        <v>HMI1.CB401_VLgood</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="10"/>
-        <v>CB200_MODBUS</v>
+        <f t="shared" ref="I45:I50" si="10">CONCATENATE("CB", B45, "_MODBUS")</f>
+        <v>CB401_MODBUS</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J45:J50" si="11">IF(C45="","",CONCATENATE("HMI1.BUS",C45,"_Stat"))</f>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(H45="","",CONCATENATE(",IOCCmd:=ADR(",H45,"),MBCmd:=ADR(",I45,".CMD),MBRst:=ADR(",I45,".RST)"))</f>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=44,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L45:L50" si="12">CONCATENATE("(ID:=",A45,",CBID:=",B45,",Flow:=ADR(HMI1.Flow_",B45,"),Status:=ADR(",E45,"),Vpu:=ADR(",F45,"),VLgood:=ADR(",G45,")",K45,"),")</f>
+        <v>(ID:=44,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>402</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="8"/>
-        <v>HMI1.Flow_100</v>
+        <v>HMI1.Flow_402</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="9"/>
-        <v>HMI1.CB100_Closed</v>
+        <v>HMI1.CB402_Closed</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB100_Vpu</v>
+        <f t="shared" ref="F46:F50" si="13">CONCATENATE("HMI1.CB",B46,"_Vpu")</f>
+        <v>HMI1.CB402_Vpu</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB100_VLgood</v>
+        <f t="shared" ref="G46:G50" si="14">CONCATENATE("HMI1.CB",B46,"_VLgood")</f>
+        <v>HMI1.CB402_VLgood</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="10"/>
-        <v>CB100_MODBUS</v>
+        <v>CB402_MODBUS</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K46:K50" si="15">IF(H46="","",CONCATENATE(",IOCCmd:=ADR(",H46,"),MBCmd:=ADR(",I46,".CMD),MBRst:=ADR(",I46,".RST)"))</f>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=45,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>(ID:=45,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="8"/>
-        <v>HMI1.Flow_351</v>
+        <v>HMI1.Flow_403</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="9"/>
-        <v>HMI1.CB351_Closed</v>
+        <v>HMI1.CB403_Closed</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB351_Vpu</v>
+        <f t="shared" si="13"/>
+        <v>HMI1.CB403_Vpu</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB351_VLgood</v>
+        <f t="shared" si="14"/>
+        <v>HMI1.CB403_VLgood</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="10"/>
-        <v>CB351_MODBUS</v>
+        <v>CB403_MODBUS</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=46,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>(ID:=46,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>151</v>
+        <v>404</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="8"/>
-        <v>HMI1.Flow_151</v>
+        <v>HMI1.Flow_404</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="9"/>
-        <v>HMI1.CB151_Closed</v>
+        <v>HMI1.CB404_Closed</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB151_Vpu</v>
+        <f t="shared" si="13"/>
+        <v>HMI1.CB404_Vpu</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB151_VLgood</v>
+        <f t="shared" si="14"/>
+        <v>HMI1.CB404_VLgood</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="10"/>
-        <v>CB151_MODBUS</v>
+        <v>CB404_MODBUS</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=47,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
+        <f t="shared" si="12"/>
+        <v>(ID:=47,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2360,35 +2359,39 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>261</v>
+        <v>405</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="8"/>
-        <v>HMI1.Flow_261</v>
+        <v>HMI1.Flow_405</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="9"/>
-        <v>HMI1.CB261_Closed</v>
+        <v>HMI1.CB405_Closed</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB261_Vpu</v>
+        <f t="shared" si="13"/>
+        <v>HMI1.CB405_Vpu</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB261_VLgood</v>
+        <f t="shared" si="14"/>
+        <v>HMI1.CB405_VLgood</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="10"/>
-        <v>CB261_MODBUS</v>
+        <v>CB405_MODBUS</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=48,CBID:=261,Flow:=ADR(HMI1.Flow_261),Status:=ADR(HMI1.CB261_Closed),Vpu:=ADR(HMI1.CB261_Vpu),VLgood:=ADR(HMI1.CB261_VLgood)),</v>
+        <f t="shared" si="12"/>
+        <v>(ID:=48,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2396,35 +2399,39 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>271</v>
+        <v>406</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="8"/>
-        <v>HMI1.Flow_271</v>
+        <v>HMI1.Flow_406</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="9"/>
-        <v>HMI1.CB271_Closed</v>
+        <v>HMI1.CB406_Closed</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB271_Vpu</v>
+        <f t="shared" si="13"/>
+        <v>HMI1.CB406_Vpu</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB271_VLgood</v>
+        <f t="shared" si="14"/>
+        <v>HMI1.CB406_VLgood</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="10"/>
-        <v>CB271_MODBUS</v>
+        <v>CB406_MODBUS</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=49,CBID:=271,Flow:=ADR(HMI1.Flow_271),Status:=ADR(HMI1.CB271_Closed),Vpu:=ADR(HMI1.CB271_Vpu),VLgood:=ADR(HMI1.CB271_VLgood)),</v>
+        <f t="shared" si="12"/>
+        <v>(ID:=49,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2432,39 +2439,39 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>401</v>
+        <v>100</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_401</v>
+        <f t="shared" ref="D51:D60" si="16">CONCATENATE("HMI1.Flow_",B51)</f>
+        <v>HMI1.Flow_100</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB401_Closed</v>
+        <f t="shared" ref="E51:E60" si="17">CONCATENATE("HMI1.CB",B51,"_Closed")</f>
+        <v>HMI1.CB100_Closed</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB401_Vpu</v>
+        <v>HMI1.CB100_Vpu</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB401_VLgood</v>
+        <v>HMI1.CB100_VLgood</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="10"/>
-        <v>CB401_MODBUS</v>
+        <f t="shared" ref="I51:I60" si="18">CONCATENATE("CB", B51, "_MODBUS")</f>
+        <v>CB100_MODBUS</v>
       </c>
       <c r="J51" t="str">
-        <f>IF(C51="","",CONCATENATE("HMI1.BUS",C51,"_Stat"))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" ref="K51:K57" si="11">IF(H51="","",CONCATENATE(",IOCCmd:=ADR(",H51,"),MBCmd:=ADR(",I51,".CMD),MBRst:=ADR(",I51,".RST)"))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=50,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
+        <v>(ID:=50,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2472,39 +2479,39 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_402</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_200</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB402_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB200_Closed</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB402_Vpu</v>
+        <v>HMI1.CB200_Vpu</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB402_VLgood</v>
+        <v>HMI1.CB200_VLgood</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="10"/>
-        <v>CB402_MODBUS</v>
+        <f t="shared" si="18"/>
+        <v>CB200_MODBUS</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" ref="J52:J63" si="12">IF(C52="","",CONCATENATE("HMI1.BUS",C52,"_Stat"))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L52" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=51,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
+        <v>(ID:=51,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2512,39 +2519,39 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_403</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_300</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB403_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB300_Closed</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB403_Vpu</v>
+        <v>HMI1.CB300_Vpu</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB403_VLgood</v>
+        <v>HMI1.CB300_VLgood</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="10"/>
-        <v>CB403_MODBUS</v>
+        <f t="shared" si="18"/>
+        <v>CB300_MODBUS</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=52,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
+        <v>(ID:=52,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2552,39 +2559,39 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>404</v>
+        <v>151</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_404</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_151</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB404_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB151_Closed</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB404_Vpu</v>
+        <v>HMI1.CB151_Vpu</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB404_VLgood</v>
+        <v>HMI1.CB151_VLgood</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="10"/>
-        <v>CB404_MODBUS</v>
+        <f t="shared" si="18"/>
+        <v>CB151_MODBUS</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=53,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
+        <v>(ID:=53,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2592,39 +2599,39 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>405</v>
+        <v>251</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_405</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_251</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB405_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB251_Closed</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB405_Vpu</v>
+        <v>HMI1.CB251_Vpu</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB405_VLgood</v>
+        <v>HMI1.CB251_VLgood</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="10"/>
-        <v>CB405_MODBUS</v>
+        <f t="shared" si="18"/>
+        <v>CB251_MODBUS</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=54,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
+        <v>(ID:=54,CBID:=251,Flow:=ADR(HMI1.Flow_251),Status:=ADR(HMI1.CB251_Closed),Vpu:=ADR(HMI1.CB251_Vpu),VLgood:=ADR(HMI1.CB251_VLgood)),</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2632,39 +2639,35 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>406</v>
+        <v>252</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_406</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_252</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB406_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB252_Closed</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB406_Vpu</v>
+        <v>HMI1.CB252_Vpu</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB406_VLgood</v>
+        <v>HMI1.CB252_VLgood</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="10"/>
-        <v>CB406_MODBUS</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>CB252_MODBUS</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=55,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
+        <v>(ID:=55,CBID:=252,Flow:=ADR(HMI1.Flow_252),Status:=ADR(HMI1.CB252_Closed),Vpu:=ADR(HMI1.CB252_Vpu),VLgood:=ADR(HMI1.CB252_VLgood)),</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2672,39 +2675,35 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_407</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_351</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB407_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB351_Closed</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB407_Vpu</v>
+        <v>HMI1.CB351_Vpu</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB407_VLgood</v>
+        <v>HMI1.CB351_VLgood</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="10"/>
-        <v>CB407_MODBUS</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>CB351_MODBUS</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=56,CBID:=407,Flow:=ADR(HMI1.Flow_407),Status:=ADR(HMI1.CB407_Closed),Vpu:=ADR(HMI1.CB407_Vpu),VLgood:=ADR(HMI1.CB407_VLgood)),</v>
+        <v>(ID:=56,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2712,39 +2711,35 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_408</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_451</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB408_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB451_Closed</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB408_Vpu</v>
+        <v>HMI1.CB451_Vpu</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB408_VLgood</v>
+        <v>HMI1.CB451_VLgood</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="10"/>
-        <v>CB408_MODBUS</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>CB451_MODBUS</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" ref="K58:K63" si="13">IF(H58="","",CONCATENATE(",IOCCmd:=ADR(",H58,"),MBCmd:=ADR(",I58,".CMD),MBRst:=ADR(",I58,".RST)"))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=57,CBID:=408,Flow:=ADR(HMI1.Flow_408),Status:=ADR(HMI1.CB408_Closed),Vpu:=ADR(HMI1.CB408_Vpu),VLgood:=ADR(HMI1.CB408_VLgood)),</v>
+        <v>(ID:=57,CBID:=451,Flow:=ADR(HMI1.Flow_451),Status:=ADR(HMI1.CB451_Closed),Vpu:=ADR(HMI1.CB451_Vpu),VLgood:=ADR(HMI1.CB451_VLgood)),</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2752,39 +2747,35 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_409</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_452</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB409_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB452_Closed</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB409_Vpu</v>
+        <v>HMI1.CB452_Vpu</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB409_VLgood</v>
+        <v>HMI1.CB452_VLgood</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="10"/>
-        <v>CB409_MODBUS</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>CB452_MODBUS</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=58,CBID:=409,Flow:=ADR(HMI1.Flow_409),Status:=ADR(HMI1.CB409_Closed),Vpu:=ADR(HMI1.CB409_Vpu),VLgood:=ADR(HMI1.CB409_VLgood)),</v>
+        <v>(ID:=58,CBID:=452,Flow:=ADR(HMI1.Flow_452),Status:=ADR(HMI1.CB452_Closed),Vpu:=ADR(HMI1.CB452_Vpu),VLgood:=ADR(HMI1.CB452_VLgood)),</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2792,159 +2783,35 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_410</v>
+        <f t="shared" si="16"/>
+        <v>HMI1.Flow_453</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB410_Closed</v>
+        <f t="shared" si="17"/>
+        <v>HMI1.CB453_Closed</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="5"/>
-        <v>HMI1.CB410_Vpu</v>
+        <v>HMI1.CB453_Vpu</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB410_VLgood</v>
+        <v>HMI1.CB453_VLgood</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="10"/>
-        <v>CB410_MODBUS</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v>CB453_MODBUS</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="4"/>
-        <v>(ID:=59,CBID:=410,Flow:=ADR(HMI1.Flow_410),Status:=ADR(HMI1.CB410_Closed),Vpu:=ADR(HMI1.CB410_Vpu),VLgood:=ADR(HMI1.CB410_VLgood)),</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>411</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_411</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB411_Closed</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB411_Vpu</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB411_VLgood</v>
-      </c>
-      <c r="I61" t="str">
-        <f t="shared" si="10"/>
-        <v>CB411_MODBUS</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K61" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=60,CBID:=411,Flow:=ADR(HMI1.Flow_411),Status:=ADR(HMI1.CB411_Closed),Vpu:=ADR(HMI1.CB411_Vpu),VLgood:=ADR(HMI1.CB411_VLgood)),</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>412</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_412</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB412_Closed</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB412_Vpu</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB412_VLgood</v>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="10"/>
-        <v>CB412_MODBUS</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K62" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=61,CBID:=412,Flow:=ADR(HMI1.Flow_412),Status:=ADR(HMI1.CB412_Closed),Vpu:=ADR(HMI1.CB412_Vpu),VLgood:=ADR(HMI1.CB412_VLgood)),</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>413</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="8"/>
-        <v>HMI1.Flow_413</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="9"/>
-        <v>HMI1.CB413_Closed</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="5"/>
-        <v>HMI1.CB413_Vpu</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="6"/>
-        <v>HMI1.CB413_VLgood</v>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="10"/>
-        <v>CB413_MODBUS</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L63" t="str">
-        <f>CONCATENATE("(ID:=",A63,",CBID:=",B63,",Flow:=ADR(HMI1.Flow_",B63,"),Status:=ADR(",E63,"),Vpu:=ADR(",F63,"),VLgood:=ADR(",G63,")",K63,"),")</f>
-        <v>(ID:=62,CBID:=413,Flow:=ADR(HMI1.Flow_413),Status:=ADR(HMI1.CB413_Closed),Vpu:=ADR(HMI1.CB413_Vpu),VLgood:=ADR(HMI1.CB413_VLgood)),</v>
+        <v>(ID:=59,CBID:=453,Flow:=ADR(HMI1.Flow_453),Status:=ADR(HMI1.CB453_Closed),Vpu:=ADR(HMI1.CB453_Vpu),VLgood:=ADR(HMI1.CB453_VLgood)),</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +2845,7 @@
       </c>
       <c r="C2" t="str">
         <f>INDEX(HMI_signals!H:H,B2+1)</f>
-        <v>HMI1.CB301_Cmd</v>
+        <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2991,7 +2858,7 @@
       </c>
       <c r="C3" t="str">
         <f>INDEX(HMI_signals!H:H,B3+1)</f>
-        <v>HMI1.CB301_Cmd</v>
+        <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3004,7 +2871,7 @@
       </c>
       <c r="C4" t="str">
         <f>INDEX(HMI_signals!H:H,B4+1)</f>
-        <v>HMI1.CB301_Cmd</v>
+        <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3017,7 +2884,7 @@
       </c>
       <c r="C5" t="str">
         <f>INDEX(HMI_signals!H:H,B5+1)</f>
-        <v>HMI1.CB301_Cmd</v>
+        <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3030,7 +2897,7 @@
       </c>
       <c r="C6" t="str">
         <f>INDEX(HMI_signals!H:H,B6+1)</f>
-        <v>HMI1.CB302_Cmd</v>
+        <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3043,7 +2910,7 @@
       </c>
       <c r="C7" t="str">
         <f>INDEX(HMI_signals!H:H,B7+1)</f>
-        <v>HMI1.CB302_Cmd</v>
+        <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3056,7 +2923,7 @@
       </c>
       <c r="C8" t="str">
         <f>INDEX(HMI_signals!H:H,B8+1)</f>
-        <v>HMI1.CB302_Cmd</v>
+        <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,7 +2936,7 @@
       </c>
       <c r="C9" t="str">
         <f>INDEX(HMI_signals!H:H,B9+1)</f>
-        <v>HMI1.CB302_Cmd</v>
+        <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3082,7 +2949,7 @@
       </c>
       <c r="C10" t="str">
         <f>INDEX(HMI_signals!H:H,B10+1)</f>
-        <v>HMI1.CB303_Cmd</v>
+        <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3095,7 +2962,7 @@
       </c>
       <c r="C11" t="str">
         <f>INDEX(HMI_signals!H:H,B11+1)</f>
-        <v>HMI1.CB303_Cmd</v>
+        <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3108,7 +2975,7 @@
       </c>
       <c r="C12" t="str">
         <f>INDEX(HMI_signals!H:H,B12+1)</f>
-        <v>HMI1.CB303_Cmd</v>
+        <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3121,7 +2988,7 @@
       </c>
       <c r="C13" t="str">
         <f>INDEX(HMI_signals!H:H,B13+1)</f>
-        <v>HMI1.CB303_Cmd</v>
+        <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3132,9 +2999,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
         <f>INDEX(HMI_signals!H:H,B14+1)</f>
-        <v>HMI1.CB304_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3145,9 +3012,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
         <f>INDEX(HMI_signals!H:H,B15+1)</f>
-        <v>HMI1.CB304_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -3158,9 +3025,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
         <f>INDEX(HMI_signals!H:H,B16+1)</f>
-        <v>HMI1.CB304_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3171,9 +3038,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
         <f>INDEX(HMI_signals!H:H,B17+1)</f>
-        <v>HMI1.CB304_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3184,9 +3051,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
         <f>INDEX(HMI_signals!H:H,B18+1)</f>
-        <v>HMI1.CB305_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3197,9 +3064,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
         <f>INDEX(HMI_signals!H:H,B19+1)</f>
-        <v>HMI1.CB305_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3210,9 +3077,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
         <f>INDEX(HMI_signals!H:H,B20+1)</f>
-        <v>HMI1.CB305_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3223,9 +3090,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
         <f>INDEX(HMI_signals!H:H,B21+1)</f>
-        <v>HMI1.CB305_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -3340,9 +3207,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="str">
         <f>INDEX(HMI_signals!H:H,B30+1)</f>
-        <v>0</v>
+        <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3353,9 +3220,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="str">
         <f>INDEX(HMI_signals!H:H,B31+1)</f>
-        <v>0</v>
+        <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3366,9 +3233,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="str">
         <f>INDEX(HMI_signals!H:H,B32+1)</f>
-        <v>0</v>
+        <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -3379,9 +3246,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="str">
         <f>INDEX(HMI_signals!H:H,B33+1)</f>
-        <v>0</v>
+        <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -3392,9 +3259,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f>INDEX(HMI_signals!H:H,B34+1)</f>
-        <v>0</v>
+        <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -3405,9 +3272,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f>INDEX(HMI_signals!H:H,B35+1)</f>
-        <v>0</v>
+        <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3418,9 +3285,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <f>INDEX(HMI_signals!H:H,B36+1)</f>
-        <v>0</v>
+        <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -3431,9 +3298,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <f>INDEX(HMI_signals!H:H,B37+1)</f>
-        <v>0</v>
+        <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3444,9 +3311,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38">
         <f>INDEX(HMI_signals!H:H,B38+1)</f>
-        <v>HMI1.CB201_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -3457,9 +3324,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C39" t="str">
+      <c r="C39">
         <f>INDEX(HMI_signals!H:H,B39+1)</f>
-        <v>HMI1.CB201_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -3470,9 +3337,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C40">
         <f>INDEX(HMI_signals!H:H,B40+1)</f>
-        <v>HMI1.CB201_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -3483,9 +3350,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41">
         <f>INDEX(HMI_signals!H:H,B41+1)</f>
-        <v>HMI1.CB201_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -3498,7 +3365,7 @@
       </c>
       <c r="C42" t="str">
         <f>INDEX(HMI_signals!H:H,B42+1)</f>
-        <v>HMI1.CB202_Cmd</v>
+        <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -3511,7 +3378,7 @@
       </c>
       <c r="C43" t="str">
         <f>INDEX(HMI_signals!H:H,B43+1)</f>
-        <v>HMI1.CB202_Cmd</v>
+        <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -3524,7 +3391,7 @@
       </c>
       <c r="C44" t="str">
         <f>INDEX(HMI_signals!H:H,B44+1)</f>
-        <v>HMI1.CB202_Cmd</v>
+        <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -3537,7 +3404,7 @@
       </c>
       <c r="C45" t="str">
         <f>INDEX(HMI_signals!H:H,B45+1)</f>
-        <v>HMI1.CB202_Cmd</v>
+        <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -3548,9 +3415,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46">
         <f>INDEX(HMI_signals!H:H,B46+1)</f>
-        <v>HMI1.CB203_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -3561,9 +3428,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C47" t="str">
+      <c r="C47">
         <f>INDEX(HMI_signals!H:H,B47+1)</f>
-        <v>HMI1.CB203_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -3574,9 +3441,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C48" t="str">
+      <c r="C48">
         <f>INDEX(HMI_signals!H:H,B48+1)</f>
-        <v>HMI1.CB203_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -3587,9 +3454,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C49" t="str">
+      <c r="C49">
         <f>INDEX(HMI_signals!H:H,B49+1)</f>
-        <v>HMI1.CB203_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -3600,9 +3467,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <f>INDEX(HMI_signals!H:H,B50+1)</f>
-        <v>0</v>
+        <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -3613,9 +3480,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
         <f>INDEX(HMI_signals!H:H,B51+1)</f>
-        <v>0</v>
+        <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -3626,9 +3493,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <f>INDEX(HMI_signals!H:H,B52+1)</f>
-        <v>0</v>
+        <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -3639,9 +3506,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <f>INDEX(HMI_signals!H:H,B53+1)</f>
-        <v>0</v>
+        <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -3704,9 +3571,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="str">
         <f>INDEX(HMI_signals!H:H,B58+1)</f>
-        <v>0</v>
+        <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -3717,9 +3584,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="str">
         <f>INDEX(HMI_signals!H:H,B59+1)</f>
-        <v>0</v>
+        <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -3730,9 +3597,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="str">
         <f>INDEX(HMI_signals!H:H,B60+1)</f>
-        <v>0</v>
+        <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -3743,9 +3610,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="str">
         <f>INDEX(HMI_signals!H:H,B61+1)</f>
-        <v>0</v>
+        <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -3756,9 +3623,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="str">
         <f>INDEX(HMI_signals!H:H,B62+1)</f>
-        <v>0</v>
+        <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -3769,9 +3636,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="str">
         <f>INDEX(HMI_signals!H:H,B63+1)</f>
-        <v>0</v>
+        <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -3782,9 +3649,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="str">
         <f>INDEX(HMI_signals!H:H,B64+1)</f>
-        <v>0</v>
+        <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3795,9 +3662,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="str">
         <f>INDEX(HMI_signals!H:H,B65+1)</f>
-        <v>0</v>
+        <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3808,9 +3675,9 @@
         <f t="shared" ref="B66:B129" si="1">CEILING(A66/4,1)</f>
         <v>17</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="str">
         <f>INDEX(HMI_signals!H:H,B66+1)</f>
-        <v>0</v>
+        <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -3821,9 +3688,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="str">
         <f>INDEX(HMI_signals!H:H,B67+1)</f>
-        <v>0</v>
+        <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -3834,9 +3701,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="str">
         <f>INDEX(HMI_signals!H:H,B68+1)</f>
-        <v>0</v>
+        <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -3847,9 +3714,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="str">
         <f>INDEX(HMI_signals!H:H,B69+1)</f>
-        <v>0</v>
+        <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -4068,9 +3935,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C86" t="str">
+      <c r="C86">
         <f>INDEX(HMI_signals!H:H,B86+1)</f>
-        <v>HMI1.CB213_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -4081,9 +3948,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C87" t="str">
+      <c r="C87">
         <f>INDEX(HMI_signals!H:H,B87+1)</f>
-        <v>HMI1.CB213_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -4094,9 +3961,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C88" t="str">
+      <c r="C88">
         <f>INDEX(HMI_signals!H:H,B88+1)</f>
-        <v>HMI1.CB213_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -4107,9 +3974,9 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C89" t="str">
+      <c r="C89">
         <f>INDEX(HMI_signals!H:H,B89+1)</f>
-        <v>HMI1.CB213_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -4224,9 +4091,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C98" t="str">
+      <c r="C98">
         <f>INDEX(HMI_signals!H:H,B98+1)</f>
-        <v>HMI1.CB216_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -4237,9 +4104,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C99" t="str">
+      <c r="C99">
         <f>INDEX(HMI_signals!H:H,B99+1)</f>
-        <v>HMI1.CB216_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -4250,9 +4117,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C100" t="str">
+      <c r="C100">
         <f>INDEX(HMI_signals!H:H,B100+1)</f>
-        <v>HMI1.CB216_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -4263,9 +4130,9 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C101" t="str">
+      <c r="C101">
         <f>INDEX(HMI_signals!H:H,B101+1)</f>
-        <v>HMI1.CB216_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -4276,9 +4143,9 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C102" t="str">
+      <c r="C102">
         <f>INDEX(HMI_signals!H:H,B102+1)</f>
-        <v>HMI1.CB217_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -4289,9 +4156,9 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C103" t="str">
+      <c r="C103">
         <f>INDEX(HMI_signals!H:H,B103+1)</f>
-        <v>HMI1.CB217_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -4302,9 +4169,9 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C104" t="str">
+      <c r="C104">
         <f>INDEX(HMI_signals!H:H,B104+1)</f>
-        <v>HMI1.CB217_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -4315,9 +4182,9 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C105" t="str">
+      <c r="C105">
         <f>INDEX(HMI_signals!H:H,B105+1)</f>
-        <v>HMI1.CB217_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -4328,9 +4195,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="str">
         <f>INDEX(HMI_signals!H:H,B106+1)</f>
-        <v>0</v>
+        <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -4341,9 +4208,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="str">
         <f>INDEX(HMI_signals!H:H,B107+1)</f>
-        <v>0</v>
+        <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -4354,9 +4221,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="str">
         <f>INDEX(HMI_signals!H:H,B108+1)</f>
-        <v>0</v>
+        <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -4367,9 +4234,9 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="str">
         <f>INDEX(HMI_signals!H:H,B109+1)</f>
-        <v>0</v>
+        <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -4432,9 +4299,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C114" t="str">
+      <c r="C114">
         <f>INDEX(HMI_signals!H:H,B114+1)</f>
-        <v>HMI1.CB101_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -4445,9 +4312,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C115" t="str">
+      <c r="C115">
         <f>INDEX(HMI_signals!H:H,B115+1)</f>
-        <v>HMI1.CB101_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -4458,9 +4325,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C116" t="str">
+      <c r="C116">
         <f>INDEX(HMI_signals!H:H,B116+1)</f>
-        <v>HMI1.CB101_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -4471,9 +4338,9 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C117" t="str">
+      <c r="C117">
         <f>INDEX(HMI_signals!H:H,B117+1)</f>
-        <v>HMI1.CB101_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -4486,7 +4353,7 @@
       </c>
       <c r="C118" t="str">
         <f>INDEX(HMI_signals!H:H,B118+1)</f>
-        <v>HMI1.CB102_Cmd</v>
+        <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -4499,7 +4366,7 @@
       </c>
       <c r="C119" t="str">
         <f>INDEX(HMI_signals!H:H,B119+1)</f>
-        <v>HMI1.CB102_Cmd</v>
+        <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -4512,7 +4379,7 @@
       </c>
       <c r="C120" t="str">
         <f>INDEX(HMI_signals!H:H,B120+1)</f>
-        <v>HMI1.CB102_Cmd</v>
+        <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -4525,7 +4392,7 @@
       </c>
       <c r="C121" t="str">
         <f>INDEX(HMI_signals!H:H,B121+1)</f>
-        <v>HMI1.CB102_Cmd</v>
+        <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -4538,7 +4405,7 @@
       </c>
       <c r="C122" t="str">
         <f>INDEX(HMI_signals!H:H,B122+1)</f>
-        <v>HMI1.CB103_Cmd</v>
+        <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -4551,7 +4418,7 @@
       </c>
       <c r="C123" t="str">
         <f>INDEX(HMI_signals!H:H,B123+1)</f>
-        <v>HMI1.CB103_Cmd</v>
+        <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -4564,7 +4431,7 @@
       </c>
       <c r="C124" t="str">
         <f>INDEX(HMI_signals!H:H,B124+1)</f>
-        <v>HMI1.CB103_Cmd</v>
+        <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -4577,7 +4444,7 @@
       </c>
       <c r="C125" t="str">
         <f>INDEX(HMI_signals!H:H,B125+1)</f>
-        <v>HMI1.CB103_Cmd</v>
+        <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -4692,9 +4559,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="str">
         <f>INDEX(HMI_signals!H:H,B134+1)</f>
-        <v>0</v>
+        <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -4705,9 +4572,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="str">
         <f>INDEX(HMI_signals!H:H,B135+1)</f>
-        <v>0</v>
+        <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -4718,9 +4585,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="str">
         <f>INDEX(HMI_signals!H:H,B136+1)</f>
-        <v>0</v>
+        <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -4731,9 +4598,9 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="str">
         <f>INDEX(HMI_signals!H:H,B137+1)</f>
-        <v>0</v>
+        <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -4744,9 +4611,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="str">
         <f>INDEX(HMI_signals!H:H,B138+1)</f>
-        <v>0</v>
+        <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -4757,9 +4624,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="str">
         <f>INDEX(HMI_signals!H:H,B139+1)</f>
-        <v>0</v>
+        <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -4770,9 +4637,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="str">
         <f>INDEX(HMI_signals!H:H,B140+1)</f>
-        <v>0</v>
+        <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -4783,9 +4650,9 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="str">
         <f>INDEX(HMI_signals!H:H,B141+1)</f>
-        <v>0</v>
+        <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -4798,7 +4665,7 @@
       </c>
       <c r="C142" t="str">
         <f>INDEX(HMI_signals!H:H,B142+1)</f>
-        <v>HMI1.CB108_Cmd</v>
+        <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -4811,7 +4678,7 @@
       </c>
       <c r="C143" t="str">
         <f>INDEX(HMI_signals!H:H,B143+1)</f>
-        <v>HMI1.CB108_Cmd</v>
+        <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -4824,7 +4691,7 @@
       </c>
       <c r="C144" t="str">
         <f>INDEX(HMI_signals!H:H,B144+1)</f>
-        <v>HMI1.CB108_Cmd</v>
+        <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -4837,7 +4704,7 @@
       </c>
       <c r="C145" t="str">
         <f>INDEX(HMI_signals!H:H,B145+1)</f>
-        <v>HMI1.CB108_Cmd</v>
+        <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -4850,7 +4717,7 @@
       </c>
       <c r="C146" t="str">
         <f>INDEX(HMI_signals!H:H,B146+1)</f>
-        <v>HMI1.CB109_Cmd</v>
+        <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -4863,7 +4730,7 @@
       </c>
       <c r="C147" t="str">
         <f>INDEX(HMI_signals!H:H,B147+1)</f>
-        <v>HMI1.CB109_Cmd</v>
+        <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4876,7 +4743,7 @@
       </c>
       <c r="C148" t="str">
         <f>INDEX(HMI_signals!H:H,B148+1)</f>
-        <v>HMI1.CB109_Cmd</v>
+        <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -4889,7 +4756,7 @@
       </c>
       <c r="C149" t="str">
         <f>INDEX(HMI_signals!H:H,B149+1)</f>
-        <v>HMI1.CB109_Cmd</v>
+        <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -4900,9 +4767,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="str">
         <f>INDEX(HMI_signals!H:H,B150+1)</f>
-        <v>0</v>
+        <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4913,9 +4780,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="str">
         <f>INDEX(HMI_signals!H:H,B151+1)</f>
-        <v>0</v>
+        <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -4926,9 +4793,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="str">
         <f>INDEX(HMI_signals!H:H,B152+1)</f>
-        <v>0</v>
+        <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -4939,9 +4806,9 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="str">
         <f>INDEX(HMI_signals!H:H,B153+1)</f>
-        <v>0</v>
+        <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -4952,9 +4819,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="C154" t="str">
+      <c r="C154">
         <f>INDEX(HMI_signals!H:H,B154+1)</f>
-        <v>HMI1.CB111_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4965,9 +4832,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="C155" t="str">
+      <c r="C155">
         <f>INDEX(HMI_signals!H:H,B155+1)</f>
-        <v>HMI1.CB111_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -4978,9 +4845,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="C156" t="str">
+      <c r="C156">
         <f>INDEX(HMI_signals!H:H,B156+1)</f>
-        <v>HMI1.CB111_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4991,9 +4858,9 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="C157" t="str">
+      <c r="C157">
         <f>INDEX(HMI_signals!H:H,B157+1)</f>
-        <v>HMI1.CB111_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -5056,9 +4923,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C162" t="str">
+      <c r="C162">
         <f>INDEX(HMI_signals!H:H,B162+1)</f>
-        <v>HMI1.CB113_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -5069,9 +4936,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C163" t="str">
+      <c r="C163">
         <f>INDEX(HMI_signals!H:H,B163+1)</f>
-        <v>HMI1.CB113_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -5082,9 +4949,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C164" t="str">
+      <c r="C164">
         <f>INDEX(HMI_signals!H:H,B164+1)</f>
-        <v>HMI1.CB113_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -5095,9 +4962,9 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="C165" t="str">
+      <c r="C165">
         <f>INDEX(HMI_signals!H:H,B165+1)</f>
-        <v>HMI1.CB113_Cmd</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">

--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="312" windowWidth="11016" windowHeight="8736"/>
+    <workbookView xWindow="288" yWindow="312" windowWidth="11016" windowHeight="8736" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HMI_signals" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HMI_signals!$A$1:$M$60</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Structure initialisation string</t>
   </si>
@@ -32,6 +35,84 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C1</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C2</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C3</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C4</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C5</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C6</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C7</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C8</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_C9</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I1</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I2</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I3</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I4</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I5</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I6</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I7</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_I8</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P1</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P2</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P3</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P4</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P5</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P6</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P7</t>
+  </si>
+  <si>
+    <t>HMI1.Flow_P8</t>
   </si>
 </sst>
 </file>
@@ -373,2448 +454,2464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI60"/>
+  <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43:L44"/>
+    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="7" width="17.88671875" customWidth="1"/>
-    <col min="8" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="98.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="98.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>101</v>
       </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B2)</f>
+      <c r="E2" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C2)</f>
         <v>HMI1.Flow_101</v>
       </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE("HMI1.CB",B2,"_Closed")</f>
+      <c r="F2" t="str">
+        <f>CONCATENATE("HMI1.CB",C2,"_Closed")</f>
         <v>HMI1.CB101_Closed</v>
       </c>
-      <c r="F2" t="str">
-        <f>CONCATENATE("HMI1.CB",B2,"_Vpu")</f>
+      <c r="G2" t="str">
+        <f>CONCATENATE("HMI1.CB",C2,"_Vpu")</f>
         <v>HMI1.CB101_Vpu</v>
       </c>
-      <c r="G2" t="str">
-        <f>CONCATENATE("HMI1.CB",B2,"_VLgood")</f>
+      <c r="H2" t="str">
+        <f>CONCATENATE("HMI1.CB",C2,"_VLgood")</f>
         <v>HMI1.CB101_VLgood</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("HMI1.CB",B2,"_Cmd")</f>
+      <c r="I2" t="str">
+        <f>CONCATENATE("HMI1.CB",C2,"_Cmd")</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
-      <c r="I2" t="str">
-        <f>CONCATENATE("CB", B2, "_MODBUS")</f>
+      <c r="J2" t="str">
+        <f>CONCATENATE("CB", C2, "_MODBUS")</f>
         <v>CB101_MODBUS</v>
       </c>
-      <c r="J2" t="str">
-        <f>IF(C2="","",CONCATENATE("HMI1.BUS",C2,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K2" t="str">
-        <f>IF(H2="","",CONCATENATE(",IOCCmd:=ADR(",H2,"),MBCmd:=ADR(",I2,".CMD),MBRst:=ADR(",I2,".RST)"))</f>
+        <f>IF(D2="","",CONCATENATE("HMI1.BUS",D2,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(I2="","",CONCATENATE(",IOCCmd:=ADR(",I2,"),MBCmd:=ADR(",J2,".CMD),MBRst:=ADR(",J2,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
       </c>
-      <c r="L2" t="str">
-        <f>CONCATENATE("(ID:=",A2,",CBID:=",B2,",Flow:=ADR(HMI1.Flow_",B2,"),Status:=ADR(",E2,"),Vpu:=ADR(",F2,"),VLgood:=ADR(",G2,")",K2,"),")</f>
+      <c r="M2" t="str">
+        <f>CONCATENATE("(ID:=",B2,",CBID:=",C2,",Flow:=ADR(HMI1.Flow_",C2,"),Status:=ADR(",F2,"),Vpu:=ADR(",G2,"),VLgood:=ADR(",H2,")",L2,"),")</f>
         <v>(ID:=1,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>102</v>
       </c>
-      <c r="D3" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B3)</f>
+      <c r="E3" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C3)</f>
         <v>HMI1.Flow_102</v>
       </c>
-      <c r="E3" t="str">
-        <f>CONCATENATE("HMI1.CB",B3,"_Closed")</f>
+      <c r="F3" t="str">
+        <f>CONCATENATE("HMI1.CB",C3,"_Closed")</f>
         <v>HMI1.CB102_Closed</v>
       </c>
-      <c r="F3" t="str">
-        <f>CONCATENATE("HMI1.CB",B3,"_Vpu")</f>
+      <c r="G3" t="str">
+        <f>CONCATENATE("HMI1.CB",C3,"_Vpu")</f>
         <v>HMI1.CB102_Vpu</v>
       </c>
-      <c r="G3" t="str">
-        <f>CONCATENATE("HMI1.CB",B3,"_VLgood")</f>
+      <c r="H3" t="str">
+        <f>CONCATENATE("HMI1.CB",C3,"_VLgood")</f>
         <v>HMI1.CB102_VLgood</v>
       </c>
-      <c r="H3" t="str">
-        <f>CONCATENATE("HMI1.CB",B3,"_Cmd")</f>
+      <c r="I3" t="str">
+        <f>CONCATENATE("HMI1.CB",C3,"_Cmd")</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
-      <c r="I3" t="str">
-        <f>CONCATENATE("CB", B3, "_MODBUS")</f>
+      <c r="J3" t="str">
+        <f>CONCATENATE("CB", C3, "_MODBUS")</f>
         <v>CB102_MODBUS</v>
       </c>
-      <c r="J3" t="str">
-        <f>IF(C3="","",CONCATENATE("HMI1.BUS",C3,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K3" t="str">
-        <f>IF(H3="","",CONCATENATE(",IOCCmd:=ADR(",H3,"),MBCmd:=ADR(",I3,".CMD),MBRst:=ADR(",I3,".RST)"))</f>
+        <f>IF(D3="","",CONCATENATE("HMI1.BUS",D3,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(I3="","",CONCATENATE(",IOCCmd:=ADR(",I3,"),MBCmd:=ADR(",J3,".CMD),MBRst:=ADR(",J3,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
       </c>
-      <c r="L3" t="str">
-        <f>CONCATENATE("(ID:=",A3,",CBID:=",B3,",Flow:=ADR(HMI1.Flow_",B3,"),Status:=ADR(",E3,"),Vpu:=ADR(",F3,"),VLgood:=ADR(",G3,")",K3,"),")</f>
+      <c r="M3" t="str">
+        <f>CONCATENATE("(ID:=",B3,",CBID:=",C3,",Flow:=ADR(HMI1.Flow_",C3,"),Status:=ADR(",F3,"),Vpu:=ADR(",G3,"),VLgood:=ADR(",H3,")",L3,"),")</f>
         <v>(ID:=2,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>103</v>
       </c>
-      <c r="D4" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B4)</f>
+      <c r="E4" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C4)</f>
         <v>HMI1.Flow_103</v>
       </c>
-      <c r="E4" t="str">
-        <f>CONCATENATE("HMI1.CB",B4,"_Closed")</f>
+      <c r="F4" t="str">
+        <f>CONCATENATE("HMI1.CB",C4,"_Closed")</f>
         <v>HMI1.CB103_Closed</v>
       </c>
-      <c r="F4" t="str">
-        <f>CONCATENATE("HMI1.CB",B4,"_Vpu")</f>
+      <c r="G4" t="str">
+        <f>CONCATENATE("HMI1.CB",C4,"_Vpu")</f>
         <v>HMI1.CB103_Vpu</v>
       </c>
-      <c r="G4" t="str">
-        <f>CONCATENATE("HMI1.CB",B4,"_VLgood")</f>
+      <c r="H4" t="str">
+        <f>CONCATENATE("HMI1.CB",C4,"_VLgood")</f>
         <v>HMI1.CB103_VLgood</v>
       </c>
-      <c r="H4" t="str">
-        <f>CONCATENATE("HMI1.CB",B4,"_Cmd")</f>
+      <c r="I4" t="str">
+        <f>CONCATENATE("HMI1.CB",C4,"_Cmd")</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
-      <c r="I4" t="str">
-        <f>CONCATENATE("CB", B4, "_MODBUS")</f>
+      <c r="J4" t="str">
+        <f>CONCATENATE("CB", C4, "_MODBUS")</f>
         <v>CB103_MODBUS</v>
       </c>
-      <c r="J4" t="str">
-        <f>IF(C4="","",CONCATENATE("HMI1.BUS",C4,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K4" t="str">
-        <f>IF(H4="","",CONCATENATE(",IOCCmd:=ADR(",H4,"),MBCmd:=ADR(",I4,".CMD),MBRst:=ADR(",I4,".RST)"))</f>
+        <f>IF(D4="","",CONCATENATE("HMI1.BUS",D4,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(I4="","",CONCATENATE(",IOCCmd:=ADR(",I4,"),MBCmd:=ADR(",J4,".CMD),MBRst:=ADR(",J4,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
       </c>
-      <c r="L4" t="str">
-        <f>CONCATENATE("(ID:=",A4,",CBID:=",B4,",Flow:=ADR(HMI1.Flow_",B4,"),Status:=ADR(",E4,"),Vpu:=ADR(",F4,"),VLgood:=ADR(",G4,")",K4,"),")</f>
+      <c r="M4" t="str">
+        <f>CONCATENATE("(ID:=",B4,",CBID:=",C4,",Flow:=ADR(HMI1.Flow_",C4,"),Status:=ADR(",F4,"),Vpu:=ADR(",G4,"),VLgood:=ADR(",H4,")",L4,"),")</f>
         <v>(ID:=3,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>104</v>
       </c>
-      <c r="D5" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B5)</f>
+      <c r="E5" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C5)</f>
         <v>HMI1.Flow_104</v>
       </c>
-      <c r="E5" t="str">
-        <f>CONCATENATE("HMI1.CB",B5,"_Closed")</f>
+      <c r="F5" t="str">
+        <f>CONCATENATE("HMI1.CB",C5,"_Closed")</f>
         <v>HMI1.CB104_Closed</v>
       </c>
-      <c r="F5" t="str">
-        <f>CONCATENATE("HMI1.CB",B5,"_Vpu")</f>
+      <c r="G5" t="str">
+        <f>CONCATENATE("HMI1.CB",C5,"_Vpu")</f>
         <v>HMI1.CB104_Vpu</v>
       </c>
-      <c r="G5" t="str">
-        <f>CONCATENATE("HMI1.CB",B5,"_VLgood")</f>
+      <c r="H5" t="str">
+        <f>CONCATENATE("HMI1.CB",C5,"_VLgood")</f>
         <v>HMI1.CB104_VLgood</v>
       </c>
-      <c r="I5" t="str">
-        <f>CONCATENATE("CB", B5, "_MODBUS")</f>
+      <c r="J5" t="str">
+        <f>CONCATENATE("CB", C5, "_MODBUS")</f>
         <v>CB104_MODBUS</v>
       </c>
-      <c r="J5" t="str">
-        <f>IF(C5="","",CONCATENATE("HMI1.BUS",C5,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K5" t="str">
-        <f>IF(H5="","",CONCATENATE(",IOCCmd:=ADR(",H5,"),MBCmd:=ADR(",I5,".CMD),MBRst:=ADR(",I5,".RST)"))</f>
+        <f>IF(D5="","",CONCATENATE("HMI1.BUS",D5,"_Stat"))</f>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE("(ID:=",A5,",CBID:=",B5,",Flow:=ADR(HMI1.Flow_",B5,"),Status:=ADR(",E5,"),Vpu:=ADR(",F5,"),VLgood:=ADR(",G5,")",K5,"),")</f>
+        <f>IF(I5="","",CONCATENATE(",IOCCmd:=ADR(",I5,"),MBCmd:=ADR(",J5,".CMD),MBRst:=ADR(",J5,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>CONCATENATE("(ID:=",B5,",CBID:=",C5,",Flow:=ADR(HMI1.Flow_",C5,"),Status:=ADR(",F5,"),Vpu:=ADR(",G5,"),VLgood:=ADR(",H5,")",L5,"),")</f>
         <v>(ID:=4,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>105</v>
       </c>
-      <c r="D6" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B6)</f>
+      <c r="E6" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C6)</f>
         <v>HMI1.Flow_105</v>
       </c>
-      <c r="E6" t="str">
-        <f>CONCATENATE("HMI1.CB",B6,"_Closed")</f>
+      <c r="F6" t="str">
+        <f>CONCATENATE("HMI1.CB",C6,"_Closed")</f>
         <v>HMI1.CB105_Closed</v>
       </c>
-      <c r="F6" t="str">
-        <f>CONCATENATE("HMI1.CB",B6,"_Vpu")</f>
+      <c r="G6" t="str">
+        <f>CONCATENATE("HMI1.CB",C6,"_Vpu")</f>
         <v>HMI1.CB105_Vpu</v>
       </c>
-      <c r="G6" t="str">
-        <f>CONCATENATE("HMI1.CB",B6,"_VLgood")</f>
+      <c r="H6" t="str">
+        <f>CONCATENATE("HMI1.CB",C6,"_VLgood")</f>
         <v>HMI1.CB105_VLgood</v>
       </c>
-      <c r="I6" t="str">
-        <f>CONCATENATE("CB", B6, "_MODBUS")</f>
+      <c r="J6" t="str">
+        <f>CONCATENATE("CB", C6, "_MODBUS")</f>
         <v>CB105_MODBUS</v>
       </c>
-      <c r="J6" t="str">
-        <f>IF(C6="","",CONCATENATE("HMI1.BUS",C6,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K6" t="str">
-        <f>IF(H6="","",CONCATENATE(",IOCCmd:=ADR(",H6,"),MBCmd:=ADR(",I6,".CMD),MBRst:=ADR(",I6,".RST)"))</f>
+        <f>IF(D6="","",CONCATENATE("HMI1.BUS",D6,"_Stat"))</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE("(ID:=",A6,",CBID:=",B6,",Flow:=ADR(HMI1.Flow_",B6,"),Status:=ADR(",E6,"),Vpu:=ADR(",F6,"),VLgood:=ADR(",G6,")",K6,"),")</f>
+        <f>IF(I6="","",CONCATENATE(",IOCCmd:=ADR(",I6,"),MBCmd:=ADR(",J6,".CMD),MBRst:=ADR(",J6,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f>CONCATENATE("(ID:=",B6,",CBID:=",C6,",Flow:=ADR(HMI1.Flow_",C6,"),Status:=ADR(",F6,"),Vpu:=ADR(",G6,"),VLgood:=ADR(",H6,")",L6,"),")</f>
         <v>(ID:=5,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>106</v>
       </c>
-      <c r="D7" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B7)</f>
+      <c r="E7" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C7)</f>
         <v>HMI1.Flow_106</v>
       </c>
-      <c r="E7" t="str">
-        <f>CONCATENATE("HMI1.CB",B7,"_Closed")</f>
+      <c r="F7" t="str">
+        <f>CONCATENATE("HMI1.CB",C7,"_Closed")</f>
         <v>HMI1.CB106_Closed</v>
       </c>
-      <c r="F7" t="str">
-        <f>CONCATENATE("HMI1.CB",B7,"_Vpu")</f>
+      <c r="G7" t="str">
+        <f>CONCATENATE("HMI1.CB",C7,"_Vpu")</f>
         <v>HMI1.CB106_Vpu</v>
       </c>
-      <c r="G7" t="str">
-        <f>CONCATENATE("HMI1.CB",B7,"_VLgood")</f>
+      <c r="H7" t="str">
+        <f>CONCATENATE("HMI1.CB",C7,"_VLgood")</f>
         <v>HMI1.CB106_VLgood</v>
       </c>
-      <c r="I7" t="str">
-        <f>CONCATENATE("CB", B7, "_MODBUS")</f>
+      <c r="J7" t="str">
+        <f>CONCATENATE("CB", C7, "_MODBUS")</f>
         <v>CB106_MODBUS</v>
       </c>
-      <c r="J7" t="str">
-        <f>IF(C7="","",CONCATENATE("HMI1.BUS",C7,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K7" t="str">
-        <f>IF(H7="","",CONCATENATE(",IOCCmd:=ADR(",H7,"),MBCmd:=ADR(",I7,".CMD),MBRst:=ADR(",I7,".RST)"))</f>
+        <f>IF(D7="","",CONCATENATE("HMI1.BUS",D7,"_Stat"))</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE("(ID:=",A7,",CBID:=",B7,",Flow:=ADR(HMI1.Flow_",B7,"),Status:=ADR(",E7,"),Vpu:=ADR(",F7,"),VLgood:=ADR(",G7,")",K7,"),")</f>
+        <f>IF(I7="","",CONCATENATE(",IOCCmd:=ADR(",I7,"),MBCmd:=ADR(",J7,".CMD),MBRst:=ADR(",J7,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>CONCATENATE("(ID:=",B7,",CBID:=",C7,",Flow:=ADR(HMI1.Flow_",C7,"),Status:=ADR(",F7,"),Vpu:=ADR(",G7,"),VLgood:=ADR(",H7,")",L7,"),")</f>
         <v>(ID:=6,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>107</v>
       </c>
-      <c r="D8" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B8)</f>
+      <c r="E8" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C8)</f>
         <v>HMI1.Flow_107</v>
       </c>
-      <c r="E8" t="str">
-        <f>CONCATENATE("HMI1.CB",B8,"_Closed")</f>
+      <c r="F8" t="str">
+        <f>CONCATENATE("HMI1.CB",C8,"_Closed")</f>
         <v>HMI1.CB107_Closed</v>
       </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE("HMI1.CB",B8,"_Vpu")</f>
+      <c r="G8" t="str">
+        <f>CONCATENATE("HMI1.CB",C8,"_Vpu")</f>
         <v>HMI1.CB107_Vpu</v>
       </c>
-      <c r="G8" t="str">
-        <f>CONCATENATE("HMI1.CB",B8,"_VLgood")</f>
+      <c r="H8" t="str">
+        <f>CONCATENATE("HMI1.CB",C8,"_VLgood")</f>
         <v>HMI1.CB107_VLgood</v>
       </c>
-      <c r="I8" t="str">
-        <f>CONCATENATE("CB", B8, "_MODBUS")</f>
+      <c r="J8" t="str">
+        <f>CONCATENATE("CB", C8, "_MODBUS")</f>
         <v>CB107_MODBUS</v>
       </c>
-      <c r="J8" t="str">
-        <f>IF(C8="","",CONCATENATE("HMI1.BUS",C8,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K8" t="str">
-        <f>IF(H8="","",CONCATENATE(",IOCCmd:=ADR(",H8,"),MBCmd:=ADR(",I8,".CMD),MBRst:=ADR(",I8,".RST)"))</f>
+        <f>IF(D8="","",CONCATENATE("HMI1.BUS",D8,"_Stat"))</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE("(ID:=",A8,",CBID:=",B8,",Flow:=ADR(HMI1.Flow_",B8,"),Status:=ADR(",E8,"),Vpu:=ADR(",F8,"),VLgood:=ADR(",G8,")",K8,"),")</f>
+        <f>IF(I8="","",CONCATENATE(",IOCCmd:=ADR(",I8,"),MBCmd:=ADR(",J8,".CMD),MBRst:=ADR(",J8,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>CONCATENATE("(ID:=",B8,",CBID:=",C8,",Flow:=ADR(HMI1.Flow_",C8,"),Status:=ADR(",F8,"),Vpu:=ADR(",G8,"),VLgood:=ADR(",H8,")",L8,"),")</f>
         <v>(ID:=7,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>108</v>
       </c>
-      <c r="D9" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B9)</f>
+      <c r="E9" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C9)</f>
         <v>HMI1.Flow_108</v>
       </c>
-      <c r="E9" t="str">
-        <f>CONCATENATE("HMI1.CB",B9,"_Closed")</f>
+      <c r="F9" t="str">
+        <f>CONCATENATE("HMI1.CB",C9,"_Closed")</f>
         <v>HMI1.CB108_Closed</v>
       </c>
-      <c r="F9" t="str">
-        <f>CONCATENATE("HMI1.CB",B9,"_Vpu")</f>
+      <c r="G9" t="str">
+        <f>CONCATENATE("HMI1.CB",C9,"_Vpu")</f>
         <v>HMI1.CB108_Vpu</v>
       </c>
-      <c r="G9" t="str">
-        <f>CONCATENATE("HMI1.CB",B9,"_VLgood")</f>
+      <c r="H9" t="str">
+        <f>CONCATENATE("HMI1.CB",C9,"_VLgood")</f>
         <v>HMI1.CB108_VLgood</v>
       </c>
-      <c r="H9" t="str">
-        <f>CONCATENATE("HMI1.CB",B9,"_Cmd")</f>
+      <c r="I9" t="str">
+        <f>CONCATENATE("HMI1.CB",C9,"_Cmd")</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
-      <c r="I9" t="str">
-        <f>CONCATENATE("CB", B9, "_MODBUS")</f>
+      <c r="J9" t="str">
+        <f>CONCATENATE("CB", C9, "_MODBUS")</f>
         <v>CB108_MODBUS</v>
       </c>
-      <c r="J9" t="str">
-        <f>IF(C9="","",CONCATENATE("HMI1.BUS",C9,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K9" t="str">
-        <f>IF(H9="","",CONCATENATE(",IOCCmd:=ADR(",H9,"),MBCmd:=ADR(",I9,".CMD),MBRst:=ADR(",I9,".RST)"))</f>
+        <f>IF(D9="","",CONCATENATE("HMI1.BUS",D9,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f>IF(I9="","",CONCATENATE(",IOCCmd:=ADR(",I9,"),MBCmd:=ADR(",J9,".CMD),MBRst:=ADR(",J9,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
       </c>
-      <c r="L9" t="str">
-        <f>CONCATENATE("(ID:=",A9,",CBID:=",B9,",Flow:=ADR(HMI1.Flow_",B9,"),Status:=ADR(",E9,"),Vpu:=ADR(",F9,"),VLgood:=ADR(",G9,")",K9,"),")</f>
+      <c r="M9" t="str">
+        <f>CONCATENATE("(ID:=",B9,",CBID:=",C9,",Flow:=ADR(HMI1.Flow_",C9,"),Status:=ADR(",F9,"),Vpu:=ADR(",G9,"),VLgood:=ADR(",H9,")",L9,"),")</f>
         <v>(ID:=8,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>109</v>
       </c>
-      <c r="D10" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B10)</f>
+      <c r="E10" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C10)</f>
         <v>HMI1.Flow_109</v>
       </c>
-      <c r="E10" t="str">
-        <f>CONCATENATE("HMI1.CB",B10,"_Closed")</f>
+      <c r="F10" t="str">
+        <f>CONCATENATE("HMI1.CB",C10,"_Closed")</f>
         <v>HMI1.CB109_Closed</v>
       </c>
-      <c r="F10" t="str">
-        <f>CONCATENATE("HMI1.CB",B10,"_Vpu")</f>
+      <c r="G10" t="str">
+        <f>CONCATENATE("HMI1.CB",C10,"_Vpu")</f>
         <v>HMI1.CB109_Vpu</v>
       </c>
-      <c r="G10" t="str">
-        <f>CONCATENATE("HMI1.CB",B10,"_VLgood")</f>
+      <c r="H10" t="str">
+        <f>CONCATENATE("HMI1.CB",C10,"_VLgood")</f>
         <v>HMI1.CB109_VLgood</v>
       </c>
-      <c r="H10" t="str">
-        <f>CONCATENATE("HMI1.CB",B10,"_Cmd")</f>
+      <c r="I10" t="str">
+        <f>CONCATENATE("HMI1.CB",C10,"_Cmd")</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
-      <c r="I10" t="str">
-        <f>CONCATENATE("CB", B10, "_MODBUS")</f>
+      <c r="J10" t="str">
+        <f>CONCATENATE("CB", C10, "_MODBUS")</f>
         <v>CB109_MODBUS</v>
       </c>
-      <c r="J10" t="str">
-        <f>IF(C10="","",CONCATENATE("HMI1.BUS",C10,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K10" t="str">
-        <f>IF(H10="","",CONCATENATE(",IOCCmd:=ADR(",H10,"),MBCmd:=ADR(",I10,".CMD),MBRst:=ADR(",I10,".RST)"))</f>
+        <f>IF(D10="","",CONCATENATE("HMI1.BUS",D10,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f>IF(I10="","",CONCATENATE(",IOCCmd:=ADR(",I10,"),MBCmd:=ADR(",J10,".CMD),MBRst:=ADR(",J10,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
       </c>
-      <c r="L10" t="str">
-        <f>CONCATENATE("(ID:=",A10,",CBID:=",B10,",Flow:=ADR(HMI1.Flow_",B10,"),Status:=ADR(",E10,"),Vpu:=ADR(",F10,"),VLgood:=ADR(",G10,")",K10,"),")</f>
+      <c r="M10" t="str">
+        <f>CONCATENATE("(ID:=",B10,",CBID:=",C10,",Flow:=ADR(HMI1.Flow_",C10,"),Status:=ADR(",F10,"),Vpu:=ADR(",G10,"),VLgood:=ADR(",H10,")",L10,"),")</f>
         <v>(ID:=9,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>110</v>
       </c>
-      <c r="D11" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B11)</f>
+      <c r="E11" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C11)</f>
         <v>HMI1.Flow_110</v>
       </c>
-      <c r="E11" t="str">
-        <f>CONCATENATE("HMI1.CB",B11,"_Closed")</f>
+      <c r="F11" t="str">
+        <f>CONCATENATE("HMI1.CB",C11,"_Closed")</f>
         <v>HMI1.CB110_Closed</v>
       </c>
-      <c r="F11" t="str">
-        <f>CONCATENATE("HMI1.CB",B11,"_Vpu")</f>
+      <c r="G11" t="str">
+        <f>CONCATENATE("HMI1.CB",C11,"_Vpu")</f>
         <v>HMI1.CB110_Vpu</v>
       </c>
-      <c r="G11" t="str">
-        <f>CONCATENATE("HMI1.CB",B11,"_VLgood")</f>
+      <c r="H11" t="str">
+        <f>CONCATENATE("HMI1.CB",C11,"_VLgood")</f>
         <v>HMI1.CB110_VLgood</v>
       </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE("CB", B11, "_MODBUS")</f>
+      <c r="J11" t="str">
+        <f>CONCATENATE("CB", C11, "_MODBUS")</f>
         <v>CB110_MODBUS</v>
       </c>
-      <c r="J11" t="str">
-        <f>IF(C11="","",CONCATENATE("HMI1.BUS",C11,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K11" t="str">
-        <f>IF(H11="","",CONCATENATE(",IOCCmd:=ADR(",H11,"),MBCmd:=ADR(",I11,".CMD),MBRst:=ADR(",I11,".RST)"))</f>
+        <f>IF(D11="","",CONCATENATE("HMI1.BUS",D11,"_Stat"))</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE("(ID:=",A11,",CBID:=",B11,",Flow:=ADR(HMI1.Flow_",B11,"),Status:=ADR(",E11,"),Vpu:=ADR(",F11,"),VLgood:=ADR(",G11,")",K11,"),")</f>
+        <f>IF(I11="","",CONCATENATE(",IOCCmd:=ADR(",I11,"),MBCmd:=ADR(",J11,".CMD),MBRst:=ADR(",J11,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f>CONCATENATE("(ID:=",B11,",CBID:=",C11,",Flow:=ADR(HMI1.Flow_",C11,"),Status:=ADR(",F11,"),Vpu:=ADR(",G11,"),VLgood:=ADR(",H11,")",L11,"),")</f>
         <v>(ID:=10,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>111</v>
       </c>
-      <c r="D12" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B12)</f>
+      <c r="E12" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C12)</f>
         <v>HMI1.Flow_111</v>
       </c>
-      <c r="E12" t="str">
-        <f>CONCATENATE("HMI1.CB",B12,"_Closed")</f>
+      <c r="F12" t="str">
+        <f>CONCATENATE("HMI1.CB",C12,"_Closed")</f>
         <v>HMI1.CB111_Closed</v>
       </c>
-      <c r="F12" t="str">
-        <f>CONCATENATE("HMI1.CB",B12,"_Vpu")</f>
+      <c r="G12" t="str">
+        <f>CONCATENATE("HMI1.CB",C12,"_Vpu")</f>
         <v>HMI1.CB111_Vpu</v>
       </c>
-      <c r="G12" t="str">
-        <f>CONCATENATE("HMI1.CB",B12,"_VLgood")</f>
+      <c r="H12" t="str">
+        <f>CONCATENATE("HMI1.CB",C12,"_VLgood")</f>
         <v>HMI1.CB111_VLgood</v>
       </c>
-      <c r="H12" t="str">
-        <f>CONCATENATE("HMI1.CB",B12,"_Cmd")</f>
+      <c r="I12" t="str">
+        <f>CONCATENATE("HMI1.CB",C12,"_Cmd")</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE("CB", B12, "_MODBUS")</f>
+      <c r="J12" t="str">
+        <f>CONCATENATE("CB", C12, "_MODBUS")</f>
         <v>CB111_MODBUS</v>
       </c>
-      <c r="J12" t="str">
-        <f>IF(C12="","",CONCATENATE("HMI1.BUS",C12,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K12" t="str">
-        <f>IF(H12="","",CONCATENATE(",IOCCmd:=ADR(",H12,"),MBCmd:=ADR(",I12,".CMD),MBRst:=ADR(",I12,".RST)"))</f>
+        <f>IF(D12="","",CONCATENATE("HMI1.BUS",D12,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(I12="","",CONCATENATE(",IOCCmd:=ADR(",I12,"),MBCmd:=ADR(",J12,".CMD),MBRst:=ADR(",J12,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
       </c>
-      <c r="L12" t="str">
-        <f>CONCATENATE("(ID:=",A12,",CBID:=",B12,",Flow:=ADR(HMI1.Flow_",B12,"),Status:=ADR(",E12,"),Vpu:=ADR(",F12,"),VLgood:=ADR(",G12,")",K12,"),")</f>
+      <c r="M12" t="str">
+        <f>CONCATENATE("(ID:=",B12,",CBID:=",C12,",Flow:=ADR(HMI1.Flow_",C12,"),Status:=ADR(",F12,"),Vpu:=ADR(",G12,"),VLgood:=ADR(",H12,")",L12,"),")</f>
         <v>(ID:=11,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>112</v>
       </c>
-      <c r="D13" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B13)</f>
+      <c r="E13" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C13)</f>
         <v>HMI1.Flow_112</v>
       </c>
-      <c r="E13" t="str">
-        <f>CONCATENATE("HMI1.CB",B13,"_Closed")</f>
+      <c r="F13" t="str">
+        <f>CONCATENATE("HMI1.CB",C13,"_Closed")</f>
         <v>HMI1.CB112_Closed</v>
       </c>
-      <c r="F13" t="str">
-        <f>CONCATENATE("HMI1.CB",B13,"_Vpu")</f>
+      <c r="G13" t="str">
+        <f>CONCATENATE("HMI1.CB",C13,"_Vpu")</f>
         <v>HMI1.CB112_Vpu</v>
       </c>
-      <c r="G13" t="str">
-        <f>CONCATENATE("HMI1.CB",B13,"_VLgood")</f>
+      <c r="H13" t="str">
+        <f>CONCATENATE("HMI1.CB",C13,"_VLgood")</f>
         <v>HMI1.CB112_VLgood</v>
       </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE("CB", B13, "_MODBUS")</f>
+      <c r="J13" t="str">
+        <f>CONCATENATE("CB", C13, "_MODBUS")</f>
         <v>CB112_MODBUS</v>
       </c>
-      <c r="J13" t="str">
-        <f>IF(C13="","",CONCATENATE("HMI1.BUS",C13,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K13" t="str">
-        <f>IF(H13="","",CONCATENATE(",IOCCmd:=ADR(",H13,"),MBCmd:=ADR(",I13,".CMD),MBRst:=ADR(",I13,".RST)"))</f>
+        <f>IF(D13="","",CONCATENATE("HMI1.BUS",D13,"_Stat"))</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE("(ID:=",A13,",CBID:=",B13,",Flow:=ADR(HMI1.Flow_",B13,"),Status:=ADR(",E13,"),Vpu:=ADR(",F13,"),VLgood:=ADR(",G13,")",K13,"),")</f>
+        <f>IF(I13="","",CONCATENATE(",IOCCmd:=ADR(",I13,"),MBCmd:=ADR(",J13,".CMD),MBRst:=ADR(",J13,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>CONCATENATE("(ID:=",B13,",CBID:=",C13,",Flow:=ADR(HMI1.Flow_",C13,"),Status:=ADR(",F13,"),Vpu:=ADR(",G13,"),VLgood:=ADR(",H13,")",L13,"),")</f>
         <v>(ID:=12,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>113</v>
       </c>
-      <c r="D14" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B14)</f>
+      <c r="E14" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C14)</f>
         <v>HMI1.Flow_113</v>
       </c>
-      <c r="E14" t="str">
-        <f>CONCATENATE("HMI1.CB",B14,"_Closed")</f>
+      <c r="F14" t="str">
+        <f>CONCATENATE("HMI1.CB",C14,"_Closed")</f>
         <v>HMI1.CB113_Closed</v>
       </c>
-      <c r="F14" t="str">
-        <f>CONCATENATE("HMI1.CB",B14,"_Vpu")</f>
+      <c r="G14" t="str">
+        <f>CONCATENATE("HMI1.CB",C14,"_Vpu")</f>
         <v>HMI1.CB113_Vpu</v>
       </c>
-      <c r="G14" t="str">
-        <f>CONCATENATE("HMI1.CB",B14,"_VLgood")</f>
+      <c r="H14" t="str">
+        <f>CONCATENATE("HMI1.CB",C14,"_VLgood")</f>
         <v>HMI1.CB113_VLgood</v>
       </c>
-      <c r="H14" t="str">
-        <f>CONCATENATE("HMI1.CB",B14,"_Cmd")</f>
+      <c r="I14" t="str">
+        <f>CONCATENATE("HMI1.CB",C14,"_Cmd")</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE("CB", B14, "_MODBUS")</f>
+      <c r="J14" t="str">
+        <f>CONCATENATE("CB", C14, "_MODBUS")</f>
         <v>CB113_MODBUS</v>
       </c>
-      <c r="J14" t="str">
-        <f>IF(C14="","",CONCATENATE("HMI1.BUS",C14,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K14" t="str">
-        <f>IF(H14="","",CONCATENATE(",IOCCmd:=ADR(",H14,"),MBCmd:=ADR(",I14,".CMD),MBRst:=ADR(",I14,".RST)"))</f>
+        <f>IF(D14="","",CONCATENATE("HMI1.BUS",D14,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(I14="","",CONCATENATE(",IOCCmd:=ADR(",I14,"),MBCmd:=ADR(",J14,".CMD),MBRst:=ADR(",J14,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
       </c>
-      <c r="L14" t="str">
-        <f>CONCATENATE("(ID:=",A14,",CBID:=",B14,",Flow:=ADR(HMI1.Flow_",B14,"),Status:=ADR(",E14,"),Vpu:=ADR(",F14,"),VLgood:=ADR(",G14,")",K14,"),")</f>
+      <c r="M14" t="str">
+        <f>CONCATENATE("(ID:=",B14,",CBID:=",C14,",Flow:=ADR(HMI1.Flow_",C14,"),Status:=ADR(",F14,"),Vpu:=ADR(",G14,"),VLgood:=ADR(",H14,")",L14,"),")</f>
         <v>(ID:=13,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>114</v>
       </c>
-      <c r="D15" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B15)</f>
+      <c r="E15" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C15)</f>
         <v>HMI1.Flow_114</v>
       </c>
-      <c r="E15" t="str">
-        <f>CONCATENATE("HMI1.CB",B15,"_Closed")</f>
+      <c r="F15" t="str">
+        <f>CONCATENATE("HMI1.CB",C15,"_Closed")</f>
         <v>HMI1.CB114_Closed</v>
       </c>
-      <c r="F15" t="str">
-        <f>CONCATENATE("HMI1.CB",B15,"_Vpu")</f>
+      <c r="G15" t="str">
+        <f>CONCATENATE("HMI1.CB",C15,"_Vpu")</f>
         <v>HMI1.CB114_Vpu</v>
       </c>
-      <c r="G15" t="str">
-        <f>CONCATENATE("HMI1.CB",B15,"_VLgood")</f>
+      <c r="H15" t="str">
+        <f>CONCATENATE("HMI1.CB",C15,"_VLgood")</f>
         <v>HMI1.CB114_VLgood</v>
       </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE("CB", B15, "_MODBUS")</f>
+      <c r="J15" t="str">
+        <f>CONCATENATE("CB", C15, "_MODBUS")</f>
         <v>CB114_MODBUS</v>
       </c>
-      <c r="J15" t="str">
-        <f>IF(C15="","",CONCATENATE("HMI1.BUS",C15,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K15" t="str">
-        <f>IF(H15="","",CONCATENATE(",IOCCmd:=ADR(",H15,"),MBCmd:=ADR(",I15,".CMD),MBRst:=ADR(",I15,".RST)"))</f>
+        <f>IF(D15="","",CONCATENATE("HMI1.BUS",D15,"_Stat"))</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f>CONCATENATE("(ID:=",A15,",CBID:=",B15,",Flow:=ADR(HMI1.Flow_",B15,"),Status:=ADR(",E15,"),Vpu:=ADR(",F15,"),VLgood:=ADR(",G15,")",K15,"),")</f>
+        <f>IF(I15="","",CONCATENATE(",IOCCmd:=ADR(",I15,"),MBCmd:=ADR(",J15,".CMD),MBRst:=ADR(",J15,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>CONCATENATE("(ID:=",B15,",CBID:=",C15,",Flow:=ADR(HMI1.Flow_",C15,"),Status:=ADR(",F15,"),Vpu:=ADR(",G15,"),VLgood:=ADR(",H15,")",L15,"),")</f>
         <v>(ID:=14,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>201</v>
       </c>
-      <c r="D16" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B16)</f>
+      <c r="E16" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C16)</f>
         <v>HMI1.Flow_201</v>
       </c>
-      <c r="E16" t="str">
-        <f>CONCATENATE("HMI1.CB",B16,"_Closed")</f>
+      <c r="F16" t="str">
+        <f>CONCATENATE("HMI1.CB",C16,"_Closed")</f>
         <v>HMI1.CB201_Closed</v>
       </c>
-      <c r="F16" t="str">
-        <f>CONCATENATE("HMI1.CB",B16,"_Vpu")</f>
+      <c r="G16" t="str">
+        <f>CONCATENATE("HMI1.CB",C16,"_Vpu")</f>
         <v>HMI1.CB201_Vpu</v>
       </c>
-      <c r="G16" t="str">
-        <f>CONCATENATE("HMI1.CB",B16,"_VLgood")</f>
+      <c r="H16" t="str">
+        <f>CONCATENATE("HMI1.CB",C16,"_VLgood")</f>
         <v>HMI1.CB201_VLgood</v>
       </c>
-      <c r="H16" t="str">
-        <f>CONCATENATE("HMI1.CB",B16,"_Cmd")</f>
+      <c r="I16" t="str">
+        <f>CONCATENATE("HMI1.CB",C16,"_Cmd")</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE("CB", B16, "_MODBUS")</f>
+      <c r="J16" t="str">
+        <f>CONCATENATE("CB", C16, "_MODBUS")</f>
         <v>CB201_MODBUS</v>
       </c>
-      <c r="J16" t="str">
-        <f>IF(C16="","",CONCATENATE("HMI1.BUS",C16,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K16" t="str">
-        <f>IF(H16="","",CONCATENATE(",IOCCmd:=ADR(",H16,"),MBCmd:=ADR(",I16,".CMD),MBRst:=ADR(",I16,".RST)"))</f>
+        <f>IF(D16="","",CONCATENATE("HMI1.BUS",D16,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(I16="","",CONCATENATE(",IOCCmd:=ADR(",I16,"),MBCmd:=ADR(",J16,".CMD),MBRst:=ADR(",J16,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
       </c>
-      <c r="L16" t="str">
-        <f>CONCATENATE("(ID:=",A16,",CBID:=",B16,",Flow:=ADR(HMI1.Flow_",B16,"),Status:=ADR(",E16,"),Vpu:=ADR(",F16,"),VLgood:=ADR(",G16,")",K16,"),")</f>
+      <c r="M16" t="str">
+        <f>CONCATENATE("(ID:=",B16,",CBID:=",C16,",Flow:=ADR(HMI1.Flow_",C16,"),Status:=ADR(",F16,"),Vpu:=ADR(",G16,"),VLgood:=ADR(",H16,")",L16,"),")</f>
         <v>(ID:=15,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>202</v>
       </c>
-      <c r="D17" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B17)</f>
+      <c r="E17" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C17)</f>
         <v>HMI1.Flow_202</v>
       </c>
-      <c r="E17" t="str">
-        <f>CONCATENATE("HMI1.CB",B17,"_Closed")</f>
+      <c r="F17" t="str">
+        <f>CONCATENATE("HMI1.CB",C17,"_Closed")</f>
         <v>HMI1.CB202_Closed</v>
       </c>
-      <c r="F17" t="str">
-        <f>CONCATENATE("HMI1.CB",B17,"_Vpu")</f>
+      <c r="G17" t="str">
+        <f>CONCATENATE("HMI1.CB",C17,"_Vpu")</f>
         <v>HMI1.CB202_Vpu</v>
       </c>
-      <c r="G17" t="str">
-        <f>CONCATENATE("HMI1.CB",B17,"_VLgood")</f>
+      <c r="H17" t="str">
+        <f>CONCATENATE("HMI1.CB",C17,"_VLgood")</f>
         <v>HMI1.CB202_VLgood</v>
       </c>
-      <c r="H17" t="str">
-        <f>CONCATENATE("HMI1.CB",B17,"_Cmd")</f>
+      <c r="I17" t="str">
+        <f>CONCATENATE("HMI1.CB",C17,"_Cmd")</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE("CB", B17, "_MODBUS")</f>
+      <c r="J17" t="str">
+        <f>CONCATENATE("CB", C17, "_MODBUS")</f>
         <v>CB202_MODBUS</v>
       </c>
-      <c r="J17" t="str">
-        <f>IF(C17="","",CONCATENATE("HMI1.BUS",C17,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K17" t="str">
-        <f>IF(H17="","",CONCATENATE(",IOCCmd:=ADR(",H17,"),MBCmd:=ADR(",I17,".CMD),MBRst:=ADR(",I17,".RST)"))</f>
+        <f>IF(D17="","",CONCATENATE("HMI1.BUS",D17,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(I17="","",CONCATENATE(",IOCCmd:=ADR(",I17,"),MBCmd:=ADR(",J17,".CMD),MBRst:=ADR(",J17,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
       </c>
-      <c r="L17" t="str">
-        <f>CONCATENATE("(ID:=",A17,",CBID:=",B17,",Flow:=ADR(HMI1.Flow_",B17,"),Status:=ADR(",E17,"),Vpu:=ADR(",F17,"),VLgood:=ADR(",G17,")",K17,"),")</f>
+      <c r="M17" t="str">
+        <f>CONCATENATE("(ID:=",B17,",CBID:=",C17,",Flow:=ADR(HMI1.Flow_",C17,"),Status:=ADR(",F17,"),Vpu:=ADR(",G17,"),VLgood:=ADR(",H17,")",L17,"),")</f>
         <v>(ID:=16,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>203</v>
       </c>
-      <c r="D18" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B18)</f>
+      <c r="E18" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C18)</f>
         <v>HMI1.Flow_203</v>
       </c>
-      <c r="E18" t="str">
-        <f>CONCATENATE("HMI1.CB",B18,"_Closed")</f>
+      <c r="F18" t="str">
+        <f>CONCATENATE("HMI1.CB",C18,"_Closed")</f>
         <v>HMI1.CB203_Closed</v>
       </c>
-      <c r="F18" t="str">
-        <f>CONCATENATE("HMI1.CB",B18,"_Vpu")</f>
+      <c r="G18" t="str">
+        <f>CONCATENATE("HMI1.CB",C18,"_Vpu")</f>
         <v>HMI1.CB203_Vpu</v>
       </c>
-      <c r="G18" t="str">
-        <f>CONCATENATE("HMI1.CB",B18,"_VLgood")</f>
+      <c r="H18" t="str">
+        <f>CONCATENATE("HMI1.CB",C18,"_VLgood")</f>
         <v>HMI1.CB203_VLgood</v>
       </c>
-      <c r="H18" t="str">
-        <f>CONCATENATE("HMI1.CB",B18,"_Cmd")</f>
+      <c r="I18" t="str">
+        <f>CONCATENATE("HMI1.CB",C18,"_Cmd")</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
-      <c r="I18" t="str">
-        <f>CONCATENATE("CB", B18, "_MODBUS")</f>
+      <c r="J18" t="str">
+        <f>CONCATENATE("CB", C18, "_MODBUS")</f>
         <v>CB203_MODBUS</v>
       </c>
-      <c r="J18" t="str">
-        <f>IF(C18="","",CONCATENATE("HMI1.BUS",C18,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K18" t="str">
-        <f>IF(H18="","",CONCATENATE(",IOCCmd:=ADR(",H18,"),MBCmd:=ADR(",I18,".CMD),MBRst:=ADR(",I18,".RST)"))</f>
+        <f>IF(D18="","",CONCATENATE("HMI1.BUS",D18,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(I18="","",CONCATENATE(",IOCCmd:=ADR(",I18,"),MBCmd:=ADR(",J18,".CMD),MBRst:=ADR(",J18,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
       </c>
-      <c r="L18" t="str">
-        <f>CONCATENATE("(ID:=",A18,",CBID:=",B18,",Flow:=ADR(HMI1.Flow_",B18,"),Status:=ADR(",E18,"),Vpu:=ADR(",F18,"),VLgood:=ADR(",G18,")",K18,"),")</f>
+      <c r="M18" t="str">
+        <f>CONCATENATE("(ID:=",B18,",CBID:=",C18,",Flow:=ADR(HMI1.Flow_",C18,"),Status:=ADR(",F18,"),Vpu:=ADR(",G18,"),VLgood:=ADR(",H18,")",L18,"),")</f>
         <v>(ID:=17,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>204</v>
       </c>
-      <c r="D19" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B19)</f>
+      <c r="E19" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C19)</f>
         <v>HMI1.Flow_204</v>
       </c>
-      <c r="E19" t="str">
-        <f>CONCATENATE("HMI1.CB",B19,"_Closed")</f>
+      <c r="F19" t="str">
+        <f>CONCATENATE("HMI1.CB",C19,"_Closed")</f>
         <v>HMI1.CB204_Closed</v>
       </c>
-      <c r="F19" t="str">
-        <f>CONCATENATE("HMI1.CB",B19,"_Vpu")</f>
+      <c r="G19" t="str">
+        <f>CONCATENATE("HMI1.CB",C19,"_Vpu")</f>
         <v>HMI1.CB204_Vpu</v>
       </c>
-      <c r="G19" t="str">
-        <f>CONCATENATE("HMI1.CB",B19,"_VLgood")</f>
+      <c r="H19" t="str">
+        <f>CONCATENATE("HMI1.CB",C19,"_VLgood")</f>
         <v>HMI1.CB204_VLgood</v>
       </c>
-      <c r="I19" t="str">
-        <f>CONCATENATE("CB", B19, "_MODBUS")</f>
+      <c r="J19" t="str">
+        <f>CONCATENATE("CB", C19, "_MODBUS")</f>
         <v>CB204_MODBUS</v>
       </c>
-      <c r="J19" t="str">
-        <f>IF(C19="","",CONCATENATE("HMI1.BUS",C19,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K19" t="str">
-        <f>IF(H19="","",CONCATENATE(",IOCCmd:=ADR(",H19,"),MBCmd:=ADR(",I19,".CMD),MBRst:=ADR(",I19,".RST)"))</f>
+        <f>IF(D19="","",CONCATENATE("HMI1.BUS",D19,"_Stat"))</f>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f>CONCATENATE("(ID:=",A19,",CBID:=",B19,",Flow:=ADR(HMI1.Flow_",B19,"),Status:=ADR(",E19,"),Vpu:=ADR(",F19,"),VLgood:=ADR(",G19,")",K19,"),")</f>
+        <f>IF(I19="","",CONCATENATE(",IOCCmd:=ADR(",I19,"),MBCmd:=ADR(",J19,".CMD),MBRst:=ADR(",J19,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>CONCATENATE("(ID:=",B19,",CBID:=",C19,",Flow:=ADR(HMI1.Flow_",C19,"),Status:=ADR(",F19,"),Vpu:=ADR(",G19,"),VLgood:=ADR(",H19,")",L19,"),")</f>
         <v>(ID:=18,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>205</v>
       </c>
-      <c r="D20" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B20)</f>
+      <c r="E20" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C20)</f>
         <v>HMI1.Flow_205</v>
       </c>
-      <c r="E20" t="str">
-        <f>CONCATENATE("HMI1.CB",B20,"_Closed")</f>
+      <c r="F20" t="str">
+        <f>CONCATENATE("HMI1.CB",C20,"_Closed")</f>
         <v>HMI1.CB205_Closed</v>
       </c>
-      <c r="F20" t="str">
-        <f>CONCATENATE("HMI1.CB",B20,"_Vpu")</f>
+      <c r="G20" t="str">
+        <f>CONCATENATE("HMI1.CB",C20,"_Vpu")</f>
         <v>HMI1.CB205_Vpu</v>
       </c>
-      <c r="G20" t="str">
-        <f>CONCATENATE("HMI1.CB",B20,"_VLgood")</f>
+      <c r="H20" t="str">
+        <f>CONCATENATE("HMI1.CB",C20,"_VLgood")</f>
         <v>HMI1.CB205_VLgood</v>
       </c>
-      <c r="I20" t="str">
-        <f>CONCATENATE("CB", B20, "_MODBUS")</f>
+      <c r="J20" t="str">
+        <f>CONCATENATE("CB", C20, "_MODBUS")</f>
         <v>CB205_MODBUS</v>
       </c>
-      <c r="J20" t="str">
-        <f>IF(C20="","",CONCATENATE("HMI1.BUS",C20,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K20" t="str">
-        <f>IF(H20="","",CONCATENATE(",IOCCmd:=ADR(",H20,"),MBCmd:=ADR(",I20,".CMD),MBRst:=ADR(",I20,".RST)"))</f>
+        <f>IF(D20="","",CONCATENATE("HMI1.BUS",D20,"_Stat"))</f>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE("(ID:=",A20,",CBID:=",B20,",Flow:=ADR(HMI1.Flow_",B20,"),Status:=ADR(",E20,"),Vpu:=ADR(",F20,"),VLgood:=ADR(",G20,")",K20,"),")</f>
+        <f>IF(I20="","",CONCATENATE(",IOCCmd:=ADR(",I20,"),MBCmd:=ADR(",J20,".CMD),MBRst:=ADR(",J20,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f>CONCATENATE("(ID:=",B20,",CBID:=",C20,",Flow:=ADR(HMI1.Flow_",C20,"),Status:=ADR(",F20,"),Vpu:=ADR(",G20,"),VLgood:=ADR(",H20,")",L20,"),")</f>
         <v>(ID:=19,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>206</v>
       </c>
-      <c r="D21" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B21)</f>
+      <c r="E21" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C21)</f>
         <v>HMI1.Flow_206</v>
       </c>
-      <c r="E21" t="str">
-        <f>CONCATENATE("HMI1.CB",B21,"_Closed")</f>
+      <c r="F21" t="str">
+        <f>CONCATENATE("HMI1.CB",C21,"_Closed")</f>
         <v>HMI1.CB206_Closed</v>
       </c>
-      <c r="F21" t="str">
-        <f>CONCATENATE("HMI1.CB",B21,"_Vpu")</f>
+      <c r="G21" t="str">
+        <f>CONCATENATE("HMI1.CB",C21,"_Vpu")</f>
         <v>HMI1.CB206_Vpu</v>
       </c>
-      <c r="G21" t="str">
-        <f>CONCATENATE("HMI1.CB",B21,"_VLgood")</f>
+      <c r="H21" t="str">
+        <f>CONCATENATE("HMI1.CB",C21,"_VLgood")</f>
         <v>HMI1.CB206_VLgood</v>
       </c>
-      <c r="I21" t="str">
-        <f>CONCATENATE("CB", B21, "_MODBUS")</f>
+      <c r="J21" t="str">
+        <f>CONCATENATE("CB", C21, "_MODBUS")</f>
         <v>CB206_MODBUS</v>
       </c>
-      <c r="J21" t="str">
-        <f>IF(C21="","",CONCATENATE("HMI1.BUS",C21,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K21" t="str">
-        <f>IF(H21="","",CONCATENATE(",IOCCmd:=ADR(",H21,"),MBCmd:=ADR(",I21,".CMD),MBRst:=ADR(",I21,".RST)"))</f>
+        <f>IF(D21="","",CONCATENATE("HMI1.BUS",D21,"_Stat"))</f>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE("(ID:=",A21,",CBID:=",B21,",Flow:=ADR(HMI1.Flow_",B21,"),Status:=ADR(",E21,"),Vpu:=ADR(",F21,"),VLgood:=ADR(",G21,")",K21,"),")</f>
+        <f>IF(I21="","",CONCATENATE(",IOCCmd:=ADR(",I21,"),MBCmd:=ADR(",J21,".CMD),MBRst:=ADR(",J21,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f>CONCATENATE("(ID:=",B21,",CBID:=",C21,",Flow:=ADR(HMI1.Flow_",C21,"),Status:=ADR(",F21,"),Vpu:=ADR(",G21,"),VLgood:=ADR(",H21,")",L21,"),")</f>
         <v>(ID:=20,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>207</v>
       </c>
-      <c r="D22" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B22)</f>
+      <c r="E22" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C22)</f>
         <v>HMI1.Flow_207</v>
       </c>
-      <c r="E22" t="str">
-        <f>CONCATENATE("HMI1.CB",B22,"_Closed")</f>
+      <c r="F22" t="str">
+        <f>CONCATENATE("HMI1.CB",C22,"_Closed")</f>
         <v>HMI1.CB207_Closed</v>
       </c>
-      <c r="F22" t="str">
-        <f>CONCATENATE("HMI1.CB",B22,"_Vpu")</f>
+      <c r="G22" t="str">
+        <f>CONCATENATE("HMI1.CB",C22,"_Vpu")</f>
         <v>HMI1.CB207_Vpu</v>
       </c>
-      <c r="G22" t="str">
-        <f>CONCATENATE("HMI1.CB",B22,"_VLgood")</f>
+      <c r="H22" t="str">
+        <f>CONCATENATE("HMI1.CB",C22,"_VLgood")</f>
         <v>HMI1.CB207_VLgood</v>
       </c>
-      <c r="I22" t="str">
-        <f>CONCATENATE("CB", B22, "_MODBUS")</f>
+      <c r="J22" t="str">
+        <f>CONCATENATE("CB", C22, "_MODBUS")</f>
         <v>CB207_MODBUS</v>
       </c>
-      <c r="J22" t="str">
-        <f>IF(C22="","",CONCATENATE("HMI1.BUS",C22,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K22" t="str">
-        <f>IF(H22="","",CONCATENATE(",IOCCmd:=ADR(",H22,"),MBCmd:=ADR(",I22,".CMD),MBRst:=ADR(",I22,".RST)"))</f>
+        <f>IF(D22="","",CONCATENATE("HMI1.BUS",D22,"_Stat"))</f>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f>CONCATENATE("(ID:=",A22,",CBID:=",B22,",Flow:=ADR(HMI1.Flow_",B22,"),Status:=ADR(",E22,"),Vpu:=ADR(",F22,"),VLgood:=ADR(",G22,")",K22,"),")</f>
+        <f>IF(I22="","",CONCATENATE(",IOCCmd:=ADR(",I22,"),MBCmd:=ADR(",J22,".CMD),MBRst:=ADR(",J22,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f>CONCATENATE("(ID:=",B22,",CBID:=",C22,",Flow:=ADR(HMI1.Flow_",C22,"),Status:=ADR(",F22,"),Vpu:=ADR(",G22,"),VLgood:=ADR(",H22,")",L22,"),")</f>
         <v>(ID:=21,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>208</v>
       </c>
-      <c r="D23" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B23)</f>
+      <c r="E23" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C23)</f>
         <v>HMI1.Flow_208</v>
       </c>
-      <c r="E23" t="str">
-        <f>CONCATENATE("HMI1.CB",B23,"_Closed")</f>
+      <c r="F23" t="str">
+        <f>CONCATENATE("HMI1.CB",C23,"_Closed")</f>
         <v>HMI1.CB208_Closed</v>
       </c>
-      <c r="F23" t="str">
-        <f>CONCATENATE("HMI1.CB",B23,"_Vpu")</f>
+      <c r="G23" t="str">
+        <f>CONCATENATE("HMI1.CB",C23,"_Vpu")</f>
         <v>HMI1.CB208_Vpu</v>
       </c>
-      <c r="G23" t="str">
-        <f>CONCATENATE("HMI1.CB",B23,"_VLgood")</f>
+      <c r="H23" t="str">
+        <f>CONCATENATE("HMI1.CB",C23,"_VLgood")</f>
         <v>HMI1.CB208_VLgood</v>
       </c>
-      <c r="I23" t="str">
-        <f>CONCATENATE("CB", B23, "_MODBUS")</f>
+      <c r="J23" t="str">
+        <f>CONCATENATE("CB", C23, "_MODBUS")</f>
         <v>CB208_MODBUS</v>
       </c>
-      <c r="J23" t="str">
-        <f>IF(C23="","",CONCATENATE("HMI1.BUS",C23,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K23" t="str">
-        <f>IF(H23="","",CONCATENATE(",IOCCmd:=ADR(",H23,"),MBCmd:=ADR(",I23,".CMD),MBRst:=ADR(",I23,".RST)"))</f>
+        <f>IF(D23="","",CONCATENATE("HMI1.BUS",D23,"_Stat"))</f>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f>CONCATENATE("(ID:=",A23,",CBID:=",B23,",Flow:=ADR(HMI1.Flow_",B23,"),Status:=ADR(",E23,"),Vpu:=ADR(",F23,"),VLgood:=ADR(",G23,")",K23,"),")</f>
+        <f>IF(I23="","",CONCATENATE(",IOCCmd:=ADR(",I23,"),MBCmd:=ADR(",J23,".CMD),MBRst:=ADR(",J23,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f>CONCATENATE("(ID:=",B23,",CBID:=",C23,",Flow:=ADR(HMI1.Flow_",C23,"),Status:=ADR(",F23,"),Vpu:=ADR(",G23,"),VLgood:=ADR(",H23,")",L23,"),")</f>
         <v>(ID:=22,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>209</v>
       </c>
-      <c r="D24" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B24)</f>
+      <c r="E24" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C24)</f>
         <v>HMI1.Flow_209</v>
       </c>
-      <c r="E24" t="str">
-        <f>CONCATENATE("HMI1.CB",B24,"_Closed")</f>
+      <c r="F24" t="str">
+        <f>CONCATENATE("HMI1.CB",C24,"_Closed")</f>
         <v>HMI1.CB209_Closed</v>
       </c>
-      <c r="F24" t="str">
-        <f>CONCATENATE("HMI1.CB",B24,"_Vpu")</f>
+      <c r="G24" t="str">
+        <f>CONCATENATE("HMI1.CB",C24,"_Vpu")</f>
         <v>HMI1.CB209_Vpu</v>
       </c>
-      <c r="G24" t="str">
-        <f>CONCATENATE("HMI1.CB",B24,"_VLgood")</f>
+      <c r="H24" t="str">
+        <f>CONCATENATE("HMI1.CB",C24,"_VLgood")</f>
         <v>HMI1.CB209_VLgood</v>
       </c>
-      <c r="I24" t="str">
-        <f>CONCATENATE("CB", B24, "_MODBUS")</f>
+      <c r="J24" t="str">
+        <f>CONCATENATE("CB", C24, "_MODBUS")</f>
         <v>CB209_MODBUS</v>
       </c>
-      <c r="J24" t="str">
-        <f>IF(C24="","",CONCATENATE("HMI1.BUS",C24,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K24" t="str">
-        <f>IF(H24="","",CONCATENATE(",IOCCmd:=ADR(",H24,"),MBCmd:=ADR(",I24,".CMD),MBRst:=ADR(",I24,".RST)"))</f>
+        <f>IF(D24="","",CONCATENATE("HMI1.BUS",D24,"_Stat"))</f>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE("(ID:=",A24,",CBID:=",B24,",Flow:=ADR(HMI1.Flow_",B24,"),Status:=ADR(",E24,"),Vpu:=ADR(",F24,"),VLgood:=ADR(",G24,")",K24,"),")</f>
+        <f>IF(I24="","",CONCATENATE(",IOCCmd:=ADR(",I24,"),MBCmd:=ADR(",J24,".CMD),MBRst:=ADR(",J24,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f>CONCATENATE("(ID:=",B24,",CBID:=",C24,",Flow:=ADR(HMI1.Flow_",C24,"),Status:=ADR(",F24,"),Vpu:=ADR(",G24,"),VLgood:=ADR(",H24,")",L24,"),")</f>
         <v>(ID:=23,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>210</v>
       </c>
-      <c r="D25" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B25)</f>
+      <c r="E25" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C25)</f>
         <v>HMI1.Flow_210</v>
       </c>
-      <c r="E25" t="str">
-        <f>CONCATENATE("HMI1.CB",B25,"_Closed")</f>
+      <c r="F25" t="str">
+        <f>CONCATENATE("HMI1.CB",C25,"_Closed")</f>
         <v>HMI1.CB210_Closed</v>
       </c>
-      <c r="F25" t="str">
-        <f>CONCATENATE("HMI1.CB",B25,"_Vpu")</f>
+      <c r="G25" t="str">
+        <f>CONCATENATE("HMI1.CB",C25,"_Vpu")</f>
         <v>HMI1.CB210_Vpu</v>
       </c>
-      <c r="G25" t="str">
-        <f>CONCATENATE("HMI1.CB",B25,"_VLgood")</f>
+      <c r="H25" t="str">
+        <f>CONCATENATE("HMI1.CB",C25,"_VLgood")</f>
         <v>HMI1.CB210_VLgood</v>
       </c>
-      <c r="I25" t="str">
-        <f>CONCATENATE("CB", B25, "_MODBUS")</f>
+      <c r="J25" t="str">
+        <f>CONCATENATE("CB", C25, "_MODBUS")</f>
         <v>CB210_MODBUS</v>
       </c>
-      <c r="J25" t="str">
-        <f>IF(C25="","",CONCATENATE("HMI1.BUS",C25,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K25" t="str">
-        <f>IF(H25="","",CONCATENATE(",IOCCmd:=ADR(",H25,"),MBCmd:=ADR(",I25,".CMD),MBRst:=ADR(",I25,".RST)"))</f>
+        <f>IF(D25="","",CONCATENATE("HMI1.BUS",D25,"_Stat"))</f>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f>CONCATENATE("(ID:=",A25,",CBID:=",B25,",Flow:=ADR(HMI1.Flow_",B25,"),Status:=ADR(",E25,"),Vpu:=ADR(",F25,"),VLgood:=ADR(",G25,")",K25,"),")</f>
+        <f>IF(I25="","",CONCATENATE(",IOCCmd:=ADR(",I25,"),MBCmd:=ADR(",J25,".CMD),MBRst:=ADR(",J25,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f>CONCATENATE("(ID:=",B25,",CBID:=",C25,",Flow:=ADR(HMI1.Flow_",C25,"),Status:=ADR(",F25,"),Vpu:=ADR(",G25,"),VLgood:=ADR(",H25,")",L25,"),")</f>
         <v>(ID:=24,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>211</v>
       </c>
-      <c r="D26" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B26)</f>
+      <c r="E26" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C26)</f>
         <v>HMI1.Flow_211</v>
       </c>
-      <c r="E26" t="str">
-        <f>CONCATENATE("HMI1.CB",B26,"_Closed")</f>
+      <c r="F26" t="str">
+        <f>CONCATENATE("HMI1.CB",C26,"_Closed")</f>
         <v>HMI1.CB211_Closed</v>
       </c>
-      <c r="F26" t="str">
-        <f>CONCATENATE("HMI1.CB",B26,"_Vpu")</f>
+      <c r="G26" t="str">
+        <f>CONCATENATE("HMI1.CB",C26,"_Vpu")</f>
         <v>HMI1.CB211_Vpu</v>
       </c>
-      <c r="G26" t="str">
-        <f>CONCATENATE("HMI1.CB",B26,"_VLgood")</f>
+      <c r="H26" t="str">
+        <f>CONCATENATE("HMI1.CB",C26,"_VLgood")</f>
         <v>HMI1.CB211_VLgood</v>
       </c>
-      <c r="I26" t="str">
-        <f>CONCATENATE("CB", B26, "_MODBUS")</f>
+      <c r="J26" t="str">
+        <f>CONCATENATE("CB", C26, "_MODBUS")</f>
         <v>CB211_MODBUS</v>
       </c>
-      <c r="J26" t="str">
-        <f>IF(C26="","",CONCATENATE("HMI1.BUS",C26,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K26" t="str">
-        <f>IF(H26="","",CONCATENATE(",IOCCmd:=ADR(",H26,"),MBCmd:=ADR(",I26,".CMD),MBRst:=ADR(",I26,".RST)"))</f>
+        <f>IF(D26="","",CONCATENATE("HMI1.BUS",D26,"_Stat"))</f>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f>CONCATENATE("(ID:=",A26,",CBID:=",B26,",Flow:=ADR(HMI1.Flow_",B26,"),Status:=ADR(",E26,"),Vpu:=ADR(",F26,"),VLgood:=ADR(",G26,")",K26,"),")</f>
+        <f>IF(I26="","",CONCATENATE(",IOCCmd:=ADR(",I26,"),MBCmd:=ADR(",J26,".CMD),MBRst:=ADR(",J26,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f>CONCATENATE("(ID:=",B26,",CBID:=",C26,",Flow:=ADR(HMI1.Flow_",C26,"),Status:=ADR(",F26,"),Vpu:=ADR(",G26,"),VLgood:=ADR(",H26,")",L26,"),")</f>
         <v>(ID:=25,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>212</v>
       </c>
-      <c r="D27" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B27)</f>
+      <c r="E27" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C27)</f>
         <v>HMI1.Flow_212</v>
       </c>
-      <c r="E27" t="str">
-        <f>CONCATENATE("HMI1.CB",B27,"_Closed")</f>
+      <c r="F27" t="str">
+        <f>CONCATENATE("HMI1.CB",C27,"_Closed")</f>
         <v>HMI1.CB212_Closed</v>
       </c>
-      <c r="F27" t="str">
-        <f>CONCATENATE("HMI1.CB",B27,"_Vpu")</f>
+      <c r="G27" t="str">
+        <f>CONCATENATE("HMI1.CB",C27,"_Vpu")</f>
         <v>HMI1.CB212_Vpu</v>
       </c>
-      <c r="G27" t="str">
-        <f>CONCATENATE("HMI1.CB",B27,"_VLgood")</f>
+      <c r="H27" t="str">
+        <f>CONCATENATE("HMI1.CB",C27,"_VLgood")</f>
         <v>HMI1.CB212_VLgood</v>
       </c>
-      <c r="I27" t="str">
-        <f>CONCATENATE("CB", B27, "_MODBUS")</f>
+      <c r="J27" t="str">
+        <f>CONCATENATE("CB", C27, "_MODBUS")</f>
         <v>CB212_MODBUS</v>
       </c>
-      <c r="J27" t="str">
-        <f>IF(C27="","",CONCATENATE("HMI1.BUS",C27,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K27" t="str">
-        <f>IF(H27="","",CONCATENATE(",IOCCmd:=ADR(",H27,"),MBCmd:=ADR(",I27,".CMD),MBRst:=ADR(",I27,".RST)"))</f>
+        <f>IF(D27="","",CONCATENATE("HMI1.BUS",D27,"_Stat"))</f>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f>CONCATENATE("(ID:=",A27,",CBID:=",B27,",Flow:=ADR(HMI1.Flow_",B27,"),Status:=ADR(",E27,"),Vpu:=ADR(",F27,"),VLgood:=ADR(",G27,")",K27,"),")</f>
+        <f>IF(I27="","",CONCATENATE(",IOCCmd:=ADR(",I27,"),MBCmd:=ADR(",J27,".CMD),MBRst:=ADR(",J27,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <f>CONCATENATE("(ID:=",B27,",CBID:=",C27,",Flow:=ADR(HMI1.Flow_",C27,"),Status:=ADR(",F27,"),Vpu:=ADR(",G27,"),VLgood:=ADR(",H27,")",L27,"),")</f>
         <v>(ID:=26,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>213</v>
       </c>
-      <c r="D28" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B28)</f>
+      <c r="E28" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C28)</f>
         <v>HMI1.Flow_213</v>
       </c>
-      <c r="E28" t="str">
-        <f>CONCATENATE("HMI1.CB",B28,"_Closed")</f>
+      <c r="F28" t="str">
+        <f>CONCATENATE("HMI1.CB",C28,"_Closed")</f>
         <v>HMI1.CB213_Closed</v>
       </c>
-      <c r="F28" t="str">
-        <f>CONCATENATE("HMI1.CB",B28,"_Vpu")</f>
+      <c r="G28" t="str">
+        <f>CONCATENATE("HMI1.CB",C28,"_Vpu")</f>
         <v>HMI1.CB213_Vpu</v>
       </c>
-      <c r="G28" t="str">
-        <f>CONCATENATE("HMI1.CB",B28,"_VLgood")</f>
+      <c r="H28" t="str">
+        <f>CONCATENATE("HMI1.CB",C28,"_VLgood")</f>
         <v>HMI1.CB213_VLgood</v>
       </c>
-      <c r="H28" t="str">
-        <f>CONCATENATE("HMI1.CB",B28,"_Cmd")</f>
+      <c r="I28" t="str">
+        <f>CONCATENATE("HMI1.CB",C28,"_Cmd")</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
-      <c r="I28" t="str">
-        <f>CONCATENATE("CB", B28, "_MODBUS")</f>
+      <c r="J28" t="str">
+        <f>CONCATENATE("CB", C28, "_MODBUS")</f>
         <v>CB213_MODBUS</v>
       </c>
-      <c r="J28" t="str">
-        <f>IF(C28="","",CONCATENATE("HMI1.BUS",C28,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K28" t="str">
-        <f>IF(H28="","",CONCATENATE(",IOCCmd:=ADR(",H28,"),MBCmd:=ADR(",I28,".CMD),MBRst:=ADR(",I28,".RST)"))</f>
+        <f>IF(D28="","",CONCATENATE("HMI1.BUS",D28,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L28" t="str">
+        <f>IF(I28="","",CONCATENATE(",IOCCmd:=ADR(",I28,"),MBCmd:=ADR(",J28,".CMD),MBRst:=ADR(",J28,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
       </c>
-      <c r="L28" t="str">
-        <f>CONCATENATE("(ID:=",A28,",CBID:=",B28,",Flow:=ADR(HMI1.Flow_",B28,"),Status:=ADR(",E28,"),Vpu:=ADR(",F28,"),VLgood:=ADR(",G28,")",K28,"),")</f>
+      <c r="M28" t="str">
+        <f>CONCATENATE("(ID:=",B28,",CBID:=",C28,",Flow:=ADR(HMI1.Flow_",C28,"),Status:=ADR(",F28,"),Vpu:=ADR(",G28,"),VLgood:=ADR(",H28,")",L28,"),")</f>
         <v>(ID:=27,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>214</v>
       </c>
-      <c r="D29" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B29)</f>
+      <c r="E29" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C29)</f>
         <v>HMI1.Flow_214</v>
       </c>
-      <c r="E29" t="str">
-        <f>CONCATENATE("HMI1.CB",B29,"_Closed")</f>
+      <c r="F29" t="str">
+        <f>CONCATENATE("HMI1.CB",C29,"_Closed")</f>
         <v>HMI1.CB214_Closed</v>
       </c>
-      <c r="F29" t="str">
-        <f>CONCATENATE("HMI1.CB",B29,"_Vpu")</f>
+      <c r="G29" t="str">
+        <f>CONCATENATE("HMI1.CB",C29,"_Vpu")</f>
         <v>HMI1.CB214_Vpu</v>
       </c>
-      <c r="G29" t="str">
-        <f>CONCATENATE("HMI1.CB",B29,"_VLgood")</f>
+      <c r="H29" t="str">
+        <f>CONCATENATE("HMI1.CB",C29,"_VLgood")</f>
         <v>HMI1.CB214_VLgood</v>
       </c>
-      <c r="I29" t="str">
-        <f>CONCATENATE("CB", B29, "_MODBUS")</f>
+      <c r="J29" t="str">
+        <f>CONCATENATE("CB", C29, "_MODBUS")</f>
         <v>CB214_MODBUS</v>
       </c>
-      <c r="J29" t="str">
-        <f>IF(C29="","",CONCATENATE("HMI1.BUS",C29,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K29" t="str">
-        <f>IF(H29="","",CONCATENATE(",IOCCmd:=ADR(",H29,"),MBCmd:=ADR(",I29,".CMD),MBRst:=ADR(",I29,".RST)"))</f>
+        <f>IF(D29="","",CONCATENATE("HMI1.BUS",D29,"_Stat"))</f>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f>CONCATENATE("(ID:=",A29,",CBID:=",B29,",Flow:=ADR(HMI1.Flow_",B29,"),Status:=ADR(",E29,"),Vpu:=ADR(",F29,"),VLgood:=ADR(",G29,")",K29,"),")</f>
+        <f>IF(I29="","",CONCATENATE(",IOCCmd:=ADR(",I29,"),MBCmd:=ADR(",J29,".CMD),MBRst:=ADR(",J29,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f>CONCATENATE("(ID:=",B29,",CBID:=",C29,",Flow:=ADR(HMI1.Flow_",C29,"),Status:=ADR(",F29,"),Vpu:=ADR(",G29,"),VLgood:=ADR(",H29,")",L29,"),")</f>
         <v>(ID:=28,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>215</v>
       </c>
-      <c r="D30" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B30)</f>
+      <c r="E30" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C30)</f>
         <v>HMI1.Flow_215</v>
       </c>
-      <c r="E30" t="str">
-        <f>CONCATENATE("HMI1.CB",B30,"_Closed")</f>
+      <c r="F30" t="str">
+        <f>CONCATENATE("HMI1.CB",C30,"_Closed")</f>
         <v>HMI1.CB215_Closed</v>
       </c>
-      <c r="F30" t="str">
-        <f>CONCATENATE("HMI1.CB",B30,"_Vpu")</f>
+      <c r="G30" t="str">
+        <f>CONCATENATE("HMI1.CB",C30,"_Vpu")</f>
         <v>HMI1.CB215_Vpu</v>
       </c>
-      <c r="G30" t="str">
-        <f>CONCATENATE("HMI1.CB",B30,"_VLgood")</f>
+      <c r="H30" t="str">
+        <f>CONCATENATE("HMI1.CB",C30,"_VLgood")</f>
         <v>HMI1.CB215_VLgood</v>
       </c>
-      <c r="I30" t="str">
-        <f>CONCATENATE("CB", B30, "_MODBUS")</f>
+      <c r="J30" t="str">
+        <f>CONCATENATE("CB", C30, "_MODBUS")</f>
         <v>CB215_MODBUS</v>
       </c>
-      <c r="J30" t="str">
-        <f>IF(C30="","",CONCATENATE("HMI1.BUS",C30,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K30" t="str">
-        <f>IF(H30="","",CONCATENATE(",IOCCmd:=ADR(",H30,"),MBCmd:=ADR(",I30,".CMD),MBRst:=ADR(",I30,".RST)"))</f>
+        <f>IF(D30="","",CONCATENATE("HMI1.BUS",D30,"_Stat"))</f>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f>CONCATENATE("(ID:=",A30,",CBID:=",B30,",Flow:=ADR(HMI1.Flow_",B30,"),Status:=ADR(",E30,"),Vpu:=ADR(",F30,"),VLgood:=ADR(",G30,")",K30,"),")</f>
+        <f>IF(I30="","",CONCATENATE(",IOCCmd:=ADR(",I30,"),MBCmd:=ADR(",J30,".CMD),MBRst:=ADR(",J30,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <f>CONCATENATE("(ID:=",B30,",CBID:=",C30,",Flow:=ADR(HMI1.Flow_",C30,"),Status:=ADR(",F30,"),Vpu:=ADR(",G30,"),VLgood:=ADR(",H30,")",L30,"),")</f>
         <v>(ID:=29,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>216</v>
       </c>
-      <c r="D31" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B31)</f>
+      <c r="E31" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C31)</f>
         <v>HMI1.Flow_216</v>
       </c>
-      <c r="E31" t="str">
-        <f>CONCATENATE("HMI1.CB",B31,"_Closed")</f>
+      <c r="F31" t="str">
+        <f>CONCATENATE("HMI1.CB",C31,"_Closed")</f>
         <v>HMI1.CB216_Closed</v>
       </c>
-      <c r="F31" t="str">
-        <f>CONCATENATE("HMI1.CB",B31,"_Vpu")</f>
+      <c r="G31" t="str">
+        <f>CONCATENATE("HMI1.CB",C31,"_Vpu")</f>
         <v>HMI1.CB216_Vpu</v>
       </c>
-      <c r="G31" t="str">
-        <f>CONCATENATE("HMI1.CB",B31,"_VLgood")</f>
+      <c r="H31" t="str">
+        <f>CONCATENATE("HMI1.CB",C31,"_VLgood")</f>
         <v>HMI1.CB216_VLgood</v>
       </c>
-      <c r="H31" t="str">
-        <f>CONCATENATE("HMI1.CB",B31,"_Cmd")</f>
+      <c r="I31" t="str">
+        <f>CONCATENATE("HMI1.CB",C31,"_Cmd")</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
-      <c r="I31" t="str">
-        <f>CONCATENATE("CB", B31, "_MODBUS")</f>
+      <c r="J31" t="str">
+        <f>CONCATENATE("CB", C31, "_MODBUS")</f>
         <v>CB216_MODBUS</v>
       </c>
-      <c r="J31" t="str">
-        <f>IF(C31="","",CONCATENATE("HMI1.BUS",C31,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K31" t="str">
-        <f>IF(H31="","",CONCATENATE(",IOCCmd:=ADR(",H31,"),MBCmd:=ADR(",I31,".CMD),MBRst:=ADR(",I31,".RST)"))</f>
+        <f>IF(D31="","",CONCATENATE("HMI1.BUS",D31,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <f>IF(I31="","",CONCATENATE(",IOCCmd:=ADR(",I31,"),MBCmd:=ADR(",J31,".CMD),MBRst:=ADR(",J31,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
       </c>
-      <c r="L31" t="str">
-        <f>CONCATENATE("(ID:=",A31,",CBID:=",B31,",Flow:=ADR(HMI1.Flow_",B31,"),Status:=ADR(",E31,"),Vpu:=ADR(",F31,"),VLgood:=ADR(",G31,")",K31,"),")</f>
+      <c r="M31" t="str">
+        <f>CONCATENATE("(ID:=",B31,",CBID:=",C31,",Flow:=ADR(HMI1.Flow_",C31,"),Status:=ADR(",F31,"),Vpu:=ADR(",G31,"),VLgood:=ADR(",H31,")",L31,"),")</f>
         <v>(ID:=30,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>217</v>
       </c>
-      <c r="D32" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B32)</f>
+      <c r="E32" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C32)</f>
         <v>HMI1.Flow_217</v>
       </c>
-      <c r="E32" t="str">
-        <f>CONCATENATE("HMI1.CB",B32,"_Closed")</f>
+      <c r="F32" t="str">
+        <f>CONCATENATE("HMI1.CB",C32,"_Closed")</f>
         <v>HMI1.CB217_Closed</v>
       </c>
-      <c r="F32" t="str">
-        <f>CONCATENATE("HMI1.CB",B32,"_Vpu")</f>
+      <c r="G32" t="str">
+        <f>CONCATENATE("HMI1.CB",C32,"_Vpu")</f>
         <v>HMI1.CB217_Vpu</v>
       </c>
-      <c r="G32" t="str">
-        <f>CONCATENATE("HMI1.CB",B32,"_VLgood")</f>
+      <c r="H32" t="str">
+        <f>CONCATENATE("HMI1.CB",C32,"_VLgood")</f>
         <v>HMI1.CB217_VLgood</v>
       </c>
-      <c r="H32" t="str">
-        <f>CONCATENATE("HMI1.CB",B32,"_Cmd")</f>
+      <c r="I32" t="str">
+        <f>CONCATENATE("HMI1.CB",C32,"_Cmd")</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
-      <c r="I32" t="str">
-        <f>CONCATENATE("CB", B32, "_MODBUS")</f>
+      <c r="J32" t="str">
+        <f>CONCATENATE("CB", C32, "_MODBUS")</f>
         <v>CB217_MODBUS</v>
       </c>
-      <c r="J32" t="str">
-        <f>IF(C32="","",CONCATENATE("HMI1.BUS",C32,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K32" t="str">
-        <f>IF(H32="","",CONCATENATE(",IOCCmd:=ADR(",H32,"),MBCmd:=ADR(",I32,".CMD),MBRst:=ADR(",I32,".RST)"))</f>
+        <f>IF(D32="","",CONCATENATE("HMI1.BUS",D32,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L32" t="str">
+        <f>IF(I32="","",CONCATENATE(",IOCCmd:=ADR(",I32,"),MBCmd:=ADR(",J32,".CMD),MBRst:=ADR(",J32,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
       </c>
-      <c r="L32" t="str">
-        <f>CONCATENATE("(ID:=",A32,",CBID:=",B32,",Flow:=ADR(HMI1.Flow_",B32,"),Status:=ADR(",E32,"),Vpu:=ADR(",F32,"),VLgood:=ADR(",G32,")",K32,"),")</f>
+      <c r="M32" t="str">
+        <f>CONCATENATE("(ID:=",B32,",CBID:=",C32,",Flow:=ADR(HMI1.Flow_",C32,"),Status:=ADR(",F32,"),Vpu:=ADR(",G32,"),VLgood:=ADR(",H32,")",L32,"),")</f>
         <v>(ID:=31,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>218</v>
       </c>
-      <c r="D33" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B33)</f>
+      <c r="E33" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C33)</f>
         <v>HMI1.Flow_218</v>
       </c>
-      <c r="E33" t="str">
-        <f>CONCATENATE("HMI1.CB",B33,"_Closed")</f>
+      <c r="F33" t="str">
+        <f>CONCATENATE("HMI1.CB",C33,"_Closed")</f>
         <v>HMI1.CB218_Closed</v>
       </c>
-      <c r="F33" t="str">
-        <f>CONCATENATE("HMI1.CB",B33,"_Vpu")</f>
+      <c r="G33" t="str">
+        <f>CONCATENATE("HMI1.CB",C33,"_Vpu")</f>
         <v>HMI1.CB218_Vpu</v>
       </c>
-      <c r="G33" t="str">
-        <f>CONCATENATE("HMI1.CB",B33,"_VLgood")</f>
+      <c r="H33" t="str">
+        <f>CONCATENATE("HMI1.CB",C33,"_VLgood")</f>
         <v>HMI1.CB218_VLgood</v>
       </c>
-      <c r="I33" t="str">
-        <f>CONCATENATE("CB", B33, "_MODBUS")</f>
+      <c r="J33" t="str">
+        <f>CONCATENATE("CB", C33, "_MODBUS")</f>
         <v>CB218_MODBUS</v>
       </c>
-      <c r="J33" t="str">
-        <f>IF(C33="","",CONCATENATE("HMI1.BUS",C33,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K33" t="str">
-        <f>IF(H33="","",CONCATENATE(",IOCCmd:=ADR(",H33,"),MBCmd:=ADR(",I33,".CMD),MBRst:=ADR(",I33,".RST)"))</f>
+        <f>IF(D33="","",CONCATENATE("HMI1.BUS",D33,"_Stat"))</f>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f>CONCATENATE("(ID:=",A33,",CBID:=",B33,",Flow:=ADR(HMI1.Flow_",B33,"),Status:=ADR(",E33,"),Vpu:=ADR(",F33,"),VLgood:=ADR(",G33,")",K33,"),")</f>
+        <f>IF(I33="","",CONCATENATE(",IOCCmd:=ADR(",I33,"),MBCmd:=ADR(",J33,".CMD),MBRst:=ADR(",J33,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <f>CONCATENATE("(ID:=",B33,",CBID:=",C33,",Flow:=ADR(HMI1.Flow_",C33,"),Status:=ADR(",F33,"),Vpu:=ADR(",G33,"),VLgood:=ADR(",H33,")",L33,"),")</f>
         <v>(ID:=32,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>219</v>
       </c>
-      <c r="D34" t="str">
-        <f>CONCATENATE("HMI1.Flow_",B34)</f>
+      <c r="E34" t="str">
+        <f>CONCATENATE("HMI1.Flow_",C34)</f>
         <v>HMI1.Flow_219</v>
       </c>
-      <c r="E34" t="str">
-        <f>CONCATENATE("HMI1.CB",B34,"_Closed")</f>
+      <c r="F34" t="str">
+        <f>CONCATENATE("HMI1.CB",C34,"_Closed")</f>
         <v>HMI1.CB219_Closed</v>
       </c>
-      <c r="F34" t="str">
-        <f>CONCATENATE("HMI1.CB",B34,"_Vpu")</f>
+      <c r="G34" t="str">
+        <f>CONCATENATE("HMI1.CB",C34,"_Vpu")</f>
         <v>HMI1.CB219_Vpu</v>
       </c>
-      <c r="G34" t="str">
-        <f>CONCATENATE("HMI1.CB",B34,"_VLgood")</f>
+      <c r="H34" t="str">
+        <f>CONCATENATE("HMI1.CB",C34,"_VLgood")</f>
         <v>HMI1.CB219_VLgood</v>
       </c>
-      <c r="I34" t="str">
-        <f>CONCATENATE("CB", B34, "_MODBUS")</f>
+      <c r="J34" t="str">
+        <f>CONCATENATE("CB", C34, "_MODBUS")</f>
         <v>CB219_MODBUS</v>
       </c>
-      <c r="J34" t="str">
-        <f>IF(C34="","",CONCATENATE("HMI1.BUS",C34,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K34" t="str">
-        <f>IF(H34="","",CONCATENATE(",IOCCmd:=ADR(",H34,"),MBCmd:=ADR(",I34,".CMD),MBRst:=ADR(",I34,".RST)"))</f>
+        <f>IF(D34="","",CONCATENATE("HMI1.BUS",D34,"_Stat"))</f>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f>CONCATENATE("(ID:=",A34,",CBID:=",B34,",Flow:=ADR(HMI1.Flow_",B34,"),Status:=ADR(",E34,"),Vpu:=ADR(",F34,"),VLgood:=ADR(",G34,")",K34,"),")</f>
+        <f>IF(I34="","",CONCATENATE(",IOCCmd:=ADR(",I34,"),MBCmd:=ADR(",J34,".CMD),MBRst:=ADR(",J34,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f>CONCATENATE("(ID:=",B34,",CBID:=",C34,",Flow:=ADR(HMI1.Flow_",C34,"),Status:=ADR(",F34,"),Vpu:=ADR(",G34,"),VLgood:=ADR(",H34,")",L34,"),")</f>
         <v>(ID:=33,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>301</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" ref="D35:D44" si="0">CONCATENATE("HMI1.Flow_",B35)</f>
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:E44" si="0">CONCATENATE("HMI1.Flow_",C35)</f>
         <v>HMI1.Flow_301</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" ref="E35:E44" si="1">CONCATENATE("HMI1.CB",B35,"_Closed")</f>
+      <c r="F35" t="str">
+        <f t="shared" ref="F35:F44" si="1">CONCATENATE("HMI1.CB",C35,"_Closed")</f>
         <v>HMI1.CB301_Closed</v>
       </c>
-      <c r="F35" t="str">
-        <f>CONCATENATE("HMI1.CB",B35,"_Vpu")</f>
+      <c r="G35" t="str">
+        <f>CONCATENATE("HMI1.CB",C35,"_Vpu")</f>
         <v>HMI1.CB301_Vpu</v>
       </c>
-      <c r="G35" t="str">
-        <f>CONCATENATE("HMI1.CB",B35,"_VLgood")</f>
+      <c r="H35" t="str">
+        <f>CONCATENATE("HMI1.CB",C35,"_VLgood")</f>
         <v>HMI1.CB301_VLgood</v>
       </c>
-      <c r="H35" t="str">
-        <f>CONCATENATE("HMI1.CB",B35,"_Cmd")</f>
+      <c r="I35" t="str">
+        <f>CONCATENATE("HMI1.CB",C35,"_Cmd")</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" ref="I35:I44" si="2">CONCATENATE("CB", B35, "_MODBUS")</f>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35:J44" si="2">CONCATENATE("CB", C35, "_MODBUS")</f>
         <v>CB301_MODBUS</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" ref="J35:J55" si="3">IF(C35="","",CONCATENATE("HMI1.BUS",C35,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K35" t="str">
-        <f>IF(H35="","",CONCATENATE(",IOCCmd:=ADR(",H35,"),MBCmd:=ADR(",I35,".CMD),MBRst:=ADR(",I35,".RST)"))</f>
+        <f t="shared" ref="K35:K55" si="3">IF(D35="","",CONCATENATE("HMI1.BUS",D35,"_Stat"))</f>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f>IF(I35="","",CONCATENATE(",IOCCmd:=ADR(",I35,"),MBCmd:=ADR(",J35,".CMD),MBRst:=ADR(",J35,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" ref="L35:L60" si="4">CONCATENATE("(ID:=",A35,",CBID:=",B35,",Flow:=ADR(HMI1.Flow_",B35,"),Status:=ADR(",E35,"),Vpu:=ADR(",F35,"),VLgood:=ADR(",G35,")",K35,"),")</f>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35:M60" si="4">CONCATENATE("(ID:=",B35,",CBID:=",C35,",Flow:=ADR(HMI1.Flow_",C35,"),Status:=ADR(",F35,"),Vpu:=ADR(",G35,"),VLgood:=ADR(",H35,")",L35,"),")</f>
         <v>(ID:=34,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>302</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_302</v>
       </c>
-      <c r="E36" t="str">
+      <c r="F36" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB302_Closed</v>
       </c>
-      <c r="F36" t="str">
-        <f t="shared" ref="F36:F60" si="5">CONCATENATE("HMI1.CB",B36,"_Vpu")</f>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36:G60" si="5">CONCATENATE("HMI1.CB",C36,"_Vpu")</f>
         <v>HMI1.CB302_Vpu</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" ref="G36:G60" si="6">CONCATENATE("HMI1.CB",B36,"_VLgood")</f>
+      <c r="H36" t="str">
+        <f t="shared" ref="H36:H60" si="6">CONCATENATE("HMI1.CB",C36,"_VLgood")</f>
         <v>HMI1.CB302_VLgood</v>
       </c>
-      <c r="H36" t="str">
-        <f>CONCATENATE("HMI1.CB",B36,"_Cmd")</f>
+      <c r="I36" t="str">
+        <f>CONCATENATE("HMI1.CB",C36,"_Cmd")</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
-      <c r="I36" t="str">
+      <c r="J36" t="str">
         <f t="shared" si="2"/>
         <v>CB302_MODBUS</v>
       </c>
-      <c r="J36" t="str">
+      <c r="K36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" ref="K36:K60" si="7">IF(H36="","",CONCATENATE(",IOCCmd:=ADR(",H36,"),MBCmd:=ADR(",I36,".CMD),MBRst:=ADR(",I36,".RST)"))</f>
+      <c r="L36" t="str">
+        <f t="shared" ref="L36:L60" si="7">IF(I36="","",CONCATENATE(",IOCCmd:=ADR(",I36,"),MBCmd:=ADR(",J36,".CMD),MBRst:=ADR(",J36,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
       </c>
-      <c r="L36" t="str">
+      <c r="M36" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=35,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B37">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>303</v>
       </c>
-      <c r="D37" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_303</v>
       </c>
-      <c r="E37" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB303_Closed</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB303_Vpu</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB303_VLgood</v>
       </c>
-      <c r="H37" t="str">
-        <f>CONCATENATE("HMI1.CB",B37,"_Cmd")</f>
+      <c r="I37" t="str">
+        <f>CONCATENATE("HMI1.CB",C37,"_Cmd")</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
-      <c r="I37" t="str">
+      <c r="J37" t="str">
         <f t="shared" si="2"/>
         <v>CB303_MODBUS</v>
       </c>
-      <c r="J37" t="str">
+      <c r="K37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
       </c>
-      <c r="L37" t="str">
+      <c r="M37" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=36,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>304</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_304</v>
       </c>
-      <c r="E38" t="str">
+      <c r="F38" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB304_Closed</v>
       </c>
-      <c r="F38" t="str">
+      <c r="G38" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB304_Vpu</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB304_VLgood</v>
       </c>
-      <c r="H38" t="str">
-        <f>CONCATENATE("HMI1.CB",B38,"_Cmd")</f>
+      <c r="I38" t="str">
+        <f>CONCATENATE("HMI1.CB",C38,"_Cmd")</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
-      <c r="I38" t="str">
+      <c r="J38" t="str">
         <f t="shared" si="2"/>
         <v>CB304_MODBUS</v>
       </c>
-      <c r="J38" t="str">
+      <c r="K38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
       </c>
-      <c r="L38" t="str">
+      <c r="M38" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=37,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>305</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_305</v>
       </c>
-      <c r="E39" t="str">
+      <c r="F39" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB305_Closed</v>
       </c>
-      <c r="F39" t="str">
+      <c r="G39" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB305_Vpu</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H39" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB305_VLgood</v>
       </c>
-      <c r="H39" t="str">
-        <f>CONCATENATE("HMI1.CB",B39,"_Cmd")</f>
+      <c r="I39" t="str">
+        <f>CONCATENATE("HMI1.CB",C39,"_Cmd")</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
-      <c r="I39" t="str">
+      <c r="J39" t="str">
         <f t="shared" si="2"/>
         <v>CB305_MODBUS</v>
       </c>
-      <c r="J39" t="str">
+      <c r="K39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="7"/>
         <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
       </c>
-      <c r="L39" t="str">
+      <c r="M39" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=38,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B40">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>306</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_306</v>
       </c>
-      <c r="E40" t="str">
+      <c r="F40" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB306_Closed</v>
       </c>
-      <c r="F40" t="str">
+      <c r="G40" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB306_Vpu</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB306_VLgood</v>
       </c>
-      <c r="I40" t="str">
+      <c r="J40" t="str">
         <f t="shared" si="2"/>
         <v>CB306_MODBUS</v>
       </c>
-      <c r="J40" t="str">
+      <c r="K40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L40" t="str">
+      <c r="M40" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=39,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>307</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_307</v>
       </c>
-      <c r="E41" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB307_Closed</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB307_Vpu</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB307_VLgood</v>
       </c>
-      <c r="I41" t="str">
+      <c r="J41" t="str">
         <f t="shared" si="2"/>
         <v>CB307_MODBUS</v>
       </c>
-      <c r="J41" t="str">
+      <c r="K41" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L41" t="str">
+      <c r="M41" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=40,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>308</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_308</v>
       </c>
-      <c r="E42" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB308_Closed</v>
       </c>
-      <c r="F42" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB308_Vpu</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB308_VLgood</v>
       </c>
-      <c r="I42" t="str">
+      <c r="J42" t="str">
         <f t="shared" si="2"/>
         <v>CB308_MODBUS</v>
       </c>
-      <c r="J42" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L42" t="str">
+      <c r="M42" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=41,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B43">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>309</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_309</v>
       </c>
-      <c r="E43" t="str">
+      <c r="F43" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB309_Closed</v>
       </c>
-      <c r="F43" t="str">
+      <c r="G43" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB309_Vpu</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB309_VLgood</v>
       </c>
-      <c r="I43" t="str">
+      <c r="J43" t="str">
         <f t="shared" si="2"/>
         <v>CB309_MODBUS</v>
       </c>
-      <c r="J43" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L43" t="str">
+      <c r="M43" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=42,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>310</v>
       </c>
-      <c r="D44" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_310</v>
       </c>
-      <c r="E44" t="str">
+      <c r="F44" t="str">
         <f t="shared" si="1"/>
         <v>HMI1.CB310_Closed</v>
       </c>
-      <c r="F44" t="str">
+      <c r="G44" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB310_Vpu</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H44" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB310_VLgood</v>
       </c>
-      <c r="I44" t="str">
+      <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>CB310_MODBUS</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L44" t="str">
+      <c r="M44" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=43,CBID:=310,Flow:=ADR(HMI1.Flow_310),Status:=ADR(HMI1.CB310_Closed),Vpu:=ADR(HMI1.CB310_Vpu),VLgood:=ADR(HMI1.CB310_VLgood)),</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>401</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" ref="D45:D50" si="8">CONCATENATE("HMI1.Flow_",B45)</f>
+      <c r="E45" t="str">
+        <f t="shared" ref="E45:E50" si="8">CONCATENATE("HMI1.Flow_",C45)</f>
         <v>HMI1.Flow_401</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" ref="E45:E50" si="9">CONCATENATE("HMI1.CB",B45,"_Closed")</f>
+      <c r="F45" t="str">
+        <f t="shared" ref="F45:F50" si="9">CONCATENATE("HMI1.CB",C45,"_Closed")</f>
         <v>HMI1.CB401_Closed</v>
       </c>
-      <c r="F45" t="str">
-        <f>CONCATENATE("HMI1.CB",B45,"_Vpu")</f>
+      <c r="G45" t="str">
+        <f>CONCATENATE("HMI1.CB",C45,"_Vpu")</f>
         <v>HMI1.CB401_Vpu</v>
       </c>
-      <c r="G45" t="str">
-        <f>CONCATENATE("HMI1.CB",B45,"_VLgood")</f>
+      <c r="H45" t="str">
+        <f>CONCATENATE("HMI1.CB",C45,"_VLgood")</f>
         <v>HMI1.CB401_VLgood</v>
       </c>
-      <c r="I45" t="str">
-        <f t="shared" ref="I45:I50" si="10">CONCATENATE("CB", B45, "_MODBUS")</f>
+      <c r="J45" t="str">
+        <f t="shared" ref="J45:J50" si="10">CONCATENATE("CB", C45, "_MODBUS")</f>
         <v>CB401_MODBUS</v>
       </c>
-      <c r="J45" t="str">
-        <f t="shared" ref="J45:J50" si="11">IF(C45="","",CONCATENATE("HMI1.BUS",C45,"_Stat"))</f>
-        <v/>
-      </c>
       <c r="K45" t="str">
-        <f>IF(H45="","",CONCATENATE(",IOCCmd:=ADR(",H45,"),MBCmd:=ADR(",I45,".CMD),MBRst:=ADR(",I45,".RST)"))</f>
+        <f t="shared" ref="K45:K50" si="11">IF(D45="","",CONCATENATE("HMI1.BUS",D45,"_Stat"))</f>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" ref="L45:L50" si="12">CONCATENATE("(ID:=",A45,",CBID:=",B45,",Flow:=ADR(HMI1.Flow_",B45,"),Status:=ADR(",E45,"),Vpu:=ADR(",F45,"),VLgood:=ADR(",G45,")",K45,"),")</f>
+        <f>IF(I45="","",CONCATENATE(",IOCCmd:=ADR(",I45,"),MBCmd:=ADR(",J45,".CMD),MBRst:=ADR(",J45,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ref="M45:M50" si="12">CONCATENATE("(ID:=",B45,",CBID:=",C45,",Flow:=ADR(HMI1.Flow_",C45,"),Status:=ADR(",F45,"),Vpu:=ADR(",G45,"),VLgood:=ADR(",H45,")",L45,"),")</f>
         <v>(ID:=44,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
       </c>
-      <c r="AI45" t="s">
+      <c r="AJ45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B46">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>402</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="8"/>
         <v>HMI1.Flow_402</v>
       </c>
-      <c r="E46" t="str">
+      <c r="F46" t="str">
         <f t="shared" si="9"/>
         <v>HMI1.CB402_Closed</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" ref="F46:F50" si="13">CONCATENATE("HMI1.CB",B46,"_Vpu")</f>
+      <c r="G46" t="str">
+        <f t="shared" ref="G46:G50" si="13">CONCATENATE("HMI1.CB",C46,"_Vpu")</f>
         <v>HMI1.CB402_Vpu</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" ref="G46:G50" si="14">CONCATENATE("HMI1.CB",B46,"_VLgood")</f>
+      <c r="H46" t="str">
+        <f t="shared" ref="H46:H50" si="14">CONCATENATE("HMI1.CB",C46,"_VLgood")</f>
         <v>HMI1.CB402_VLgood</v>
       </c>
-      <c r="I46" t="str">
+      <c r="J46" t="str">
         <f t="shared" si="10"/>
         <v>CB402_MODBUS</v>
       </c>
-      <c r="J46" t="str">
+      <c r="K46" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" ref="K46:K50" si="15">IF(H46="","",CONCATENATE(",IOCCmd:=ADR(",H46,"),MBCmd:=ADR(",I46,".CMD),MBRst:=ADR(",I46,".RST)"))</f>
-        <v/>
-      </c>
       <c r="L46" t="str">
+        <f t="shared" ref="L46:L50" si="15">IF(I46="","",CONCATENATE(",IOCCmd:=ADR(",I46,"),MBCmd:=ADR(",J46,".CMD),MBRst:=ADR(",J46,".RST)"))</f>
+        <v/>
+      </c>
+      <c r="M46" t="str">
         <f t="shared" si="12"/>
         <v>(ID:=45,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B47">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>403</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="8"/>
         <v>HMI1.Flow_403</v>
       </c>
-      <c r="E47" t="str">
+      <c r="F47" t="str">
         <f t="shared" si="9"/>
         <v>HMI1.CB403_Closed</v>
       </c>
-      <c r="F47" t="str">
+      <c r="G47" t="str">
         <f t="shared" si="13"/>
         <v>HMI1.CB403_Vpu</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <f t="shared" si="14"/>
         <v>HMI1.CB403_VLgood</v>
       </c>
-      <c r="I47" t="str">
+      <c r="J47" t="str">
         <f t="shared" si="10"/>
         <v>CB403_MODBUS</v>
       </c>
-      <c r="J47" t="str">
+      <c r="K47" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="L47" t="str">
+      <c r="M47" t="str">
         <f t="shared" si="12"/>
         <v>(ID:=46,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B48">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>404</v>
       </c>
-      <c r="D48" t="str">
+      <c r="E48" t="str">
         <f t="shared" si="8"/>
         <v>HMI1.Flow_404</v>
       </c>
-      <c r="E48" t="str">
+      <c r="F48" t="str">
         <f t="shared" si="9"/>
         <v>HMI1.CB404_Closed</v>
       </c>
-      <c r="F48" t="str">
+      <c r="G48" t="str">
         <f t="shared" si="13"/>
         <v>HMI1.CB404_Vpu</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="14"/>
         <v>HMI1.CB404_VLgood</v>
       </c>
-      <c r="I48" t="str">
+      <c r="J48" t="str">
         <f t="shared" si="10"/>
         <v>CB404_MODBUS</v>
       </c>
-      <c r="J48" t="str">
+      <c r="K48" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="L48" t="str">
+      <c r="M48" t="str">
         <f t="shared" si="12"/>
         <v>(ID:=47,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>405</v>
       </c>
-      <c r="D49" t="str">
+      <c r="E49" t="str">
         <f t="shared" si="8"/>
         <v>HMI1.Flow_405</v>
       </c>
-      <c r="E49" t="str">
+      <c r="F49" t="str">
         <f t="shared" si="9"/>
         <v>HMI1.CB405_Closed</v>
       </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="13"/>
         <v>HMI1.CB405_Vpu</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="14"/>
         <v>HMI1.CB405_VLgood</v>
       </c>
-      <c r="I49" t="str">
+      <c r="J49" t="str">
         <f t="shared" si="10"/>
         <v>CB405_MODBUS</v>
       </c>
-      <c r="J49" t="str">
+      <c r="K49" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="L49" t="str">
+      <c r="M49" t="str">
         <f t="shared" si="12"/>
         <v>(ID:=48,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B50">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>406</v>
       </c>
-      <c r="D50" t="str">
+      <c r="E50" t="str">
         <f t="shared" si="8"/>
         <v>HMI1.Flow_406</v>
       </c>
-      <c r="E50" t="str">
+      <c r="F50" t="str">
         <f t="shared" si="9"/>
         <v>HMI1.CB406_Closed</v>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <f t="shared" si="13"/>
         <v>HMI1.CB406_Vpu</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <f t="shared" si="14"/>
         <v>HMI1.CB406_VLgood</v>
       </c>
-      <c r="I50" t="str">
+      <c r="J50" t="str">
         <f t="shared" si="10"/>
         <v>CB406_MODBUS</v>
       </c>
-      <c r="J50" t="str">
+      <c r="K50" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="L50" t="str">
+      <c r="M50" t="str">
         <f t="shared" si="12"/>
         <v>(ID:=49,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>100</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" ref="D51:D60" si="16">CONCATENATE("HMI1.Flow_",B51)</f>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:E60" si="16">CONCATENATE("HMI1.Flow_",C51)</f>
         <v>HMI1.Flow_100</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" ref="E51:E60" si="17">CONCATENATE("HMI1.CB",B51,"_Closed")</f>
+      <c r="F51" t="str">
+        <f t="shared" ref="F51:F60" si="17">CONCATENATE("HMI1.CB",C51,"_Closed")</f>
         <v>HMI1.CB100_Closed</v>
       </c>
-      <c r="F51" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB100_Vpu</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB100_VLgood</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" ref="I51:I60" si="18">CONCATENATE("CB", B51, "_MODBUS")</f>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51:J60" si="18">CONCATENATE("CB", C51, "_MODBUS")</f>
         <v>CB100_MODBUS</v>
       </c>
-      <c r="J51" t="str">
+      <c r="K51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L51" t="str">
+      <c r="M51" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=50,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B52">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>200</v>
       </c>
-      <c r="D52" t="str">
+      <c r="E52" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_200</v>
       </c>
-      <c r="E52" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB200_Closed</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB200_Vpu</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB200_VLgood</v>
       </c>
-      <c r="I52" t="str">
+      <c r="J52" t="str">
         <f t="shared" si="18"/>
         <v>CB200_MODBUS</v>
       </c>
-      <c r="J52" t="str">
+      <c r="K52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L52" t="str">
+      <c r="M52" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=51,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B53">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>300</v>
       </c>
-      <c r="D53" t="str">
+      <c r="E53" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_300</v>
       </c>
-      <c r="E53" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB300_Closed</v>
       </c>
-      <c r="F53" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB300_Vpu</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB300_VLgood</v>
       </c>
-      <c r="I53" t="str">
+      <c r="J53" t="str">
         <f t="shared" si="18"/>
         <v>CB300_MODBUS</v>
       </c>
-      <c r="J53" t="str">
+      <c r="K53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L53" t="str">
+      <c r="M53" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=52,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>151</v>
       </c>
-      <c r="D54" t="str">
+      <c r="E54" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_151</v>
       </c>
-      <c r="E54" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB151_Closed</v>
       </c>
-      <c r="F54" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB151_Vpu</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB151_VLgood</v>
       </c>
-      <c r="I54" t="str">
+      <c r="J54" t="str">
         <f t="shared" si="18"/>
         <v>CB151_MODBUS</v>
       </c>
-      <c r="J54" t="str">
+      <c r="K54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L54" t="str">
+      <c r="M54" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=53,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B55">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>251</v>
       </c>
-      <c r="D55" t="str">
+      <c r="E55" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_251</v>
       </c>
-      <c r="E55" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB251_Closed</v>
       </c>
-      <c r="F55" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB251_Vpu</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB251_VLgood</v>
       </c>
-      <c r="I55" t="str">
+      <c r="J55" t="str">
         <f t="shared" si="18"/>
         <v>CB251_MODBUS</v>
       </c>
-      <c r="J55" t="str">
+      <c r="K55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L55" t="str">
+      <c r="M55" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=54,CBID:=251,Flow:=ADR(HMI1.Flow_251),Status:=ADR(HMI1.CB251_Closed),Vpu:=ADR(HMI1.CB251_Vpu),VLgood:=ADR(HMI1.CB251_VLgood)),</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>252</v>
       </c>
-      <c r="D56" t="str">
+      <c r="E56" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_252</v>
       </c>
-      <c r="E56" t="str">
+      <c r="F56" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB252_Closed</v>
       </c>
-      <c r="F56" t="str">
+      <c r="G56" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB252_Vpu</v>
       </c>
-      <c r="G56" t="str">
+      <c r="H56" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB252_VLgood</v>
       </c>
-      <c r="I56" t="str">
+      <c r="J56" t="str">
         <f t="shared" si="18"/>
         <v>CB252_MODBUS</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L56" t="str">
+      <c r="M56" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=55,CBID:=252,Flow:=ADR(HMI1.Flow_252),Status:=ADR(HMI1.CB252_Closed),Vpu:=ADR(HMI1.CB252_Vpu),VLgood:=ADR(HMI1.CB252_VLgood)),</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>351</v>
       </c>
-      <c r="D57" t="str">
+      <c r="E57" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_351</v>
       </c>
-      <c r="E57" t="str">
+      <c r="F57" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB351_Closed</v>
       </c>
-      <c r="F57" t="str">
+      <c r="G57" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB351_Vpu</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H57" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB351_VLgood</v>
       </c>
-      <c r="I57" t="str">
+      <c r="J57" t="str">
         <f t="shared" si="18"/>
         <v>CB351_MODBUS</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L57" t="str">
+      <c r="M57" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=56,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>451</v>
       </c>
-      <c r="D58" t="str">
+      <c r="E58" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_451</v>
       </c>
-      <c r="E58" t="str">
+      <c r="F58" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB451_Closed</v>
       </c>
-      <c r="F58" t="str">
+      <c r="G58" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB451_Vpu</v>
       </c>
-      <c r="G58" t="str">
+      <c r="H58" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB451_VLgood</v>
       </c>
-      <c r="I58" t="str">
+      <c r="J58" t="str">
         <f t="shared" si="18"/>
         <v>CB451_MODBUS</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L58" t="str">
+      <c r="M58" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=57,CBID:=451,Flow:=ADR(HMI1.Flow_451),Status:=ADR(HMI1.CB451_Closed),Vpu:=ADR(HMI1.CB451_Vpu),VLgood:=ADR(HMI1.CB451_VLgood)),</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>452</v>
       </c>
-      <c r="D59" t="str">
+      <c r="E59" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_452</v>
       </c>
-      <c r="E59" t="str">
+      <c r="F59" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB452_Closed</v>
       </c>
-      <c r="F59" t="str">
+      <c r="G59" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB452_Vpu</v>
       </c>
-      <c r="G59" t="str">
+      <c r="H59" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB452_VLgood</v>
       </c>
-      <c r="I59" t="str">
+      <c r="J59" t="str">
         <f t="shared" si="18"/>
         <v>CB452_MODBUS</v>
       </c>
-      <c r="K59" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L59" t="str">
+      <c r="M59" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=58,CBID:=452,Flow:=ADR(HMI1.Flow_452),Status:=ADR(HMI1.CB452_Closed),Vpu:=ADR(HMI1.CB452_Vpu),VLgood:=ADR(HMI1.CB452_VLgood)),</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>453</v>
       </c>
-      <c r="D60" t="str">
+      <c r="E60" t="str">
         <f t="shared" si="16"/>
         <v>HMI1.Flow_453</v>
       </c>
-      <c r="E60" t="str">
+      <c r="F60" t="str">
         <f t="shared" si="17"/>
         <v>HMI1.CB453_Closed</v>
       </c>
-      <c r="F60" t="str">
+      <c r="G60" t="str">
         <f t="shared" si="5"/>
         <v>HMI1.CB453_Vpu</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H60" t="str">
         <f t="shared" si="6"/>
         <v>HMI1.CB453_VLgood</v>
       </c>
-      <c r="I60" t="str">
+      <c r="J60" t="str">
         <f t="shared" si="18"/>
         <v>CB453_MODBUS</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L60" t="str">
+      <c r="M60" t="str">
         <f t="shared" si="4"/>
         <v>(ID:=59,CBID:=453,Flow:=ADR(HMI1.Flow_453),Status:=ADR(HMI1.CB453_Closed),Vpu:=ADR(HMI1.CB453_Vpu),VLgood:=ADR(HMI1.CB453_VLgood)),</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M60"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2844,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f>INDEX(HMI_signals!H:H,B2+1)</f>
+        <f>INDEX(HMI_signals!I:I,B2+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -2857,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f>INDEX(HMI_signals!H:H,B3+1)</f>
+        <f>INDEX(HMI_signals!I:I,B3+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -2870,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="str">
-        <f>INDEX(HMI_signals!H:H,B4+1)</f>
+        <f>INDEX(HMI_signals!I:I,B4+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -2883,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="str">
-        <f>INDEX(HMI_signals!H:H,B5+1)</f>
+        <f>INDEX(HMI_signals!I:I,B5+1)</f>
         <v>HMI1.CB101_Cmd</v>
       </c>
     </row>
@@ -2896,7 +2993,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="str">
-        <f>INDEX(HMI_signals!H:H,B6+1)</f>
+        <f>INDEX(HMI_signals!I:I,B6+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -2909,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>INDEX(HMI_signals!H:H,B7+1)</f>
+        <f>INDEX(HMI_signals!I:I,B7+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -2922,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="str">
-        <f>INDEX(HMI_signals!H:H,B8+1)</f>
+        <f>INDEX(HMI_signals!I:I,B8+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -2935,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="str">
-        <f>INDEX(HMI_signals!H:H,B9+1)</f>
+        <f>INDEX(HMI_signals!I:I,B9+1)</f>
         <v>HMI1.CB102_Cmd</v>
       </c>
     </row>
@@ -2948,7 +3045,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="str">
-        <f>INDEX(HMI_signals!H:H,B10+1)</f>
+        <f>INDEX(HMI_signals!I:I,B10+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -2961,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="str">
-        <f>INDEX(HMI_signals!H:H,B11+1)</f>
+        <f>INDEX(HMI_signals!I:I,B11+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -2974,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="str">
-        <f>INDEX(HMI_signals!H:H,B12+1)</f>
+        <f>INDEX(HMI_signals!I:I,B12+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -2987,7 +3084,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="str">
-        <f>INDEX(HMI_signals!H:H,B13+1)</f>
+        <f>INDEX(HMI_signals!I:I,B13+1)</f>
         <v>HMI1.CB103_Cmd</v>
       </c>
     </row>
@@ -3000,7 +3097,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <f>INDEX(HMI_signals!H:H,B14+1)</f>
+        <f>INDEX(HMI_signals!I:I,B14+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3013,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <f>INDEX(HMI_signals!H:H,B15+1)</f>
+        <f>INDEX(HMI_signals!I:I,B15+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <f>INDEX(HMI_signals!H:H,B16+1)</f>
+        <f>INDEX(HMI_signals!I:I,B16+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3039,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <f>INDEX(HMI_signals!H:H,B17+1)</f>
+        <f>INDEX(HMI_signals!I:I,B17+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3052,7 +3149,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <f>INDEX(HMI_signals!H:H,B18+1)</f>
+        <f>INDEX(HMI_signals!I:I,B18+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3065,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <f>INDEX(HMI_signals!H:H,B19+1)</f>
+        <f>INDEX(HMI_signals!I:I,B19+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3078,7 +3175,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <f>INDEX(HMI_signals!H:H,B20+1)</f>
+        <f>INDEX(HMI_signals!I:I,B20+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3091,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <f>INDEX(HMI_signals!H:H,B21+1)</f>
+        <f>INDEX(HMI_signals!I:I,B21+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3104,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f>INDEX(HMI_signals!H:H,B22+1)</f>
+        <f>INDEX(HMI_signals!I:I,B22+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3117,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <f>INDEX(HMI_signals!H:H,B23+1)</f>
+        <f>INDEX(HMI_signals!I:I,B23+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3130,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <f>INDEX(HMI_signals!H:H,B24+1)</f>
+        <f>INDEX(HMI_signals!I:I,B24+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3143,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <f>INDEX(HMI_signals!H:H,B25+1)</f>
+        <f>INDEX(HMI_signals!I:I,B25+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3156,7 +3253,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <f>INDEX(HMI_signals!H:H,B26+1)</f>
+        <f>INDEX(HMI_signals!I:I,B26+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3169,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="C27">
-        <f>INDEX(HMI_signals!H:H,B27+1)</f>
+        <f>INDEX(HMI_signals!I:I,B27+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3182,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <f>INDEX(HMI_signals!H:H,B28+1)</f>
+        <f>INDEX(HMI_signals!I:I,B28+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3195,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <f>INDEX(HMI_signals!H:H,B29+1)</f>
+        <f>INDEX(HMI_signals!I:I,B29+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3208,7 +3305,7 @@
         <v>8</v>
       </c>
       <c r="C30" t="str">
-        <f>INDEX(HMI_signals!H:H,B30+1)</f>
+        <f>INDEX(HMI_signals!I:I,B30+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -3221,7 +3318,7 @@
         <v>8</v>
       </c>
       <c r="C31" t="str">
-        <f>INDEX(HMI_signals!H:H,B31+1)</f>
+        <f>INDEX(HMI_signals!I:I,B31+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -3234,7 +3331,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="str">
-        <f>INDEX(HMI_signals!H:H,B32+1)</f>
+        <f>INDEX(HMI_signals!I:I,B32+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -3247,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="str">
-        <f>INDEX(HMI_signals!H:H,B33+1)</f>
+        <f>INDEX(HMI_signals!I:I,B33+1)</f>
         <v>HMI1.CB108_Cmd</v>
       </c>
     </row>
@@ -3260,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="C34" t="str">
-        <f>INDEX(HMI_signals!H:H,B34+1)</f>
+        <f>INDEX(HMI_signals!I:I,B34+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -3273,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="C35" t="str">
-        <f>INDEX(HMI_signals!H:H,B35+1)</f>
+        <f>INDEX(HMI_signals!I:I,B35+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -3286,7 +3383,7 @@
         <v>9</v>
       </c>
       <c r="C36" t="str">
-        <f>INDEX(HMI_signals!H:H,B36+1)</f>
+        <f>INDEX(HMI_signals!I:I,B36+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -3299,7 +3396,7 @@
         <v>9</v>
       </c>
       <c r="C37" t="str">
-        <f>INDEX(HMI_signals!H:H,B37+1)</f>
+        <f>INDEX(HMI_signals!I:I,B37+1)</f>
         <v>HMI1.CB109_Cmd</v>
       </c>
     </row>
@@ -3312,7 +3409,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <f>INDEX(HMI_signals!H:H,B38+1)</f>
+        <f>INDEX(HMI_signals!I:I,B38+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3325,7 +3422,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <f>INDEX(HMI_signals!H:H,B39+1)</f>
+        <f>INDEX(HMI_signals!I:I,B39+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3338,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <f>INDEX(HMI_signals!H:H,B40+1)</f>
+        <f>INDEX(HMI_signals!I:I,B40+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3351,7 +3448,7 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <f>INDEX(HMI_signals!H:H,B41+1)</f>
+        <f>INDEX(HMI_signals!I:I,B41+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3364,7 +3461,7 @@
         <v>11</v>
       </c>
       <c r="C42" t="str">
-        <f>INDEX(HMI_signals!H:H,B42+1)</f>
+        <f>INDEX(HMI_signals!I:I,B42+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -3377,7 +3474,7 @@
         <v>11</v>
       </c>
       <c r="C43" t="str">
-        <f>INDEX(HMI_signals!H:H,B43+1)</f>
+        <f>INDEX(HMI_signals!I:I,B43+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -3390,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="C44" t="str">
-        <f>INDEX(HMI_signals!H:H,B44+1)</f>
+        <f>INDEX(HMI_signals!I:I,B44+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -3403,7 +3500,7 @@
         <v>11</v>
       </c>
       <c r="C45" t="str">
-        <f>INDEX(HMI_signals!H:H,B45+1)</f>
+        <f>INDEX(HMI_signals!I:I,B45+1)</f>
         <v>HMI1.CB111_Cmd</v>
       </c>
     </row>
@@ -3416,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <f>INDEX(HMI_signals!H:H,B46+1)</f>
+        <f>INDEX(HMI_signals!I:I,B46+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3429,7 +3526,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <f>INDEX(HMI_signals!H:H,B47+1)</f>
+        <f>INDEX(HMI_signals!I:I,B47+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3442,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <f>INDEX(HMI_signals!H:H,B48+1)</f>
+        <f>INDEX(HMI_signals!I:I,B48+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3455,7 +3552,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <f>INDEX(HMI_signals!H:H,B49+1)</f>
+        <f>INDEX(HMI_signals!I:I,B49+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3468,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="str">
-        <f>INDEX(HMI_signals!H:H,B50+1)</f>
+        <f>INDEX(HMI_signals!I:I,B50+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -3481,7 +3578,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="str">
-        <f>INDEX(HMI_signals!H:H,B51+1)</f>
+        <f>INDEX(HMI_signals!I:I,B51+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -3494,7 +3591,7 @@
         <v>13</v>
       </c>
       <c r="C52" t="str">
-        <f>INDEX(HMI_signals!H:H,B52+1)</f>
+        <f>INDEX(HMI_signals!I:I,B52+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -3507,7 +3604,7 @@
         <v>13</v>
       </c>
       <c r="C53" t="str">
-        <f>INDEX(HMI_signals!H:H,B53+1)</f>
+        <f>INDEX(HMI_signals!I:I,B53+1)</f>
         <v>HMI1.CB113_Cmd</v>
       </c>
     </row>
@@ -3520,7 +3617,7 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <f>INDEX(HMI_signals!H:H,B54+1)</f>
+        <f>INDEX(HMI_signals!I:I,B54+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3533,7 +3630,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <f>INDEX(HMI_signals!H:H,B55+1)</f>
+        <f>INDEX(HMI_signals!I:I,B55+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3546,7 +3643,7 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <f>INDEX(HMI_signals!H:H,B56+1)</f>
+        <f>INDEX(HMI_signals!I:I,B56+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3559,7 +3656,7 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <f>INDEX(HMI_signals!H:H,B57+1)</f>
+        <f>INDEX(HMI_signals!I:I,B57+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +3669,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="str">
-        <f>INDEX(HMI_signals!H:H,B58+1)</f>
+        <f>INDEX(HMI_signals!I:I,B58+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -3585,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="C59" t="str">
-        <f>INDEX(HMI_signals!H:H,B59+1)</f>
+        <f>INDEX(HMI_signals!I:I,B59+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -3598,7 +3695,7 @@
         <v>15</v>
       </c>
       <c r="C60" t="str">
-        <f>INDEX(HMI_signals!H:H,B60+1)</f>
+        <f>INDEX(HMI_signals!I:I,B60+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -3611,7 +3708,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="str">
-        <f>INDEX(HMI_signals!H:H,B61+1)</f>
+        <f>INDEX(HMI_signals!I:I,B61+1)</f>
         <v>HMI1.CB201_Cmd</v>
       </c>
     </row>
@@ -3624,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="str">
-        <f>INDEX(HMI_signals!H:H,B62+1)</f>
+        <f>INDEX(HMI_signals!I:I,B62+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -3637,7 +3734,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="str">
-        <f>INDEX(HMI_signals!H:H,B63+1)</f>
+        <f>INDEX(HMI_signals!I:I,B63+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -3650,7 +3747,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="str">
-        <f>INDEX(HMI_signals!H:H,B64+1)</f>
+        <f>INDEX(HMI_signals!I:I,B64+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -3663,7 +3760,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="str">
-        <f>INDEX(HMI_signals!H:H,B65+1)</f>
+        <f>INDEX(HMI_signals!I:I,B65+1)</f>
         <v>HMI1.CB202_Cmd</v>
       </c>
     </row>
@@ -3676,7 +3773,7 @@
         <v>17</v>
       </c>
       <c r="C66" t="str">
-        <f>INDEX(HMI_signals!H:H,B66+1)</f>
+        <f>INDEX(HMI_signals!I:I,B66+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -3689,7 +3786,7 @@
         <v>17</v>
       </c>
       <c r="C67" t="str">
-        <f>INDEX(HMI_signals!H:H,B67+1)</f>
+        <f>INDEX(HMI_signals!I:I,B67+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -3702,7 +3799,7 @@
         <v>17</v>
       </c>
       <c r="C68" t="str">
-        <f>INDEX(HMI_signals!H:H,B68+1)</f>
+        <f>INDEX(HMI_signals!I:I,B68+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -3715,7 +3812,7 @@
         <v>17</v>
       </c>
       <c r="C69" t="str">
-        <f>INDEX(HMI_signals!H:H,B69+1)</f>
+        <f>INDEX(HMI_signals!I:I,B69+1)</f>
         <v>HMI1.CB203_Cmd</v>
       </c>
     </row>
@@ -3728,7 +3825,7 @@
         <v>18</v>
       </c>
       <c r="C70">
-        <f>INDEX(HMI_signals!H:H,B70+1)</f>
+        <f>INDEX(HMI_signals!I:I,B70+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3741,7 +3838,7 @@
         <v>18</v>
       </c>
       <c r="C71">
-        <f>INDEX(HMI_signals!H:H,B71+1)</f>
+        <f>INDEX(HMI_signals!I:I,B71+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3754,7 +3851,7 @@
         <v>18</v>
       </c>
       <c r="C72">
-        <f>INDEX(HMI_signals!H:H,B72+1)</f>
+        <f>INDEX(HMI_signals!I:I,B72+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3767,7 +3864,7 @@
         <v>18</v>
       </c>
       <c r="C73">
-        <f>INDEX(HMI_signals!H:H,B73+1)</f>
+        <f>INDEX(HMI_signals!I:I,B73+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3780,7 +3877,7 @@
         <v>19</v>
       </c>
       <c r="C74">
-        <f>INDEX(HMI_signals!H:H,B74+1)</f>
+        <f>INDEX(HMI_signals!I:I,B74+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3890,7 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <f>INDEX(HMI_signals!H:H,B75+1)</f>
+        <f>INDEX(HMI_signals!I:I,B75+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3806,7 +3903,7 @@
         <v>19</v>
       </c>
       <c r="C76">
-        <f>INDEX(HMI_signals!H:H,B76+1)</f>
+        <f>INDEX(HMI_signals!I:I,B76+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3819,7 +3916,7 @@
         <v>19</v>
       </c>
       <c r="C77">
-        <f>INDEX(HMI_signals!H:H,B77+1)</f>
+        <f>INDEX(HMI_signals!I:I,B77+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3832,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="C78">
-        <f>INDEX(HMI_signals!H:H,B78+1)</f>
+        <f>INDEX(HMI_signals!I:I,B78+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3845,7 +3942,7 @@
         <v>20</v>
       </c>
       <c r="C79">
-        <f>INDEX(HMI_signals!H:H,B79+1)</f>
+        <f>INDEX(HMI_signals!I:I,B79+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3858,7 +3955,7 @@
         <v>20</v>
       </c>
       <c r="C80">
-        <f>INDEX(HMI_signals!H:H,B80+1)</f>
+        <f>INDEX(HMI_signals!I:I,B80+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3871,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="C81">
-        <f>INDEX(HMI_signals!H:H,B81+1)</f>
+        <f>INDEX(HMI_signals!I:I,B81+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3884,7 +3981,7 @@
         <v>21</v>
       </c>
       <c r="C82">
-        <f>INDEX(HMI_signals!H:H,B82+1)</f>
+        <f>INDEX(HMI_signals!I:I,B82+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3897,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="C83">
-        <f>INDEX(HMI_signals!H:H,B83+1)</f>
+        <f>INDEX(HMI_signals!I:I,B83+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3910,7 +4007,7 @@
         <v>21</v>
       </c>
       <c r="C84">
-        <f>INDEX(HMI_signals!H:H,B84+1)</f>
+        <f>INDEX(HMI_signals!I:I,B84+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3923,7 +4020,7 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <f>INDEX(HMI_signals!H:H,B85+1)</f>
+        <f>INDEX(HMI_signals!I:I,B85+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3936,7 +4033,7 @@
         <v>22</v>
       </c>
       <c r="C86">
-        <f>INDEX(HMI_signals!H:H,B86+1)</f>
+        <f>INDEX(HMI_signals!I:I,B86+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3949,7 +4046,7 @@
         <v>22</v>
       </c>
       <c r="C87">
-        <f>INDEX(HMI_signals!H:H,B87+1)</f>
+        <f>INDEX(HMI_signals!I:I,B87+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3962,7 +4059,7 @@
         <v>22</v>
       </c>
       <c r="C88">
-        <f>INDEX(HMI_signals!H:H,B88+1)</f>
+        <f>INDEX(HMI_signals!I:I,B88+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3975,7 +4072,7 @@
         <v>22</v>
       </c>
       <c r="C89">
-        <f>INDEX(HMI_signals!H:H,B89+1)</f>
+        <f>INDEX(HMI_signals!I:I,B89+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3988,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="C90">
-        <f>INDEX(HMI_signals!H:H,B90+1)</f>
+        <f>INDEX(HMI_signals!I:I,B90+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4001,7 +4098,7 @@
         <v>23</v>
       </c>
       <c r="C91">
-        <f>INDEX(HMI_signals!H:H,B91+1)</f>
+        <f>INDEX(HMI_signals!I:I,B91+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4014,7 +4111,7 @@
         <v>23</v>
       </c>
       <c r="C92">
-        <f>INDEX(HMI_signals!H:H,B92+1)</f>
+        <f>INDEX(HMI_signals!I:I,B92+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4027,7 +4124,7 @@
         <v>23</v>
       </c>
       <c r="C93">
-        <f>INDEX(HMI_signals!H:H,B93+1)</f>
+        <f>INDEX(HMI_signals!I:I,B93+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4040,7 +4137,7 @@
         <v>24</v>
       </c>
       <c r="C94">
-        <f>INDEX(HMI_signals!H:H,B94+1)</f>
+        <f>INDEX(HMI_signals!I:I,B94+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4053,7 +4150,7 @@
         <v>24</v>
       </c>
       <c r="C95">
-        <f>INDEX(HMI_signals!H:H,B95+1)</f>
+        <f>INDEX(HMI_signals!I:I,B95+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4066,7 +4163,7 @@
         <v>24</v>
       </c>
       <c r="C96">
-        <f>INDEX(HMI_signals!H:H,B96+1)</f>
+        <f>INDEX(HMI_signals!I:I,B96+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4079,7 +4176,7 @@
         <v>24</v>
       </c>
       <c r="C97">
-        <f>INDEX(HMI_signals!H:H,B97+1)</f>
+        <f>INDEX(HMI_signals!I:I,B97+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4092,7 +4189,7 @@
         <v>25</v>
       </c>
       <c r="C98">
-        <f>INDEX(HMI_signals!H:H,B98+1)</f>
+        <f>INDEX(HMI_signals!I:I,B98+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4105,7 +4202,7 @@
         <v>25</v>
       </c>
       <c r="C99">
-        <f>INDEX(HMI_signals!H:H,B99+1)</f>
+        <f>INDEX(HMI_signals!I:I,B99+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +4215,7 @@
         <v>25</v>
       </c>
       <c r="C100">
-        <f>INDEX(HMI_signals!H:H,B100+1)</f>
+        <f>INDEX(HMI_signals!I:I,B100+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4131,7 +4228,7 @@
         <v>25</v>
       </c>
       <c r="C101">
-        <f>INDEX(HMI_signals!H:H,B101+1)</f>
+        <f>INDEX(HMI_signals!I:I,B101+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4144,7 +4241,7 @@
         <v>26</v>
       </c>
       <c r="C102">
-        <f>INDEX(HMI_signals!H:H,B102+1)</f>
+        <f>INDEX(HMI_signals!I:I,B102+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4157,7 +4254,7 @@
         <v>26</v>
       </c>
       <c r="C103">
-        <f>INDEX(HMI_signals!H:H,B103+1)</f>
+        <f>INDEX(HMI_signals!I:I,B103+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4170,7 +4267,7 @@
         <v>26</v>
       </c>
       <c r="C104">
-        <f>INDEX(HMI_signals!H:H,B104+1)</f>
+        <f>INDEX(HMI_signals!I:I,B104+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4183,7 +4280,7 @@
         <v>26</v>
       </c>
       <c r="C105">
-        <f>INDEX(HMI_signals!H:H,B105+1)</f>
+        <f>INDEX(HMI_signals!I:I,B105+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4196,7 +4293,7 @@
         <v>27</v>
       </c>
       <c r="C106" t="str">
-        <f>INDEX(HMI_signals!H:H,B106+1)</f>
+        <f>INDEX(HMI_signals!I:I,B106+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -4209,7 +4306,7 @@
         <v>27</v>
       </c>
       <c r="C107" t="str">
-        <f>INDEX(HMI_signals!H:H,B107+1)</f>
+        <f>INDEX(HMI_signals!I:I,B107+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -4222,7 +4319,7 @@
         <v>27</v>
       </c>
       <c r="C108" t="str">
-        <f>INDEX(HMI_signals!H:H,B108+1)</f>
+        <f>INDEX(HMI_signals!I:I,B108+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -4235,7 +4332,7 @@
         <v>27</v>
       </c>
       <c r="C109" t="str">
-        <f>INDEX(HMI_signals!H:H,B109+1)</f>
+        <f>INDEX(HMI_signals!I:I,B109+1)</f>
         <v>HMI1.CB213_Cmd</v>
       </c>
     </row>
@@ -4248,7 +4345,7 @@
         <v>28</v>
       </c>
       <c r="C110">
-        <f>INDEX(HMI_signals!H:H,B110+1)</f>
+        <f>INDEX(HMI_signals!I:I,B110+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4261,7 +4358,7 @@
         <v>28</v>
       </c>
       <c r="C111">
-        <f>INDEX(HMI_signals!H:H,B111+1)</f>
+        <f>INDEX(HMI_signals!I:I,B111+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4274,7 +4371,7 @@
         <v>28</v>
       </c>
       <c r="C112">
-        <f>INDEX(HMI_signals!H:H,B112+1)</f>
+        <f>INDEX(HMI_signals!I:I,B112+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4287,7 +4384,7 @@
         <v>28</v>
       </c>
       <c r="C113">
-        <f>INDEX(HMI_signals!H:H,B113+1)</f>
+        <f>INDEX(HMI_signals!I:I,B113+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4300,7 +4397,7 @@
         <v>29</v>
       </c>
       <c r="C114">
-        <f>INDEX(HMI_signals!H:H,B114+1)</f>
+        <f>INDEX(HMI_signals!I:I,B114+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4313,7 +4410,7 @@
         <v>29</v>
       </c>
       <c r="C115">
-        <f>INDEX(HMI_signals!H:H,B115+1)</f>
+        <f>INDEX(HMI_signals!I:I,B115+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4326,7 +4423,7 @@
         <v>29</v>
       </c>
       <c r="C116">
-        <f>INDEX(HMI_signals!H:H,B116+1)</f>
+        <f>INDEX(HMI_signals!I:I,B116+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4339,7 +4436,7 @@
         <v>29</v>
       </c>
       <c r="C117">
-        <f>INDEX(HMI_signals!H:H,B117+1)</f>
+        <f>INDEX(HMI_signals!I:I,B117+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4352,7 +4449,7 @@
         <v>30</v>
       </c>
       <c r="C118" t="str">
-        <f>INDEX(HMI_signals!H:H,B118+1)</f>
+        <f>INDEX(HMI_signals!I:I,B118+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -4365,7 +4462,7 @@
         <v>30</v>
       </c>
       <c r="C119" t="str">
-        <f>INDEX(HMI_signals!H:H,B119+1)</f>
+        <f>INDEX(HMI_signals!I:I,B119+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -4378,7 +4475,7 @@
         <v>30</v>
       </c>
       <c r="C120" t="str">
-        <f>INDEX(HMI_signals!H:H,B120+1)</f>
+        <f>INDEX(HMI_signals!I:I,B120+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -4391,7 +4488,7 @@
         <v>30</v>
       </c>
       <c r="C121" t="str">
-        <f>INDEX(HMI_signals!H:H,B121+1)</f>
+        <f>INDEX(HMI_signals!I:I,B121+1)</f>
         <v>HMI1.CB216_Cmd</v>
       </c>
     </row>
@@ -4404,7 +4501,7 @@
         <v>31</v>
       </c>
       <c r="C122" t="str">
-        <f>INDEX(HMI_signals!H:H,B122+1)</f>
+        <f>INDEX(HMI_signals!I:I,B122+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -4417,7 +4514,7 @@
         <v>31</v>
       </c>
       <c r="C123" t="str">
-        <f>INDEX(HMI_signals!H:H,B123+1)</f>
+        <f>INDEX(HMI_signals!I:I,B123+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -4430,7 +4527,7 @@
         <v>31</v>
       </c>
       <c r="C124" t="str">
-        <f>INDEX(HMI_signals!H:H,B124+1)</f>
+        <f>INDEX(HMI_signals!I:I,B124+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -4443,7 +4540,7 @@
         <v>31</v>
       </c>
       <c r="C125" t="str">
-        <f>INDEX(HMI_signals!H:H,B125+1)</f>
+        <f>INDEX(HMI_signals!I:I,B125+1)</f>
         <v>HMI1.CB217_Cmd</v>
       </c>
     </row>
@@ -4456,7 +4553,7 @@
         <v>32</v>
       </c>
       <c r="C126">
-        <f>INDEX(HMI_signals!H:H,B126+1)</f>
+        <f>INDEX(HMI_signals!I:I,B126+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4469,7 +4566,7 @@
         <v>32</v>
       </c>
       <c r="C127">
-        <f>INDEX(HMI_signals!H:H,B127+1)</f>
+        <f>INDEX(HMI_signals!I:I,B127+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4482,7 +4579,7 @@
         <v>32</v>
       </c>
       <c r="C128">
-        <f>INDEX(HMI_signals!H:H,B128+1)</f>
+        <f>INDEX(HMI_signals!I:I,B128+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4495,7 +4592,7 @@
         <v>32</v>
       </c>
       <c r="C129">
-        <f>INDEX(HMI_signals!H:H,B129+1)</f>
+        <f>INDEX(HMI_signals!I:I,B129+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4508,7 +4605,7 @@
         <v>33</v>
       </c>
       <c r="C130">
-        <f>INDEX(HMI_signals!H:H,B130+1)</f>
+        <f>INDEX(HMI_signals!I:I,B130+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4521,7 +4618,7 @@
         <v>33</v>
       </c>
       <c r="C131">
-        <f>INDEX(HMI_signals!H:H,B131+1)</f>
+        <f>INDEX(HMI_signals!I:I,B131+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4534,7 +4631,7 @@
         <v>33</v>
       </c>
       <c r="C132">
-        <f>INDEX(HMI_signals!H:H,B132+1)</f>
+        <f>INDEX(HMI_signals!I:I,B132+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4547,7 +4644,7 @@
         <v>33</v>
       </c>
       <c r="C133">
-        <f>INDEX(HMI_signals!H:H,B133+1)</f>
+        <f>INDEX(HMI_signals!I:I,B133+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4560,7 +4657,7 @@
         <v>34</v>
       </c>
       <c r="C134" t="str">
-        <f>INDEX(HMI_signals!H:H,B134+1)</f>
+        <f>INDEX(HMI_signals!I:I,B134+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -4573,7 +4670,7 @@
         <v>34</v>
       </c>
       <c r="C135" t="str">
-        <f>INDEX(HMI_signals!H:H,B135+1)</f>
+        <f>INDEX(HMI_signals!I:I,B135+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -4586,7 +4683,7 @@
         <v>34</v>
       </c>
       <c r="C136" t="str">
-        <f>INDEX(HMI_signals!H:H,B136+1)</f>
+        <f>INDEX(HMI_signals!I:I,B136+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -4599,7 +4696,7 @@
         <v>34</v>
       </c>
       <c r="C137" t="str">
-        <f>INDEX(HMI_signals!H:H,B137+1)</f>
+        <f>INDEX(HMI_signals!I:I,B137+1)</f>
         <v>HMI1.CB301_Cmd</v>
       </c>
     </row>
@@ -4612,7 +4709,7 @@
         <v>35</v>
       </c>
       <c r="C138" t="str">
-        <f>INDEX(HMI_signals!H:H,B138+1)</f>
+        <f>INDEX(HMI_signals!I:I,B138+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -4625,7 +4722,7 @@
         <v>35</v>
       </c>
       <c r="C139" t="str">
-        <f>INDEX(HMI_signals!H:H,B139+1)</f>
+        <f>INDEX(HMI_signals!I:I,B139+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -4638,7 +4735,7 @@
         <v>35</v>
       </c>
       <c r="C140" t="str">
-        <f>INDEX(HMI_signals!H:H,B140+1)</f>
+        <f>INDEX(HMI_signals!I:I,B140+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -4651,7 +4748,7 @@
         <v>35</v>
       </c>
       <c r="C141" t="str">
-        <f>INDEX(HMI_signals!H:H,B141+1)</f>
+        <f>INDEX(HMI_signals!I:I,B141+1)</f>
         <v>HMI1.CB302_Cmd</v>
       </c>
     </row>
@@ -4664,7 +4761,7 @@
         <v>36</v>
       </c>
       <c r="C142" t="str">
-        <f>INDEX(HMI_signals!H:H,B142+1)</f>
+        <f>INDEX(HMI_signals!I:I,B142+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -4677,7 +4774,7 @@
         <v>36</v>
       </c>
       <c r="C143" t="str">
-        <f>INDEX(HMI_signals!H:H,B143+1)</f>
+        <f>INDEX(HMI_signals!I:I,B143+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -4690,7 +4787,7 @@
         <v>36</v>
       </c>
       <c r="C144" t="str">
-        <f>INDEX(HMI_signals!H:H,B144+1)</f>
+        <f>INDEX(HMI_signals!I:I,B144+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -4703,7 +4800,7 @@
         <v>36</v>
       </c>
       <c r="C145" t="str">
-        <f>INDEX(HMI_signals!H:H,B145+1)</f>
+        <f>INDEX(HMI_signals!I:I,B145+1)</f>
         <v>HMI1.CB303_Cmd</v>
       </c>
     </row>
@@ -4716,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="C146" t="str">
-        <f>INDEX(HMI_signals!H:H,B146+1)</f>
+        <f>INDEX(HMI_signals!I:I,B146+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -4729,7 +4826,7 @@
         <v>37</v>
       </c>
       <c r="C147" t="str">
-        <f>INDEX(HMI_signals!H:H,B147+1)</f>
+        <f>INDEX(HMI_signals!I:I,B147+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -4742,7 +4839,7 @@
         <v>37</v>
       </c>
       <c r="C148" t="str">
-        <f>INDEX(HMI_signals!H:H,B148+1)</f>
+        <f>INDEX(HMI_signals!I:I,B148+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -4755,7 +4852,7 @@
         <v>37</v>
       </c>
       <c r="C149" t="str">
-        <f>INDEX(HMI_signals!H:H,B149+1)</f>
+        <f>INDEX(HMI_signals!I:I,B149+1)</f>
         <v>HMI1.CB304_Cmd</v>
       </c>
     </row>
@@ -4768,7 +4865,7 @@
         <v>38</v>
       </c>
       <c r="C150" t="str">
-        <f>INDEX(HMI_signals!H:H,B150+1)</f>
+        <f>INDEX(HMI_signals!I:I,B150+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -4781,7 +4878,7 @@
         <v>38</v>
       </c>
       <c r="C151" t="str">
-        <f>INDEX(HMI_signals!H:H,B151+1)</f>
+        <f>INDEX(HMI_signals!I:I,B151+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -4794,7 +4891,7 @@
         <v>38</v>
       </c>
       <c r="C152" t="str">
-        <f>INDEX(HMI_signals!H:H,B152+1)</f>
+        <f>INDEX(HMI_signals!I:I,B152+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -4807,7 +4904,7 @@
         <v>38</v>
       </c>
       <c r="C153" t="str">
-        <f>INDEX(HMI_signals!H:H,B153+1)</f>
+        <f>INDEX(HMI_signals!I:I,B153+1)</f>
         <v>HMI1.CB305_Cmd</v>
       </c>
     </row>
@@ -4820,7 +4917,7 @@
         <v>39</v>
       </c>
       <c r="C154">
-        <f>INDEX(HMI_signals!H:H,B154+1)</f>
+        <f>INDEX(HMI_signals!I:I,B154+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4833,7 +4930,7 @@
         <v>39</v>
       </c>
       <c r="C155">
-        <f>INDEX(HMI_signals!H:H,B155+1)</f>
+        <f>INDEX(HMI_signals!I:I,B155+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4846,7 +4943,7 @@
         <v>39</v>
       </c>
       <c r="C156">
-        <f>INDEX(HMI_signals!H:H,B156+1)</f>
+        <f>INDEX(HMI_signals!I:I,B156+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4859,7 +4956,7 @@
         <v>39</v>
       </c>
       <c r="C157">
-        <f>INDEX(HMI_signals!H:H,B157+1)</f>
+        <f>INDEX(HMI_signals!I:I,B157+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4872,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="C158">
-        <f>INDEX(HMI_signals!H:H,B158+1)</f>
+        <f>INDEX(HMI_signals!I:I,B158+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4885,7 +4982,7 @@
         <v>40</v>
       </c>
       <c r="C159">
-        <f>INDEX(HMI_signals!H:H,B159+1)</f>
+        <f>INDEX(HMI_signals!I:I,B159+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4898,7 +4995,7 @@
         <v>40</v>
       </c>
       <c r="C160">
-        <f>INDEX(HMI_signals!H:H,B160+1)</f>
+        <f>INDEX(HMI_signals!I:I,B160+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4911,7 +5008,7 @@
         <v>40</v>
       </c>
       <c r="C161">
-        <f>INDEX(HMI_signals!H:H,B161+1)</f>
+        <f>INDEX(HMI_signals!I:I,B161+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4924,7 +5021,7 @@
         <v>41</v>
       </c>
       <c r="C162">
-        <f>INDEX(HMI_signals!H:H,B162+1)</f>
+        <f>INDEX(HMI_signals!I:I,B162+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4937,7 +5034,7 @@
         <v>41</v>
       </c>
       <c r="C163">
-        <f>INDEX(HMI_signals!H:H,B163+1)</f>
+        <f>INDEX(HMI_signals!I:I,B163+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4950,7 +5047,7 @@
         <v>41</v>
       </c>
       <c r="C164">
-        <f>INDEX(HMI_signals!H:H,B164+1)</f>
+        <f>INDEX(HMI_signals!I:I,B164+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4963,7 +5060,7 @@
         <v>41</v>
       </c>
       <c r="C165">
-        <f>INDEX(HMI_signals!H:H,B165+1)</f>
+        <f>INDEX(HMI_signals!I:I,B165+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4976,7 +5073,7 @@
         <v>42</v>
       </c>
       <c r="C166">
-        <f>INDEX(HMI_signals!H:H,B166+1)</f>
+        <f>INDEX(HMI_signals!I:I,B166+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4989,7 +5086,7 @@
         <v>42</v>
       </c>
       <c r="C167">
-        <f>INDEX(HMI_signals!H:H,B167+1)</f>
+        <f>INDEX(HMI_signals!I:I,B167+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5002,7 +5099,7 @@
         <v>42</v>
       </c>
       <c r="C168">
-        <f>INDEX(HMI_signals!H:H,B168+1)</f>
+        <f>INDEX(HMI_signals!I:I,B168+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5015,7 +5112,7 @@
         <v>42</v>
       </c>
       <c r="C169">
-        <f>INDEX(HMI_signals!H:H,B169+1)</f>
+        <f>INDEX(HMI_signals!I:I,B169+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5028,7 +5125,7 @@
         <v>43</v>
       </c>
       <c r="C170">
-        <f>INDEX(HMI_signals!H:H,B170+1)</f>
+        <f>INDEX(HMI_signals!I:I,B170+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5041,7 +5138,7 @@
         <v>43</v>
       </c>
       <c r="C171">
-        <f>INDEX(HMI_signals!H:H,B171+1)</f>
+        <f>INDEX(HMI_signals!I:I,B171+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5054,7 +5151,7 @@
         <v>43</v>
       </c>
       <c r="C172">
-        <f>INDEX(HMI_signals!H:H,B172+1)</f>
+        <f>INDEX(HMI_signals!I:I,B172+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5067,7 +5164,7 @@
         <v>43</v>
       </c>
       <c r="C173">
-        <f>INDEX(HMI_signals!H:H,B173+1)</f>
+        <f>INDEX(HMI_signals!I:I,B173+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5080,7 +5177,7 @@
         <v>44</v>
       </c>
       <c r="C174">
-        <f>INDEX(HMI_signals!H:H,B174+1)</f>
+        <f>INDEX(HMI_signals!I:I,B174+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5093,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="C175">
-        <f>INDEX(HMI_signals!H:H,B175+1)</f>
+        <f>INDEX(HMI_signals!I:I,B175+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5106,7 +5203,7 @@
         <v>44</v>
       </c>
       <c r="C176">
-        <f>INDEX(HMI_signals!H:H,B176+1)</f>
+        <f>INDEX(HMI_signals!I:I,B176+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5119,7 +5216,7 @@
         <v>44</v>
       </c>
       <c r="C177">
-        <f>INDEX(HMI_signals!H:H,B177+1)</f>
+        <f>INDEX(HMI_signals!I:I,B177+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5132,7 +5229,7 @@
         <v>45</v>
       </c>
       <c r="C178">
-        <f>INDEX(HMI_signals!H:H,B178+1)</f>
+        <f>INDEX(HMI_signals!I:I,B178+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5145,7 +5242,7 @@
         <v>45</v>
       </c>
       <c r="C179">
-        <f>INDEX(HMI_signals!H:H,B179+1)</f>
+        <f>INDEX(HMI_signals!I:I,B179+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5158,7 +5255,7 @@
         <v>45</v>
       </c>
       <c r="C180">
-        <f>INDEX(HMI_signals!H:H,B180+1)</f>
+        <f>INDEX(HMI_signals!I:I,B180+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5171,7 +5268,7 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <f>INDEX(HMI_signals!H:H,B181+1)</f>
+        <f>INDEX(HMI_signals!I:I,B181+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5184,7 +5281,7 @@
         <v>46</v>
       </c>
       <c r="C182">
-        <f>INDEX(HMI_signals!H:H,B182+1)</f>
+        <f>INDEX(HMI_signals!I:I,B182+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5197,7 +5294,7 @@
         <v>46</v>
       </c>
       <c r="C183">
-        <f>INDEX(HMI_signals!H:H,B183+1)</f>
+        <f>INDEX(HMI_signals!I:I,B183+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5210,7 +5307,7 @@
         <v>46</v>
       </c>
       <c r="C184">
-        <f>INDEX(HMI_signals!H:H,B184+1)</f>
+        <f>INDEX(HMI_signals!I:I,B184+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5223,7 +5320,7 @@
         <v>46</v>
       </c>
       <c r="C185">
-        <f>INDEX(HMI_signals!H:H,B185+1)</f>
+        <f>INDEX(HMI_signals!I:I,B185+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5236,7 +5333,7 @@
         <v>47</v>
       </c>
       <c r="C186">
-        <f>INDEX(HMI_signals!H:H,B186+1)</f>
+        <f>INDEX(HMI_signals!I:I,B186+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5249,7 +5346,7 @@
         <v>47</v>
       </c>
       <c r="C187">
-        <f>INDEX(HMI_signals!H:H,B187+1)</f>
+        <f>INDEX(HMI_signals!I:I,B187+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5262,7 +5359,7 @@
         <v>47</v>
       </c>
       <c r="C188">
-        <f>INDEX(HMI_signals!H:H,B188+1)</f>
+        <f>INDEX(HMI_signals!I:I,B188+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5275,7 +5372,7 @@
         <v>47</v>
       </c>
       <c r="C189">
-        <f>INDEX(HMI_signals!H:H,B189+1)</f>
+        <f>INDEX(HMI_signals!I:I,B189+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5288,7 +5385,7 @@
         <v>48</v>
       </c>
       <c r="C190">
-        <f>INDEX(HMI_signals!H:H,B190+1)</f>
+        <f>INDEX(HMI_signals!I:I,B190+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5301,7 +5398,7 @@
         <v>48</v>
       </c>
       <c r="C191">
-        <f>INDEX(HMI_signals!H:H,B191+1)</f>
+        <f>INDEX(HMI_signals!I:I,B191+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5314,7 +5411,7 @@
         <v>48</v>
       </c>
       <c r="C192">
-        <f>INDEX(HMI_signals!H:H,B192+1)</f>
+        <f>INDEX(HMI_signals!I:I,B192+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5327,7 +5424,7 @@
         <v>48</v>
       </c>
       <c r="C193">
-        <f>INDEX(HMI_signals!H:H,B193+1)</f>
+        <f>INDEX(HMI_signals!I:I,B193+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5340,7 +5437,7 @@
         <v>49</v>
       </c>
       <c r="C194">
-        <f>INDEX(HMI_signals!H:H,B194+1)</f>
+        <f>INDEX(HMI_signals!I:I,B194+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5353,7 +5450,7 @@
         <v>49</v>
       </c>
       <c r="C195">
-        <f>INDEX(HMI_signals!H:H,B195+1)</f>
+        <f>INDEX(HMI_signals!I:I,B195+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5366,7 +5463,7 @@
         <v>49</v>
       </c>
       <c r="C196">
-        <f>INDEX(HMI_signals!H:H,B196+1)</f>
+        <f>INDEX(HMI_signals!I:I,B196+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5379,7 +5476,7 @@
         <v>49</v>
       </c>
       <c r="C197">
-        <f>INDEX(HMI_signals!H:H,B197+1)</f>
+        <f>INDEX(HMI_signals!I:I,B197+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5392,7 +5489,7 @@
         <v>50</v>
       </c>
       <c r="C198">
-        <f>INDEX(HMI_signals!H:H,B198+1)</f>
+        <f>INDEX(HMI_signals!I:I,B198+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5405,7 +5502,7 @@
         <v>50</v>
       </c>
       <c r="C199">
-        <f>INDEX(HMI_signals!H:H,B199+1)</f>
+        <f>INDEX(HMI_signals!I:I,B199+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5418,7 +5515,7 @@
         <v>50</v>
       </c>
       <c r="C200">
-        <f>INDEX(HMI_signals!H:H,B200+1)</f>
+        <f>INDEX(HMI_signals!I:I,B200+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5431,7 +5528,7 @@
         <v>50</v>
       </c>
       <c r="C201">
-        <f>INDEX(HMI_signals!H:H,B201+1)</f>
+        <f>INDEX(HMI_signals!I:I,B201+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5444,7 +5541,7 @@
         <v>51</v>
       </c>
       <c r="C202">
-        <f>INDEX(HMI_signals!H:H,B202+1)</f>
+        <f>INDEX(HMI_signals!I:I,B202+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5457,7 +5554,7 @@
         <v>51</v>
       </c>
       <c r="C203">
-        <f>INDEX(HMI_signals!H:H,B203+1)</f>
+        <f>INDEX(HMI_signals!I:I,B203+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5470,7 +5567,7 @@
         <v>51</v>
       </c>
       <c r="C204">
-        <f>INDEX(HMI_signals!H:H,B204+1)</f>
+        <f>INDEX(HMI_signals!I:I,B204+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5580,7 @@
         <v>51</v>
       </c>
       <c r="C205">
-        <f>INDEX(HMI_signals!H:H,B205+1)</f>
+        <f>INDEX(HMI_signals!I:I,B205+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5496,7 +5593,7 @@
         <v>52</v>
       </c>
       <c r="C206">
-        <f>INDEX(HMI_signals!H:H,B206+1)</f>
+        <f>INDEX(HMI_signals!I:I,B206+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5509,7 +5606,7 @@
         <v>52</v>
       </c>
       <c r="C207">
-        <f>INDEX(HMI_signals!H:H,B207+1)</f>
+        <f>INDEX(HMI_signals!I:I,B207+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5522,7 +5619,7 @@
         <v>52</v>
       </c>
       <c r="C208">
-        <f>INDEX(HMI_signals!H:H,B208+1)</f>
+        <f>INDEX(HMI_signals!I:I,B208+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5535,7 +5632,7 @@
         <v>52</v>
       </c>
       <c r="C209">
-        <f>INDEX(HMI_signals!H:H,B209+1)</f>
+        <f>INDEX(HMI_signals!I:I,B209+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5548,7 +5645,7 @@
         <v>53</v>
       </c>
       <c r="C210">
-        <f>INDEX(HMI_signals!H:H,B210+1)</f>
+        <f>INDEX(HMI_signals!I:I,B210+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5561,7 +5658,7 @@
         <v>53</v>
       </c>
       <c r="C211">
-        <f>INDEX(HMI_signals!H:H,B211+1)</f>
+        <f>INDEX(HMI_signals!I:I,B211+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5574,7 +5671,7 @@
         <v>53</v>
       </c>
       <c r="C212">
-        <f>INDEX(HMI_signals!H:H,B212+1)</f>
+        <f>INDEX(HMI_signals!I:I,B212+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5587,7 +5684,7 @@
         <v>53</v>
       </c>
       <c r="C213">
-        <f>INDEX(HMI_signals!H:H,B213+1)</f>
+        <f>INDEX(HMI_signals!I:I,B213+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5600,7 +5697,7 @@
         <v>54</v>
       </c>
       <c r="C214">
-        <f>INDEX(HMI_signals!H:H,B214+1)</f>
+        <f>INDEX(HMI_signals!I:I,B214+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5613,7 +5710,7 @@
         <v>54</v>
       </c>
       <c r="C215">
-        <f>INDEX(HMI_signals!H:H,B215+1)</f>
+        <f>INDEX(HMI_signals!I:I,B215+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5626,7 +5723,7 @@
         <v>54</v>
       </c>
       <c r="C216">
-        <f>INDEX(HMI_signals!H:H,B216+1)</f>
+        <f>INDEX(HMI_signals!I:I,B216+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5639,7 +5736,7 @@
         <v>54</v>
       </c>
       <c r="C217">
-        <f>INDEX(HMI_signals!H:H,B217+1)</f>
+        <f>INDEX(HMI_signals!I:I,B217+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5652,7 +5749,7 @@
         <v>55</v>
       </c>
       <c r="C218">
-        <f>INDEX(HMI_signals!H:H,B218+1)</f>
+        <f>INDEX(HMI_signals!I:I,B218+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5665,7 +5762,7 @@
         <v>55</v>
       </c>
       <c r="C219">
-        <f>INDEX(HMI_signals!H:H,B219+1)</f>
+        <f>INDEX(HMI_signals!I:I,B219+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5678,7 +5775,7 @@
         <v>55</v>
       </c>
       <c r="C220">
-        <f>INDEX(HMI_signals!H:H,B220+1)</f>
+        <f>INDEX(HMI_signals!I:I,B220+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5691,7 +5788,7 @@
         <v>55</v>
       </c>
       <c r="C221">
-        <f>INDEX(HMI_signals!H:H,B221+1)</f>
+        <f>INDEX(HMI_signals!I:I,B221+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5704,7 +5801,7 @@
         <v>56</v>
       </c>
       <c r="C222">
-        <f>INDEX(HMI_signals!H:H,B222+1)</f>
+        <f>INDEX(HMI_signals!I:I,B222+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5717,7 +5814,7 @@
         <v>56</v>
       </c>
       <c r="C223">
-        <f>INDEX(HMI_signals!H:H,B223+1)</f>
+        <f>INDEX(HMI_signals!I:I,B223+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5730,7 +5827,7 @@
         <v>56</v>
       </c>
       <c r="C224">
-        <f>INDEX(HMI_signals!H:H,B224+1)</f>
+        <f>INDEX(HMI_signals!I:I,B224+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5743,7 +5840,7 @@
         <v>56</v>
       </c>
       <c r="C225">
-        <f>INDEX(HMI_signals!H:H,B225+1)</f>
+        <f>INDEX(HMI_signals!I:I,B225+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5756,7 +5853,7 @@
         <v>57</v>
       </c>
       <c r="C226">
-        <f>INDEX(HMI_signals!H:H,B226+1)</f>
+        <f>INDEX(HMI_signals!I:I,B226+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5769,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="C227">
-        <f>INDEX(HMI_signals!H:H,B227+1)</f>
+        <f>INDEX(HMI_signals!I:I,B227+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5782,7 +5879,7 @@
         <v>57</v>
       </c>
       <c r="C228">
-        <f>INDEX(HMI_signals!H:H,B228+1)</f>
+        <f>INDEX(HMI_signals!I:I,B228+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5795,7 +5892,7 @@
         <v>57</v>
       </c>
       <c r="C229">
-        <f>INDEX(HMI_signals!H:H,B229+1)</f>
+        <f>INDEX(HMI_signals!I:I,B229+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5808,7 +5905,7 @@
         <v>58</v>
       </c>
       <c r="C230">
-        <f>INDEX(HMI_signals!H:H,B230+1)</f>
+        <f>INDEX(HMI_signals!I:I,B230+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5821,7 +5918,7 @@
         <v>58</v>
       </c>
       <c r="C231">
-        <f>INDEX(HMI_signals!H:H,B231+1)</f>
+        <f>INDEX(HMI_signals!I:I,B231+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5834,7 +5931,7 @@
         <v>58</v>
       </c>
       <c r="C232">
-        <f>INDEX(HMI_signals!H:H,B232+1)</f>
+        <f>INDEX(HMI_signals!I:I,B232+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5847,7 +5944,7 @@
         <v>58</v>
       </c>
       <c r="C233">
-        <f>INDEX(HMI_signals!H:H,B233+1)</f>
+        <f>INDEX(HMI_signals!I:I,B233+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5860,7 +5957,7 @@
         <v>59</v>
       </c>
       <c r="C234">
-        <f>INDEX(HMI_signals!H:H,B234+1)</f>
+        <f>INDEX(HMI_signals!I:I,B234+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5873,7 +5970,7 @@
         <v>59</v>
       </c>
       <c r="C235">
-        <f>INDEX(HMI_signals!H:H,B235+1)</f>
+        <f>INDEX(HMI_signals!I:I,B235+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5886,7 +5983,7 @@
         <v>59</v>
       </c>
       <c r="C236">
-        <f>INDEX(HMI_signals!H:H,B236+1)</f>
+        <f>INDEX(HMI_signals!I:I,B236+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5899,7 +5996,7 @@
         <v>59</v>
       </c>
       <c r="C237">
-        <f>INDEX(HMI_signals!H:H,B237+1)</f>
+        <f>INDEX(HMI_signals!I:I,B237+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5912,7 +6009,7 @@
         <v>60</v>
       </c>
       <c r="C238">
-        <f>INDEX(HMI_signals!H:H,B238+1)</f>
+        <f>INDEX(HMI_signals!I:I,B238+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5925,7 +6022,7 @@
         <v>60</v>
       </c>
       <c r="C239">
-        <f>INDEX(HMI_signals!H:H,B239+1)</f>
+        <f>INDEX(HMI_signals!I:I,B239+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5938,7 +6035,7 @@
         <v>60</v>
       </c>
       <c r="C240">
-        <f>INDEX(HMI_signals!H:H,B240+1)</f>
+        <f>INDEX(HMI_signals!I:I,B240+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +6048,7 @@
         <v>60</v>
       </c>
       <c r="C241">
-        <f>INDEX(HMI_signals!H:H,B241+1)</f>
+        <f>INDEX(HMI_signals!I:I,B241+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5964,7 +6061,7 @@
         <v>61</v>
       </c>
       <c r="C242">
-        <f>INDEX(HMI_signals!H:H,B242+1)</f>
+        <f>INDEX(HMI_signals!I:I,B242+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5977,7 +6074,7 @@
         <v>61</v>
       </c>
       <c r="C243">
-        <f>INDEX(HMI_signals!H:H,B243+1)</f>
+        <f>INDEX(HMI_signals!I:I,B243+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5990,7 +6087,7 @@
         <v>61</v>
       </c>
       <c r="C244">
-        <f>INDEX(HMI_signals!H:H,B244+1)</f>
+        <f>INDEX(HMI_signals!I:I,B244+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6003,7 +6100,7 @@
         <v>61</v>
       </c>
       <c r="C245">
-        <f>INDEX(HMI_signals!H:H,B245+1)</f>
+        <f>INDEX(HMI_signals!I:I,B245+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6016,7 +6113,7 @@
         <v>62</v>
       </c>
       <c r="C246">
-        <f>INDEX(HMI_signals!H:H,B246+1)</f>
+        <f>INDEX(HMI_signals!I:I,B246+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6029,7 +6126,7 @@
         <v>62</v>
       </c>
       <c r="C247">
-        <f>INDEX(HMI_signals!H:H,B247+1)</f>
+        <f>INDEX(HMI_signals!I:I,B247+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6042,7 +6139,7 @@
         <v>62</v>
       </c>
       <c r="C248">
-        <f>INDEX(HMI_signals!H:H,B248+1)</f>
+        <f>INDEX(HMI_signals!I:I,B248+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6055,7 +6152,7 @@
         <v>62</v>
       </c>
       <c r="C249">
-        <f>INDEX(HMI_signals!H:H,B249+1)</f>
+        <f>INDEX(HMI_signals!I:I,B249+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6068,7 +6165,7 @@
         <v>63</v>
       </c>
       <c r="C250">
-        <f>INDEX(HMI_signals!H:H,B250+1)</f>
+        <f>INDEX(HMI_signals!I:I,B250+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6081,7 +6178,7 @@
         <v>63</v>
       </c>
       <c r="C251">
-        <f>INDEX(HMI_signals!H:H,B251+1)</f>
+        <f>INDEX(HMI_signals!I:I,B251+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6094,7 +6191,7 @@
         <v>63</v>
       </c>
       <c r="C252">
-        <f>INDEX(HMI_signals!H:H,B252+1)</f>
+        <f>INDEX(HMI_signals!I:I,B252+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6107,7 +6204,7 @@
         <v>63</v>
       </c>
       <c r="C253">
-        <f>INDEX(HMI_signals!H:H,B253+1)</f>
+        <f>INDEX(HMI_signals!I:I,B253+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6120,7 +6217,7 @@
         <v>64</v>
       </c>
       <c r="C254">
-        <f>INDEX(HMI_signals!H:H,B254+1)</f>
+        <f>INDEX(HMI_signals!I:I,B254+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6133,7 +6230,7 @@
         <v>64</v>
       </c>
       <c r="C255">
-        <f>INDEX(HMI_signals!H:H,B255+1)</f>
+        <f>INDEX(HMI_signals!I:I,B255+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6146,7 +6243,7 @@
         <v>64</v>
       </c>
       <c r="C256">
-        <f>INDEX(HMI_signals!H:H,B256+1)</f>
+        <f>INDEX(HMI_signals!I:I,B256+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6159,7 +6256,7 @@
         <v>64</v>
       </c>
       <c r="C257">
-        <f>INDEX(HMI_signals!H:H,B257+1)</f>
+        <f>INDEX(HMI_signals!I:I,B257+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6172,7 +6269,7 @@
         <v>65</v>
       </c>
       <c r="C258">
-        <f>INDEX(HMI_signals!H:H,B258+1)</f>
+        <f>INDEX(HMI_signals!I:I,B258+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6185,7 +6282,7 @@
         <v>65</v>
       </c>
       <c r="C259">
-        <f>INDEX(HMI_signals!H:H,B259+1)</f>
+        <f>INDEX(HMI_signals!I:I,B259+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6198,7 +6295,7 @@
         <v>65</v>
       </c>
       <c r="C260">
-        <f>INDEX(HMI_signals!H:H,B260+1)</f>
+        <f>INDEX(HMI_signals!I:I,B260+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6211,7 +6308,7 @@
         <v>65</v>
       </c>
       <c r="C261">
-        <f>INDEX(HMI_signals!H:H,B261+1)</f>
+        <f>INDEX(HMI_signals!I:I,B261+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6224,7 +6321,7 @@
         <v>66</v>
       </c>
       <c r="C262">
-        <f>INDEX(HMI_signals!H:H,B262+1)</f>
+        <f>INDEX(HMI_signals!I:I,B262+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6237,7 +6334,7 @@
         <v>66</v>
       </c>
       <c r="C263">
-        <f>INDEX(HMI_signals!H:H,B263+1)</f>
+        <f>INDEX(HMI_signals!I:I,B263+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6250,7 +6347,7 @@
         <v>66</v>
       </c>
       <c r="C264">
-        <f>INDEX(HMI_signals!H:H,B264+1)</f>
+        <f>INDEX(HMI_signals!I:I,B264+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6263,7 +6360,7 @@
         <v>66</v>
       </c>
       <c r="C265">
-        <f>INDEX(HMI_signals!H:H,B265+1)</f>
+        <f>INDEX(HMI_signals!I:I,B265+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6276,7 +6373,7 @@
         <v>67</v>
       </c>
       <c r="C266">
-        <f>INDEX(HMI_signals!H:H,B266+1)</f>
+        <f>INDEX(HMI_signals!I:I,B266+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6289,7 +6386,7 @@
         <v>67</v>
       </c>
       <c r="C267">
-        <f>INDEX(HMI_signals!H:H,B267+1)</f>
+        <f>INDEX(HMI_signals!I:I,B267+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6302,7 +6399,7 @@
         <v>67</v>
       </c>
       <c r="C268">
-        <f>INDEX(HMI_signals!H:H,B268+1)</f>
+        <f>INDEX(HMI_signals!I:I,B268+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6315,7 +6412,7 @@
         <v>67</v>
       </c>
       <c r="C269">
-        <f>INDEX(HMI_signals!H:H,B269+1)</f>
+        <f>INDEX(HMI_signals!I:I,B269+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6328,7 +6425,7 @@
         <v>68</v>
       </c>
       <c r="C270">
-        <f>INDEX(HMI_signals!H:H,B270+1)</f>
+        <f>INDEX(HMI_signals!I:I,B270+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6341,7 +6438,7 @@
         <v>68</v>
       </c>
       <c r="C271">
-        <f>INDEX(HMI_signals!H:H,B271+1)</f>
+        <f>INDEX(HMI_signals!I:I,B271+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6354,7 +6451,7 @@
         <v>68</v>
       </c>
       <c r="C272">
-        <f>INDEX(HMI_signals!H:H,B272+1)</f>
+        <f>INDEX(HMI_signals!I:I,B272+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6367,7 +6464,7 @@
         <v>68</v>
       </c>
       <c r="C273">
-        <f>INDEX(HMI_signals!H:H,B273+1)</f>
+        <f>INDEX(HMI_signals!I:I,B273+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6380,7 +6477,7 @@
         <v>69</v>
       </c>
       <c r="C274">
-        <f>INDEX(HMI_signals!H:H,B274+1)</f>
+        <f>INDEX(HMI_signals!I:I,B274+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6393,7 +6490,7 @@
         <v>69</v>
       </c>
       <c r="C275">
-        <f>INDEX(HMI_signals!H:H,B275+1)</f>
+        <f>INDEX(HMI_signals!I:I,B275+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6406,7 +6503,7 @@
         <v>69</v>
       </c>
       <c r="C276">
-        <f>INDEX(HMI_signals!H:H,B276+1)</f>
+        <f>INDEX(HMI_signals!I:I,B276+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6419,7 +6516,7 @@
         <v>69</v>
       </c>
       <c r="C277">
-        <f>INDEX(HMI_signals!H:H,B277+1)</f>
+        <f>INDEX(HMI_signals!I:I,B277+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6432,7 +6529,7 @@
         <v>70</v>
       </c>
       <c r="C278">
-        <f>INDEX(HMI_signals!H:H,B278+1)</f>
+        <f>INDEX(HMI_signals!I:I,B278+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6445,7 +6542,7 @@
         <v>70</v>
       </c>
       <c r="C279">
-        <f>INDEX(HMI_signals!H:H,B279+1)</f>
+        <f>INDEX(HMI_signals!I:I,B279+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6458,7 +6555,7 @@
         <v>70</v>
       </c>
       <c r="C280">
-        <f>INDEX(HMI_signals!H:H,B280+1)</f>
+        <f>INDEX(HMI_signals!I:I,B280+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6471,7 +6568,7 @@
         <v>70</v>
       </c>
       <c r="C281">
-        <f>INDEX(HMI_signals!H:H,B281+1)</f>
+        <f>INDEX(HMI_signals!I:I,B281+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6484,7 +6581,7 @@
         <v>71</v>
       </c>
       <c r="C282">
-        <f>INDEX(HMI_signals!H:H,B282+1)</f>
+        <f>INDEX(HMI_signals!I:I,B282+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6497,7 +6594,7 @@
         <v>71</v>
       </c>
       <c r="C283">
-        <f>INDEX(HMI_signals!H:H,B283+1)</f>
+        <f>INDEX(HMI_signals!I:I,B283+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6510,7 +6607,7 @@
         <v>71</v>
       </c>
       <c r="C284">
-        <f>INDEX(HMI_signals!H:H,B284+1)</f>
+        <f>INDEX(HMI_signals!I:I,B284+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6523,7 +6620,7 @@
         <v>71</v>
       </c>
       <c r="C285">
-        <f>INDEX(HMI_signals!H:H,B285+1)</f>
+        <f>INDEX(HMI_signals!I:I,B285+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6536,7 +6633,7 @@
         <v>72</v>
       </c>
       <c r="C286">
-        <f>INDEX(HMI_signals!H:H,B286+1)</f>
+        <f>INDEX(HMI_signals!I:I,B286+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6549,7 +6646,7 @@
         <v>72</v>
       </c>
       <c r="C287">
-        <f>INDEX(HMI_signals!H:H,B287+1)</f>
+        <f>INDEX(HMI_signals!I:I,B287+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6562,7 +6659,7 @@
         <v>72</v>
       </c>
       <c r="C288">
-        <f>INDEX(HMI_signals!H:H,B288+1)</f>
+        <f>INDEX(HMI_signals!I:I,B288+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6575,7 +6672,7 @@
         <v>72</v>
       </c>
       <c r="C289">
-        <f>INDEX(HMI_signals!H:H,B289+1)</f>
+        <f>INDEX(HMI_signals!I:I,B289+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6588,7 +6685,7 @@
         <v>73</v>
       </c>
       <c r="C290">
-        <f>INDEX(HMI_signals!H:H,B290+1)</f>
+        <f>INDEX(HMI_signals!I:I,B290+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6601,7 +6698,7 @@
         <v>73</v>
       </c>
       <c r="C291">
-        <f>INDEX(HMI_signals!H:H,B291+1)</f>
+        <f>INDEX(HMI_signals!I:I,B291+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6614,7 +6711,7 @@
         <v>73</v>
       </c>
       <c r="C292">
-        <f>INDEX(HMI_signals!H:H,B292+1)</f>
+        <f>INDEX(HMI_signals!I:I,B292+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6627,7 +6724,7 @@
         <v>73</v>
       </c>
       <c r="C293">
-        <f>INDEX(HMI_signals!H:H,B293+1)</f>
+        <f>INDEX(HMI_signals!I:I,B293+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6640,7 +6737,7 @@
         <v>74</v>
       </c>
       <c r="C294">
-        <f>INDEX(HMI_signals!H:H,B294+1)</f>
+        <f>INDEX(HMI_signals!I:I,B294+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6653,7 +6750,7 @@
         <v>74</v>
       </c>
       <c r="C295">
-        <f>INDEX(HMI_signals!H:H,B295+1)</f>
+        <f>INDEX(HMI_signals!I:I,B295+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6666,7 +6763,7 @@
         <v>74</v>
       </c>
       <c r="C296">
-        <f>INDEX(HMI_signals!H:H,B296+1)</f>
+        <f>INDEX(HMI_signals!I:I,B296+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6679,7 +6776,7 @@
         <v>74</v>
       </c>
       <c r="C297">
-        <f>INDEX(HMI_signals!H:H,B297+1)</f>
+        <f>INDEX(HMI_signals!I:I,B297+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6692,7 +6789,7 @@
         <v>75</v>
       </c>
       <c r="C298">
-        <f>INDEX(HMI_signals!H:H,B298+1)</f>
+        <f>INDEX(HMI_signals!I:I,B298+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6705,7 +6802,7 @@
         <v>75</v>
       </c>
       <c r="C299">
-        <f>INDEX(HMI_signals!H:H,B299+1)</f>
+        <f>INDEX(HMI_signals!I:I,B299+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6718,7 +6815,7 @@
         <v>75</v>
       </c>
       <c r="C300">
-        <f>INDEX(HMI_signals!H:H,B300+1)</f>
+        <f>INDEX(HMI_signals!I:I,B300+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6731,7 +6828,7 @@
         <v>75</v>
       </c>
       <c r="C301">
-        <f>INDEX(HMI_signals!H:H,B301+1)</f>
+        <f>INDEX(HMI_signals!I:I,B301+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6744,7 +6841,7 @@
         <v>76</v>
       </c>
       <c r="C302">
-        <f>INDEX(HMI_signals!H:H,B302+1)</f>
+        <f>INDEX(HMI_signals!I:I,B302+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6757,7 +6854,7 @@
         <v>76</v>
       </c>
       <c r="C303">
-        <f>INDEX(HMI_signals!H:H,B303+1)</f>
+        <f>INDEX(HMI_signals!I:I,B303+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6770,7 +6867,7 @@
         <v>76</v>
       </c>
       <c r="C304">
-        <f>INDEX(HMI_signals!H:H,B304+1)</f>
+        <f>INDEX(HMI_signals!I:I,B304+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6783,7 +6880,7 @@
         <v>76</v>
       </c>
       <c r="C305">
-        <f>INDEX(HMI_signals!H:H,B305+1)</f>
+        <f>INDEX(HMI_signals!I:I,B305+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6796,7 +6893,7 @@
         <v>77</v>
       </c>
       <c r="C306">
-        <f>INDEX(HMI_signals!H:H,B306+1)</f>
+        <f>INDEX(HMI_signals!I:I,B306+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6809,7 +6906,7 @@
         <v>77</v>
       </c>
       <c r="C307">
-        <f>INDEX(HMI_signals!H:H,B307+1)</f>
+        <f>INDEX(HMI_signals!I:I,B307+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6822,7 +6919,7 @@
         <v>77</v>
       </c>
       <c r="C308">
-        <f>INDEX(HMI_signals!H:H,B308+1)</f>
+        <f>INDEX(HMI_signals!I:I,B308+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6835,7 +6932,7 @@
         <v>77</v>
       </c>
       <c r="C309">
-        <f>INDEX(HMI_signals!H:H,B309+1)</f>
+        <f>INDEX(HMI_signals!I:I,B309+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6848,7 +6945,7 @@
         <v>78</v>
       </c>
       <c r="C310">
-        <f>INDEX(HMI_signals!H:H,B310+1)</f>
+        <f>INDEX(HMI_signals!I:I,B310+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6861,7 +6958,7 @@
         <v>78</v>
       </c>
       <c r="C311">
-        <f>INDEX(HMI_signals!H:H,B311+1)</f>
+        <f>INDEX(HMI_signals!I:I,B311+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6874,7 +6971,7 @@
         <v>78</v>
       </c>
       <c r="C312">
-        <f>INDEX(HMI_signals!H:H,B312+1)</f>
+        <f>INDEX(HMI_signals!I:I,B312+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +6984,7 @@
         <v>78</v>
       </c>
       <c r="C313">
-        <f>INDEX(HMI_signals!H:H,B313+1)</f>
+        <f>INDEX(HMI_signals!I:I,B313+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6900,7 +6997,7 @@
         <v>79</v>
       </c>
       <c r="C314">
-        <f>INDEX(HMI_signals!H:H,B314+1)</f>
+        <f>INDEX(HMI_signals!I:I,B314+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6913,7 +7010,7 @@
         <v>79</v>
       </c>
       <c r="C315">
-        <f>INDEX(HMI_signals!H:H,B315+1)</f>
+        <f>INDEX(HMI_signals!I:I,B315+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6926,7 +7023,7 @@
         <v>79</v>
       </c>
       <c r="C316">
-        <f>INDEX(HMI_signals!H:H,B316+1)</f>
+        <f>INDEX(HMI_signals!I:I,B316+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6939,7 +7036,7 @@
         <v>79</v>
       </c>
       <c r="C317">
-        <f>INDEX(HMI_signals!H:H,B317+1)</f>
+        <f>INDEX(HMI_signals!I:I,B317+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6952,7 +7049,7 @@
         <v>80</v>
       </c>
       <c r="C318">
-        <f>INDEX(HMI_signals!H:H,B318+1)</f>
+        <f>INDEX(HMI_signals!I:I,B318+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6965,7 +7062,7 @@
         <v>80</v>
       </c>
       <c r="C319">
-        <f>INDEX(HMI_signals!H:H,B319+1)</f>
+        <f>INDEX(HMI_signals!I:I,B319+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6978,7 +7075,7 @@
         <v>80</v>
       </c>
       <c r="C320">
-        <f>INDEX(HMI_signals!H:H,B320+1)</f>
+        <f>INDEX(HMI_signals!I:I,B320+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6991,7 +7088,7 @@
         <v>80</v>
       </c>
       <c r="C321">
-        <f>INDEX(HMI_signals!H:H,B321+1)</f>
+        <f>INDEX(HMI_signals!I:I,B321+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7004,7 +7101,7 @@
         <v>81</v>
       </c>
       <c r="C322">
-        <f>INDEX(HMI_signals!H:H,B322+1)</f>
+        <f>INDEX(HMI_signals!I:I,B322+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7017,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="C323">
-        <f>INDEX(HMI_signals!H:H,B323+1)</f>
+        <f>INDEX(HMI_signals!I:I,B323+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7030,7 +7127,7 @@
         <v>81</v>
       </c>
       <c r="C324">
-        <f>INDEX(HMI_signals!H:H,B324+1)</f>
+        <f>INDEX(HMI_signals!I:I,B324+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7043,7 +7140,7 @@
         <v>81</v>
       </c>
       <c r="C325">
-        <f>INDEX(HMI_signals!H:H,B325+1)</f>
+        <f>INDEX(HMI_signals!I:I,B325+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7056,7 +7153,7 @@
         <v>82</v>
       </c>
       <c r="C326">
-        <f>INDEX(HMI_signals!H:H,B326+1)</f>
+        <f>INDEX(HMI_signals!I:I,B326+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7069,7 +7166,7 @@
         <v>82</v>
       </c>
       <c r="C327">
-        <f>INDEX(HMI_signals!H:H,B327+1)</f>
+        <f>INDEX(HMI_signals!I:I,B327+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7082,7 +7179,7 @@
         <v>82</v>
       </c>
       <c r="C328">
-        <f>INDEX(HMI_signals!H:H,B328+1)</f>
+        <f>INDEX(HMI_signals!I:I,B328+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7095,7 +7192,7 @@
         <v>82</v>
       </c>
       <c r="C329">
-        <f>INDEX(HMI_signals!H:H,B329+1)</f>
+        <f>INDEX(HMI_signals!I:I,B329+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7108,7 +7205,7 @@
         <v>83</v>
       </c>
       <c r="C330">
-        <f>INDEX(HMI_signals!H:H,B330+1)</f>
+        <f>INDEX(HMI_signals!I:I,B330+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7121,7 +7218,7 @@
         <v>83</v>
       </c>
       <c r="C331">
-        <f>INDEX(HMI_signals!H:H,B331+1)</f>
+        <f>INDEX(HMI_signals!I:I,B331+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7134,7 +7231,7 @@
         <v>83</v>
       </c>
       <c r="C332">
-        <f>INDEX(HMI_signals!H:H,B332+1)</f>
+        <f>INDEX(HMI_signals!I:I,B332+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7147,7 +7244,7 @@
         <v>83</v>
       </c>
       <c r="C333">
-        <f>INDEX(HMI_signals!H:H,B333+1)</f>
+        <f>INDEX(HMI_signals!I:I,B333+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7160,7 +7257,7 @@
         <v>84</v>
       </c>
       <c r="C334">
-        <f>INDEX(HMI_signals!H:H,B334+1)</f>
+        <f>INDEX(HMI_signals!I:I,B334+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7173,7 +7270,7 @@
         <v>84</v>
       </c>
       <c r="C335">
-        <f>INDEX(HMI_signals!H:H,B335+1)</f>
+        <f>INDEX(HMI_signals!I:I,B335+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7186,7 +7283,7 @@
         <v>84</v>
       </c>
       <c r="C336">
-        <f>INDEX(HMI_signals!H:H,B336+1)</f>
+        <f>INDEX(HMI_signals!I:I,B336+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7199,7 +7296,7 @@
         <v>84</v>
       </c>
       <c r="C337">
-        <f>INDEX(HMI_signals!H:H,B337+1)</f>
+        <f>INDEX(HMI_signals!I:I,B337+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7212,7 +7309,7 @@
         <v>85</v>
       </c>
       <c r="C338">
-        <f>INDEX(HMI_signals!H:H,B338+1)</f>
+        <f>INDEX(HMI_signals!I:I,B338+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7225,7 +7322,7 @@
         <v>85</v>
       </c>
       <c r="C339">
-        <f>INDEX(HMI_signals!H:H,B339+1)</f>
+        <f>INDEX(HMI_signals!I:I,B339+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7238,7 +7335,7 @@
         <v>85</v>
       </c>
       <c r="C340">
-        <f>INDEX(HMI_signals!H:H,B340+1)</f>
+        <f>INDEX(HMI_signals!I:I,B340+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7251,7 +7348,7 @@
         <v>85</v>
       </c>
       <c r="C341">
-        <f>INDEX(HMI_signals!H:H,B341+1)</f>
+        <f>INDEX(HMI_signals!I:I,B341+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7264,7 +7361,7 @@
         <v>86</v>
       </c>
       <c r="C342">
-        <f>INDEX(HMI_signals!H:H,B342+1)</f>
+        <f>INDEX(HMI_signals!I:I,B342+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7277,7 +7374,7 @@
         <v>86</v>
       </c>
       <c r="C343">
-        <f>INDEX(HMI_signals!H:H,B343+1)</f>
+        <f>INDEX(HMI_signals!I:I,B343+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7290,7 +7387,7 @@
         <v>86</v>
       </c>
       <c r="C344">
-        <f>INDEX(HMI_signals!H:H,B344+1)</f>
+        <f>INDEX(HMI_signals!I:I,B344+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7303,7 +7400,7 @@
         <v>86</v>
       </c>
       <c r="C345">
-        <f>INDEX(HMI_signals!H:H,B345+1)</f>
+        <f>INDEX(HMI_signals!I:I,B345+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7316,7 +7413,7 @@
         <v>87</v>
       </c>
       <c r="C346">
-        <f>INDEX(HMI_signals!H:H,B346+1)</f>
+        <f>INDEX(HMI_signals!I:I,B346+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7329,7 +7426,7 @@
         <v>87</v>
       </c>
       <c r="C347">
-        <f>INDEX(HMI_signals!H:H,B347+1)</f>
+        <f>INDEX(HMI_signals!I:I,B347+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7342,7 +7439,7 @@
         <v>87</v>
       </c>
       <c r="C348">
-        <f>INDEX(HMI_signals!H:H,B348+1)</f>
+        <f>INDEX(HMI_signals!I:I,B348+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7355,7 +7452,7 @@
         <v>87</v>
       </c>
       <c r="C349">
-        <f>INDEX(HMI_signals!H:H,B349+1)</f>
+        <f>INDEX(HMI_signals!I:I,B349+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7368,7 +7465,7 @@
         <v>88</v>
       </c>
       <c r="C350">
-        <f>INDEX(HMI_signals!H:H,B350+1)</f>
+        <f>INDEX(HMI_signals!I:I,B350+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7381,7 +7478,7 @@
         <v>88</v>
       </c>
       <c r="C351">
-        <f>INDEX(HMI_signals!H:H,B351+1)</f>
+        <f>INDEX(HMI_signals!I:I,B351+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7394,7 +7491,7 @@
         <v>88</v>
       </c>
       <c r="C352">
-        <f>INDEX(HMI_signals!H:H,B352+1)</f>
+        <f>INDEX(HMI_signals!I:I,B352+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7407,7 +7504,7 @@
         <v>88</v>
       </c>
       <c r="C353">
-        <f>INDEX(HMI_signals!H:H,B353+1)</f>
+        <f>INDEX(HMI_signals!I:I,B353+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7420,7 +7517,7 @@
         <v>89</v>
       </c>
       <c r="C354">
-        <f>INDEX(HMI_signals!H:H,B354+1)</f>
+        <f>INDEX(HMI_signals!I:I,B354+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7433,7 +7530,7 @@
         <v>89</v>
       </c>
       <c r="C355">
-        <f>INDEX(HMI_signals!H:H,B355+1)</f>
+        <f>INDEX(HMI_signals!I:I,B355+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7446,7 +7543,7 @@
         <v>89</v>
       </c>
       <c r="C356">
-        <f>INDEX(HMI_signals!H:H,B356+1)</f>
+        <f>INDEX(HMI_signals!I:I,B356+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7459,7 +7556,7 @@
         <v>89</v>
       </c>
       <c r="C357">
-        <f>INDEX(HMI_signals!H:H,B357+1)</f>
+        <f>INDEX(HMI_signals!I:I,B357+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +7569,7 @@
         <v>90</v>
       </c>
       <c r="C358">
-        <f>INDEX(HMI_signals!H:H,B358+1)</f>
+        <f>INDEX(HMI_signals!I:I,B358+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7485,7 +7582,7 @@
         <v>90</v>
       </c>
       <c r="C359">
-        <f>INDEX(HMI_signals!H:H,B359+1)</f>
+        <f>INDEX(HMI_signals!I:I,B359+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7498,7 +7595,7 @@
         <v>90</v>
       </c>
       <c r="C360">
-        <f>INDEX(HMI_signals!H:H,B360+1)</f>
+        <f>INDEX(HMI_signals!I:I,B360+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7511,7 +7608,7 @@
         <v>90</v>
       </c>
       <c r="C361">
-        <f>INDEX(HMI_signals!H:H,B361+1)</f>
+        <f>INDEX(HMI_signals!I:I,B361+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7524,7 +7621,7 @@
         <v>91</v>
       </c>
       <c r="C362">
-        <f>INDEX(HMI_signals!H:H,B362+1)</f>
+        <f>INDEX(HMI_signals!I:I,B362+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7537,7 +7634,7 @@
         <v>91</v>
       </c>
       <c r="C363">
-        <f>INDEX(HMI_signals!H:H,B363+1)</f>
+        <f>INDEX(HMI_signals!I:I,B363+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7550,7 +7647,7 @@
         <v>91</v>
       </c>
       <c r="C364">
-        <f>INDEX(HMI_signals!H:H,B364+1)</f>
+        <f>INDEX(HMI_signals!I:I,B364+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7563,7 +7660,7 @@
         <v>91</v>
       </c>
       <c r="C365">
-        <f>INDEX(HMI_signals!H:H,B365+1)</f>
+        <f>INDEX(HMI_signals!I:I,B365+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7576,7 +7673,7 @@
         <v>92</v>
       </c>
       <c r="C366">
-        <f>INDEX(HMI_signals!H:H,B366+1)</f>
+        <f>INDEX(HMI_signals!I:I,B366+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7589,7 +7686,7 @@
         <v>92</v>
       </c>
       <c r="C367">
-        <f>INDEX(HMI_signals!H:H,B367+1)</f>
+        <f>INDEX(HMI_signals!I:I,B367+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7602,7 +7699,7 @@
         <v>92</v>
       </c>
       <c r="C368">
-        <f>INDEX(HMI_signals!H:H,B368+1)</f>
+        <f>INDEX(HMI_signals!I:I,B368+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7615,7 +7712,7 @@
         <v>92</v>
       </c>
       <c r="C369">
-        <f>INDEX(HMI_signals!H:H,B369+1)</f>
+        <f>INDEX(HMI_signals!I:I,B369+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7628,7 +7725,7 @@
         <v>93</v>
       </c>
       <c r="C370">
-        <f>INDEX(HMI_signals!H:H,B370+1)</f>
+        <f>INDEX(HMI_signals!I:I,B370+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7641,7 +7738,7 @@
         <v>93</v>
       </c>
       <c r="C371">
-        <f>INDEX(HMI_signals!H:H,B371+1)</f>
+        <f>INDEX(HMI_signals!I:I,B371+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7654,7 +7751,7 @@
         <v>93</v>
       </c>
       <c r="C372">
-        <f>INDEX(HMI_signals!H:H,B372+1)</f>
+        <f>INDEX(HMI_signals!I:I,B372+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7667,7 +7764,7 @@
         <v>93</v>
       </c>
       <c r="C373">
-        <f>INDEX(HMI_signals!H:H,B373+1)</f>
+        <f>INDEX(HMI_signals!I:I,B373+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7680,7 +7777,7 @@
         <v>94</v>
       </c>
       <c r="C374">
-        <f>INDEX(HMI_signals!H:H,B374+1)</f>
+        <f>INDEX(HMI_signals!I:I,B374+1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7691,12 +7788,319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE(A1, ".instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + ",B1,"])/kWMaxBANSHEE;")</f>
+        <v>HMI1.Flow_I1.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 0])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E25" si="0">CONCATENATE(A2, ".instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + ",B2,"])/kWMaxBANSHEE;")</f>
+        <v>HMI1.Flow_I2.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 1])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_I3.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 2])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_I4.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 3])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_I5.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 4])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_I6.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 5])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_I7.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 6])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_I8.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 7])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P1.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 8])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P2.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 9])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P3.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 10])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P4.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 11])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P5.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 12])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P6.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 13])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P7.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 14])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_P8.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 15])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C1.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 16])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C2.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 17])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C3.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 18])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C4.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 19])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C5.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 20])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C6.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 21])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C7.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 22])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C8.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 23])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>HMI1.Flow_C9.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 24])/kWMaxBANSHEE;</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Structure initialisation string</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>HMI1.Flow_P8</t>
+  </si>
+  <si>
+    <t>Pscale</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63:G71"/>
+    <sheetView topLeftCell="C21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,6 +483,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
@@ -492,19 +498,19 @@
         <v>101</v>
       </c>
       <c r="E2" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C2)</f>
+        <f t="shared" ref="E2:E34" si="0">CONCATENATE("HMI1.Flow_",C2)</f>
         <v>HMI1.Flow_101</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE("HMI1.CB",C2,"_Closed")</f>
+        <f t="shared" ref="F2:F34" si="1">CONCATENATE("HMI1.CB",C2,"_Closed")</f>
         <v>HMI1.CB101_Closed</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE("HMI1.CB",C2,"_Vpu")</f>
+        <f t="shared" ref="G2:G35" si="2">CONCATENATE("HMI1.CB",C2,"_Vpu")</f>
         <v>HMI1.CB101_Vpu</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE("HMI1.CB",C2,"_VLgood")</f>
+        <f t="shared" ref="H2:H35" si="3">CONCATENATE("HMI1.CB",C2,"_VLgood")</f>
         <v>HMI1.CB101_VLgood</v>
       </c>
       <c r="I2" t="str">
@@ -512,20 +518,19 @@
         <v>HMI1.CB101_Cmd</v>
       </c>
       <c r="J2" t="str">
-        <f>CONCATENATE("CB", C2, "_MODBUS")</f>
+        <f t="shared" ref="J2:J34" si="4">CONCATENATE("CB", C2, "_MODBUS")</f>
         <v>CB101_MODBUS</v>
       </c>
-      <c r="K2" t="str">
-        <f>IF(D2="","",CONCATENATE("HMI1.BUS",D2,"_Stat"))</f>
-        <v/>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="str">
-        <f>IF(I2="","",CONCATENATE(",IOCCmd:=ADR(",I2,"),MBCmd:=ADR(",J2,".CMD),MBRst:=ADR(",J2,".RST)"))</f>
+        <f t="shared" ref="L2:L35" si="5">IF(I2="","",CONCATENATE(",IOCCmd:=ADR(",I2,"),MBCmd:=ADR(",J2,".CMD),MBRst:=ADR(",J2,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)</v>
       </c>
       <c r="M2" t="str">
-        <f>CONCATENATE("(ID:=",B2,",CBID:=",C2,",Flow:=ADR(HMI1.Flow_",C2,"),Status:=ADR(",F2,"),Vpu:=ADR(",G2,"),VLgood:=ADR(",H2,")",L2,"),")</f>
-        <v>(ID:=1,CBID:=101,Flow:=ADR(HMI1.Flow_101),Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
+        <f>CONCATENATE("(ID:=",B2,",CBID:=",C2,",Flow:=ADR(HMI1.Flow_",C2,"),Pscale:=",K2,",Status:=ADR(",F2,"),Vpu:=ADR(",G2,"),VLgood:=ADR(",H2,")",L2,"),")</f>
+        <v>(ID:=1,CBID:=101,Flow:=ADR(HMI1.Flow_101),Pscale:=1,Status:=ADR(HMI1.CB101_Closed),Vpu:=ADR(HMI1.CB101_Vpu),VLgood:=ADR(HMI1.CB101_VLgood),IOCCmd:=ADR(HMI1.CB101_Cmd),MBCmd:=ADR(CB101_MODBUS.CMD),MBRst:=ADR(CB101_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -536,19 +541,19 @@
         <v>102</v>
       </c>
       <c r="E3" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C3)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_102</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE("HMI1.CB",C3,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB102_Closed</v>
       </c>
       <c r="G3" t="str">
-        <f>CONCATENATE("HMI1.CB",C3,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB102_Vpu</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE("HMI1.CB",C3,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB102_VLgood</v>
       </c>
       <c r="I3" t="str">
@@ -556,20 +561,19 @@
         <v>HMI1.CB102_Cmd</v>
       </c>
       <c r="J3" t="str">
-        <f>CONCATENATE("CB", C3, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB102_MODBUS</v>
       </c>
-      <c r="K3" t="str">
-        <f>IF(D3="","",CONCATENATE("HMI1.BUS",D3,"_Stat"))</f>
-        <v/>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(I3="","",CONCATENATE(",IOCCmd:=ADR(",I3,"),MBCmd:=ADR(",J3,".CMD),MBRst:=ADR(",J3,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)</v>
       </c>
       <c r="M3" t="str">
-        <f>CONCATENATE("(ID:=",B3,",CBID:=",C3,",Flow:=ADR(HMI1.Flow_",C3,"),Status:=ADR(",F3,"),Vpu:=ADR(",G3,"),VLgood:=ADR(",H3,")",L3,"),")</f>
-        <v>(ID:=2,CBID:=102,Flow:=ADR(HMI1.Flow_102),Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
+        <f t="shared" ref="M3:M60" si="6">CONCATENATE("(ID:=",B3,",CBID:=",C3,",Flow:=ADR(HMI1.Flow_",C3,"),Pscale:=",K3,",Status:=ADR(",F3,"),Vpu:=ADR(",G3,"),VLgood:=ADR(",H3,")",L3,"),")</f>
+        <v>(ID:=2,CBID:=102,Flow:=ADR(HMI1.Flow_102),Pscale:=1,Status:=ADR(HMI1.CB102_Closed),Vpu:=ADR(HMI1.CB102_Vpu),VLgood:=ADR(HMI1.CB102_VLgood),IOCCmd:=ADR(HMI1.CB102_Cmd),MBCmd:=ADR(CB102_MODBUS.CMD),MBRst:=ADR(CB102_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -580,19 +584,19 @@
         <v>103</v>
       </c>
       <c r="E4" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C4)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_103</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE("HMI1.CB",C4,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB103_Closed</v>
       </c>
       <c r="G4" t="str">
-        <f>CONCATENATE("HMI1.CB",C4,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB103_Vpu</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE("HMI1.CB",C4,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB103_VLgood</v>
       </c>
       <c r="I4" t="str">
@@ -600,20 +604,19 @@
         <v>HMI1.CB103_Cmd</v>
       </c>
       <c r="J4" t="str">
-        <f>CONCATENATE("CB", C4, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB103_MODBUS</v>
       </c>
-      <c r="K4" t="str">
-        <f>IF(D4="","",CONCATENATE("HMI1.BUS",D4,"_Stat"))</f>
-        <v/>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="str">
-        <f>IF(I4="","",CONCATENATE(",IOCCmd:=ADR(",I4,"),MBCmd:=ADR(",J4,".CMD),MBRst:=ADR(",J4,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)</v>
       </c>
       <c r="M4" t="str">
-        <f>CONCATENATE("(ID:=",B4,",CBID:=",C4,",Flow:=ADR(HMI1.Flow_",C4,"),Status:=ADR(",F4,"),Vpu:=ADR(",G4,"),VLgood:=ADR(",H4,")",L4,"),")</f>
-        <v>(ID:=3,CBID:=103,Flow:=ADR(HMI1.Flow_103),Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=3,CBID:=103,Flow:=ADR(HMI1.Flow_103),Pscale:=1,Status:=ADR(HMI1.CB103_Closed),Vpu:=ADR(HMI1.CB103_Vpu),VLgood:=ADR(HMI1.CB103_VLgood),IOCCmd:=ADR(HMI1.CB103_Cmd),MBCmd:=ADR(CB103_MODBUS.CMD),MBRst:=ADR(CB103_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -624,36 +627,35 @@
         <v>104</v>
       </c>
       <c r="E5" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C5)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_104</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE("HMI1.CB",C5,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB104_Closed</v>
       </c>
       <c r="G5" t="str">
-        <f>CONCATENATE("HMI1.CB",C5,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB104_Vpu</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE("HMI1.CB",C5,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB104_VLgood</v>
       </c>
       <c r="J5" t="str">
-        <f>CONCATENATE("CB", C5, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB104_MODBUS</v>
       </c>
-      <c r="K5" t="str">
-        <f>IF(D5="","",CONCATENATE("HMI1.BUS",D5,"_Stat"))</f>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L5" t="str">
-        <f>IF(I5="","",CONCATENATE(",IOCCmd:=ADR(",I5,"),MBCmd:=ADR(",J5,".CMD),MBRst:=ADR(",J5,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M5" t="str">
-        <f>CONCATENATE("(ID:=",B5,",CBID:=",C5,",Flow:=ADR(HMI1.Flow_",C5,"),Status:=ADR(",F5,"),Vpu:=ADR(",G5,"),VLgood:=ADR(",H5,")",L5,"),")</f>
-        <v>(ID:=4,CBID:=104,Flow:=ADR(HMI1.Flow_104),Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=4,CBID:=104,Flow:=ADR(HMI1.Flow_104),Pscale:=1,Status:=ADR(HMI1.CB104_Closed),Vpu:=ADR(HMI1.CB104_Vpu),VLgood:=ADR(HMI1.CB104_VLgood)),</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -664,36 +666,35 @@
         <v>105</v>
       </c>
       <c r="E6" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C6)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_105</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE("HMI1.CB",C6,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB105_Closed</v>
       </c>
       <c r="G6" t="str">
-        <f>CONCATENATE("HMI1.CB",C6,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB105_Vpu</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE("HMI1.CB",C6,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB105_VLgood</v>
       </c>
       <c r="J6" t="str">
-        <f>CONCATENATE("CB", C6, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB105_MODBUS</v>
       </c>
-      <c r="K6" t="str">
-        <f>IF(D6="","",CONCATENATE("HMI1.BUS",D6,"_Stat"))</f>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L6" t="str">
-        <f>IF(I6="","",CONCATENATE(",IOCCmd:=ADR(",I6,"),MBCmd:=ADR(",J6,".CMD),MBRst:=ADR(",J6,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M6" t="str">
-        <f>CONCATENATE("(ID:=",B6,",CBID:=",C6,",Flow:=ADR(HMI1.Flow_",C6,"),Status:=ADR(",F6,"),Vpu:=ADR(",G6,"),VLgood:=ADR(",H6,")",L6,"),")</f>
-        <v>(ID:=5,CBID:=105,Flow:=ADR(HMI1.Flow_105),Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=5,CBID:=105,Flow:=ADR(HMI1.Flow_105),Pscale:=1,Status:=ADR(HMI1.CB105_Closed),Vpu:=ADR(HMI1.CB105_Vpu),VLgood:=ADR(HMI1.CB105_VLgood)),</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -704,36 +705,35 @@
         <v>106</v>
       </c>
       <c r="E7" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C7)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_106</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE("HMI1.CB",C7,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB106_Closed</v>
       </c>
       <c r="G7" t="str">
-        <f>CONCATENATE("HMI1.CB",C7,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB106_Vpu</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE("HMI1.CB",C7,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB106_VLgood</v>
       </c>
       <c r="J7" t="str">
-        <f>CONCATENATE("CB", C7, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB106_MODBUS</v>
       </c>
-      <c r="K7" t="str">
-        <f>IF(D7="","",CONCATENATE("HMI1.BUS",D7,"_Stat"))</f>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L7" t="str">
-        <f>IF(I7="","",CONCATENATE(",IOCCmd:=ADR(",I7,"),MBCmd:=ADR(",J7,".CMD),MBRst:=ADR(",J7,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M7" t="str">
-        <f>CONCATENATE("(ID:=",B7,",CBID:=",C7,",Flow:=ADR(HMI1.Flow_",C7,"),Status:=ADR(",F7,"),Vpu:=ADR(",G7,"),VLgood:=ADR(",H7,")",L7,"),")</f>
-        <v>(ID:=6,CBID:=106,Flow:=ADR(HMI1.Flow_106),Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=6,CBID:=106,Flow:=ADR(HMI1.Flow_106),Pscale:=1,Status:=ADR(HMI1.CB106_Closed),Vpu:=ADR(HMI1.CB106_Vpu),VLgood:=ADR(HMI1.CB106_VLgood)),</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -744,36 +744,35 @@
         <v>107</v>
       </c>
       <c r="E8" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C8)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_107</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE("HMI1.CB",C8,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB107_Closed</v>
       </c>
       <c r="G8" t="str">
-        <f>CONCATENATE("HMI1.CB",C8,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB107_Vpu</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE("HMI1.CB",C8,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB107_VLgood</v>
       </c>
       <c r="J8" t="str">
-        <f>CONCATENATE("CB", C8, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB107_MODBUS</v>
       </c>
-      <c r="K8" t="str">
-        <f>IF(D8="","",CONCATENATE("HMI1.BUS",D8,"_Stat"))</f>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L8" t="str">
-        <f>IF(I8="","",CONCATENATE(",IOCCmd:=ADR(",I8,"),MBCmd:=ADR(",J8,".CMD),MBRst:=ADR(",J8,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M8" t="str">
-        <f>CONCATENATE("(ID:=",B8,",CBID:=",C8,",Flow:=ADR(HMI1.Flow_",C8,"),Status:=ADR(",F8,"),Vpu:=ADR(",G8,"),VLgood:=ADR(",H8,")",L8,"),")</f>
-        <v>(ID:=7,CBID:=107,Flow:=ADR(HMI1.Flow_107),Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=7,CBID:=107,Flow:=ADR(HMI1.Flow_107),Pscale:=1,Status:=ADR(HMI1.CB107_Closed),Vpu:=ADR(HMI1.CB107_Vpu),VLgood:=ADR(HMI1.CB107_VLgood)),</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -784,19 +783,19 @@
         <v>108</v>
       </c>
       <c r="E9" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C9)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_108</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE("HMI1.CB",C9,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB108_Closed</v>
       </c>
       <c r="G9" t="str">
-        <f>CONCATENATE("HMI1.CB",C9,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB108_Vpu</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE("HMI1.CB",C9,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB108_VLgood</v>
       </c>
       <c r="I9" t="str">
@@ -804,20 +803,19 @@
         <v>HMI1.CB108_Cmd</v>
       </c>
       <c r="J9" t="str">
-        <f>CONCATENATE("CB", C9, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB108_MODBUS</v>
       </c>
-      <c r="K9" t="str">
-        <f>IF(D9="","",CONCATENATE("HMI1.BUS",D9,"_Stat"))</f>
-        <v/>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(I9="","",CONCATENATE(",IOCCmd:=ADR(",I9,"),MBCmd:=ADR(",J9,".CMD),MBRst:=ADR(",J9,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)</v>
       </c>
       <c r="M9" t="str">
-        <f>CONCATENATE("(ID:=",B9,",CBID:=",C9,",Flow:=ADR(HMI1.Flow_",C9,"),Status:=ADR(",F9,"),Vpu:=ADR(",G9,"),VLgood:=ADR(",H9,")",L9,"),")</f>
-        <v>(ID:=8,CBID:=108,Flow:=ADR(HMI1.Flow_108),Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=8,CBID:=108,Flow:=ADR(HMI1.Flow_108),Pscale:=1,Status:=ADR(HMI1.CB108_Closed),Vpu:=ADR(HMI1.CB108_Vpu),VLgood:=ADR(HMI1.CB108_VLgood),IOCCmd:=ADR(HMI1.CB108_Cmd),MBCmd:=ADR(CB108_MODBUS.CMD),MBRst:=ADR(CB108_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -828,19 +826,19 @@
         <v>109</v>
       </c>
       <c r="E10" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C10)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_109</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE("HMI1.CB",C10,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB109_Closed</v>
       </c>
       <c r="G10" t="str">
-        <f>CONCATENATE("HMI1.CB",C10,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB109_Vpu</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE("HMI1.CB",C10,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB109_VLgood</v>
       </c>
       <c r="I10" t="str">
@@ -848,20 +846,19 @@
         <v>HMI1.CB109_Cmd</v>
       </c>
       <c r="J10" t="str">
-        <f>CONCATENATE("CB", C10, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB109_MODBUS</v>
       </c>
-      <c r="K10" t="str">
-        <f>IF(D10="","",CONCATENATE("HMI1.BUS",D10,"_Stat"))</f>
-        <v/>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10" t="str">
-        <f>IF(I10="","",CONCATENATE(",IOCCmd:=ADR(",I10,"),MBCmd:=ADR(",J10,".CMD),MBRst:=ADR(",J10,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)</v>
       </c>
       <c r="M10" t="str">
-        <f>CONCATENATE("(ID:=",B10,",CBID:=",C10,",Flow:=ADR(HMI1.Flow_",C10,"),Status:=ADR(",F10,"),Vpu:=ADR(",G10,"),VLgood:=ADR(",H10,")",L10,"),")</f>
-        <v>(ID:=9,CBID:=109,Flow:=ADR(HMI1.Flow_109),Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=9,CBID:=109,Flow:=ADR(HMI1.Flow_109),Pscale:=1,Status:=ADR(HMI1.CB109_Closed),Vpu:=ADR(HMI1.CB109_Vpu),VLgood:=ADR(HMI1.CB109_VLgood),IOCCmd:=ADR(HMI1.CB109_Cmd),MBCmd:=ADR(CB109_MODBUS.CMD),MBRst:=ADR(CB109_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -872,36 +869,35 @@
         <v>110</v>
       </c>
       <c r="E11" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C11)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_110</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE("HMI1.CB",C11,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB110_Closed</v>
       </c>
       <c r="G11" t="str">
-        <f>CONCATENATE("HMI1.CB",C11,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB110_Vpu</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE("HMI1.CB",C11,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB110_VLgood</v>
       </c>
       <c r="J11" t="str">
-        <f>CONCATENATE("CB", C11, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB110_MODBUS</v>
       </c>
-      <c r="K11" t="str">
-        <f>IF(D11="","",CONCATENATE("HMI1.BUS",D11,"_Stat"))</f>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L11" t="str">
-        <f>IF(I11="","",CONCATENATE(",IOCCmd:=ADR(",I11,"),MBCmd:=ADR(",J11,".CMD),MBRst:=ADR(",J11,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M11" t="str">
-        <f>CONCATENATE("(ID:=",B11,",CBID:=",C11,",Flow:=ADR(HMI1.Flow_",C11,"),Status:=ADR(",F11,"),Vpu:=ADR(",G11,"),VLgood:=ADR(",H11,")",L11,"),")</f>
-        <v>(ID:=10,CBID:=110,Flow:=ADR(HMI1.Flow_110),Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=10,CBID:=110,Flow:=ADR(HMI1.Flow_110),Pscale:=1,Status:=ADR(HMI1.CB110_Closed),Vpu:=ADR(HMI1.CB110_Vpu),VLgood:=ADR(HMI1.CB110_VLgood)),</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -912,19 +908,19 @@
         <v>111</v>
       </c>
       <c r="E12" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C12)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_111</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE("HMI1.CB",C12,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB111_Closed</v>
       </c>
       <c r="G12" t="str">
-        <f>CONCATENATE("HMI1.CB",C12,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB111_Vpu</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE("HMI1.CB",C12,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB111_VLgood</v>
       </c>
       <c r="I12" t="str">
@@ -932,20 +928,19 @@
         <v>HMI1.CB111_Cmd</v>
       </c>
       <c r="J12" t="str">
-        <f>CONCATENATE("CB", C12, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB111_MODBUS</v>
       </c>
-      <c r="K12" t="str">
-        <f>IF(D12="","",CONCATENATE("HMI1.BUS",D12,"_Stat"))</f>
-        <v/>
+      <c r="K12">
+        <v>1</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(I12="","",CONCATENATE(",IOCCmd:=ADR(",I12,"),MBCmd:=ADR(",J12,".CMD),MBRst:=ADR(",J12,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)</v>
       </c>
       <c r="M12" t="str">
-        <f>CONCATENATE("(ID:=",B12,",CBID:=",C12,",Flow:=ADR(HMI1.Flow_",C12,"),Status:=ADR(",F12,"),Vpu:=ADR(",G12,"),VLgood:=ADR(",H12,")",L12,"),")</f>
-        <v>(ID:=11,CBID:=111,Flow:=ADR(HMI1.Flow_111),Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=11,CBID:=111,Flow:=ADR(HMI1.Flow_111),Pscale:=1,Status:=ADR(HMI1.CB111_Closed),Vpu:=ADR(HMI1.CB111_Vpu),VLgood:=ADR(HMI1.CB111_VLgood),IOCCmd:=ADR(HMI1.CB111_Cmd),MBCmd:=ADR(CB111_MODBUS.CMD),MBRst:=ADR(CB111_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -956,36 +951,35 @@
         <v>112</v>
       </c>
       <c r="E13" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C13)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_112</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE("HMI1.CB",C13,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB112_Closed</v>
       </c>
       <c r="G13" t="str">
-        <f>CONCATENATE("HMI1.CB",C13,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB112_Vpu</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE("HMI1.CB",C13,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB112_VLgood</v>
       </c>
       <c r="J13" t="str">
-        <f>CONCATENATE("CB", C13, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB112_MODBUS</v>
       </c>
-      <c r="K13" t="str">
-        <f>IF(D13="","",CONCATENATE("HMI1.BUS",D13,"_Stat"))</f>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L13" t="str">
-        <f>IF(I13="","",CONCATENATE(",IOCCmd:=ADR(",I13,"),MBCmd:=ADR(",J13,".CMD),MBRst:=ADR(",J13,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M13" t="str">
-        <f>CONCATENATE("(ID:=",B13,",CBID:=",C13,",Flow:=ADR(HMI1.Flow_",C13,"),Status:=ADR(",F13,"),Vpu:=ADR(",G13,"),VLgood:=ADR(",H13,")",L13,"),")</f>
-        <v>(ID:=12,CBID:=112,Flow:=ADR(HMI1.Flow_112),Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=12,CBID:=112,Flow:=ADR(HMI1.Flow_112),Pscale:=1,Status:=ADR(HMI1.CB112_Closed),Vpu:=ADR(HMI1.CB112_Vpu),VLgood:=ADR(HMI1.CB112_VLgood)),</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -996,19 +990,19 @@
         <v>113</v>
       </c>
       <c r="E14" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C14)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_113</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE("HMI1.CB",C14,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB113_Closed</v>
       </c>
       <c r="G14" t="str">
-        <f>CONCATENATE("HMI1.CB",C14,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB113_Vpu</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE("HMI1.CB",C14,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB113_VLgood</v>
       </c>
       <c r="I14" t="str">
@@ -1016,20 +1010,19 @@
         <v>HMI1.CB113_Cmd</v>
       </c>
       <c r="J14" t="str">
-        <f>CONCATENATE("CB", C14, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB113_MODBUS</v>
       </c>
-      <c r="K14" t="str">
-        <f>IF(D14="","",CONCATENATE("HMI1.BUS",D14,"_Stat"))</f>
-        <v/>
+      <c r="K14">
+        <v>1</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(I14="","",CONCATENATE(",IOCCmd:=ADR(",I14,"),MBCmd:=ADR(",J14,".CMD),MBRst:=ADR(",J14,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)</v>
       </c>
       <c r="M14" t="str">
-        <f>CONCATENATE("(ID:=",B14,",CBID:=",C14,",Flow:=ADR(HMI1.Flow_",C14,"),Status:=ADR(",F14,"),Vpu:=ADR(",G14,"),VLgood:=ADR(",H14,")",L14,"),")</f>
-        <v>(ID:=13,CBID:=113,Flow:=ADR(HMI1.Flow_113),Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=13,CBID:=113,Flow:=ADR(HMI1.Flow_113),Pscale:=1,Status:=ADR(HMI1.CB113_Closed),Vpu:=ADR(HMI1.CB113_Vpu),VLgood:=ADR(HMI1.CB113_VLgood),IOCCmd:=ADR(HMI1.CB113_Cmd),MBCmd:=ADR(CB113_MODBUS.CMD),MBRst:=ADR(CB113_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1040,36 +1033,35 @@
         <v>114</v>
       </c>
       <c r="E15" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C15)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_114</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE("HMI1.CB",C15,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB114_Closed</v>
       </c>
       <c r="G15" t="str">
-        <f>CONCATENATE("HMI1.CB",C15,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB114_Vpu</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE("HMI1.CB",C15,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB114_VLgood</v>
       </c>
       <c r="J15" t="str">
-        <f>CONCATENATE("CB", C15, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB114_MODBUS</v>
       </c>
-      <c r="K15" t="str">
-        <f>IF(D15="","",CONCATENATE("HMI1.BUS",D15,"_Stat"))</f>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" t="str">
-        <f>IF(I15="","",CONCATENATE(",IOCCmd:=ADR(",I15,"),MBCmd:=ADR(",J15,".CMD),MBRst:=ADR(",J15,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M15" t="str">
-        <f>CONCATENATE("(ID:=",B15,",CBID:=",C15,",Flow:=ADR(HMI1.Flow_",C15,"),Status:=ADR(",F15,"),Vpu:=ADR(",G15,"),VLgood:=ADR(",H15,")",L15,"),")</f>
-        <v>(ID:=14,CBID:=114,Flow:=ADR(HMI1.Flow_114),Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=14,CBID:=114,Flow:=ADR(HMI1.Flow_114),Pscale:=1,Status:=ADR(HMI1.CB114_Closed),Vpu:=ADR(HMI1.CB114_Vpu),VLgood:=ADR(HMI1.CB114_VLgood)),</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1080,19 +1072,19 @@
         <v>201</v>
       </c>
       <c r="E16" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C16)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_201</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE("HMI1.CB",C16,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB201_Closed</v>
       </c>
       <c r="G16" t="str">
-        <f>CONCATENATE("HMI1.CB",C16,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB201_Vpu</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE("HMI1.CB",C16,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB201_VLgood</v>
       </c>
       <c r="I16" t="str">
@@ -1100,20 +1092,19 @@
         <v>HMI1.CB201_Cmd</v>
       </c>
       <c r="J16" t="str">
-        <f>CONCATENATE("CB", C16, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB201_MODBUS</v>
       </c>
-      <c r="K16" t="str">
-        <f>IF(D16="","",CONCATENATE("HMI1.BUS",D16,"_Stat"))</f>
-        <v/>
+      <c r="K16">
+        <v>1</v>
       </c>
       <c r="L16" t="str">
-        <f>IF(I16="","",CONCATENATE(",IOCCmd:=ADR(",I16,"),MBCmd:=ADR(",J16,".CMD),MBRst:=ADR(",J16,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)</v>
       </c>
       <c r="M16" t="str">
-        <f>CONCATENATE("(ID:=",B16,",CBID:=",C16,",Flow:=ADR(HMI1.Flow_",C16,"),Status:=ADR(",F16,"),Vpu:=ADR(",G16,"),VLgood:=ADR(",H16,")",L16,"),")</f>
-        <v>(ID:=15,CBID:=201,Flow:=ADR(HMI1.Flow_201),Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=15,CBID:=201,Flow:=ADR(HMI1.Flow_201),Pscale:=1,Status:=ADR(HMI1.CB201_Closed),Vpu:=ADR(HMI1.CB201_Vpu),VLgood:=ADR(HMI1.CB201_VLgood),IOCCmd:=ADR(HMI1.CB201_Cmd),MBCmd:=ADR(CB201_MODBUS.CMD),MBRst:=ADR(CB201_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1124,19 +1115,19 @@
         <v>202</v>
       </c>
       <c r="E17" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C17)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_202</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE("HMI1.CB",C17,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB202_Closed</v>
       </c>
       <c r="G17" t="str">
-        <f>CONCATENATE("HMI1.CB",C17,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB202_Vpu</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE("HMI1.CB",C17,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB202_VLgood</v>
       </c>
       <c r="I17" t="str">
@@ -1144,20 +1135,19 @@
         <v>HMI1.CB202_Cmd</v>
       </c>
       <c r="J17" t="str">
-        <f>CONCATENATE("CB", C17, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB202_MODBUS</v>
       </c>
-      <c r="K17" t="str">
-        <f>IF(D17="","",CONCATENATE("HMI1.BUS",D17,"_Stat"))</f>
-        <v/>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="L17" t="str">
-        <f>IF(I17="","",CONCATENATE(",IOCCmd:=ADR(",I17,"),MBCmd:=ADR(",J17,".CMD),MBRst:=ADR(",J17,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)</v>
       </c>
       <c r="M17" t="str">
-        <f>CONCATENATE("(ID:=",B17,",CBID:=",C17,",Flow:=ADR(HMI1.Flow_",C17,"),Status:=ADR(",F17,"),Vpu:=ADR(",G17,"),VLgood:=ADR(",H17,")",L17,"),")</f>
-        <v>(ID:=16,CBID:=202,Flow:=ADR(HMI1.Flow_202),Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=16,CBID:=202,Flow:=ADR(HMI1.Flow_202),Pscale:=1,Status:=ADR(HMI1.CB202_Closed),Vpu:=ADR(HMI1.CB202_Vpu),VLgood:=ADR(HMI1.CB202_VLgood),IOCCmd:=ADR(HMI1.CB202_Cmd),MBCmd:=ADR(CB202_MODBUS.CMD),MBRst:=ADR(CB202_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1168,19 +1158,19 @@
         <v>203</v>
       </c>
       <c r="E18" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C18)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_203</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE("HMI1.CB",C18,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB203_Closed</v>
       </c>
       <c r="G18" t="str">
-        <f>CONCATENATE("HMI1.CB",C18,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB203_Vpu</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE("HMI1.CB",C18,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB203_VLgood</v>
       </c>
       <c r="I18" t="str">
@@ -1188,20 +1178,19 @@
         <v>HMI1.CB203_Cmd</v>
       </c>
       <c r="J18" t="str">
-        <f>CONCATENATE("CB", C18, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB203_MODBUS</v>
       </c>
-      <c r="K18" t="str">
-        <f>IF(D18="","",CONCATENATE("HMI1.BUS",D18,"_Stat"))</f>
-        <v/>
+      <c r="K18">
+        <v>1</v>
       </c>
       <c r="L18" t="str">
-        <f>IF(I18="","",CONCATENATE(",IOCCmd:=ADR(",I18,"),MBCmd:=ADR(",J18,".CMD),MBRst:=ADR(",J18,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)</v>
       </c>
       <c r="M18" t="str">
-        <f>CONCATENATE("(ID:=",B18,",CBID:=",C18,",Flow:=ADR(HMI1.Flow_",C18,"),Status:=ADR(",F18,"),Vpu:=ADR(",G18,"),VLgood:=ADR(",H18,")",L18,"),")</f>
-        <v>(ID:=17,CBID:=203,Flow:=ADR(HMI1.Flow_203),Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=17,CBID:=203,Flow:=ADR(HMI1.Flow_203),Pscale:=1,Status:=ADR(HMI1.CB203_Closed),Vpu:=ADR(HMI1.CB203_Vpu),VLgood:=ADR(HMI1.CB203_VLgood),IOCCmd:=ADR(HMI1.CB203_Cmd),MBCmd:=ADR(CB203_MODBUS.CMD),MBRst:=ADR(CB203_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1212,36 +1201,35 @@
         <v>204</v>
       </c>
       <c r="E19" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C19)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_204</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE("HMI1.CB",C19,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB204_Closed</v>
       </c>
       <c r="G19" t="str">
-        <f>CONCATENATE("HMI1.CB",C19,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB204_Vpu</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE("HMI1.CB",C19,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB204_VLgood</v>
       </c>
       <c r="J19" t="str">
-        <f>CONCATENATE("CB", C19, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB204_MODBUS</v>
       </c>
-      <c r="K19" t="str">
-        <f>IF(D19="","",CONCATENATE("HMI1.BUS",D19,"_Stat"))</f>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L19" t="str">
-        <f>IF(I19="","",CONCATENATE(",IOCCmd:=ADR(",I19,"),MBCmd:=ADR(",J19,".CMD),MBRst:=ADR(",J19,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M19" t="str">
-        <f>CONCATENATE("(ID:=",B19,",CBID:=",C19,",Flow:=ADR(HMI1.Flow_",C19,"),Status:=ADR(",F19,"),Vpu:=ADR(",G19,"),VLgood:=ADR(",H19,")",L19,"),")</f>
-        <v>(ID:=18,CBID:=204,Flow:=ADR(HMI1.Flow_204),Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=18,CBID:=204,Flow:=ADR(HMI1.Flow_204),Pscale:=1,Status:=ADR(HMI1.CB204_Closed),Vpu:=ADR(HMI1.CB204_Vpu),VLgood:=ADR(HMI1.CB204_VLgood)),</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1252,36 +1240,35 @@
         <v>205</v>
       </c>
       <c r="E20" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C20)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_205</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE("HMI1.CB",C20,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB205_Closed</v>
       </c>
       <c r="G20" t="str">
-        <f>CONCATENATE("HMI1.CB",C20,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB205_Vpu</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE("HMI1.CB",C20,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB205_VLgood</v>
       </c>
       <c r="J20" t="str">
-        <f>CONCATENATE("CB", C20, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB205_MODBUS</v>
       </c>
-      <c r="K20" t="str">
-        <f>IF(D20="","",CONCATENATE("HMI1.BUS",D20,"_Stat"))</f>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L20" t="str">
-        <f>IF(I20="","",CONCATENATE(",IOCCmd:=ADR(",I20,"),MBCmd:=ADR(",J20,".CMD),MBRst:=ADR(",J20,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M20" t="str">
-        <f>CONCATENATE("(ID:=",B20,",CBID:=",C20,",Flow:=ADR(HMI1.Flow_",C20,"),Status:=ADR(",F20,"),Vpu:=ADR(",G20,"),VLgood:=ADR(",H20,")",L20,"),")</f>
-        <v>(ID:=19,CBID:=205,Flow:=ADR(HMI1.Flow_205),Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=19,CBID:=205,Flow:=ADR(HMI1.Flow_205),Pscale:=1,Status:=ADR(HMI1.CB205_Closed),Vpu:=ADR(HMI1.CB205_Vpu),VLgood:=ADR(HMI1.CB205_VLgood)),</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1292,36 +1279,35 @@
         <v>206</v>
       </c>
       <c r="E21" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C21)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_206</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE("HMI1.CB",C21,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB206_Closed</v>
       </c>
       <c r="G21" t="str">
-        <f>CONCATENATE("HMI1.CB",C21,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB206_Vpu</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE("HMI1.CB",C21,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB206_VLgood</v>
       </c>
       <c r="J21" t="str">
-        <f>CONCATENATE("CB", C21, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB206_MODBUS</v>
       </c>
-      <c r="K21" t="str">
-        <f>IF(D21="","",CONCATENATE("HMI1.BUS",D21,"_Stat"))</f>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L21" t="str">
-        <f>IF(I21="","",CONCATENATE(",IOCCmd:=ADR(",I21,"),MBCmd:=ADR(",J21,".CMD),MBRst:=ADR(",J21,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M21" t="str">
-        <f>CONCATENATE("(ID:=",B21,",CBID:=",C21,",Flow:=ADR(HMI1.Flow_",C21,"),Status:=ADR(",F21,"),Vpu:=ADR(",G21,"),VLgood:=ADR(",H21,")",L21,"),")</f>
-        <v>(ID:=20,CBID:=206,Flow:=ADR(HMI1.Flow_206),Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=20,CBID:=206,Flow:=ADR(HMI1.Flow_206),Pscale:=1,Status:=ADR(HMI1.CB206_Closed),Vpu:=ADR(HMI1.CB206_Vpu),VLgood:=ADR(HMI1.CB206_VLgood)),</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1332,36 +1318,35 @@
         <v>207</v>
       </c>
       <c r="E22" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C22)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_207</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE("HMI1.CB",C22,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB207_Closed</v>
       </c>
       <c r="G22" t="str">
-        <f>CONCATENATE("HMI1.CB",C22,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB207_Vpu</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE("HMI1.CB",C22,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB207_VLgood</v>
       </c>
       <c r="J22" t="str">
-        <f>CONCATENATE("CB", C22, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB207_MODBUS</v>
       </c>
-      <c r="K22" t="str">
-        <f>IF(D22="","",CONCATENATE("HMI1.BUS",D22,"_Stat"))</f>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L22" t="str">
-        <f>IF(I22="","",CONCATENATE(",IOCCmd:=ADR(",I22,"),MBCmd:=ADR(",J22,".CMD),MBRst:=ADR(",J22,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M22" t="str">
-        <f>CONCATENATE("(ID:=",B22,",CBID:=",C22,",Flow:=ADR(HMI1.Flow_",C22,"),Status:=ADR(",F22,"),Vpu:=ADR(",G22,"),VLgood:=ADR(",H22,")",L22,"),")</f>
-        <v>(ID:=21,CBID:=207,Flow:=ADR(HMI1.Flow_207),Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=21,CBID:=207,Flow:=ADR(HMI1.Flow_207),Pscale:=1,Status:=ADR(HMI1.CB207_Closed),Vpu:=ADR(HMI1.CB207_Vpu),VLgood:=ADR(HMI1.CB207_VLgood)),</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1372,36 +1357,35 @@
         <v>208</v>
       </c>
       <c r="E23" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C23)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_208</v>
       </c>
       <c r="F23" t="str">
-        <f>CONCATENATE("HMI1.CB",C23,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB208_Closed</v>
       </c>
       <c r="G23" t="str">
-        <f>CONCATENATE("HMI1.CB",C23,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB208_Vpu</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE("HMI1.CB",C23,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB208_VLgood</v>
       </c>
       <c r="J23" t="str">
-        <f>CONCATENATE("CB", C23, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB208_MODBUS</v>
       </c>
-      <c r="K23" t="str">
-        <f>IF(D23="","",CONCATENATE("HMI1.BUS",D23,"_Stat"))</f>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L23" t="str">
-        <f>IF(I23="","",CONCATENATE(",IOCCmd:=ADR(",I23,"),MBCmd:=ADR(",J23,".CMD),MBRst:=ADR(",J23,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M23" t="str">
-        <f>CONCATENATE("(ID:=",B23,",CBID:=",C23,",Flow:=ADR(HMI1.Flow_",C23,"),Status:=ADR(",F23,"),Vpu:=ADR(",G23,"),VLgood:=ADR(",H23,")",L23,"),")</f>
-        <v>(ID:=22,CBID:=208,Flow:=ADR(HMI1.Flow_208),Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=22,CBID:=208,Flow:=ADR(HMI1.Flow_208),Pscale:=1,Status:=ADR(HMI1.CB208_Closed),Vpu:=ADR(HMI1.CB208_Vpu),VLgood:=ADR(HMI1.CB208_VLgood)),</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
@@ -1412,36 +1396,35 @@
         <v>209</v>
       </c>
       <c r="E24" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C24)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_209</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE("HMI1.CB",C24,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB209_Closed</v>
       </c>
       <c r="G24" t="str">
-        <f>CONCATENATE("HMI1.CB",C24,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB209_Vpu</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE("HMI1.CB",C24,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB209_VLgood</v>
       </c>
       <c r="J24" t="str">
-        <f>CONCATENATE("CB", C24, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB209_MODBUS</v>
       </c>
-      <c r="K24" t="str">
-        <f>IF(D24="","",CONCATENATE("HMI1.BUS",D24,"_Stat"))</f>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L24" t="str">
-        <f>IF(I24="","",CONCATENATE(",IOCCmd:=ADR(",I24,"),MBCmd:=ADR(",J24,".CMD),MBRst:=ADR(",J24,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M24" t="str">
-        <f>CONCATENATE("(ID:=",B24,",CBID:=",C24,",Flow:=ADR(HMI1.Flow_",C24,"),Status:=ADR(",F24,"),Vpu:=ADR(",G24,"),VLgood:=ADR(",H24,")",L24,"),")</f>
-        <v>(ID:=23,CBID:=209,Flow:=ADR(HMI1.Flow_209),Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=23,CBID:=209,Flow:=ADR(HMI1.Flow_209),Pscale:=1,Status:=ADR(HMI1.CB209_Closed),Vpu:=ADR(HMI1.CB209_Vpu),VLgood:=ADR(HMI1.CB209_VLgood)),</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1452,36 +1435,35 @@
         <v>210</v>
       </c>
       <c r="E25" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C25)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_210</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE("HMI1.CB",C25,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB210_Closed</v>
       </c>
       <c r="G25" t="str">
-        <f>CONCATENATE("HMI1.CB",C25,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB210_Vpu</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE("HMI1.CB",C25,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB210_VLgood</v>
       </c>
       <c r="J25" t="str">
-        <f>CONCATENATE("CB", C25, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB210_MODBUS</v>
       </c>
-      <c r="K25" t="str">
-        <f>IF(D25="","",CONCATENATE("HMI1.BUS",D25,"_Stat"))</f>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L25" t="str">
-        <f>IF(I25="","",CONCATENATE(",IOCCmd:=ADR(",I25,"),MBCmd:=ADR(",J25,".CMD),MBRst:=ADR(",J25,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M25" t="str">
-        <f>CONCATENATE("(ID:=",B25,",CBID:=",C25,",Flow:=ADR(HMI1.Flow_",C25,"),Status:=ADR(",F25,"),Vpu:=ADR(",G25,"),VLgood:=ADR(",H25,")",L25,"),")</f>
-        <v>(ID:=24,CBID:=210,Flow:=ADR(HMI1.Flow_210),Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=24,CBID:=210,Flow:=ADR(HMI1.Flow_210),Pscale:=1,Status:=ADR(HMI1.CB210_Closed),Vpu:=ADR(HMI1.CB210_Vpu),VLgood:=ADR(HMI1.CB210_VLgood)),</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
@@ -1492,36 +1474,35 @@
         <v>211</v>
       </c>
       <c r="E26" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C26)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_211</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE("HMI1.CB",C26,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB211_Closed</v>
       </c>
       <c r="G26" t="str">
-        <f>CONCATENATE("HMI1.CB",C26,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB211_Vpu</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE("HMI1.CB",C26,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB211_VLgood</v>
       </c>
       <c r="J26" t="str">
-        <f>CONCATENATE("CB", C26, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB211_MODBUS</v>
       </c>
-      <c r="K26" t="str">
-        <f>IF(D26="","",CONCATENATE("HMI1.BUS",D26,"_Stat"))</f>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L26" t="str">
-        <f>IF(I26="","",CONCATENATE(",IOCCmd:=ADR(",I26,"),MBCmd:=ADR(",J26,".CMD),MBRst:=ADR(",J26,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M26" t="str">
-        <f>CONCATENATE("(ID:=",B26,",CBID:=",C26,",Flow:=ADR(HMI1.Flow_",C26,"),Status:=ADR(",F26,"),Vpu:=ADR(",G26,"),VLgood:=ADR(",H26,")",L26,"),")</f>
-        <v>(ID:=25,CBID:=211,Flow:=ADR(HMI1.Flow_211),Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=25,CBID:=211,Flow:=ADR(HMI1.Flow_211),Pscale:=1,Status:=ADR(HMI1.CB211_Closed),Vpu:=ADR(HMI1.CB211_Vpu),VLgood:=ADR(HMI1.CB211_VLgood)),</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
@@ -1532,36 +1513,35 @@
         <v>212</v>
       </c>
       <c r="E27" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C27)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_212</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE("HMI1.CB",C27,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB212_Closed</v>
       </c>
       <c r="G27" t="str">
-        <f>CONCATENATE("HMI1.CB",C27,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB212_Vpu</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE("HMI1.CB",C27,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB212_VLgood</v>
       </c>
       <c r="J27" t="str">
-        <f>CONCATENATE("CB", C27, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB212_MODBUS</v>
       </c>
-      <c r="K27" t="str">
-        <f>IF(D27="","",CONCATENATE("HMI1.BUS",D27,"_Stat"))</f>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L27" t="str">
-        <f>IF(I27="","",CONCATENATE(",IOCCmd:=ADR(",I27,"),MBCmd:=ADR(",J27,".CMD),MBRst:=ADR(",J27,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M27" t="str">
-        <f>CONCATENATE("(ID:=",B27,",CBID:=",C27,",Flow:=ADR(HMI1.Flow_",C27,"),Status:=ADR(",F27,"),Vpu:=ADR(",G27,"),VLgood:=ADR(",H27,")",L27,"),")</f>
-        <v>(ID:=26,CBID:=212,Flow:=ADR(HMI1.Flow_212),Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=26,CBID:=212,Flow:=ADR(HMI1.Flow_212),Pscale:=1,Status:=ADR(HMI1.CB212_Closed),Vpu:=ADR(HMI1.CB212_Vpu),VLgood:=ADR(HMI1.CB212_VLgood)),</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
@@ -1572,19 +1552,19 @@
         <v>213</v>
       </c>
       <c r="E28" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C28)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_213</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE("HMI1.CB",C28,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB213_Closed</v>
       </c>
       <c r="G28" t="str">
-        <f>CONCATENATE("HMI1.CB",C28,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB213_Vpu</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE("HMI1.CB",C28,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB213_VLgood</v>
       </c>
       <c r="I28" t="str">
@@ -1592,20 +1572,19 @@
         <v>HMI1.CB213_Cmd</v>
       </c>
       <c r="J28" t="str">
-        <f>CONCATENATE("CB", C28, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB213_MODBUS</v>
       </c>
-      <c r="K28" t="str">
-        <f>IF(D28="","",CONCATENATE("HMI1.BUS",D28,"_Stat"))</f>
-        <v/>
+      <c r="K28">
+        <v>1</v>
       </c>
       <c r="L28" t="str">
-        <f>IF(I28="","",CONCATENATE(",IOCCmd:=ADR(",I28,"),MBCmd:=ADR(",J28,".CMD),MBRst:=ADR(",J28,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)</v>
       </c>
       <c r="M28" t="str">
-        <f>CONCATENATE("(ID:=",B28,",CBID:=",C28,",Flow:=ADR(HMI1.Flow_",C28,"),Status:=ADR(",F28,"),Vpu:=ADR(",G28,"),VLgood:=ADR(",H28,")",L28,"),")</f>
-        <v>(ID:=27,CBID:=213,Flow:=ADR(HMI1.Flow_213),Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=27,CBID:=213,Flow:=ADR(HMI1.Flow_213),Pscale:=1,Status:=ADR(HMI1.CB213_Closed),Vpu:=ADR(HMI1.CB213_Vpu),VLgood:=ADR(HMI1.CB213_VLgood),IOCCmd:=ADR(HMI1.CB213_Cmd),MBCmd:=ADR(CB213_MODBUS.CMD),MBRst:=ADR(CB213_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
@@ -1616,36 +1595,35 @@
         <v>214</v>
       </c>
       <c r="E29" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C29)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_214</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE("HMI1.CB",C29,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB214_Closed</v>
       </c>
       <c r="G29" t="str">
-        <f>CONCATENATE("HMI1.CB",C29,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB214_Vpu</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE("HMI1.CB",C29,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB214_VLgood</v>
       </c>
       <c r="J29" t="str">
-        <f>CONCATENATE("CB", C29, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB214_MODBUS</v>
       </c>
-      <c r="K29" t="str">
-        <f>IF(D29="","",CONCATENATE("HMI1.BUS",D29,"_Stat"))</f>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L29" t="str">
-        <f>IF(I29="","",CONCATENATE(",IOCCmd:=ADR(",I29,"),MBCmd:=ADR(",J29,".CMD),MBRst:=ADR(",J29,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M29" t="str">
-        <f>CONCATENATE("(ID:=",B29,",CBID:=",C29,",Flow:=ADR(HMI1.Flow_",C29,"),Status:=ADR(",F29,"),Vpu:=ADR(",G29,"),VLgood:=ADR(",H29,")",L29,"),")</f>
-        <v>(ID:=28,CBID:=214,Flow:=ADR(HMI1.Flow_214),Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=28,CBID:=214,Flow:=ADR(HMI1.Flow_214),Pscale:=1,Status:=ADR(HMI1.CB214_Closed),Vpu:=ADR(HMI1.CB214_Vpu),VLgood:=ADR(HMI1.CB214_VLgood)),</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
@@ -1656,36 +1634,35 @@
         <v>215</v>
       </c>
       <c r="E30" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C30)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_215</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE("HMI1.CB",C30,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB215_Closed</v>
       </c>
       <c r="G30" t="str">
-        <f>CONCATENATE("HMI1.CB",C30,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB215_Vpu</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE("HMI1.CB",C30,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB215_VLgood</v>
       </c>
       <c r="J30" t="str">
-        <f>CONCATENATE("CB", C30, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB215_MODBUS</v>
       </c>
-      <c r="K30" t="str">
-        <f>IF(D30="","",CONCATENATE("HMI1.BUS",D30,"_Stat"))</f>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L30" t="str">
-        <f>IF(I30="","",CONCATENATE(",IOCCmd:=ADR(",I30,"),MBCmd:=ADR(",J30,".CMD),MBRst:=ADR(",J30,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M30" t="str">
-        <f>CONCATENATE("(ID:=",B30,",CBID:=",C30,",Flow:=ADR(HMI1.Flow_",C30,"),Status:=ADR(",F30,"),Vpu:=ADR(",G30,"),VLgood:=ADR(",H30,")",L30,"),")</f>
-        <v>(ID:=29,CBID:=215,Flow:=ADR(HMI1.Flow_215),Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=29,CBID:=215,Flow:=ADR(HMI1.Flow_215),Pscale:=1,Status:=ADR(HMI1.CB215_Closed),Vpu:=ADR(HMI1.CB215_Vpu),VLgood:=ADR(HMI1.CB215_VLgood)),</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
@@ -1696,19 +1673,19 @@
         <v>216</v>
       </c>
       <c r="E31" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C31)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_216</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE("HMI1.CB",C31,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB216_Closed</v>
       </c>
       <c r="G31" t="str">
-        <f>CONCATENATE("HMI1.CB",C31,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB216_Vpu</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE("HMI1.CB",C31,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB216_VLgood</v>
       </c>
       <c r="I31" t="str">
@@ -1716,20 +1693,19 @@
         <v>HMI1.CB216_Cmd</v>
       </c>
       <c r="J31" t="str">
-        <f>CONCATENATE("CB", C31, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB216_MODBUS</v>
       </c>
-      <c r="K31" t="str">
-        <f>IF(D31="","",CONCATENATE("HMI1.BUS",D31,"_Stat"))</f>
-        <v/>
+      <c r="K31">
+        <v>1</v>
       </c>
       <c r="L31" t="str">
-        <f>IF(I31="","",CONCATENATE(",IOCCmd:=ADR(",I31,"),MBCmd:=ADR(",J31,".CMD),MBRst:=ADR(",J31,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)</v>
       </c>
       <c r="M31" t="str">
-        <f>CONCATENATE("(ID:=",B31,",CBID:=",C31,",Flow:=ADR(HMI1.Flow_",C31,"),Status:=ADR(",F31,"),Vpu:=ADR(",G31,"),VLgood:=ADR(",H31,")",L31,"),")</f>
-        <v>(ID:=30,CBID:=216,Flow:=ADR(HMI1.Flow_216),Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=30,CBID:=216,Flow:=ADR(HMI1.Flow_216),Pscale:=1,Status:=ADR(HMI1.CB216_Closed),Vpu:=ADR(HMI1.CB216_Vpu),VLgood:=ADR(HMI1.CB216_VLgood),IOCCmd:=ADR(HMI1.CB216_Cmd),MBCmd:=ADR(CB216_MODBUS.CMD),MBRst:=ADR(CB216_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
@@ -1740,19 +1716,19 @@
         <v>217</v>
       </c>
       <c r="E32" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C32)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_217</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE("HMI1.CB",C32,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB217_Closed</v>
       </c>
       <c r="G32" t="str">
-        <f>CONCATENATE("HMI1.CB",C32,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB217_Vpu</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE("HMI1.CB",C32,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB217_VLgood</v>
       </c>
       <c r="I32" t="str">
@@ -1760,20 +1736,19 @@
         <v>HMI1.CB217_Cmd</v>
       </c>
       <c r="J32" t="str">
-        <f>CONCATENATE("CB", C32, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB217_MODBUS</v>
       </c>
-      <c r="K32" t="str">
-        <f>IF(D32="","",CONCATENATE("HMI1.BUS",D32,"_Stat"))</f>
-        <v/>
+      <c r="K32">
+        <v>1</v>
       </c>
       <c r="L32" t="str">
-        <f>IF(I32="","",CONCATENATE(",IOCCmd:=ADR(",I32,"),MBCmd:=ADR(",J32,".CMD),MBRst:=ADR(",J32,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)</v>
       </c>
       <c r="M32" t="str">
-        <f>CONCATENATE("(ID:=",B32,",CBID:=",C32,",Flow:=ADR(HMI1.Flow_",C32,"),Status:=ADR(",F32,"),Vpu:=ADR(",G32,"),VLgood:=ADR(",H32,")",L32,"),")</f>
-        <v>(ID:=31,CBID:=217,Flow:=ADR(HMI1.Flow_217),Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=31,CBID:=217,Flow:=ADR(HMI1.Flow_217),Pscale:=1,Status:=ADR(HMI1.CB217_Closed),Vpu:=ADR(HMI1.CB217_Vpu),VLgood:=ADR(HMI1.CB217_VLgood),IOCCmd:=ADR(HMI1.CB217_Cmd),MBCmd:=ADR(CB217_MODBUS.CMD),MBRst:=ADR(CB217_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
@@ -1784,36 +1759,35 @@
         <v>218</v>
       </c>
       <c r="E33" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C33)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_218</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE("HMI1.CB",C33,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB218_Closed</v>
       </c>
       <c r="G33" t="str">
-        <f>CONCATENATE("HMI1.CB",C33,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB218_Vpu</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE("HMI1.CB",C33,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB218_VLgood</v>
       </c>
       <c r="J33" t="str">
-        <f>CONCATENATE("CB", C33, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB218_MODBUS</v>
       </c>
-      <c r="K33" t="str">
-        <f>IF(D33="","",CONCATENATE("HMI1.BUS",D33,"_Stat"))</f>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L33" t="str">
-        <f>IF(I33="","",CONCATENATE(",IOCCmd:=ADR(",I33,"),MBCmd:=ADR(",J33,".CMD),MBRst:=ADR(",J33,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M33" t="str">
-        <f>CONCATENATE("(ID:=",B33,",CBID:=",C33,",Flow:=ADR(HMI1.Flow_",C33,"),Status:=ADR(",F33,"),Vpu:=ADR(",G33,"),VLgood:=ADR(",H33,")",L33,"),")</f>
-        <v>(ID:=32,CBID:=218,Flow:=ADR(HMI1.Flow_218),Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=32,CBID:=218,Flow:=ADR(HMI1.Flow_218),Pscale:=1,Status:=ADR(HMI1.CB218_Closed),Vpu:=ADR(HMI1.CB218_Vpu),VLgood:=ADR(HMI1.CB218_VLgood)),</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
@@ -1824,36 +1798,35 @@
         <v>219</v>
       </c>
       <c r="E34" t="str">
-        <f>CONCATENATE("HMI1.Flow_",C34)</f>
+        <f t="shared" si="0"/>
         <v>HMI1.Flow_219</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE("HMI1.CB",C34,"_Closed")</f>
+        <f t="shared" si="1"/>
         <v>HMI1.CB219_Closed</v>
       </c>
       <c r="G34" t="str">
-        <f>CONCATENATE("HMI1.CB",C34,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB219_Vpu</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE("HMI1.CB",C34,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB219_VLgood</v>
       </c>
       <c r="J34" t="str">
-        <f>CONCATENATE("CB", C34, "_MODBUS")</f>
+        <f t="shared" si="4"/>
         <v>CB219_MODBUS</v>
       </c>
-      <c r="K34" t="str">
-        <f>IF(D34="","",CONCATENATE("HMI1.BUS",D34,"_Stat"))</f>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L34" t="str">
-        <f>IF(I34="","",CONCATENATE(",IOCCmd:=ADR(",I34,"),MBCmd:=ADR(",J34,".CMD),MBRst:=ADR(",J34,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M34" t="str">
-        <f>CONCATENATE("(ID:=",B34,",CBID:=",C34,",Flow:=ADR(HMI1.Flow_",C34,"),Status:=ADR(",F34,"),Vpu:=ADR(",G34,"),VLgood:=ADR(",H34,")",L34,"),")</f>
-        <v>(ID:=33,CBID:=219,Flow:=ADR(HMI1.Flow_219),Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=33,CBID:=219,Flow:=ADR(HMI1.Flow_219),Pscale:=1,Status:=ADR(HMI1.CB219_Closed),Vpu:=ADR(HMI1.CB219_Vpu),VLgood:=ADR(HMI1.CB219_VLgood)),</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
@@ -1864,19 +1837,19 @@
         <v>301</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E44" si="0">CONCATENATE("HMI1.Flow_",C35)</f>
+        <f t="shared" ref="E35:E44" si="7">CONCATENATE("HMI1.Flow_",C35)</f>
         <v>HMI1.Flow_301</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F44" si="1">CONCATENATE("HMI1.CB",C35,"_Closed")</f>
+        <f t="shared" ref="F35:F44" si="8">CONCATENATE("HMI1.CB",C35,"_Closed")</f>
         <v>HMI1.CB301_Closed</v>
       </c>
       <c r="G35" t="str">
-        <f>CONCATENATE("HMI1.CB",C35,"_Vpu")</f>
+        <f t="shared" si="2"/>
         <v>HMI1.CB301_Vpu</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE("HMI1.CB",C35,"_VLgood")</f>
+        <f t="shared" si="3"/>
         <v>HMI1.CB301_VLgood</v>
       </c>
       <c r="I35" t="str">
@@ -1884,20 +1857,19 @@
         <v>HMI1.CB301_Cmd</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" ref="J35:J44" si="2">CONCATENATE("CB", C35, "_MODBUS")</f>
+        <f t="shared" ref="J35:J44" si="9">CONCATENATE("CB", C35, "_MODBUS")</f>
         <v>CB301_MODBUS</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" ref="K35:K55" si="3">IF(D35="","",CONCATENATE("HMI1.BUS",D35,"_Stat"))</f>
-        <v/>
+      <c r="K35">
+        <v>1</v>
       </c>
       <c r="L35" t="str">
-        <f>IF(I35="","",CONCATENATE(",IOCCmd:=ADR(",I35,"),MBCmd:=ADR(",J35,".CMD),MBRst:=ADR(",J35,".RST)"))</f>
+        <f t="shared" si="5"/>
         <v>,IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ref="M35:M60" si="4">CONCATENATE("(ID:=",B35,",CBID:=",C35,",Flow:=ADR(HMI1.Flow_",C35,"),Status:=ADR(",F35,"),Vpu:=ADR(",G35,"),VLgood:=ADR(",H35,")",L35,"),")</f>
-        <v>(ID:=34,CBID:=301,Flow:=ADR(HMI1.Flow_301),Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=34,CBID:=301,Flow:=ADR(HMI1.Flow_301),Pscale:=1,Status:=ADR(HMI1.CB301_Closed),Vpu:=ADR(HMI1.CB301_Vpu),VLgood:=ADR(HMI1.CB301_VLgood),IOCCmd:=ADR(HMI1.CB301_Cmd),MBCmd:=ADR(CB301_MODBUS.CMD),MBRst:=ADR(CB301_MODBUS.RST)),</v>
       </c>
       <c r="AJ35" t="s">
         <v>4</v>
@@ -1911,19 +1883,19 @@
         <v>302</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_302</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB302_Closed</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ref="G36:G60" si="5">CONCATENATE("HMI1.CB",C36,"_Vpu")</f>
+        <f t="shared" ref="G36:G60" si="10">CONCATENATE("HMI1.CB",C36,"_Vpu")</f>
         <v>HMI1.CB302_Vpu</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ref="H36:H60" si="6">CONCATENATE("HMI1.CB",C36,"_VLgood")</f>
+        <f t="shared" ref="H36:H60" si="11">CONCATENATE("HMI1.CB",C36,"_VLgood")</f>
         <v>HMI1.CB302_VLgood</v>
       </c>
       <c r="I36" t="str">
@@ -1931,20 +1903,19 @@
         <v>HMI1.CB302_Cmd</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>CB302_MODBUS</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K36">
+        <v>1</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ref="L36:L60" si="7">IF(I36="","",CONCATENATE(",IOCCmd:=ADR(",I36,"),MBCmd:=ADR(",J36,".CMD),MBRst:=ADR(",J36,".RST)"))</f>
+        <f t="shared" ref="L36:L60" si="12">IF(I36="","",CONCATENATE(",IOCCmd:=ADR(",I36,"),MBCmd:=ADR(",J36,".CMD),MBRst:=ADR(",J36,".RST)"))</f>
         <v>,IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=35,CBID:=302,Flow:=ADR(HMI1.Flow_302),Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=35,CBID:=302,Flow:=ADR(HMI1.Flow_302),Pscale:=1,Status:=ADR(HMI1.CB302_Closed),Vpu:=ADR(HMI1.CB302_Vpu),VLgood:=ADR(HMI1.CB302_VLgood),IOCCmd:=ADR(HMI1.CB302_Cmd),MBCmd:=ADR(CB302_MODBUS.CMD),MBRst:=ADR(CB302_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
@@ -1955,19 +1926,19 @@
         <v>303</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_303</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB303_Closed</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB303_Vpu</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>HMI1.CB303_VLgood</v>
       </c>
       <c r="I37" t="str">
@@ -1975,20 +1946,19 @@
         <v>HMI1.CB303_Cmd</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>CB303_MODBUS</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K37">
+        <v>1</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>,IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=36,CBID:=303,Flow:=ADR(HMI1.Flow_303),Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=36,CBID:=303,Flow:=ADR(HMI1.Flow_303),Pscale:=1,Status:=ADR(HMI1.CB303_Closed),Vpu:=ADR(HMI1.CB303_Vpu),VLgood:=ADR(HMI1.CB303_VLgood),IOCCmd:=ADR(HMI1.CB303_Cmd),MBCmd:=ADR(CB303_MODBUS.CMD),MBRst:=ADR(CB303_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
@@ -1999,19 +1969,19 @@
         <v>304</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_304</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB304_Closed</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB304_Vpu</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>HMI1.CB304_VLgood</v>
       </c>
       <c r="I38" t="str">
@@ -2019,20 +1989,19 @@
         <v>HMI1.CB304_Cmd</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>CB304_MODBUS</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K38">
+        <v>1</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>,IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=37,CBID:=304,Flow:=ADR(HMI1.Flow_304),Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=37,CBID:=304,Flow:=ADR(HMI1.Flow_304),Pscale:=1,Status:=ADR(HMI1.CB304_Closed),Vpu:=ADR(HMI1.CB304_Vpu),VLgood:=ADR(HMI1.CB304_VLgood),IOCCmd:=ADR(HMI1.CB304_Cmd),MBCmd:=ADR(CB304_MODBUS.CMD),MBRst:=ADR(CB304_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
@@ -2043,19 +2012,19 @@
         <v>305</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_305</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB305_Closed</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB305_Vpu</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>HMI1.CB305_VLgood</v>
       </c>
       <c r="I39" t="str">
@@ -2063,20 +2032,19 @@
         <v>HMI1.CB305_Cmd</v>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>CB305_MODBUS</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K39">
+        <v>1</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>,IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=38,CBID:=305,Flow:=ADR(HMI1.Flow_305),Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=38,CBID:=305,Flow:=ADR(HMI1.Flow_305),Pscale:=1,Status:=ADR(HMI1.CB305_Closed),Vpu:=ADR(HMI1.CB305_Vpu),VLgood:=ADR(HMI1.CB305_VLgood),IOCCmd:=ADR(HMI1.CB305_Cmd),MBCmd:=ADR(CB305_MODBUS.CMD),MBRst:=ADR(CB305_MODBUS.RST)),</v>
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
@@ -2087,36 +2055,35 @@
         <v>306</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_306</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB306_Closed</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB306_Vpu</v>
       </c>
       <c r="H40" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB306_VLgood</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="9"/>
+        <v>CB306_MODBUS</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M40" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB306_VLgood</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" si="2"/>
-        <v>CB306_MODBUS</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=39,CBID:=306,Flow:=ADR(HMI1.Flow_306),Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
+        <v>(ID:=39,CBID:=306,Flow:=ADR(HMI1.Flow_306),Pscale:=1,Status:=ADR(HMI1.CB306_Closed),Vpu:=ADR(HMI1.CB306_Vpu),VLgood:=ADR(HMI1.CB306_VLgood)),</v>
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
@@ -2127,36 +2094,35 @@
         <v>307</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_307</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB307_Closed</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB307_Vpu</v>
       </c>
       <c r="H41" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB307_VLgood</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="9"/>
+        <v>CB307_MODBUS</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M41" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB307_VLgood</v>
-      </c>
-      <c r="J41" t="str">
-        <f t="shared" si="2"/>
-        <v>CB307_MODBUS</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=40,CBID:=307,Flow:=ADR(HMI1.Flow_307),Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
+        <v>(ID:=40,CBID:=307,Flow:=ADR(HMI1.Flow_307),Pscale:=1,Status:=ADR(HMI1.CB307_Closed),Vpu:=ADR(HMI1.CB307_Vpu),VLgood:=ADR(HMI1.CB307_VLgood)),</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
@@ -2167,36 +2133,35 @@
         <v>308</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_308</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB308_Closed</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB308_Vpu</v>
       </c>
       <c r="H42" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB308_VLgood</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="9"/>
+        <v>CB308_MODBUS</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M42" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB308_VLgood</v>
-      </c>
-      <c r="J42" t="str">
-        <f t="shared" si="2"/>
-        <v>CB308_MODBUS</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=41,CBID:=308,Flow:=ADR(HMI1.Flow_308),Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
+        <v>(ID:=41,CBID:=308,Flow:=ADR(HMI1.Flow_308),Pscale:=1,Status:=ADR(HMI1.CB308_Closed),Vpu:=ADR(HMI1.CB308_Vpu),VLgood:=ADR(HMI1.CB308_VLgood)),</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
@@ -2207,36 +2172,35 @@
         <v>309</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_309</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB309_Closed</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB309_Vpu</v>
       </c>
       <c r="H43" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB309_VLgood</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="9"/>
+        <v>CB309_MODBUS</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M43" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB309_VLgood</v>
-      </c>
-      <c r="J43" t="str">
-        <f t="shared" si="2"/>
-        <v>CB309_MODBUS</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=42,CBID:=309,Flow:=ADR(HMI1.Flow_309),Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
+        <v>(ID:=42,CBID:=309,Flow:=ADR(HMI1.Flow_309),Pscale:=1,Status:=ADR(HMI1.CB309_Closed),Vpu:=ADR(HMI1.CB309_Vpu),VLgood:=ADR(HMI1.CB309_VLgood)),</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
@@ -2250,32 +2214,35 @@
         <v>310</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>HMI1.Flow_310</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>HMI1.CB310_Closed</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB310_Vpu</v>
       </c>
       <c r="H44" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB310_VLgood</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="9"/>
+        <v>CB310_MODBUS</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M44" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB310_VLgood</v>
-      </c>
-      <c r="J44" t="str">
-        <f t="shared" si="2"/>
-        <v>CB310_MODBUS</v>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=43,CBID:=310,Flow:=ADR(HMI1.Flow_310),Status:=ADR(HMI1.CB310_Closed),Vpu:=ADR(HMI1.CB310_Vpu),VLgood:=ADR(HMI1.CB310_VLgood)),</v>
+        <v>(ID:=43,CBID:=310,Flow:=ADR(HMI1.Flow_310),Pscale:=20,Status:=ADR(HMI1.CB310_Closed),Vpu:=ADR(HMI1.CB310_Vpu),VLgood:=ADR(HMI1.CB310_VLgood)),</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
@@ -2286,11 +2253,11 @@
         <v>401</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ref="E45:E50" si="8">CONCATENATE("HMI1.Flow_",C45)</f>
+        <f t="shared" ref="E45:E50" si="13">CONCATENATE("HMI1.Flow_",C45)</f>
         <v>HMI1.Flow_401</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" ref="F45:F50" si="9">CONCATENATE("HMI1.CB",C45,"_Closed")</f>
+        <f t="shared" ref="F45:F50" si="14">CONCATENATE("HMI1.CB",C45,"_Closed")</f>
         <v>HMI1.CB401_Closed</v>
       </c>
       <c r="G45" t="str">
@@ -2302,20 +2269,19 @@
         <v>HMI1.CB401_VLgood</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" ref="J45:J50" si="10">CONCATENATE("CB", C45, "_MODBUS")</f>
+        <f t="shared" ref="J45:J50" si="15">CONCATENATE("CB", C45, "_MODBUS")</f>
         <v>CB401_MODBUS</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" ref="K45:K50" si="11">IF(D45="","",CONCATENATE("HMI1.BUS",D45,"_Stat"))</f>
-        <v/>
+      <c r="K45">
+        <v>20</v>
       </c>
       <c r="L45" t="str">
         <f>IF(I45="","",CONCATENATE(",IOCCmd:=ADR(",I45,"),MBCmd:=ADR(",J45,".CMD),MBRst:=ADR(",J45,".RST)"))</f>
         <v/>
       </c>
       <c r="M45" t="str">
-        <f t="shared" ref="M45:M50" si="12">CONCATENATE("(ID:=",B45,",CBID:=",C45,",Flow:=ADR(HMI1.Flow_",C45,"),Status:=ADR(",F45,"),Vpu:=ADR(",G45,"),VLgood:=ADR(",H45,")",L45,"),")</f>
-        <v>(ID:=44,CBID:=401,Flow:=ADR(HMI1.Flow_401),Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=44,CBID:=401,Flow:=ADR(HMI1.Flow_401),Pscale:=20,Status:=ADR(HMI1.CB401_Closed),Vpu:=ADR(HMI1.CB401_Vpu),VLgood:=ADR(HMI1.CB401_VLgood)),</v>
       </c>
       <c r="AJ45" t="s">
         <v>4</v>
@@ -2329,36 +2295,35 @@
         <v>402</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>HMI1.Flow_402</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>HMI1.CB402_Closed</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" ref="G46:G50" si="13">CONCATENATE("HMI1.CB",C46,"_Vpu")</f>
+        <f t="shared" ref="G46:G50" si="16">CONCATENATE("HMI1.CB",C46,"_Vpu")</f>
         <v>HMI1.CB402_Vpu</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" ref="H46:H50" si="14">CONCATENATE("HMI1.CB",C46,"_VLgood")</f>
+        <f t="shared" ref="H46:H50" si="17">CONCATENATE("HMI1.CB",C46,"_VLgood")</f>
         <v>HMI1.CB402_VLgood</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>CB402_MODBUS</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="11"/>
+      <c r="K46">
+        <v>20</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" ref="L46:L50" si="18">IF(I46="","",CONCATENATE(",IOCCmd:=ADR(",I46,"),MBCmd:=ADR(",J46,".CMD),MBRst:=ADR(",J46,".RST)"))</f>
         <v/>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" ref="L46:L50" si="15">IF(I46="","",CONCATENATE(",IOCCmd:=ADR(",I46,"),MBCmd:=ADR(",J46,".CMD),MBRst:=ADR(",J46,".RST)"))</f>
-        <v/>
-      </c>
       <c r="M46" t="str">
-        <f t="shared" si="12"/>
-        <v>(ID:=45,CBID:=402,Flow:=ADR(HMI1.Flow_402),Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=45,CBID:=402,Flow:=ADR(HMI1.Flow_402),Pscale:=20,Status:=ADR(HMI1.CB402_Closed),Vpu:=ADR(HMI1.CB402_Vpu),VLgood:=ADR(HMI1.CB402_VLgood)),</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
@@ -2369,36 +2334,35 @@
         <v>403</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>HMI1.Flow_403</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>HMI1.CB403_Closed</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>HMI1.CB403_Vpu</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>HMI1.CB403_VLgood</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>CB403_MODBUS</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="11"/>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="M47" t="str">
-        <f t="shared" si="12"/>
-        <v>(ID:=46,CBID:=403,Flow:=ADR(HMI1.Flow_403),Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=46,CBID:=403,Flow:=ADR(HMI1.Flow_403),Pscale:=20,Status:=ADR(HMI1.CB403_Closed),Vpu:=ADR(HMI1.CB403_Vpu),VLgood:=ADR(HMI1.CB403_VLgood)),</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
@@ -2409,36 +2373,35 @@
         <v>404</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>HMI1.Flow_404</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>HMI1.CB404_Closed</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>HMI1.CB404_Vpu</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>HMI1.CB404_VLgood</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>CB404_MODBUS</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="11"/>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="M48" t="str">
-        <f t="shared" si="12"/>
-        <v>(ID:=47,CBID:=404,Flow:=ADR(HMI1.Flow_404),Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=47,CBID:=404,Flow:=ADR(HMI1.Flow_404),Pscale:=20,Status:=ADR(HMI1.CB404_Closed),Vpu:=ADR(HMI1.CB404_Vpu),VLgood:=ADR(HMI1.CB404_VLgood)),</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -2449,36 +2412,35 @@
         <v>405</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>HMI1.Flow_405</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>HMI1.CB405_Closed</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>HMI1.CB405_Vpu</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>HMI1.CB405_VLgood</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>CB405_MODBUS</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="11"/>
+      <c r="K49">
+        <v>20</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="M49" t="str">
-        <f t="shared" si="12"/>
-        <v>(ID:=48,CBID:=405,Flow:=ADR(HMI1.Flow_405),Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=48,CBID:=405,Flow:=ADR(HMI1.Flow_405),Pscale:=20,Status:=ADR(HMI1.CB405_Closed),Vpu:=ADR(HMI1.CB405_Vpu),VLgood:=ADR(HMI1.CB405_VLgood)),</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -2489,36 +2451,35 @@
         <v>406</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>HMI1.Flow_406</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>HMI1.CB406_Closed</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>HMI1.CB406_Vpu</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>HMI1.CB406_VLgood</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>CB406_MODBUS</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="11"/>
+      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
       <c r="M50" t="str">
-        <f t="shared" si="12"/>
-        <v>(ID:=49,CBID:=406,Flow:=ADR(HMI1.Flow_406),Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
+        <f t="shared" si="6"/>
+        <v>(ID:=49,CBID:=406,Flow:=ADR(HMI1.Flow_406),Pscale:=20,Status:=ADR(HMI1.CB406_Closed),Vpu:=ADR(HMI1.CB406_Vpu),VLgood:=ADR(HMI1.CB406_VLgood)),</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -2529,36 +2490,35 @@
         <v>100</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ref="E51:E60" si="16">CONCATENATE("HMI1.Flow_",C51)</f>
+        <f t="shared" ref="E51:E60" si="19">CONCATENATE("HMI1.Flow_",C51)</f>
         <v>HMI1.Flow_100</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" ref="F51:F60" si="17">CONCATENATE("HMI1.CB",C51,"_Closed")</f>
+        <f t="shared" ref="F51:F60" si="20">CONCATENATE("HMI1.CB",C51,"_Closed")</f>
         <v>HMI1.CB100_Closed</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB100_Vpu</v>
       </c>
       <c r="H51" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB100_VLgood</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" ref="J51:J60" si="21">CONCATENATE("CB", C51, "_MODBUS")</f>
+        <v>CB100_MODBUS</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M51" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB100_VLgood</v>
-      </c>
-      <c r="J51" t="str">
-        <f t="shared" ref="J51:J60" si="18">CONCATENATE("CB", C51, "_MODBUS")</f>
-        <v>CB100_MODBUS</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=50,CBID:=100,Flow:=ADR(HMI1.Flow_100),Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
+        <v>(ID:=50,CBID:=100,Flow:=ADR(HMI1.Flow_100),Pscale:=1,Status:=ADR(HMI1.CB100_Closed),Vpu:=ADR(HMI1.CB100_Vpu),VLgood:=ADR(HMI1.CB100_VLgood)),</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -2569,36 +2529,35 @@
         <v>200</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_200</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB200_Closed</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB200_Vpu</v>
       </c>
       <c r="H52" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB200_VLgood</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="21"/>
+        <v>CB200_MODBUS</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M52" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB200_VLgood</v>
-      </c>
-      <c r="J52" t="str">
-        <f t="shared" si="18"/>
-        <v>CB200_MODBUS</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=51,CBID:=200,Flow:=ADR(HMI1.Flow_200),Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
+        <v>(ID:=51,CBID:=200,Flow:=ADR(HMI1.Flow_200),Pscale:=1,Status:=ADR(HMI1.CB200_Closed),Vpu:=ADR(HMI1.CB200_Vpu),VLgood:=ADR(HMI1.CB200_VLgood)),</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -2609,36 +2568,35 @@
         <v>300</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_300</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB300_Closed</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB300_Vpu</v>
       </c>
       <c r="H53" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB300_VLgood</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="21"/>
+        <v>CB300_MODBUS</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M53" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB300_VLgood</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="18"/>
-        <v>CB300_MODBUS</v>
-      </c>
-      <c r="K53" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M53" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=52,CBID:=300,Flow:=ADR(HMI1.Flow_300),Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
+        <v>(ID:=52,CBID:=300,Flow:=ADR(HMI1.Flow_300),Pscale:=1,Status:=ADR(HMI1.CB300_Closed),Vpu:=ADR(HMI1.CB300_Vpu),VLgood:=ADR(HMI1.CB300_VLgood)),</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -2649,36 +2607,35 @@
         <v>151</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_151</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB151_Closed</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB151_Vpu</v>
       </c>
       <c r="H54" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB151_VLgood</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="21"/>
+        <v>CB151_MODBUS</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M54" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB151_VLgood</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="18"/>
-        <v>CB151_MODBUS</v>
-      </c>
-      <c r="K54" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=53,CBID:=151,Flow:=ADR(HMI1.Flow_151),Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
+        <v>(ID:=53,CBID:=151,Flow:=ADR(HMI1.Flow_151),Pscale:=1,Status:=ADR(HMI1.CB151_Closed),Vpu:=ADR(HMI1.CB151_Vpu),VLgood:=ADR(HMI1.CB151_VLgood)),</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -2689,36 +2646,35 @@
         <v>251</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_251</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB251_Closed</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB251_Vpu</v>
       </c>
       <c r="H55" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB251_VLgood</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="21"/>
+        <v>CB251_MODBUS</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M55" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB251_VLgood</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="18"/>
-        <v>CB251_MODBUS</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=54,CBID:=251,Flow:=ADR(HMI1.Flow_251),Status:=ADR(HMI1.CB251_Closed),Vpu:=ADR(HMI1.CB251_Vpu),VLgood:=ADR(HMI1.CB251_VLgood)),</v>
+        <v>(ID:=54,CBID:=251,Flow:=ADR(HMI1.Flow_251),Pscale:=1,Status:=ADR(HMI1.CB251_Closed),Vpu:=ADR(HMI1.CB251_Vpu),VLgood:=ADR(HMI1.CB251_VLgood)),</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -2729,32 +2685,35 @@
         <v>252</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_252</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB252_Closed</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB252_Vpu</v>
       </c>
       <c r="H56" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB252_VLgood</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="21"/>
+        <v>CB252_MODBUS</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M56" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB252_VLgood</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="18"/>
-        <v>CB252_MODBUS</v>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=55,CBID:=252,Flow:=ADR(HMI1.Flow_252),Status:=ADR(HMI1.CB252_Closed),Vpu:=ADR(HMI1.CB252_Vpu),VLgood:=ADR(HMI1.CB252_VLgood)),</v>
+        <v>(ID:=55,CBID:=252,Flow:=ADR(HMI1.Flow_252),Pscale:=1,Status:=ADR(HMI1.CB252_Closed),Vpu:=ADR(HMI1.CB252_Vpu),VLgood:=ADR(HMI1.CB252_VLgood)),</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -2765,32 +2724,35 @@
         <v>351</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_351</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB351_Closed</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB351_Vpu</v>
       </c>
       <c r="H57" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB351_VLgood</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="21"/>
+        <v>CB351_MODBUS</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M57" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB351_VLgood</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="18"/>
-        <v>CB351_MODBUS</v>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=56,CBID:=351,Flow:=ADR(HMI1.Flow_351),Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
+        <v>(ID:=56,CBID:=351,Flow:=ADR(HMI1.Flow_351),Pscale:=1,Status:=ADR(HMI1.CB351_Closed),Vpu:=ADR(HMI1.CB351_Vpu),VLgood:=ADR(HMI1.CB351_VLgood)),</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -2804,32 +2766,35 @@
         <v>451</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_451</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB451_Closed</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB451_Vpu</v>
       </c>
       <c r="H58" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB451_VLgood</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="21"/>
+        <v>CB451_MODBUS</v>
+      </c>
+      <c r="K58">
+        <v>20</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M58" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB451_VLgood</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="18"/>
-        <v>CB451_MODBUS</v>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M58" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=57,CBID:=451,Flow:=ADR(HMI1.Flow_451),Status:=ADR(HMI1.CB451_Closed),Vpu:=ADR(HMI1.CB451_Vpu),VLgood:=ADR(HMI1.CB451_VLgood)),</v>
+        <v>(ID:=57,CBID:=451,Flow:=ADR(HMI1.Flow_451),Pscale:=20,Status:=ADR(HMI1.CB451_Closed),Vpu:=ADR(HMI1.CB451_Vpu),VLgood:=ADR(HMI1.CB451_VLgood)),</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -2843,32 +2808,35 @@
         <v>452</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_452</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB452_Closed</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB452_Vpu</v>
       </c>
       <c r="H59" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB452_VLgood</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="21"/>
+        <v>CB452_MODBUS</v>
+      </c>
+      <c r="K59">
+        <v>20</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M59" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB452_VLgood</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="18"/>
-        <v>CB452_MODBUS</v>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M59" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=58,CBID:=452,Flow:=ADR(HMI1.Flow_452),Status:=ADR(HMI1.CB452_Closed),Vpu:=ADR(HMI1.CB452_Vpu),VLgood:=ADR(HMI1.CB452_VLgood)),</v>
+        <v>(ID:=58,CBID:=452,Flow:=ADR(HMI1.Flow_452),Pscale:=20,Status:=ADR(HMI1.CB452_Closed),Vpu:=ADR(HMI1.CB452_Vpu),VLgood:=ADR(HMI1.CB452_VLgood)),</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -2882,32 +2850,35 @@
         <v>453</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>HMI1.Flow_453</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>HMI1.CB453_Closed</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>HMI1.CB453_Vpu</v>
       </c>
       <c r="H60" t="str">
+        <f t="shared" si="11"/>
+        <v>HMI1.CB453_VLgood</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="21"/>
+        <v>CB453_MODBUS</v>
+      </c>
+      <c r="K60">
+        <v>20</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M60" t="str">
         <f t="shared" si="6"/>
-        <v>HMI1.CB453_VLgood</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="18"/>
-        <v>CB453_MODBUS</v>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M60" t="str">
-        <f t="shared" si="4"/>
-        <v>(ID:=59,CBID:=453,Flow:=ADR(HMI1.Flow_453),Status:=ADR(HMI1.CB453_Closed),Vpu:=ADR(HMI1.CB453_Vpu),VLgood:=ADR(HMI1.CB453_VLgood)),</v>
+        <v>(ID:=59,CBID:=453,Flow:=ADR(HMI1.Flow_453),Pscale:=20,Status:=ADR(HMI1.CB453_Closed),Vpu:=ADR(HMI1.CB453_Vpu),VLgood:=ADR(HMI1.CB453_VLgood)),</v>
       </c>
     </row>
   </sheetData>
@@ -7788,18 +7759,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E25"/>
+      <selection activeCell="F1" sqref="F1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7810,8 +7782,12 @@
         <f>CONCATENATE(A1, ".instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + ",B1,"])/kWMaxBANSHEE;")</f>
         <v>HMI1.Flow_I1.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 0])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="str">
+        <f>CONCATENATE(A1, ".q.validity := UDPBansheeRead.bWdgDataValid;")</f>
+        <v>HMI1.Flow_I1.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7822,8 +7798,12 @@
         <f t="shared" ref="E2:E25" si="0">CONCATENATE(A2, ".instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + ",B2,"])/kWMaxBANSHEE;")</f>
         <v>HMI1.Flow_I2.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 1])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F25" si="1">CONCATENATE(A2, ".q.validity := UDPBansheeRead.bWdgDataValid;")</f>
+        <v>HMI1.Flow_I2.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -7834,8 +7814,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_I3.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 2])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_I3.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -7846,8 +7830,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_I4.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 3])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_I4.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -7858,8 +7846,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_I5.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 4])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_I5.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -7870,8 +7862,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_I6.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 5])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_I6.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -7882,8 +7878,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_I7.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 6])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_I7.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -7894,8 +7894,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_I8.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 7])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_I8.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7906,8 +7910,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P1.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 8])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P1.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -7918,8 +7926,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P2.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 9])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P2.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -7930,8 +7942,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P3.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 10])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P3.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -7942,8 +7958,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P4.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 11])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P4.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -7954,8 +7974,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P5.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 12])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P5.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -7966,8 +7990,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P6.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 13])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P6.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -7978,8 +8006,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P7.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 14])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P7.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -7990,8 +8022,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_P8.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 15])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_P8.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -8002,8 +8038,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C1.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 16])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C1.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -8014,8 +8054,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C2.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 17])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C2.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -8026,8 +8070,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C3.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 18])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C3.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -8038,8 +8086,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C4.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 19])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C4.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -8050,8 +8102,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C5.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 20])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C5.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -8062,8 +8118,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C6.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 21])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C6.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -8074,8 +8134,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C7.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 22])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C7.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -8086,8 +8150,12 @@
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C8.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 23])/kWMaxBANSHEE;</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C8.q.validity := UDPBansheeRead.bWdgDataValid;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -8097,6 +8165,10 @@
       <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>HMI1.Flow_C9.instMag :=  INT_TO_REAL(UDPBansheeRead.i16_Raw[UDPBansheeRead.LOADS_REAL + 24])/kWMaxBANSHEE;</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>HMI1.Flow_C9.q.validity := UDPBansheeRead.bWdgDataValid;</v>
       </c>
     </row>
   </sheetData>

--- a/SimulationTools/RTAC/MGC_SEL_programming.xlsx
+++ b/SimulationTools/RTAC/MGC_SEL_programming.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="312" windowWidth="11016" windowHeight="8736" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="312" windowWidth="11016" windowHeight="8736"/>
   </bookViews>
   <sheets>
     <sheet name="HMI_signals" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M60"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,7 +2234,7 @@
         <v>CB310_MODBUS</v>
       </c>
       <c r="K44">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="12"/>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="6"/>
-        <v>(ID:=43,CBID:=310,Flow:=ADR(HMI1.Flow_310),Pscale:=20,Status:=ADR(HMI1.CB310_Closed),Vpu:=ADR(HMI1.CB310_Vpu),VLgood:=ADR(HMI1.CB310_VLgood)),</v>
+        <v>(ID:=43,CBID:=310,Flow:=ADR(HMI1.Flow_310),Pscale:=1,Status:=ADR(HMI1.CB310_Closed),Vpu:=ADR(HMI1.CB310_Vpu),VLgood:=ADR(HMI1.CB310_VLgood)),</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
@@ -7761,7 +7761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F25"/>
     </sheetView>
   </sheetViews>
